--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D2D546E-9184-4D42-BA43-6708DF7E8FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D629B-FD25-484D-97EC-602C5F5B6EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45700" yWindow="1300" windowWidth="27640" windowHeight="18020" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="79">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Actividad 14 Rungekutta</t>
+  </si>
+  <si>
+    <t>Revisar formatos y volver a subir puntos</t>
   </si>
 </sst>
 </file>
@@ -688,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
-  <dimension ref="B6:U98"/>
+  <dimension ref="B6:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="U76" sqref="U76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3690,14 +3693,30 @@
       <c r="M62" s="7">
         <v>5</v>
       </c>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
+      <c r="N62" s="7">
+        <v>5</v>
+      </c>
+      <c r="O62" s="7">
+        <v>5</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>5</v>
+      </c>
+      <c r="R62" s="7">
+        <v>5</v>
+      </c>
+      <c r="S62" s="7">
+        <v>5</v>
+      </c>
+      <c r="T62" s="7">
+        <v>1</v>
+      </c>
+      <c r="U62" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
@@ -3736,14 +3755,30 @@
       <c r="M63" s="7">
         <v>5</v>
       </c>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
+      <c r="N63" s="7">
+        <v>5</v>
+      </c>
+      <c r="O63" s="7">
+        <v>5</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>5</v>
+      </c>
+      <c r="R63" s="7">
+        <v>5</v>
+      </c>
+      <c r="S63" s="7">
+        <v>5</v>
+      </c>
+      <c r="T63" s="7">
+        <v>1</v>
+      </c>
+      <c r="U63" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
@@ -3795,11 +3830,11 @@
       </c>
       <c r="N64" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O64" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P64" s="7">
         <f t="shared" si="8"/>
@@ -3807,19 +3842,19 @@
       </c>
       <c r="Q64" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R64" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S64" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T64" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="7">
         <f t="shared" si="8"/>
@@ -3925,14 +3960,30 @@
       <c r="M68" s="7">
         <v>5</v>
       </c>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="7">
+        <v>0</v>
+      </c>
+      <c r="T68" s="7">
+        <v>5</v>
+      </c>
+      <c r="U68" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
@@ -3971,14 +4022,30 @@
       <c r="M69" s="7">
         <v>5</v>
       </c>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="7">
+        <v>0</v>
+      </c>
+      <c r="T69" s="7">
+        <v>5</v>
+      </c>
+      <c r="U69" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
@@ -4079,14 +4146,30 @@
       <c r="M73" s="7">
         <v>5</v>
       </c>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
+      <c r="N73" s="7">
+        <v>5</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+      <c r="P73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>0</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="7">
+        <v>0</v>
+      </c>
+      <c r="T73" s="7">
+        <v>1</v>
+      </c>
+      <c r="U73" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B74" s="10" t="s">
@@ -4125,14 +4208,30 @@
       <c r="M74" s="7">
         <v>5</v>
       </c>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
+      <c r="N74" s="7">
+        <v>5</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+      <c r="S74" s="7">
+        <v>0</v>
+      </c>
+      <c r="T74" s="7">
+        <v>1</v>
+      </c>
+      <c r="U74" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
@@ -4233,14 +4332,30 @@
       <c r="M77" s="7">
         <v>5</v>
       </c>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
+      <c r="N77" s="7">
+        <v>5</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>5</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7">
+        <v>5</v>
+      </c>
+      <c r="T77" s="7">
+        <v>5</v>
+      </c>
+      <c r="U77" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
@@ -4279,14 +4394,30 @@
       <c r="M78" s="7">
         <v>5</v>
       </c>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
+      <c r="N78" s="7">
+        <v>5</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="7">
+        <v>5</v>
+      </c>
+      <c r="T78" s="7">
+        <v>4</v>
+      </c>
+      <c r="U78" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
@@ -4325,14 +4456,30 @@
       <c r="M79" s="7">
         <v>5</v>
       </c>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
+      <c r="N79" s="7">
+        <v>5</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+      <c r="P79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7">
+        <v>5</v>
+      </c>
+      <c r="T79" s="7">
+        <v>2</v>
+      </c>
+      <c r="U79" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
@@ -4383,19 +4530,18 @@
       </c>
       <c r="N80" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O80" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P80" s="7">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q80" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="R80" s="7">
         <f t="shared" si="9"/>
@@ -4403,11 +4549,11 @@
       </c>
       <c r="S80" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T80" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="U80" s="7">
         <f t="shared" si="9"/>
@@ -4513,14 +4659,30 @@
       <c r="M83" s="7">
         <v>5</v>
       </c>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
+      <c r="N83" s="7">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>0</v>
+      </c>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="7">
+        <v>5</v>
+      </c>
+      <c r="T83" s="7">
+        <v>5</v>
+      </c>
+      <c r="U83" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
@@ -4559,14 +4721,30 @@
       <c r="M84" s="7">
         <v>5</v>
       </c>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>5</v>
+      </c>
+      <c r="P84" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>5</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0</v>
+      </c>
+      <c r="S84" s="7">
+        <v>0</v>
+      </c>
+      <c r="T84" s="7">
+        <v>0</v>
+      </c>
+      <c r="U84" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B85" s="7" t="s">
@@ -4605,14 +4783,30 @@
       <c r="M85" s="7">
         <v>5</v>
       </c>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
+      <c r="N85" s="7">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="7">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7">
+        <v>5</v>
+      </c>
+      <c r="U85" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
@@ -4667,27 +4861,25 @@
       </c>
       <c r="O86" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="P86" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q86" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="R86" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S86" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="T86" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="U86" s="7">
         <f t="shared" si="10"/>
@@ -4793,14 +4985,30 @@
       <c r="M89" s="7">
         <v>0</v>
       </c>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>5</v>
+      </c>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+      <c r="S89" s="7">
+        <v>0</v>
+      </c>
+      <c r="T89" s="7">
+        <v>0</v>
+      </c>
+      <c r="U89" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
@@ -4839,14 +5047,30 @@
       <c r="M90" s="7">
         <v>0</v>
       </c>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>5</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0</v>
+      </c>
+      <c r="S90" s="7">
+        <v>0</v>
+      </c>
+      <c r="T90" s="7">
+        <v>0</v>
+      </c>
+      <c r="U90" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
@@ -4885,14 +5109,30 @@
       <c r="M91" s="7">
         <v>0</v>
       </c>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
+      <c r="N91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+      <c r="P91" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>0</v>
+      </c>
+      <c r="R91" s="7">
+        <v>0</v>
+      </c>
+      <c r="S91" s="7">
+        <v>0</v>
+      </c>
+      <c r="T91" s="7">
+        <v>0</v>
+      </c>
+      <c r="U91" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
@@ -4931,14 +5171,30 @@
       <c r="M92" s="7">
         <v>0</v>
       </c>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7">
+        <v>0</v>
+      </c>
+      <c r="P92" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>0</v>
+      </c>
+      <c r="R92" s="7">
+        <v>0</v>
+      </c>
+      <c r="S92" s="7">
+        <v>0</v>
+      </c>
+      <c r="T92" s="7">
+        <v>0</v>
+      </c>
+      <c r="U92" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
@@ -4999,10 +5255,9 @@
       </c>
       <c r="Q93" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R93" s="7">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S93" s="7">
@@ -5068,11 +5323,11 @@
       </c>
       <c r="N98">
         <f>SUM(N12+N19+N29+N38+N44+N49+N54+N59+N64+N69+N74+N80+N86+N93)/14</f>
-        <v>1.8801020408163265</v>
+        <v>2.9515306122448979</v>
       </c>
       <c r="O98">
         <f>SUM(O12+O19+O29+O38+O44+O49+O54+O59+O64+O69+O74+O80+O86+O93)/14</f>
-        <v>2.3086734693877551</v>
+        <v>2.7848639455782309</v>
       </c>
       <c r="P98">
         <f>SUM(P12+P19+P29+P38+P44+P49+P54+P59+P64+P69+P74+P80+P86+P93)/14</f>
@@ -5080,23 +5335,28 @@
       </c>
       <c r="Q98">
         <f>SUM(Q12+Q19+Q29+Q38+Q44+Q49+Q54+Q59+Q64+Q69+Q74+Q80+Q86+Q93)/14</f>
-        <v>2.3086734693877551</v>
+        <v>3.0824829931972784</v>
       </c>
       <c r="R98">
         <f>SUM(R12+R19+R29+R38+R44+R49+R54+R59+R64+R69+R74+R80+R86+R93)/14</f>
-        <v>2.5705782312925174</v>
+        <v>2.9277210884353742</v>
       </c>
       <c r="S98">
         <f>SUM(S12+S19+S29+S38+S44+S49+S54+S59+S64+S69+S74+S80+S86+S93)/14</f>
-        <v>1.7515306122448979</v>
+        <v>2.5848639455782312</v>
       </c>
       <c r="T98">
         <f>SUM(T12+T19+T29+T38+T44+T49+T54+T59+T64+T69+T74+T80+T86+T93)/14</f>
-        <v>2.3869047619047623</v>
+        <v>3.3869047619047623</v>
       </c>
       <c r="U98">
         <f>SUM(U12+U19+U29+U38+U44+U49+U54+U59+U64+U69+U74+U80+U86+U93)/14</f>
         <v>0.78401360544217691</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T99" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9DCD4-9C12-5F44-A8ED-CCCBDF0891F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57237B5-7A64-5B42-A5CC-D67E902F5C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45020" yWindow="1660" windowWidth="27640" windowHeight="18020" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="45020" yWindow="1660" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
     <sheet name="Laboratorios" sheetId="2" r:id="rId2"/>
     <sheet name="Examens" sheetId="3" r:id="rId3"/>
+    <sheet name="TotalCurso" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -808,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -4987,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B4:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5079,11 +5080,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -5213,8 +5214,12 @@
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -5332,8 +5337,12 @@
       <c r="F11" s="16">
         <v>5</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
+      <c r="H11" s="16">
+        <v>5</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -5364,8 +5373,12 @@
       <c r="F12" s="16">
         <v>5</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="16">
+        <v>5</v>
+      </c>
+      <c r="H12" s="16">
+        <v>5</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -5396,8 +5409,12 @@
       <c r="F13" s="16">
         <v>5</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="16">
+        <v>5</v>
+      </c>
+      <c r="H13" s="16">
+        <v>5</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -5428,8 +5445,12 @@
       <c r="F14" s="16">
         <v>5</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="16">
+        <v>5</v>
+      </c>
+      <c r="H14" s="16">
+        <v>5</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -5460,8 +5481,12 @@
       <c r="F15" s="16">
         <v>5</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="16">
+        <v>5</v>
+      </c>
+      <c r="H15" s="16">
+        <v>5</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -5492,8 +5517,12 @@
       <c r="F16" s="16">
         <v>5</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="16">
+        <v>5</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -5524,8 +5553,12 @@
       <c r="F17" s="16">
         <v>5</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="G17" s="16">
+        <v>5</v>
+      </c>
+      <c r="H17" s="16">
+        <v>5</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -5556,8 +5589,12 @@
       <c r="F18" s="16">
         <v>0</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="G18" s="16">
+        <v>5</v>
+      </c>
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -5594,11 +5631,11 @@
       </c>
       <c r="G19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="1"/>
@@ -5693,8 +5730,12 @@
       <c r="F21" s="16">
         <v>5</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="G21" s="16">
+        <v>5</v>
+      </c>
+      <c r="H21" s="16">
+        <v>5</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
@@ -5725,8 +5766,12 @@
       <c r="F22" s="16">
         <v>5</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="16">
+        <v>5</v>
+      </c>
+      <c r="H22" s="16">
+        <v>5</v>
+      </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
@@ -5757,8 +5802,12 @@
       <c r="F23" s="16">
         <v>5</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="16">
+        <v>5</v>
+      </c>
+      <c r="H23" s="16">
+        <v>5</v>
+      </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
@@ -5795,11 +5844,11 @@
       </c>
       <c r="G24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="2"/>
@@ -5894,8 +5943,12 @@
       <c r="F26" s="16">
         <v>5</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="G26" s="16">
+        <v>5</v>
+      </c>
+      <c r="H26" s="16">
+        <v>5</v>
+      </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
@@ -5926,8 +5979,12 @@
       <c r="F27" s="16">
         <v>5</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="16">
+        <v>5</v>
+      </c>
+      <c r="H27" s="16">
+        <v>5</v>
+      </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
@@ -5964,11 +6021,11 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="3"/>
@@ -6063,8 +6120,12 @@
       <c r="F30" s="16">
         <v>5</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="G30" s="16">
+        <v>5</v>
+      </c>
+      <c r="H30" s="16">
+        <v>5</v>
+      </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
@@ -6095,8 +6156,12 @@
       <c r="F31" s="16">
         <v>5</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="G31" s="16">
+        <v>5</v>
+      </c>
+      <c r="H31" s="16">
+        <v>5</v>
+      </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
@@ -6127,8 +6192,12 @@
       <c r="F32" s="16">
         <v>5</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="G32" s="16">
+        <v>5</v>
+      </c>
+      <c r="H32" s="16">
+        <v>5</v>
+      </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
@@ -6159,8 +6228,12 @@
       <c r="F33" s="16">
         <v>5</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="G33" s="16">
+        <v>5</v>
+      </c>
+      <c r="H33" s="16">
+        <v>5</v>
+      </c>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
@@ -6191,8 +6264,12 @@
       <c r="F34" s="16">
         <v>5</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="G34" s="16">
+        <v>5</v>
+      </c>
+      <c r="H34" s="16">
+        <v>5</v>
+      </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
@@ -6229,11 +6306,11 @@
       </c>
       <c r="G35" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35" s="14">
         <f t="shared" si="4"/>
@@ -6328,8 +6405,12 @@
       <c r="F37" s="16">
         <v>5</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="G37" s="16">
+        <v>0</v>
+      </c>
+      <c r="H37" s="16">
+        <v>5</v>
+      </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
@@ -6360,8 +6441,12 @@
       <c r="F38" s="16">
         <v>5</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="G38" s="16">
+        <v>0</v>
+      </c>
+      <c r="H38" s="16">
+        <v>5</v>
+      </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
@@ -6392,8 +6477,12 @@
       <c r="F39" s="16">
         <v>5</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <v>5</v>
+      </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
@@ -6424,8 +6513,12 @@
       <c r="F40" s="16">
         <v>5</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <v>5</v>
+      </c>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
@@ -6466,7 +6559,7 @@
       </c>
       <c r="H41" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="5"/>
@@ -6561,8 +6654,12 @@
       <c r="F43" s="16">
         <v>5</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
+      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <v>5</v>
+      </c>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
@@ -6593,8 +6690,12 @@
       <c r="F44" s="16">
         <v>5</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>5</v>
+      </c>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
@@ -6625,8 +6726,12 @@
       <c r="F45" s="16">
         <v>5</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <v>5</v>
+      </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
@@ -6657,8 +6762,12 @@
       <c r="F46" s="16">
         <v>5</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+      <c r="H46" s="16">
+        <v>5</v>
+      </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
@@ -6698,7 +6807,7 @@
       </c>
       <c r="H47" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I47" s="14">
         <f t="shared" si="6"/>
@@ -6793,7 +6902,9 @@
       <c r="F49" s="16">
         <v>0</v>
       </c>
-      <c r="G49" s="16"/>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
@@ -7019,11 +7130,11 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="8"/>
@@ -7093,4 +7204,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57237B5-7A64-5B42-A5CC-D67E902F5C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C45EFFD-8355-524B-B29E-CD9A281A3830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45020" yWindow="1660" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="44500" yWindow="1620" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B4:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5088,23 +5088,23 @@
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6875</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5220,11 +5220,21 @@
       <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -5343,11 +5353,21 @@
       <c r="H11" s="16">
         <v>5</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="I11" s="16">
+        <v>5</v>
+      </c>
+      <c r="J11" s="16">
+        <v>5</v>
+      </c>
+      <c r="K11" s="16">
+        <v>5</v>
+      </c>
+      <c r="L11" s="16">
+        <v>5</v>
+      </c>
+      <c r="M11" s="16">
+        <v>5</v>
+      </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
@@ -5379,11 +5399,21 @@
       <c r="H12" s="16">
         <v>5</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="I12" s="16">
+        <v>5</v>
+      </c>
+      <c r="J12" s="16">
+        <v>5</v>
+      </c>
+      <c r="K12" s="16">
+        <v>5</v>
+      </c>
+      <c r="L12" s="16">
+        <v>5</v>
+      </c>
+      <c r="M12" s="16">
+        <v>5</v>
+      </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -5415,11 +5445,21 @@
       <c r="H13" s="16">
         <v>5</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="I13" s="16">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16">
+        <v>5</v>
+      </c>
+      <c r="K13" s="16">
+        <v>5</v>
+      </c>
+      <c r="L13" s="16">
+        <v>5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>5</v>
+      </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -5451,11 +5491,21 @@
       <c r="H14" s="16">
         <v>5</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="I14" s="16">
+        <v>5</v>
+      </c>
+      <c r="J14" s="16">
+        <v>5</v>
+      </c>
+      <c r="K14" s="16">
+        <v>5</v>
+      </c>
+      <c r="L14" s="16">
+        <v>5</v>
+      </c>
+      <c r="M14" s="16">
+        <v>5</v>
+      </c>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -5487,11 +5537,21 @@
       <c r="H15" s="16">
         <v>5</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="I15" s="16">
+        <v>5</v>
+      </c>
+      <c r="J15" s="16">
+        <v>5</v>
+      </c>
+      <c r="K15" s="16">
+        <v>5</v>
+      </c>
+      <c r="L15" s="16">
+        <v>5</v>
+      </c>
+      <c r="M15" s="16">
+        <v>5</v>
+      </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
@@ -5523,11 +5583,21 @@
       <c r="H16" s="16">
         <v>5</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="I16" s="16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="16">
+        <v>5</v>
+      </c>
+      <c r="K16" s="16">
+        <v>5</v>
+      </c>
+      <c r="L16" s="16">
+        <v>5</v>
+      </c>
+      <c r="M16" s="16">
+        <v>5</v>
+      </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
@@ -5559,11 +5629,21 @@
       <c r="H17" s="16">
         <v>5</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="I17" s="16">
+        <v>5</v>
+      </c>
+      <c r="J17" s="16">
+        <v>5</v>
+      </c>
+      <c r="K17" s="16">
+        <v>5</v>
+      </c>
+      <c r="L17" s="16">
+        <v>5</v>
+      </c>
+      <c r="M17" s="16">
+        <v>5</v>
+      </c>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
@@ -5595,11 +5675,21 @@
       <c r="H18" s="16">
         <v>5</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="I18" s="16">
+        <v>5</v>
+      </c>
+      <c r="J18" s="16">
+        <v>5</v>
+      </c>
+      <c r="K18" s="16">
+        <v>5</v>
+      </c>
+      <c r="L18" s="16">
+        <v>5</v>
+      </c>
+      <c r="M18" s="16">
+        <v>5</v>
+      </c>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
@@ -5639,23 +5729,23 @@
       </c>
       <c r="I19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" si="1"/>
@@ -5736,11 +5826,21 @@
       <c r="H21" s="16">
         <v>5</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
+      <c r="I21" s="16">
+        <v>5</v>
+      </c>
+      <c r="J21" s="16">
+        <v>5</v>
+      </c>
+      <c r="K21" s="16">
+        <v>5</v>
+      </c>
+      <c r="L21" s="16">
+        <v>5</v>
+      </c>
+      <c r="M21" s="16">
+        <v>5</v>
+      </c>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
@@ -5772,11 +5872,21 @@
       <c r="H22" s="16">
         <v>5</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
+      <c r="I22" s="16">
+        <v>5</v>
+      </c>
+      <c r="J22" s="16">
+        <v>5</v>
+      </c>
+      <c r="K22" s="16">
+        <v>5</v>
+      </c>
+      <c r="L22" s="16">
+        <v>5</v>
+      </c>
+      <c r="M22" s="16">
+        <v>5</v>
+      </c>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -5808,11 +5918,21 @@
       <c r="H23" s="16">
         <v>5</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="I23" s="16">
+        <v>5</v>
+      </c>
+      <c r="J23" s="16">
+        <v>5</v>
+      </c>
+      <c r="K23" s="16">
+        <v>5</v>
+      </c>
+      <c r="L23" s="16">
+        <v>5</v>
+      </c>
+      <c r="M23" s="16">
+        <v>5</v>
+      </c>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -5852,23 +5972,23 @@
       </c>
       <c r="I24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N24" s="14">
         <f t="shared" si="2"/>
@@ -5949,11 +6069,21 @@
       <c r="H26" s="16">
         <v>5</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>5</v>
+      </c>
+      <c r="K26" s="16">
+        <v>5</v>
+      </c>
+      <c r="L26" s="16">
+        <v>5</v>
+      </c>
+      <c r="M26" s="16">
+        <v>5</v>
+      </c>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -5985,11 +6115,21 @@
       <c r="H27" s="16">
         <v>5</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>2</v>
+      </c>
+      <c r="K27" s="16">
+        <v>5</v>
+      </c>
+      <c r="L27" s="16">
+        <v>5</v>
+      </c>
+      <c r="M27" s="16">
+        <v>5</v>
+      </c>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -6033,19 +6173,19 @@
       </c>
       <c r="J28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="14">
         <f t="shared" si="3"/>
@@ -6126,11 +6266,21 @@
       <c r="H30" s="16">
         <v>5</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="I30" s="16">
+        <v>5</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>5</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>5</v>
+      </c>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
@@ -6162,11 +6312,21 @@
       <c r="H31" s="16">
         <v>5</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="I31" s="16">
+        <v>5</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>5</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>5</v>
+      </c>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
@@ -6198,11 +6358,21 @@
       <c r="H32" s="16">
         <v>5</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="I32" s="16">
+        <v>5</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>5</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>5</v>
+      </c>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
@@ -6234,11 +6404,21 @@
       <c r="H33" s="16">
         <v>5</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
+      <c r="I33" s="16">
+        <v>5</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>5</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>5</v>
+      </c>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
@@ -6270,11 +6450,21 @@
       <c r="H34" s="16">
         <v>5</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
+      <c r="I34" s="16">
+        <v>5</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>5</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <v>5</v>
+      </c>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
@@ -6314,7 +6504,7 @@
       </c>
       <c r="I35" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="4"/>
@@ -6322,7 +6512,7 @@
       </c>
       <c r="K35" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" s="14">
         <f t="shared" si="4"/>
@@ -6330,7 +6520,7 @@
       </c>
       <c r="M35" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N35" s="14">
         <f t="shared" si="4"/>
@@ -6411,11 +6601,21 @@
       <c r="H37" s="16">
         <v>5</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
+      <c r="I37" s="16">
+        <v>5</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>5</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
+        <v>5</v>
+      </c>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
@@ -6447,11 +6647,21 @@
       <c r="H38" s="16">
         <v>5</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
+      <c r="I38" s="16">
+        <v>5</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>5</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0</v>
+      </c>
+      <c r="M38" s="16">
+        <v>5</v>
+      </c>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
@@ -6483,11 +6693,21 @@
       <c r="H39" s="16">
         <v>5</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
+      <c r="I39" s="16">
+        <v>5</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <v>5</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16">
+        <v>5</v>
+      </c>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
@@ -6519,11 +6739,21 @@
       <c r="H40" s="16">
         <v>5</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+      <c r="I40" s="16">
+        <v>5</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <v>5</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16">
+        <v>5</v>
+      </c>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
@@ -6563,7 +6793,7 @@
       </c>
       <c r="I41" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="5"/>
@@ -6571,7 +6801,7 @@
       </c>
       <c r="K41" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" s="14">
         <f t="shared" si="5"/>
@@ -6579,7 +6809,7 @@
       </c>
       <c r="M41" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N41" s="14">
         <f t="shared" si="5"/>
@@ -6660,11 +6890,21 @@
       <c r="H43" s="16">
         <v>5</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
+      <c r="I43" s="16">
+        <v>5</v>
+      </c>
+      <c r="J43" s="16">
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
+        <v>5</v>
+      </c>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
@@ -6696,11 +6936,21 @@
       <c r="H44" s="16">
         <v>5</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
+      <c r="I44" s="16">
+        <v>5</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <v>0</v>
+      </c>
+      <c r="L44" s="16">
+        <v>0</v>
+      </c>
+      <c r="M44" s="16">
+        <v>5</v>
+      </c>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
@@ -6732,11 +6982,21 @@
       <c r="H45" s="16">
         <v>5</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
+      <c r="I45" s="16">
+        <v>5</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
+        <v>5</v>
+      </c>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
@@ -6768,11 +7028,21 @@
       <c r="H46" s="16">
         <v>5</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
+      <c r="I46" s="16">
+        <v>5</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0</v>
+      </c>
+      <c r="L46" s="16">
+        <v>0</v>
+      </c>
+      <c r="M46" s="16">
+        <v>5</v>
+      </c>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
@@ -6811,7 +7081,7 @@
       </c>
       <c r="I47" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" si="6"/>
@@ -6827,7 +7097,7 @@
       </c>
       <c r="M47" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N47" s="14">
         <f t="shared" si="6"/>
@@ -6906,11 +7176,21 @@
         <v>0</v>
       </c>
       <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
+        <v>0</v>
+      </c>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
@@ -7138,23 +7418,23 @@
       </c>
       <c r="I54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>2.0555555555555554</v>
       </c>
       <c r="K54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="L54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="M54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="N54" s="3">
         <f t="shared" si="8"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C45EFFD-8355-524B-B29E-CD9A281A3830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF97D43-B686-F847-AAA2-741AD69E6FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44500" yWindow="1620" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B4:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
@@ -5235,7 +5235,9 @@
       <c r="M8" s="3">
         <v>5</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <v>5</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -5368,7 +5370,9 @@
       <c r="M11" s="16">
         <v>5</v>
       </c>
-      <c r="N11" s="16"/>
+      <c r="N11" s="16">
+        <v>5</v>
+      </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -5414,7 +5418,9 @@
       <c r="M12" s="16">
         <v>5</v>
       </c>
-      <c r="N12" s="16"/>
+      <c r="N12" s="16">
+        <v>5</v>
+      </c>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -5460,7 +5466,9 @@
       <c r="M13" s="16">
         <v>5</v>
       </c>
-      <c r="N13" s="16"/>
+      <c r="N13" s="16">
+        <v>5</v>
+      </c>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
@@ -5506,7 +5514,9 @@
       <c r="M14" s="16">
         <v>5</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="16">
+        <v>5</v>
+      </c>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
@@ -5552,7 +5562,9 @@
       <c r="M15" s="16">
         <v>5</v>
       </c>
-      <c r="N15" s="16"/>
+      <c r="N15" s="16">
+        <v>5</v>
+      </c>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
@@ -5598,7 +5610,9 @@
       <c r="M16" s="16">
         <v>5</v>
       </c>
-      <c r="N16" s="16"/>
+      <c r="N16" s="16">
+        <v>5</v>
+      </c>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -5644,7 +5658,9 @@
       <c r="M17" s="16">
         <v>5</v>
       </c>
-      <c r="N17" s="16"/>
+      <c r="N17" s="16">
+        <v>5</v>
+      </c>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
@@ -5690,7 +5706,9 @@
       <c r="M18" s="16">
         <v>5</v>
       </c>
-      <c r="N18" s="16"/>
+      <c r="N18" s="16">
+        <v>5</v>
+      </c>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
@@ -5749,7 +5767,7 @@
       </c>
       <c r="N19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="14">
         <f t="shared" si="1"/>
@@ -5841,7 +5859,9 @@
       <c r="M21" s="16">
         <v>5</v>
       </c>
-      <c r="N21" s="16"/>
+      <c r="N21" s="16">
+        <v>5</v>
+      </c>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
@@ -5887,7 +5907,9 @@
       <c r="M22" s="16">
         <v>5</v>
       </c>
-      <c r="N22" s="16"/>
+      <c r="N22" s="16">
+        <v>5</v>
+      </c>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
@@ -5933,7 +5955,9 @@
       <c r="M23" s="16">
         <v>5</v>
       </c>
-      <c r="N23" s="16"/>
+      <c r="N23" s="16">
+        <v>5</v>
+      </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
@@ -5992,7 +6016,7 @@
       </c>
       <c r="N24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O24" s="14">
         <f t="shared" si="2"/>
@@ -6084,7 +6108,9 @@
       <c r="M26" s="16">
         <v>5</v>
       </c>
-      <c r="N26" s="16"/>
+      <c r="N26" s="16">
+        <v>5</v>
+      </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
@@ -6130,7 +6156,9 @@
       <c r="M27" s="16">
         <v>5</v>
       </c>
-      <c r="N27" s="16"/>
+      <c r="N27" s="16">
+        <v>5</v>
+      </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -6189,7 +6217,7 @@
       </c>
       <c r="N28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O28" s="14">
         <f t="shared" si="3"/>
@@ -6281,7 +6309,9 @@
       <c r="M30" s="16">
         <v>5</v>
       </c>
-      <c r="N30" s="16"/>
+      <c r="N30" s="16">
+        <v>5</v>
+      </c>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
@@ -6327,7 +6357,9 @@
       <c r="M31" s="16">
         <v>5</v>
       </c>
-      <c r="N31" s="16"/>
+      <c r="N31" s="16">
+        <v>5</v>
+      </c>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
@@ -6373,7 +6405,9 @@
       <c r="M32" s="16">
         <v>5</v>
       </c>
-      <c r="N32" s="16"/>
+      <c r="N32" s="16">
+        <v>5</v>
+      </c>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
@@ -6419,7 +6453,9 @@
       <c r="M33" s="16">
         <v>5</v>
       </c>
-      <c r="N33" s="16"/>
+      <c r="N33" s="16">
+        <v>5</v>
+      </c>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
@@ -6465,7 +6501,9 @@
       <c r="M34" s="16">
         <v>5</v>
       </c>
-      <c r="N34" s="16"/>
+      <c r="N34" s="16">
+        <v>5</v>
+      </c>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
@@ -6524,7 +6562,7 @@
       </c>
       <c r="N35" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O35" s="14">
         <f t="shared" si="4"/>
@@ -6616,7 +6654,9 @@
       <c r="M37" s="16">
         <v>5</v>
       </c>
-      <c r="N37" s="16"/>
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
@@ -6662,7 +6702,9 @@
       <c r="M38" s="16">
         <v>5</v>
       </c>
-      <c r="N38" s="16"/>
+      <c r="N38" s="16">
+        <v>0</v>
+      </c>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
@@ -6708,7 +6750,9 @@
       <c r="M39" s="16">
         <v>5</v>
       </c>
-      <c r="N39" s="16"/>
+      <c r="N39" s="16">
+        <v>0</v>
+      </c>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
@@ -6754,7 +6798,9 @@
       <c r="M40" s="16">
         <v>5</v>
       </c>
-      <c r="N40" s="16"/>
+      <c r="N40" s="16">
+        <v>0</v>
+      </c>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
@@ -6905,7 +6951,9 @@
       <c r="M43" s="16">
         <v>5</v>
       </c>
-      <c r="N43" s="16"/>
+      <c r="N43" s="16">
+        <v>0</v>
+      </c>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
@@ -6951,7 +6999,9 @@
       <c r="M44" s="16">
         <v>5</v>
       </c>
-      <c r="N44" s="16"/>
+      <c r="N44" s="16">
+        <v>0</v>
+      </c>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
@@ -6997,7 +7047,9 @@
       <c r="M45" s="16">
         <v>5</v>
       </c>
-      <c r="N45" s="16"/>
+      <c r="N45" s="16">
+        <v>0</v>
+      </c>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
@@ -7043,7 +7095,9 @@
       <c r="M46" s="16">
         <v>5</v>
       </c>
-      <c r="N46" s="16"/>
+      <c r="N46" s="16">
+        <v>0</v>
+      </c>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
@@ -7191,7 +7245,9 @@
       <c r="M49" s="16">
         <v>0</v>
       </c>
-      <c r="N49" s="16"/>
+      <c r="N49" s="16">
+        <v>0</v>
+      </c>
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
@@ -7438,7 +7494,7 @@
       </c>
       <c r="N54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="O54" s="3">
         <f t="shared" si="8"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF97D43-B686-F847-AAA2-741AD69E6FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AC2E8F-FF57-1E4C-9572-C90B6623E953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44500" yWindow="1620" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="43880" yWindow="1940" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B4:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4375</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -5373,7 +5373,9 @@
       <c r="N11" s="16">
         <v>5</v>
       </c>
-      <c r="O11" s="16"/>
+      <c r="O11" s="16">
+        <v>5</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
@@ -5421,7 +5423,9 @@
       <c r="N12" s="16">
         <v>5</v>
       </c>
-      <c r="O12" s="16"/>
+      <c r="O12" s="16">
+        <v>5</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
@@ -5469,7 +5473,9 @@
       <c r="N13" s="16">
         <v>5</v>
       </c>
-      <c r="O13" s="16"/>
+      <c r="O13" s="16">
+        <v>5</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
@@ -5517,7 +5523,9 @@
       <c r="N14" s="16">
         <v>5</v>
       </c>
-      <c r="O14" s="16"/>
+      <c r="O14" s="16">
+        <v>5</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
@@ -5565,7 +5573,9 @@
       <c r="N15" s="16">
         <v>5</v>
       </c>
-      <c r="O15" s="16"/>
+      <c r="O15" s="16">
+        <v>5</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
@@ -5613,7 +5623,9 @@
       <c r="N16" s="16">
         <v>5</v>
       </c>
-      <c r="O16" s="16"/>
+      <c r="O16" s="16">
+        <v>5</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
@@ -5661,7 +5673,9 @@
       <c r="N17" s="16">
         <v>5</v>
       </c>
-      <c r="O17" s="16"/>
+      <c r="O17" s="16">
+        <v>5</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
@@ -5709,7 +5723,9 @@
       <c r="N18" s="16">
         <v>5</v>
       </c>
-      <c r="O18" s="16"/>
+      <c r="O18" s="16">
+        <v>5</v>
+      </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
@@ -5771,7 +5787,7 @@
       </c>
       <c r="O19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P19" s="14">
         <f t="shared" si="1"/>
@@ -5862,7 +5878,9 @@
       <c r="N21" s="16">
         <v>5</v>
       </c>
-      <c r="O21" s="16"/>
+      <c r="O21" s="16">
+        <v>5</v>
+      </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -5910,7 +5928,9 @@
       <c r="N22" s="16">
         <v>5</v>
       </c>
-      <c r="O22" s="16"/>
+      <c r="O22" s="16">
+        <v>5</v>
+      </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
@@ -5958,7 +5978,9 @@
       <c r="N23" s="16">
         <v>5</v>
       </c>
-      <c r="O23" s="16"/>
+      <c r="O23" s="16">
+        <v>5</v>
+      </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
@@ -6020,7 +6042,7 @@
       </c>
       <c r="O24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P24" s="14">
         <f t="shared" si="2"/>
@@ -6111,7 +6133,9 @@
       <c r="N26" s="16">
         <v>5</v>
       </c>
-      <c r="O26" s="16"/>
+      <c r="O26" s="16">
+        <v>5</v>
+      </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
@@ -6159,7 +6183,9 @@
       <c r="N27" s="16">
         <v>5</v>
       </c>
-      <c r="O27" s="16"/>
+      <c r="O27" s="16">
+        <v>2</v>
+      </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
@@ -6221,7 +6247,7 @@
       </c>
       <c r="O28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="P28" s="14">
         <f t="shared" si="3"/>
@@ -6312,7 +6338,9 @@
       <c r="N30" s="16">
         <v>5</v>
       </c>
-      <c r="O30" s="16"/>
+      <c r="O30" s="16">
+        <v>5</v>
+      </c>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -6360,7 +6388,9 @@
       <c r="N31" s="16">
         <v>5</v>
       </c>
-      <c r="O31" s="16"/>
+      <c r="O31" s="16">
+        <v>5</v>
+      </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
@@ -6408,7 +6438,9 @@
       <c r="N32" s="16">
         <v>5</v>
       </c>
-      <c r="O32" s="16"/>
+      <c r="O32" s="16">
+        <v>5</v>
+      </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
@@ -6456,7 +6488,9 @@
       <c r="N33" s="16">
         <v>5</v>
       </c>
-      <c r="O33" s="16"/>
+      <c r="O33" s="16">
+        <v>5</v>
+      </c>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
@@ -6504,7 +6538,9 @@
       <c r="N34" s="16">
         <v>5</v>
       </c>
-      <c r="O34" s="16"/>
+      <c r="O34" s="16">
+        <v>5</v>
+      </c>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
@@ -6566,7 +6602,7 @@
       </c>
       <c r="O35" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P35" s="14">
         <f t="shared" si="4"/>
@@ -6657,7 +6693,9 @@
       <c r="N37" s="16">
         <v>0</v>
       </c>
-      <c r="O37" s="16"/>
+      <c r="O37" s="16">
+        <v>5</v>
+      </c>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -6705,7 +6743,9 @@
       <c r="N38" s="16">
         <v>0</v>
       </c>
-      <c r="O38" s="16"/>
+      <c r="O38" s="16">
+        <v>5</v>
+      </c>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -6753,7 +6793,9 @@
       <c r="N39" s="16">
         <v>0</v>
       </c>
-      <c r="O39" s="16"/>
+      <c r="O39" s="16">
+        <v>5</v>
+      </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -6801,7 +6843,9 @@
       <c r="N40" s="16">
         <v>0</v>
       </c>
-      <c r="O40" s="16"/>
+      <c r="O40" s="16">
+        <v>5</v>
+      </c>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -6863,7 +6907,7 @@
       </c>
       <c r="O41" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P41" s="14">
         <f t="shared" si="5"/>
@@ -6954,7 +6998,9 @@
       <c r="N43" s="16">
         <v>0</v>
       </c>
-      <c r="O43" s="16"/>
+      <c r="O43" s="16">
+        <v>5</v>
+      </c>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
@@ -7002,7 +7048,9 @@
       <c r="N44" s="16">
         <v>0</v>
       </c>
-      <c r="O44" s="16"/>
+      <c r="O44" s="16">
+        <v>5</v>
+      </c>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
@@ -7050,7 +7098,9 @@
       <c r="N45" s="16">
         <v>0</v>
       </c>
-      <c r="O45" s="16"/>
+      <c r="O45" s="16">
+        <v>3</v>
+      </c>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
@@ -7098,7 +7148,9 @@
       <c r="N46" s="16">
         <v>0</v>
       </c>
-      <c r="O46" s="16"/>
+      <c r="O46" s="16">
+        <v>3</v>
+      </c>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
@@ -7159,7 +7211,7 @@
       </c>
       <c r="O47" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P47" s="14">
         <f t="shared" si="6"/>
@@ -7248,7 +7300,9 @@
       <c r="N49" s="16">
         <v>0</v>
       </c>
-      <c r="O49" s="16"/>
+      <c r="O49" s="16">
+        <v>0</v>
+      </c>
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
@@ -7498,7 +7552,7 @@
       </c>
       <c r="O54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>3.6111111111111112</v>
       </c>
       <c r="P54" s="3">
         <f t="shared" si="8"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AC2E8F-FF57-1E4C-9572-C90B6623E953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C669647-40CA-8443-8799-773FCE314625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43880" yWindow="1940" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B4:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5063,64 +5063,64 @@
         <v>98</v>
       </c>
       <c r="C5">
-        <f>(C19+C24+C28+C35+C41+C47+C50+C52)/8</f>
-        <v>4.375</v>
+        <f>(C19+C24+C28+C35+C41+C47+C50+C52+C9)/9</f>
+        <v>4.4444444444444446</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:U5" si="0">(D19+D24+D28+D35+D41+D47+D50+D52)/8</f>
-        <v>4.0625</v>
+        <f t="shared" ref="D5:U5" si="0">(D19+D24+D28+D35+D41+D47+D50+D52+D9)/9</f>
+        <v>4.166666666666667</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2.78125</v>
+        <v>3.0277777777777777</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>3.671875</v>
+        <v>3.8194444444444446</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>3.125</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>1.6875</v>
+        <v>2.0555555555555554</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3.125</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>1.875</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>3.4375</v>
+        <v>3.6111111111111112</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2222222222222223</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
@@ -5239,8 +5239,12 @@
         <v>5</v>
       </c>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>5</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -5291,23 +5295,15 @@
         <v>5</v>
       </c>
       <c r="P9" s="14">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" s="14">
         <v>5</v>
       </c>
-      <c r="R9" s="14">
-        <v>5</v>
-      </c>
-      <c r="S9" s="14">
-        <v>5</v>
-      </c>
-      <c r="T9" s="14">
-        <v>5</v>
-      </c>
-      <c r="U9" s="14">
-        <v>5</v>
-      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
@@ -5376,8 +5372,12 @@
       <c r="O11" s="16">
         <v>5</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>5</v>
+      </c>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
@@ -5426,8 +5426,12 @@
       <c r="O12" s="16">
         <v>5</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>5</v>
+      </c>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
@@ -5476,8 +5480,12 @@
       <c r="O13" s="16">
         <v>5</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>5</v>
+      </c>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
@@ -5526,8 +5534,12 @@
       <c r="O14" s="16">
         <v>5</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>5</v>
+      </c>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
@@ -5576,8 +5588,12 @@
       <c r="O15" s="16">
         <v>5</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>5</v>
+      </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
@@ -5626,8 +5642,12 @@
       <c r="O16" s="16">
         <v>5</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="P16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>5</v>
+      </c>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
@@ -5676,8 +5696,12 @@
       <c r="O17" s="16">
         <v>5</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
+      <c r="P17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>5</v>
+      </c>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
@@ -5726,8 +5750,12 @@
       <c r="O18" s="16">
         <v>5</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="P18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>5</v>
+      </c>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
@@ -5795,7 +5823,7 @@
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R19" s="14">
         <f t="shared" si="1"/>
@@ -5881,8 +5909,12 @@
       <c r="O21" s="16">
         <v>5</v>
       </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
+      <c r="P21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>5</v>
+      </c>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
@@ -5931,8 +5963,12 @@
       <c r="O22" s="16">
         <v>5</v>
       </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
+      <c r="P22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>5</v>
+      </c>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
@@ -5981,8 +6017,12 @@
       <c r="O23" s="16">
         <v>5</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
+      <c r="P23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>5</v>
+      </c>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
@@ -6050,7 +6090,7 @@
       </c>
       <c r="Q24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R24" s="14">
         <f t="shared" si="2"/>
@@ -6136,8 +6176,12 @@
       <c r="O26" s="16">
         <v>5</v>
       </c>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>5</v>
+      </c>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
@@ -6186,8 +6230,12 @@
       <c r="O27" s="16">
         <v>2</v>
       </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
+      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>5</v>
+      </c>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
@@ -6255,7 +6303,7 @@
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R28" s="14">
         <f t="shared" si="3"/>
@@ -6341,8 +6389,12 @@
       <c r="O30" s="16">
         <v>5</v>
       </c>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
+      <c r="P30" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>5</v>
+      </c>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
@@ -6391,8 +6443,12 @@
       <c r="O31" s="16">
         <v>5</v>
       </c>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
+      <c r="P31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>5</v>
+      </c>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
@@ -6441,8 +6497,12 @@
       <c r="O32" s="16">
         <v>5</v>
       </c>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
+      <c r="P32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>5</v>
+      </c>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
@@ -6491,8 +6551,12 @@
       <c r="O33" s="16">
         <v>5</v>
       </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
+      <c r="P33" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>5</v>
+      </c>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
@@ -6541,8 +6605,12 @@
       <c r="O34" s="16">
         <v>5</v>
       </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
+      <c r="P34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>5</v>
+      </c>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
@@ -6610,7 +6678,7 @@
       </c>
       <c r="Q35" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R35" s="14">
         <f t="shared" si="4"/>
@@ -6696,8 +6764,12 @@
       <c r="O37" s="16">
         <v>5</v>
       </c>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
+      <c r="P37" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>4</v>
+      </c>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
@@ -6746,8 +6818,12 @@
       <c r="O38" s="16">
         <v>5</v>
       </c>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
+      <c r="P38" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>4</v>
+      </c>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
@@ -6796,8 +6872,12 @@
       <c r="O39" s="16">
         <v>5</v>
       </c>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
+      <c r="P39" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>4</v>
+      </c>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
@@ -6846,8 +6926,12 @@
       <c r="O40" s="16">
         <v>5</v>
       </c>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+      <c r="P40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>4</v>
+      </c>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
@@ -6915,7 +6999,7 @@
       </c>
       <c r="Q41" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R41" s="14">
         <f t="shared" si="5"/>
@@ -7001,8 +7085,12 @@
       <c r="O43" s="16">
         <v>5</v>
       </c>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
+      <c r="P43" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>0</v>
+      </c>
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
       <c r="T43" s="16"/>
@@ -7051,8 +7139,12 @@
       <c r="O44" s="16">
         <v>5</v>
       </c>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
+      <c r="P44" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>0</v>
+      </c>
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
@@ -7101,8 +7193,12 @@
       <c r="O45" s="16">
         <v>3</v>
       </c>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
+      <c r="P45" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>0</v>
+      </c>
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
@@ -7151,8 +7247,12 @@
       <c r="O46" s="16">
         <v>3</v>
       </c>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
+      <c r="P46" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>0</v>
+      </c>
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
@@ -7303,8 +7403,12 @@
       <c r="O49" s="16">
         <v>0</v>
       </c>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
+      <c r="P49" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>0</v>
+      </c>
       <c r="R49" s="16"/>
       <c r="S49" s="16"/>
       <c r="T49" s="16"/>
@@ -7556,27 +7660,27 @@
       </c>
       <c r="P54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="Q54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>3.2222222222222223</v>
       </c>
       <c r="R54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C669647-40CA-8443-8799-773FCE314625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD0FB76-FA73-B84F-A85F-2D28BFF37DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43880" yWindow="1940" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -380,7 +380,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,12 +396,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -486,11 +480,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4988,8 +4981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B4:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5238,7 +5231,9 @@
       <c r="N8" s="3">
         <v>5</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>5</v>
+      </c>
       <c r="P8" s="3">
         <v>3.5</v>
       </c>
@@ -5250,2246 +5245,2246 @@
       <c r="T8" s="3"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="6">
         <f>C8</f>
         <v>5</v>
       </c>
-      <c r="D9" s="14">
-        <v>5</v>
-      </c>
-      <c r="E9" s="14">
-        <v>5</v>
-      </c>
-      <c r="F9" s="14">
-        <v>5</v>
-      </c>
-      <c r="G9" s="14">
-        <v>5</v>
-      </c>
-      <c r="H9" s="14">
-        <v>5</v>
-      </c>
-      <c r="I9" s="14">
-        <v>5</v>
-      </c>
-      <c r="J9" s="14">
-        <v>5</v>
-      </c>
-      <c r="K9" s="14">
-        <v>5</v>
-      </c>
-      <c r="L9" s="14">
-        <v>5</v>
-      </c>
-      <c r="M9" s="14">
-        <v>5</v>
-      </c>
-      <c r="N9" s="14">
-        <v>5</v>
-      </c>
-      <c r="O9" s="14">
-        <v>5</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>5</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>5</v>
+      </c>
+      <c r="O9" s="6">
+        <v>5</v>
+      </c>
+      <c r="P9" s="6">
         <v>3.5</v>
       </c>
-      <c r="Q9" s="14">
-        <v>5</v>
-      </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
+      <c r="Q9" s="6">
+        <v>5</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="16">
-        <v>5</v>
-      </c>
-      <c r="D11" s="16">
-        <v>5</v>
-      </c>
-      <c r="E11" s="16">
-        <v>5</v>
-      </c>
-      <c r="F11" s="16">
-        <v>5</v>
-      </c>
-      <c r="G11" s="16">
-        <v>5</v>
-      </c>
-      <c r="H11" s="16">
-        <v>5</v>
-      </c>
-      <c r="I11" s="16">
-        <v>5</v>
-      </c>
-      <c r="J11" s="16">
-        <v>5</v>
-      </c>
-      <c r="K11" s="16">
-        <v>5</v>
-      </c>
-      <c r="L11" s="16">
-        <v>5</v>
-      </c>
-      <c r="M11" s="16">
-        <v>5</v>
-      </c>
-      <c r="N11" s="16">
-        <v>5</v>
-      </c>
-      <c r="O11" s="16">
-        <v>5</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>5</v>
-      </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="17"/>
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15">
+        <v>5</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5</v>
+      </c>
+      <c r="G11" s="15">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15">
+        <v>5</v>
+      </c>
+      <c r="I11" s="15">
+        <v>5</v>
+      </c>
+      <c r="J11" s="15">
+        <v>5</v>
+      </c>
+      <c r="K11" s="15">
+        <v>5</v>
+      </c>
+      <c r="L11" s="15">
+        <v>5</v>
+      </c>
+      <c r="M11" s="15">
+        <v>5</v>
+      </c>
+      <c r="N11" s="15">
+        <v>5</v>
+      </c>
+      <c r="O11" s="15">
+        <v>5</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>5</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="16">
-        <v>5</v>
-      </c>
-      <c r="D12" s="16">
-        <v>5</v>
-      </c>
-      <c r="E12" s="16">
-        <v>5</v>
-      </c>
-      <c r="F12" s="16">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16">
-        <v>5</v>
-      </c>
-      <c r="H12" s="16">
-        <v>5</v>
-      </c>
-      <c r="I12" s="16">
-        <v>5</v>
-      </c>
-      <c r="J12" s="16">
-        <v>5</v>
-      </c>
-      <c r="K12" s="16">
-        <v>5</v>
-      </c>
-      <c r="L12" s="16">
-        <v>5</v>
-      </c>
-      <c r="M12" s="16">
-        <v>5</v>
-      </c>
-      <c r="N12" s="16">
-        <v>5</v>
-      </c>
-      <c r="O12" s="16">
-        <v>5</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>5</v>
-      </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="17"/>
+      <c r="C12" s="15">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15">
+        <v>5</v>
+      </c>
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12" s="15">
+        <v>5</v>
+      </c>
+      <c r="H12" s="15">
+        <v>5</v>
+      </c>
+      <c r="I12" s="15">
+        <v>5</v>
+      </c>
+      <c r="J12" s="15">
+        <v>5</v>
+      </c>
+      <c r="K12" s="15">
+        <v>5</v>
+      </c>
+      <c r="L12" s="15">
+        <v>5</v>
+      </c>
+      <c r="M12" s="15">
+        <v>5</v>
+      </c>
+      <c r="N12" s="15">
+        <v>5</v>
+      </c>
+      <c r="O12" s="15">
+        <v>5</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>5</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="16">
-        <v>5</v>
-      </c>
-      <c r="D13" s="16">
-        <v>5</v>
-      </c>
-      <c r="E13" s="16">
-        <v>5</v>
-      </c>
-      <c r="F13" s="16">
-        <v>5</v>
-      </c>
-      <c r="G13" s="16">
-        <v>5</v>
-      </c>
-      <c r="H13" s="16">
-        <v>5</v>
-      </c>
-      <c r="I13" s="16">
-        <v>5</v>
-      </c>
-      <c r="J13" s="16">
-        <v>5</v>
-      </c>
-      <c r="K13" s="16">
-        <v>5</v>
-      </c>
-      <c r="L13" s="16">
-        <v>5</v>
-      </c>
-      <c r="M13" s="16">
-        <v>5</v>
-      </c>
-      <c r="N13" s="16">
-        <v>5</v>
-      </c>
-      <c r="O13" s="16">
-        <v>5</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>5</v>
-      </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
+      <c r="C13" s="15">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15">
+        <v>5</v>
+      </c>
+      <c r="G13" s="15">
+        <v>5</v>
+      </c>
+      <c r="H13" s="15">
+        <v>5</v>
+      </c>
+      <c r="I13" s="15">
+        <v>5</v>
+      </c>
+      <c r="J13" s="15">
+        <v>5</v>
+      </c>
+      <c r="K13" s="15">
+        <v>5</v>
+      </c>
+      <c r="L13" s="15">
+        <v>5</v>
+      </c>
+      <c r="M13" s="15">
+        <v>5</v>
+      </c>
+      <c r="N13" s="15">
+        <v>5</v>
+      </c>
+      <c r="O13" s="15">
+        <v>5</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>5</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="16"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="16">
-        <v>5</v>
-      </c>
-      <c r="D14" s="16">
-        <v>5</v>
-      </c>
-      <c r="E14" s="16">
-        <v>5</v>
-      </c>
-      <c r="F14" s="16">
-        <v>5</v>
-      </c>
-      <c r="G14" s="16">
-        <v>5</v>
-      </c>
-      <c r="H14" s="16">
-        <v>5</v>
-      </c>
-      <c r="I14" s="16">
-        <v>5</v>
-      </c>
-      <c r="J14" s="16">
-        <v>5</v>
-      </c>
-      <c r="K14" s="16">
-        <v>5</v>
-      </c>
-      <c r="L14" s="16">
-        <v>5</v>
-      </c>
-      <c r="M14" s="16">
-        <v>5</v>
-      </c>
-      <c r="N14" s="16">
-        <v>5</v>
-      </c>
-      <c r="O14" s="16">
-        <v>5</v>
-      </c>
-      <c r="P14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>5</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="17"/>
+      <c r="C14" s="15">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5</v>
+      </c>
+      <c r="G14" s="15">
+        <v>5</v>
+      </c>
+      <c r="H14" s="15">
+        <v>5</v>
+      </c>
+      <c r="I14" s="15">
+        <v>5</v>
+      </c>
+      <c r="J14" s="15">
+        <v>5</v>
+      </c>
+      <c r="K14" s="15">
+        <v>5</v>
+      </c>
+      <c r="L14" s="15">
+        <v>5</v>
+      </c>
+      <c r="M14" s="15">
+        <v>5</v>
+      </c>
+      <c r="N14" s="15">
+        <v>5</v>
+      </c>
+      <c r="O14" s="15">
+        <v>5</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>5</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="16"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="16">
-        <v>5</v>
-      </c>
-      <c r="D15" s="16">
-        <v>5</v>
-      </c>
-      <c r="E15" s="16">
-        <v>5</v>
-      </c>
-      <c r="F15" s="16">
-        <v>5</v>
-      </c>
-      <c r="G15" s="16">
-        <v>5</v>
-      </c>
-      <c r="H15" s="16">
-        <v>5</v>
-      </c>
-      <c r="I15" s="16">
-        <v>5</v>
-      </c>
-      <c r="J15" s="16">
-        <v>5</v>
-      </c>
-      <c r="K15" s="16">
-        <v>5</v>
-      </c>
-      <c r="L15" s="16">
-        <v>5</v>
-      </c>
-      <c r="M15" s="16">
-        <v>5</v>
-      </c>
-      <c r="N15" s="16">
-        <v>5</v>
-      </c>
-      <c r="O15" s="16">
-        <v>5</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>5</v>
-      </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="17"/>
+      <c r="C15" s="15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="15">
+        <v>5</v>
+      </c>
+      <c r="J15" s="15">
+        <v>5</v>
+      </c>
+      <c r="K15" s="15">
+        <v>5</v>
+      </c>
+      <c r="L15" s="15">
+        <v>5</v>
+      </c>
+      <c r="M15" s="15">
+        <v>5</v>
+      </c>
+      <c r="N15" s="15">
+        <v>5</v>
+      </c>
+      <c r="O15" s="15">
+        <v>5</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>5</v>
+      </c>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="16">
-        <v>5</v>
-      </c>
-      <c r="D16" s="16">
-        <v>5</v>
-      </c>
-      <c r="E16" s="16">
-        <v>5</v>
-      </c>
-      <c r="F16" s="16">
-        <v>5</v>
-      </c>
-      <c r="G16" s="16">
-        <v>5</v>
-      </c>
-      <c r="H16" s="16">
-        <v>5</v>
-      </c>
-      <c r="I16" s="16">
-        <v>5</v>
-      </c>
-      <c r="J16" s="16">
-        <v>5</v>
-      </c>
-      <c r="K16" s="16">
-        <v>5</v>
-      </c>
-      <c r="L16" s="16">
-        <v>5</v>
-      </c>
-      <c r="M16" s="16">
-        <v>5</v>
-      </c>
-      <c r="N16" s="16">
-        <v>5</v>
-      </c>
-      <c r="O16" s="16">
-        <v>5</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>5</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="17"/>
+      <c r="C16" s="15">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15">
+        <v>5</v>
+      </c>
+      <c r="F16" s="15">
+        <v>5</v>
+      </c>
+      <c r="G16" s="15">
+        <v>5</v>
+      </c>
+      <c r="H16" s="15">
+        <v>5</v>
+      </c>
+      <c r="I16" s="15">
+        <v>5</v>
+      </c>
+      <c r="J16" s="15">
+        <v>5</v>
+      </c>
+      <c r="K16" s="15">
+        <v>5</v>
+      </c>
+      <c r="L16" s="15">
+        <v>5</v>
+      </c>
+      <c r="M16" s="15">
+        <v>5</v>
+      </c>
+      <c r="N16" s="15">
+        <v>5</v>
+      </c>
+      <c r="O16" s="15">
+        <v>5</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>5</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="16"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="16">
-        <v>5</v>
-      </c>
-      <c r="D17" s="16">
-        <v>5</v>
-      </c>
-      <c r="E17" s="16">
-        <v>5</v>
-      </c>
-      <c r="F17" s="16">
-        <v>5</v>
-      </c>
-      <c r="G17" s="16">
-        <v>5</v>
-      </c>
-      <c r="H17" s="16">
-        <v>5</v>
-      </c>
-      <c r="I17" s="16">
-        <v>5</v>
-      </c>
-      <c r="J17" s="16">
-        <v>5</v>
-      </c>
-      <c r="K17" s="16">
-        <v>5</v>
-      </c>
-      <c r="L17" s="16">
-        <v>5</v>
-      </c>
-      <c r="M17" s="16">
-        <v>5</v>
-      </c>
-      <c r="N17" s="16">
-        <v>5</v>
-      </c>
-      <c r="O17" s="16">
-        <v>5</v>
-      </c>
-      <c r="P17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>5</v>
-      </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="17"/>
+      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15">
+        <v>5</v>
+      </c>
+      <c r="G17" s="15">
+        <v>5</v>
+      </c>
+      <c r="H17" s="15">
+        <v>5</v>
+      </c>
+      <c r="I17" s="15">
+        <v>5</v>
+      </c>
+      <c r="J17" s="15">
+        <v>5</v>
+      </c>
+      <c r="K17" s="15">
+        <v>5</v>
+      </c>
+      <c r="L17" s="15">
+        <v>5</v>
+      </c>
+      <c r="M17" s="15">
+        <v>5</v>
+      </c>
+      <c r="N17" s="15">
+        <v>5</v>
+      </c>
+      <c r="O17" s="15">
+        <v>5</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>5</v>
+      </c>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="16"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="16">
-        <v>5</v>
-      </c>
-      <c r="D18" s="16">
-        <v>5</v>
-      </c>
-      <c r="E18" s="16">
-        <v>5</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <v>5</v>
-      </c>
-      <c r="H18" s="16">
-        <v>5</v>
-      </c>
-      <c r="I18" s="16">
-        <v>5</v>
-      </c>
-      <c r="J18" s="16">
-        <v>5</v>
-      </c>
-      <c r="K18" s="16">
-        <v>5</v>
-      </c>
-      <c r="L18" s="16">
-        <v>5</v>
-      </c>
-      <c r="M18" s="16">
-        <v>5</v>
-      </c>
-      <c r="N18" s="16">
-        <v>5</v>
-      </c>
-      <c r="O18" s="16">
-        <v>5</v>
-      </c>
-      <c r="P18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="16">
-        <v>5</v>
-      </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="17"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="C18" s="15">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15">
+        <v>5</v>
+      </c>
+      <c r="E18" s="15">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>5</v>
+      </c>
+      <c r="H18" s="15">
+        <v>5</v>
+      </c>
+      <c r="I18" s="15">
+        <v>5</v>
+      </c>
+      <c r="J18" s="15">
+        <v>5</v>
+      </c>
+      <c r="K18" s="15">
+        <v>5</v>
+      </c>
+      <c r="L18" s="15">
+        <v>5</v>
+      </c>
+      <c r="M18" s="15">
+        <v>5</v>
+      </c>
+      <c r="N18" s="15">
+        <v>5</v>
+      </c>
+      <c r="O18" s="15">
+        <v>5</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>5</v>
+      </c>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="16"/>
+    </row>
+    <row r="19" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="6">
         <f>SUM(C11:C18)/8</f>
         <v>5</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="6">
         <f>SUM(D11:D18)/8</f>
         <v>5</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="6">
         <f t="shared" ref="E19:U19" si="1">SUM(E11:E18)/8</f>
         <v>5</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="17"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="16"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="16">
-        <v>5</v>
-      </c>
-      <c r="D21" s="16">
-        <v>5</v>
-      </c>
-      <c r="E21" s="16">
+      <c r="C21" s="15">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15">
+        <v>5</v>
+      </c>
+      <c r="E21" s="15">
         <v>4</v>
       </c>
-      <c r="F21" s="16">
-        <v>5</v>
-      </c>
-      <c r="G21" s="16">
-        <v>5</v>
-      </c>
-      <c r="H21" s="16">
-        <v>5</v>
-      </c>
-      <c r="I21" s="16">
-        <v>5</v>
-      </c>
-      <c r="J21" s="16">
-        <v>5</v>
-      </c>
-      <c r="K21" s="16">
-        <v>5</v>
-      </c>
-      <c r="L21" s="16">
-        <v>5</v>
-      </c>
-      <c r="M21" s="16">
-        <v>5</v>
-      </c>
-      <c r="N21" s="16">
-        <v>5</v>
-      </c>
-      <c r="O21" s="16">
-        <v>5</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>5</v>
-      </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
+      <c r="F21" s="15">
+        <v>5</v>
+      </c>
+      <c r="G21" s="15">
+        <v>5</v>
+      </c>
+      <c r="H21" s="15">
+        <v>5</v>
+      </c>
+      <c r="I21" s="15">
+        <v>5</v>
+      </c>
+      <c r="J21" s="15">
+        <v>5</v>
+      </c>
+      <c r="K21" s="15">
+        <v>5</v>
+      </c>
+      <c r="L21" s="15">
+        <v>5</v>
+      </c>
+      <c r="M21" s="15">
+        <v>5</v>
+      </c>
+      <c r="N21" s="15">
+        <v>5</v>
+      </c>
+      <c r="O21" s="15">
+        <v>5</v>
+      </c>
+      <c r="P21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>5</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="16">
-        <v>5</v>
-      </c>
-      <c r="D22" s="16">
-        <v>5</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="C22" s="15">
+        <v>5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>5</v>
+      </c>
+      <c r="E22" s="15">
         <v>4</v>
       </c>
-      <c r="F22" s="16">
-        <v>5</v>
-      </c>
-      <c r="G22" s="16">
-        <v>5</v>
-      </c>
-      <c r="H22" s="16">
-        <v>5</v>
-      </c>
-      <c r="I22" s="16">
-        <v>5</v>
-      </c>
-      <c r="J22" s="16">
-        <v>5</v>
-      </c>
-      <c r="K22" s="16">
-        <v>5</v>
-      </c>
-      <c r="L22" s="16">
-        <v>5</v>
-      </c>
-      <c r="M22" s="16">
-        <v>5</v>
-      </c>
-      <c r="N22" s="16">
-        <v>5</v>
-      </c>
-      <c r="O22" s="16">
-        <v>5</v>
-      </c>
-      <c r="P22" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>5</v>
-      </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
+      <c r="F22" s="15">
+        <v>5</v>
+      </c>
+      <c r="G22" s="15">
+        <v>5</v>
+      </c>
+      <c r="H22" s="15">
+        <v>5</v>
+      </c>
+      <c r="I22" s="15">
+        <v>5</v>
+      </c>
+      <c r="J22" s="15">
+        <v>5</v>
+      </c>
+      <c r="K22" s="15">
+        <v>5</v>
+      </c>
+      <c r="L22" s="15">
+        <v>5</v>
+      </c>
+      <c r="M22" s="15">
+        <v>5</v>
+      </c>
+      <c r="N22" s="15">
+        <v>5</v>
+      </c>
+      <c r="O22" s="15">
+        <v>5</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>5</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="16">
-        <v>5</v>
-      </c>
-      <c r="D23" s="16">
-        <v>5</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="C23" s="15">
+        <v>5</v>
+      </c>
+      <c r="D23" s="15">
+        <v>5</v>
+      </c>
+      <c r="E23" s="15">
         <v>4</v>
       </c>
-      <c r="F23" s="16">
-        <v>5</v>
-      </c>
-      <c r="G23" s="16">
-        <v>5</v>
-      </c>
-      <c r="H23" s="16">
-        <v>5</v>
-      </c>
-      <c r="I23" s="16">
-        <v>5</v>
-      </c>
-      <c r="J23" s="16">
-        <v>5</v>
-      </c>
-      <c r="K23" s="16">
-        <v>5</v>
-      </c>
-      <c r="L23" s="16">
-        <v>5</v>
-      </c>
-      <c r="M23" s="16">
-        <v>5</v>
-      </c>
-      <c r="N23" s="16">
-        <v>5</v>
-      </c>
-      <c r="O23" s="16">
-        <v>5</v>
-      </c>
-      <c r="P23" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="16">
-        <v>5</v>
-      </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
+      <c r="F23" s="15">
+        <v>5</v>
+      </c>
+      <c r="G23" s="15">
+        <v>5</v>
+      </c>
+      <c r="H23" s="15">
+        <v>5</v>
+      </c>
+      <c r="I23" s="15">
+        <v>5</v>
+      </c>
+      <c r="J23" s="15">
+        <v>5</v>
+      </c>
+      <c r="K23" s="15">
+        <v>5</v>
+      </c>
+      <c r="L23" s="15">
+        <v>5</v>
+      </c>
+      <c r="M23" s="15">
+        <v>5</v>
+      </c>
+      <c r="N23" s="15">
+        <v>5</v>
+      </c>
+      <c r="O23" s="15">
+        <v>5</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>5</v>
+      </c>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="5">
         <f>SUM(C21:C23)/3</f>
         <v>5</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="5">
         <f>SUM(D21:D23)/3</f>
         <v>5</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="5">
         <f t="shared" ref="E24:U24" si="2">SUM(E21:E23)/3</f>
         <v>4</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="14">
+      <c r="U24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="16">
-        <v>5</v>
-      </c>
-      <c r="D26" s="16">
-        <v>5</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>5</v>
+      </c>
+      <c r="E26" s="15">
         <v>4</v>
       </c>
-      <c r="F26" s="16">
-        <v>5</v>
-      </c>
-      <c r="G26" s="16">
-        <v>5</v>
-      </c>
-      <c r="H26" s="16">
-        <v>5</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <v>5</v>
-      </c>
-      <c r="K26" s="16">
-        <v>5</v>
-      </c>
-      <c r="L26" s="16">
-        <v>5</v>
-      </c>
-      <c r="M26" s="16">
-        <v>5</v>
-      </c>
-      <c r="N26" s="16">
-        <v>5</v>
-      </c>
-      <c r="O26" s="16">
-        <v>5</v>
-      </c>
-      <c r="P26" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="16">
-        <v>5</v>
-      </c>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
+      <c r="F26" s="15">
+        <v>5</v>
+      </c>
+      <c r="G26" s="15">
+        <v>5</v>
+      </c>
+      <c r="H26" s="15">
+        <v>5</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>5</v>
+      </c>
+      <c r="K26" s="15">
+        <v>5</v>
+      </c>
+      <c r="L26" s="15">
+        <v>5</v>
+      </c>
+      <c r="M26" s="15">
+        <v>5</v>
+      </c>
+      <c r="N26" s="15">
+        <v>5</v>
+      </c>
+      <c r="O26" s="15">
+        <v>5</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>5</v>
+      </c>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="16">
-        <v>5</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="C27" s="15">
+        <v>5</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
         <v>4</v>
       </c>
-      <c r="F27" s="16">
-        <v>5</v>
-      </c>
-      <c r="G27" s="16">
-        <v>5</v>
-      </c>
-      <c r="H27" s="16">
-        <v>5</v>
-      </c>
-      <c r="I27" s="16">
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
+      <c r="F27" s="15">
+        <v>5</v>
+      </c>
+      <c r="G27" s="15">
+        <v>5</v>
+      </c>
+      <c r="H27" s="15">
+        <v>5</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
         <v>2</v>
       </c>
-      <c r="K27" s="16">
-        <v>5</v>
-      </c>
-      <c r="L27" s="16">
-        <v>5</v>
-      </c>
-      <c r="M27" s="16">
-        <v>5</v>
-      </c>
-      <c r="N27" s="16">
-        <v>5</v>
-      </c>
-      <c r="O27" s="16">
+      <c r="K27" s="15">
+        <v>5</v>
+      </c>
+      <c r="L27" s="15">
+        <v>5</v>
+      </c>
+      <c r="M27" s="15">
+        <v>5</v>
+      </c>
+      <c r="N27" s="15">
+        <v>5</v>
+      </c>
+      <c r="O27" s="15">
         <v>2</v>
       </c>
-      <c r="P27" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="16">
-        <v>5</v>
-      </c>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
+      <c r="P27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>5</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="5">
         <f>SUM(C26:C27)/2</f>
         <v>5</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="5">
         <f>SUM(D26:D27)/2</f>
         <v>2.5</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="5">
         <f t="shared" ref="E28:U28" si="3">SUM(E26:E27)/2</f>
         <v>4</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="5">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="5">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U28" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="16">
-        <v>5</v>
-      </c>
-      <c r="D30" s="16">
-        <v>5</v>
-      </c>
-      <c r="E30" s="16">
-        <v>5</v>
-      </c>
-      <c r="F30" s="16">
-        <v>5</v>
-      </c>
-      <c r="G30" s="16">
-        <v>5</v>
-      </c>
-      <c r="H30" s="16">
-        <v>5</v>
-      </c>
-      <c r="I30" s="16">
-        <v>5</v>
-      </c>
-      <c r="J30" s="16">
-        <v>0</v>
-      </c>
-      <c r="K30" s="16">
-        <v>5</v>
-      </c>
-      <c r="L30" s="16">
-        <v>0</v>
-      </c>
-      <c r="M30" s="16">
-        <v>5</v>
-      </c>
-      <c r="N30" s="16">
-        <v>5</v>
-      </c>
-      <c r="O30" s="16">
-        <v>5</v>
-      </c>
-      <c r="P30" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="16">
-        <v>5</v>
-      </c>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
+      <c r="C30" s="15">
+        <v>5</v>
+      </c>
+      <c r="D30" s="15">
+        <v>5</v>
+      </c>
+      <c r="E30" s="15">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15">
+        <v>5</v>
+      </c>
+      <c r="G30" s="15">
+        <v>5</v>
+      </c>
+      <c r="H30" s="15">
+        <v>5</v>
+      </c>
+      <c r="I30" s="15">
+        <v>5</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>5</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>5</v>
+      </c>
+      <c r="N30" s="15">
+        <v>5</v>
+      </c>
+      <c r="O30" s="15">
+        <v>5</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>5</v>
+      </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="16">
-        <v>5</v>
-      </c>
-      <c r="D31" s="16">
-        <v>5</v>
-      </c>
-      <c r="E31" s="16">
-        <v>5</v>
-      </c>
-      <c r="F31" s="16">
-        <v>5</v>
-      </c>
-      <c r="G31" s="16">
-        <v>5</v>
-      </c>
-      <c r="H31" s="16">
-        <v>5</v>
-      </c>
-      <c r="I31" s="16">
-        <v>5</v>
-      </c>
-      <c r="J31" s="16">
-        <v>0</v>
-      </c>
-      <c r="K31" s="16">
-        <v>5</v>
-      </c>
-      <c r="L31" s="16">
-        <v>0</v>
-      </c>
-      <c r="M31" s="16">
-        <v>5</v>
-      </c>
-      <c r="N31" s="16">
-        <v>5</v>
-      </c>
-      <c r="O31" s="16">
-        <v>5</v>
-      </c>
-      <c r="P31" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16">
-        <v>5</v>
-      </c>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
+      <c r="C31" s="15">
+        <v>5</v>
+      </c>
+      <c r="D31" s="15">
+        <v>5</v>
+      </c>
+      <c r="E31" s="15">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15">
+        <v>5</v>
+      </c>
+      <c r="G31" s="15">
+        <v>5</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5</v>
+      </c>
+      <c r="I31" s="15">
+        <v>5</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>5</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>5</v>
+      </c>
+      <c r="N31" s="15">
+        <v>5</v>
+      </c>
+      <c r="O31" s="15">
+        <v>5</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>5</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="16">
-        <v>5</v>
-      </c>
-      <c r="D32" s="16">
-        <v>5</v>
-      </c>
-      <c r="E32" s="16">
-        <v>5</v>
-      </c>
-      <c r="F32" s="16">
-        <v>5</v>
-      </c>
-      <c r="G32" s="16">
-        <v>5</v>
-      </c>
-      <c r="H32" s="16">
-        <v>5</v>
-      </c>
-      <c r="I32" s="16">
-        <v>5</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
-        <v>5</v>
-      </c>
-      <c r="L32" s="16">
-        <v>0</v>
-      </c>
-      <c r="M32" s="16">
-        <v>5</v>
-      </c>
-      <c r="N32" s="16">
-        <v>5</v>
-      </c>
-      <c r="O32" s="16">
-        <v>5</v>
-      </c>
-      <c r="P32" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="16">
-        <v>5</v>
-      </c>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
+      <c r="C32" s="15">
+        <v>5</v>
+      </c>
+      <c r="D32" s="15">
+        <v>5</v>
+      </c>
+      <c r="E32" s="15">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15">
+        <v>5</v>
+      </c>
+      <c r="G32" s="15">
+        <v>5</v>
+      </c>
+      <c r="H32" s="15">
+        <v>5</v>
+      </c>
+      <c r="I32" s="15">
+        <v>5</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>5</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>5</v>
+      </c>
+      <c r="N32" s="15">
+        <v>5</v>
+      </c>
+      <c r="O32" s="15">
+        <v>5</v>
+      </c>
+      <c r="P32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>5</v>
+      </c>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="16">
-        <v>5</v>
-      </c>
-      <c r="D33" s="16">
-        <v>5</v>
-      </c>
-      <c r="E33" s="16">
-        <v>5</v>
-      </c>
-      <c r="F33" s="16">
-        <v>5</v>
-      </c>
-      <c r="G33" s="16">
-        <v>5</v>
-      </c>
-      <c r="H33" s="16">
-        <v>5</v>
-      </c>
-      <c r="I33" s="16">
-        <v>5</v>
-      </c>
-      <c r="J33" s="16">
-        <v>0</v>
-      </c>
-      <c r="K33" s="16">
-        <v>5</v>
-      </c>
-      <c r="L33" s="16">
-        <v>0</v>
-      </c>
-      <c r="M33" s="16">
-        <v>5</v>
-      </c>
-      <c r="N33" s="16">
-        <v>5</v>
-      </c>
-      <c r="O33" s="16">
-        <v>5</v>
-      </c>
-      <c r="P33" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="16">
-        <v>5</v>
-      </c>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
+      <c r="C33" s="15">
+        <v>5</v>
+      </c>
+      <c r="D33" s="15">
+        <v>5</v>
+      </c>
+      <c r="E33" s="15">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15">
+        <v>5</v>
+      </c>
+      <c r="G33" s="15">
+        <v>5</v>
+      </c>
+      <c r="H33" s="15">
+        <v>5</v>
+      </c>
+      <c r="I33" s="15">
+        <v>5</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>5</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>5</v>
+      </c>
+      <c r="N33" s="15">
+        <v>5</v>
+      </c>
+      <c r="O33" s="15">
+        <v>5</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>5</v>
+      </c>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="16">
-        <v>5</v>
-      </c>
-      <c r="D34" s="16">
-        <v>5</v>
-      </c>
-      <c r="E34" s="16">
-        <v>5</v>
-      </c>
-      <c r="F34" s="16">
-        <v>5</v>
-      </c>
-      <c r="G34" s="16">
-        <v>5</v>
-      </c>
-      <c r="H34" s="16">
-        <v>5</v>
-      </c>
-      <c r="I34" s="16">
-        <v>5</v>
-      </c>
-      <c r="J34" s="16">
-        <v>0</v>
-      </c>
-      <c r="K34" s="16">
-        <v>5</v>
-      </c>
-      <c r="L34" s="16">
-        <v>0</v>
-      </c>
-      <c r="M34" s="16">
-        <v>5</v>
-      </c>
-      <c r="N34" s="16">
-        <v>5</v>
-      </c>
-      <c r="O34" s="16">
-        <v>5</v>
-      </c>
-      <c r="P34" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="16">
-        <v>5</v>
-      </c>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
+      <c r="C34" s="15">
+        <v>5</v>
+      </c>
+      <c r="D34" s="15">
+        <v>5</v>
+      </c>
+      <c r="E34" s="15">
+        <v>5</v>
+      </c>
+      <c r="F34" s="15">
+        <v>5</v>
+      </c>
+      <c r="G34" s="15">
+        <v>5</v>
+      </c>
+      <c r="H34" s="15">
+        <v>5</v>
+      </c>
+      <c r="I34" s="15">
+        <v>5</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>5</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
+      <c r="M34" s="15">
+        <v>5</v>
+      </c>
+      <c r="N34" s="15">
+        <v>5</v>
+      </c>
+      <c r="O34" s="15">
+        <v>5</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>5</v>
+      </c>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="5">
         <f>SUM(C30:C34)/5</f>
         <v>5</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="5">
         <f>SUM(D30:D34)/5</f>
         <v>5</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="5">
         <f t="shared" ref="E35:U35" si="4">SUM(E30:E34)/5</f>
         <v>5</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="16">
-        <v>5</v>
-      </c>
-      <c r="D37" s="16">
-        <v>5</v>
-      </c>
-      <c r="E37" s="16">
-        <v>5</v>
-      </c>
-      <c r="F37" s="16">
-        <v>5</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0</v>
-      </c>
-      <c r="H37" s="16">
-        <v>5</v>
-      </c>
-      <c r="I37" s="16">
-        <v>5</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-      <c r="K37" s="16">
-        <v>5</v>
-      </c>
-      <c r="L37" s="16">
-        <v>0</v>
-      </c>
-      <c r="M37" s="16">
-        <v>5</v>
-      </c>
-      <c r="N37" s="16">
-        <v>0</v>
-      </c>
-      <c r="O37" s="16">
-        <v>5</v>
-      </c>
-      <c r="P37" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="16">
+      <c r="C37" s="15">
+        <v>5</v>
+      </c>
+      <c r="D37" s="15">
+        <v>5</v>
+      </c>
+      <c r="E37" s="15">
+        <v>5</v>
+      </c>
+      <c r="F37" s="15">
+        <v>5</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>5</v>
+      </c>
+      <c r="I37" s="15">
+        <v>5</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>5</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>5</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>5</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
         <v>4</v>
       </c>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="16">
-        <v>5</v>
-      </c>
-      <c r="D38" s="16">
-        <v>5</v>
-      </c>
-      <c r="E38" s="16">
+      <c r="C38" s="15">
+        <v>5</v>
+      </c>
+      <c r="D38" s="15">
+        <v>5</v>
+      </c>
+      <c r="E38" s="15">
         <v>4</v>
       </c>
-      <c r="F38" s="16">
-        <v>5</v>
-      </c>
-      <c r="G38" s="16">
-        <v>0</v>
-      </c>
-      <c r="H38" s="16">
-        <v>5</v>
-      </c>
-      <c r="I38" s="16">
-        <v>5</v>
-      </c>
-      <c r="J38" s="16">
-        <v>0</v>
-      </c>
-      <c r="K38" s="16">
-        <v>5</v>
-      </c>
-      <c r="L38" s="16">
-        <v>0</v>
-      </c>
-      <c r="M38" s="16">
-        <v>5</v>
-      </c>
-      <c r="N38" s="16">
-        <v>0</v>
-      </c>
-      <c r="O38" s="16">
-        <v>5</v>
-      </c>
-      <c r="P38" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="16">
+      <c r="F38" s="15">
+        <v>5</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>5</v>
+      </c>
+      <c r="I38" s="15">
+        <v>5</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>5</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15">
+        <v>5</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0</v>
+      </c>
+      <c r="O38" s="15">
+        <v>5</v>
+      </c>
+      <c r="P38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="15">
         <v>4</v>
       </c>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="16">
-        <v>5</v>
-      </c>
-      <c r="D39" s="16">
-        <v>5</v>
-      </c>
-      <c r="E39" s="16">
+      <c r="C39" s="15">
+        <v>5</v>
+      </c>
+      <c r="D39" s="15">
+        <v>5</v>
+      </c>
+      <c r="E39" s="15">
         <v>4</v>
       </c>
-      <c r="F39" s="16">
-        <v>5</v>
-      </c>
-      <c r="G39" s="16">
-        <v>0</v>
-      </c>
-      <c r="H39" s="16">
-        <v>5</v>
-      </c>
-      <c r="I39" s="16">
-        <v>5</v>
-      </c>
-      <c r="J39" s="16">
-        <v>0</v>
-      </c>
-      <c r="K39" s="16">
-        <v>5</v>
-      </c>
-      <c r="L39" s="16">
-        <v>0</v>
-      </c>
-      <c r="M39" s="16">
-        <v>5</v>
-      </c>
-      <c r="N39" s="16">
-        <v>0</v>
-      </c>
-      <c r="O39" s="16">
-        <v>5</v>
-      </c>
-      <c r="P39" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="16">
+      <c r="F39" s="15">
+        <v>5</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>5</v>
+      </c>
+      <c r="I39" s="15">
+        <v>5</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>5</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>5</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15">
+        <v>5</v>
+      </c>
+      <c r="P39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15">
         <v>4</v>
       </c>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="16">
-        <v>5</v>
-      </c>
-      <c r="D40" s="16">
-        <v>5</v>
-      </c>
-      <c r="E40" s="16">
+      <c r="C40" s="15">
+        <v>5</v>
+      </c>
+      <c r="D40" s="15">
+        <v>5</v>
+      </c>
+      <c r="E40" s="15">
         <v>4</v>
       </c>
-      <c r="F40" s="16">
-        <v>5</v>
-      </c>
-      <c r="G40" s="16">
-        <v>0</v>
-      </c>
-      <c r="H40" s="16">
-        <v>5</v>
-      </c>
-      <c r="I40" s="16">
-        <v>5</v>
-      </c>
-      <c r="J40" s="16">
-        <v>0</v>
-      </c>
-      <c r="K40" s="16">
-        <v>5</v>
-      </c>
-      <c r="L40" s="16">
-        <v>0</v>
-      </c>
-      <c r="M40" s="16">
-        <v>5</v>
-      </c>
-      <c r="N40" s="16">
-        <v>0</v>
-      </c>
-      <c r="O40" s="16">
-        <v>5</v>
-      </c>
-      <c r="P40" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="16">
+      <c r="F40" s="15">
+        <v>5</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <v>5</v>
+      </c>
+      <c r="I40" s="15">
+        <v>5</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
+        <v>5</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
+      <c r="M40" s="15">
+        <v>5</v>
+      </c>
+      <c r="N40" s="15">
+        <v>0</v>
+      </c>
+      <c r="O40" s="15">
+        <v>5</v>
+      </c>
+      <c r="P40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="15">
         <v>4</v>
       </c>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="5">
         <f>SUM(C37:C40)/4</f>
         <v>5</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="5">
         <f>SUM(D37:D40)/4</f>
         <v>5</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="5">
         <f t="shared" ref="E41:U41" si="5">SUM(E37:E40)/4</f>
         <v>4.25</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q41" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S41" s="14">
+      <c r="S41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T41" s="14">
+      <c r="T41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U41" s="14">
+      <c r="U41" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="16">
-        <v>5</v>
-      </c>
-      <c r="D43" s="16">
-        <v>5</v>
-      </c>
-      <c r="E43" s="16">
-        <v>0</v>
-      </c>
-      <c r="F43" s="16">
-        <v>5</v>
-      </c>
-      <c r="G43" s="16">
-        <v>0</v>
-      </c>
-      <c r="H43" s="16">
-        <v>5</v>
-      </c>
-      <c r="I43" s="16">
-        <v>5</v>
-      </c>
-      <c r="J43" s="16">
-        <v>0</v>
-      </c>
-      <c r="K43" s="16">
-        <v>0</v>
-      </c>
-      <c r="L43" s="16">
-        <v>0</v>
-      </c>
-      <c r="M43" s="16">
-        <v>5</v>
-      </c>
-      <c r="N43" s="16">
-        <v>0</v>
-      </c>
-      <c r="O43" s="16">
-        <v>5</v>
-      </c>
-      <c r="P43" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="16">
-        <v>0</v>
-      </c>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
+      <c r="C43" s="15">
+        <v>5</v>
+      </c>
+      <c r="D43" s="15">
+        <v>5</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
+        <v>5</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>5</v>
+      </c>
+      <c r="I43" s="15">
+        <v>5</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>5</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>5</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="16">
-        <v>5</v>
-      </c>
-      <c r="D44" s="16">
-        <v>5</v>
-      </c>
-      <c r="E44" s="16">
-        <v>0</v>
-      </c>
-      <c r="F44" s="16">
-        <v>5</v>
-      </c>
-      <c r="G44" s="16">
-        <v>0</v>
-      </c>
-      <c r="H44" s="16">
-        <v>5</v>
-      </c>
-      <c r="I44" s="16">
-        <v>5</v>
-      </c>
-      <c r="J44" s="16">
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <v>0</v>
-      </c>
-      <c r="L44" s="16">
-        <v>0</v>
-      </c>
-      <c r="M44" s="16">
-        <v>5</v>
-      </c>
-      <c r="N44" s="16">
-        <v>0</v>
-      </c>
-      <c r="O44" s="16">
-        <v>5</v>
-      </c>
-      <c r="P44" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="16">
-        <v>0</v>
-      </c>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
+      <c r="C44" s="15">
+        <v>5</v>
+      </c>
+      <c r="D44" s="15">
+        <v>5</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
+        <v>5</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <v>5</v>
+      </c>
+      <c r="I44" s="15">
+        <v>5</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0</v>
+      </c>
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
+      <c r="M44" s="15">
+        <v>5</v>
+      </c>
+      <c r="N44" s="15">
+        <v>0</v>
+      </c>
+      <c r="O44" s="15">
+        <v>5</v>
+      </c>
+      <c r="P44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>0</v>
+      </c>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="16">
-        <v>5</v>
-      </c>
-      <c r="D45" s="16">
-        <v>5</v>
-      </c>
-      <c r="E45" s="16">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
-        <v>5</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <v>5</v>
-      </c>
-      <c r="I45" s="16">
-        <v>5</v>
-      </c>
-      <c r="J45" s="16">
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <v>0</v>
-      </c>
-      <c r="L45" s="16">
-        <v>0</v>
-      </c>
-      <c r="M45" s="16">
-        <v>5</v>
-      </c>
-      <c r="N45" s="16">
-        <v>0</v>
-      </c>
-      <c r="O45" s="16">
+      <c r="C45" s="15">
+        <v>5</v>
+      </c>
+      <c r="D45" s="15">
+        <v>5</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
+        <v>5</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
+        <v>5</v>
+      </c>
+      <c r="I45" s="15">
+        <v>5</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>5</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
         <v>3</v>
       </c>
-      <c r="P45" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="16">
-        <v>0</v>
-      </c>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="16">
-        <v>5</v>
-      </c>
-      <c r="D46" s="16">
-        <v>5</v>
-      </c>
-      <c r="E46" s="16">
-        <v>0</v>
-      </c>
-      <c r="F46" s="16">
-        <v>5</v>
-      </c>
-      <c r="G46" s="16">
-        <v>0</v>
-      </c>
-      <c r="H46" s="16">
-        <v>5</v>
-      </c>
-      <c r="I46" s="16">
-        <v>5</v>
-      </c>
-      <c r="J46" s="16">
-        <v>0</v>
-      </c>
-      <c r="K46" s="16">
-        <v>0</v>
-      </c>
-      <c r="L46" s="16">
-        <v>0</v>
-      </c>
-      <c r="M46" s="16">
-        <v>5</v>
-      </c>
-      <c r="N46" s="16">
-        <v>0</v>
-      </c>
-      <c r="O46" s="16">
+      <c r="C46" s="15">
+        <v>5</v>
+      </c>
+      <c r="D46" s="15">
+        <v>5</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15">
+        <v>5</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15">
+        <v>5</v>
+      </c>
+      <c r="I46" s="15">
+        <v>5</v>
+      </c>
+      <c r="J46" s="15">
+        <v>0</v>
+      </c>
+      <c r="K46" s="15">
+        <v>0</v>
+      </c>
+      <c r="L46" s="15">
+        <v>0</v>
+      </c>
+      <c r="M46" s="15">
+        <v>5</v>
+      </c>
+      <c r="N46" s="15">
+        <v>0</v>
+      </c>
+      <c r="O46" s="15">
         <v>3</v>
       </c>
-      <c r="P46" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="16">
-        <v>0</v>
-      </c>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
+      <c r="P46" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>0</v>
+      </c>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="5">
         <f>SUM(C43:C46)/4</f>
         <v>5</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="5">
         <f>SUM(D43:D46)/4</f>
         <v>5</v>
       </c>
-      <c r="E47" s="14">
-        <v>0</v>
-      </c>
-      <c r="F47" s="14">
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
         <f t="shared" ref="E47:U47" si="6">SUM(F43:F46)/4</f>
         <v>5</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="5">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="5">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="5">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="5">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U47" s="14">
+      <c r="U47" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="16">
-        <v>5</v>
-      </c>
-      <c r="D49" s="16">
-        <v>5</v>
-      </c>
-      <c r="E49" s="16">
-        <v>0</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16">
-        <v>0</v>
-      </c>
-      <c r="J49" s="16">
-        <v>0</v>
-      </c>
-      <c r="K49" s="16">
-        <v>0</v>
-      </c>
-      <c r="L49" s="16">
-        <v>0</v>
-      </c>
-      <c r="M49" s="16">
-        <v>0</v>
-      </c>
-      <c r="N49" s="16">
-        <v>0</v>
-      </c>
-      <c r="O49" s="16">
-        <v>0</v>
-      </c>
-      <c r="P49" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="16">
-        <v>0</v>
-      </c>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
+      <c r="C49" s="15">
+        <v>5</v>
+      </c>
+      <c r="D49" s="15">
+        <v>5</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="5">
         <f>C49</f>
         <v>5</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="5">
         <f t="shared" ref="D50:U50" si="7">D49</f>
         <v>5</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F50" s="14">
-        <v>0</v>
-      </c>
-      <c r="G50" s="14">
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="14">
+      <c r="Q50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T50" s="14">
+      <c r="T50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U50" s="14">
+      <c r="U50" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7519,64 +7514,64 @@
       <c r="U51" s="3"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="14">
-        <v>0</v>
-      </c>
-      <c r="D52" s="14">
-        <v>0</v>
-      </c>
-      <c r="E52" s="14">
-        <v>0</v>
-      </c>
-      <c r="F52" s="14">
-        <v>0</v>
-      </c>
-      <c r="G52" s="14">
-        <v>0</v>
-      </c>
-      <c r="H52" s="14">
-        <v>0</v>
-      </c>
-      <c r="I52" s="14">
-        <v>0</v>
-      </c>
-      <c r="J52" s="14">
-        <v>0</v>
-      </c>
-      <c r="K52" s="14">
-        <v>0</v>
-      </c>
-      <c r="L52" s="14">
-        <v>0</v>
-      </c>
-      <c r="M52" s="14">
-        <v>0</v>
-      </c>
-      <c r="N52" s="14">
-        <v>0</v>
-      </c>
-      <c r="O52" s="14">
-        <v>0</v>
-      </c>
-      <c r="P52" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="14">
-        <v>0</v>
-      </c>
-      <c r="R52" s="14">
-        <v>0</v>
-      </c>
-      <c r="S52" s="14">
-        <v>0</v>
-      </c>
-      <c r="T52" s="14">
-        <v>0</v>
-      </c>
-      <c r="U52" s="14">
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52" s="5">
+        <v>0</v>
+      </c>
+      <c r="T52" s="5">
+        <v>0</v>
+      </c>
+      <c r="U52" s="5">
         <v>0</v>
       </c>
     </row>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD0FB76-FA73-B84F-A85F-2D28BFF37DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43E62F5-E2A4-154E-A2F2-228F15E81D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43880" yWindow="1940" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -4981,8 +4981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B4:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
@@ -5240,7 +5240,9 @@
       <c r="Q8" s="3">
         <v>5</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3">
+        <v>5</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="13"/>
@@ -5373,7 +5375,9 @@
       <c r="Q11" s="15">
         <v>5</v>
       </c>
-      <c r="R11" s="15"/>
+      <c r="R11" s="15">
+        <v>5</v>
+      </c>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
@@ -5427,7 +5431,9 @@
       <c r="Q12" s="15">
         <v>5</v>
       </c>
-      <c r="R12" s="15"/>
+      <c r="R12" s="15">
+        <v>5</v>
+      </c>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -5481,7 +5487,9 @@
       <c r="Q13" s="15">
         <v>5</v>
       </c>
-      <c r="R13" s="15"/>
+      <c r="R13" s="15">
+        <v>5</v>
+      </c>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="16"/>
@@ -5535,7 +5543,9 @@
       <c r="Q14" s="15">
         <v>5</v>
       </c>
-      <c r="R14" s="15"/>
+      <c r="R14" s="15">
+        <v>5</v>
+      </c>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="16"/>
@@ -5589,7 +5599,9 @@
       <c r="Q15" s="15">
         <v>5</v>
       </c>
-      <c r="R15" s="15"/>
+      <c r="R15" s="15">
+        <v>5</v>
+      </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="16"/>
@@ -5643,7 +5655,9 @@
       <c r="Q16" s="15">
         <v>5</v>
       </c>
-      <c r="R16" s="15"/>
+      <c r="R16" s="15">
+        <v>5</v>
+      </c>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="16"/>
@@ -5697,7 +5711,9 @@
       <c r="Q17" s="15">
         <v>5</v>
       </c>
-      <c r="R17" s="15"/>
+      <c r="R17" s="15">
+        <v>5</v>
+      </c>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="16"/>
@@ -5751,7 +5767,9 @@
       <c r="Q18" s="15">
         <v>5</v>
       </c>
-      <c r="R18" s="15"/>
+      <c r="R18" s="15">
+        <v>5</v>
+      </c>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="16"/>
@@ -5822,7 +5840,7 @@
       </c>
       <c r="R19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" si="1"/>
@@ -5910,7 +5928,9 @@
       <c r="Q21" s="15">
         <v>5</v>
       </c>
-      <c r="R21" s="15"/>
+      <c r="R21" s="15">
+        <v>5</v>
+      </c>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
@@ -5964,7 +5984,9 @@
       <c r="Q22" s="15">
         <v>5</v>
       </c>
-      <c r="R22" s="15"/>
+      <c r="R22" s="15">
+        <v>5</v>
+      </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
@@ -6018,7 +6040,9 @@
       <c r="Q23" s="15">
         <v>5</v>
       </c>
-      <c r="R23" s="15"/>
+      <c r="R23" s="15">
+        <v>5</v>
+      </c>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
@@ -6089,7 +6113,7 @@
       </c>
       <c r="R24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" si="2"/>
@@ -6177,7 +6201,9 @@
       <c r="Q26" s="15">
         <v>5</v>
       </c>
-      <c r="R26" s="15"/>
+      <c r="R26" s="15">
+        <v>5</v>
+      </c>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
@@ -6231,7 +6257,9 @@
       <c r="Q27" s="15">
         <v>5</v>
       </c>
-      <c r="R27" s="15"/>
+      <c r="R27" s="15">
+        <v>5</v>
+      </c>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
@@ -6302,7 +6330,7 @@
       </c>
       <c r="R28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S28" s="5">
         <f t="shared" si="3"/>
@@ -6390,7 +6418,9 @@
       <c r="Q30" s="15">
         <v>5</v>
       </c>
-      <c r="R30" s="15"/>
+      <c r="R30" s="15">
+        <v>5</v>
+      </c>
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
@@ -6444,7 +6474,9 @@
       <c r="Q31" s="15">
         <v>5</v>
       </c>
-      <c r="R31" s="15"/>
+      <c r="R31" s="15">
+        <v>5</v>
+      </c>
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
@@ -6498,7 +6530,9 @@
       <c r="Q32" s="15">
         <v>5</v>
       </c>
-      <c r="R32" s="15"/>
+      <c r="R32" s="15">
+        <v>5</v>
+      </c>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
@@ -6552,7 +6586,9 @@
       <c r="Q33" s="15">
         <v>5</v>
       </c>
-      <c r="R33" s="15"/>
+      <c r="R33" s="15">
+        <v>5</v>
+      </c>
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
@@ -6606,7 +6642,9 @@
       <c r="Q34" s="15">
         <v>5</v>
       </c>
-      <c r="R34" s="15"/>
+      <c r="R34" s="15">
+        <v>5</v>
+      </c>
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
@@ -6677,7 +6715,7 @@
       </c>
       <c r="R35" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S35" s="5">
         <f t="shared" si="4"/>
@@ -6765,7 +6803,9 @@
       <c r="Q37" s="15">
         <v>4</v>
       </c>
-      <c r="R37" s="15"/>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
@@ -6819,7 +6859,9 @@
       <c r="Q38" s="15">
         <v>4</v>
       </c>
-      <c r="R38" s="15"/>
+      <c r="R38" s="15">
+        <v>0</v>
+      </c>
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
@@ -6873,7 +6915,9 @@
       <c r="Q39" s="15">
         <v>4</v>
       </c>
-      <c r="R39" s="15"/>
+      <c r="R39" s="15">
+        <v>0</v>
+      </c>
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
@@ -6927,7 +6971,9 @@
       <c r="Q40" s="15">
         <v>4</v>
       </c>
-      <c r="R40" s="15"/>
+      <c r="R40" s="15">
+        <v>0</v>
+      </c>
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
@@ -7086,7 +7132,9 @@
       <c r="Q43" s="15">
         <v>0</v>
       </c>
-      <c r="R43" s="15"/>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
@@ -7140,7 +7188,9 @@
       <c r="Q44" s="15">
         <v>0</v>
       </c>
-      <c r="R44" s="15"/>
+      <c r="R44" s="15">
+        <v>0</v>
+      </c>
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
@@ -7194,7 +7244,9 @@
       <c r="Q45" s="15">
         <v>0</v>
       </c>
-      <c r="R45" s="15"/>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
@@ -7248,7 +7300,9 @@
       <c r="Q46" s="15">
         <v>0</v>
       </c>
-      <c r="R46" s="15"/>
+      <c r="R46" s="15">
+        <v>0</v>
+      </c>
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
@@ -7404,7 +7458,9 @@
       <c r="Q49" s="15">
         <v>0</v>
       </c>
-      <c r="R49" s="15"/>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
@@ -7663,7 +7719,7 @@
       </c>
       <c r="R54" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="S54" s="3">
         <f t="shared" si="8"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43E62F5-E2A4-154E-A2F2-228F15E81D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD5385F-A835-EC46-9ECA-21135DAB5E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43880" yWindow="1940" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -4981,8 +4981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B4:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5117,11 +5117,11 @@
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>2.2222222222222223</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6944444444444446</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.2">
@@ -5243,9 +5243,13 @@
       <c r="R8" s="3">
         <v>5</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3">
+        <v>5</v>
+      </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="13"/>
+      <c r="U8" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
@@ -5297,8 +5301,12 @@
       <c r="Q9" s="6">
         <v>5</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="R9" s="6">
+        <v>5</v>
+      </c>
+      <c r="S9" s="6">
+        <v>5</v>
+      </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
@@ -5378,9 +5386,13 @@
       <c r="R11" s="15">
         <v>5</v>
       </c>
-      <c r="S11" s="15"/>
+      <c r="S11" s="15">
+        <v>5</v>
+      </c>
       <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
+      <c r="U11" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
@@ -5434,9 +5446,13 @@
       <c r="R12" s="15">
         <v>5</v>
       </c>
-      <c r="S12" s="15"/>
+      <c r="S12" s="15">
+        <v>5</v>
+      </c>
       <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+      <c r="U12" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
@@ -5490,9 +5506,13 @@
       <c r="R13" s="15">
         <v>5</v>
       </c>
-      <c r="S13" s="15"/>
+      <c r="S13" s="15">
+        <v>5</v>
+      </c>
       <c r="T13" s="15"/>
-      <c r="U13" s="16"/>
+      <c r="U13" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
@@ -5546,9 +5566,13 @@
       <c r="R14" s="15">
         <v>5</v>
       </c>
-      <c r="S14" s="15"/>
+      <c r="S14" s="15">
+        <v>5</v>
+      </c>
       <c r="T14" s="15"/>
-      <c r="U14" s="16"/>
+      <c r="U14" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
@@ -5602,9 +5626,13 @@
       <c r="R15" s="15">
         <v>5</v>
       </c>
-      <c r="S15" s="15"/>
+      <c r="S15" s="15">
+        <v>5</v>
+      </c>
       <c r="T15" s="15"/>
-      <c r="U15" s="16"/>
+      <c r="U15" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
@@ -5658,9 +5686,13 @@
       <c r="R16" s="15">
         <v>5</v>
       </c>
-      <c r="S16" s="15"/>
+      <c r="S16" s="15">
+        <v>5</v>
+      </c>
       <c r="T16" s="15"/>
-      <c r="U16" s="16"/>
+      <c r="U16" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
@@ -5714,9 +5746,13 @@
       <c r="R17" s="15">
         <v>5</v>
       </c>
-      <c r="S17" s="15"/>
+      <c r="S17" s="15">
+        <v>5</v>
+      </c>
       <c r="T17" s="15"/>
-      <c r="U17" s="16"/>
+      <c r="U17" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
@@ -5770,9 +5806,13 @@
       <c r="R18" s="15">
         <v>5</v>
       </c>
-      <c r="S18" s="15"/>
+      <c r="S18" s="15">
+        <v>5</v>
+      </c>
       <c r="T18" s="15"/>
-      <c r="U18" s="16"/>
+      <c r="U18" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="2:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
@@ -5844,7 +5884,7 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T19" s="6">
         <f t="shared" si="1"/>
@@ -5852,7 +5892,7 @@
       </c>
       <c r="U19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
@@ -5931,9 +5971,13 @@
       <c r="R21" s="15">
         <v>5</v>
       </c>
-      <c r="S21" s="15"/>
+      <c r="S21" s="15">
+        <v>5</v>
+      </c>
       <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="U21" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
@@ -5987,9 +6031,13 @@
       <c r="R22" s="15">
         <v>5</v>
       </c>
-      <c r="S22" s="15"/>
+      <c r="S22" s="15">
+        <v>5</v>
+      </c>
       <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+      <c r="U22" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
@@ -6043,9 +6091,13 @@
       <c r="R23" s="15">
         <v>5</v>
       </c>
-      <c r="S23" s="15"/>
+      <c r="S23" s="15">
+        <v>5</v>
+      </c>
       <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
+      <c r="U23" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
@@ -6117,7 +6169,7 @@
       </c>
       <c r="S24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T24" s="5">
         <f t="shared" si="2"/>
@@ -6125,7 +6177,7 @@
       </c>
       <c r="U24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
@@ -6204,9 +6256,13 @@
       <c r="R26" s="15">
         <v>5</v>
       </c>
-      <c r="S26" s="15"/>
+      <c r="S26" s="15">
+        <v>3</v>
+      </c>
       <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
@@ -6260,9 +6316,13 @@
       <c r="R27" s="15">
         <v>5</v>
       </c>
-      <c r="S27" s="15"/>
+      <c r="S27" s="15">
+        <v>5</v>
+      </c>
       <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
+      <c r="U27" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
@@ -6334,7 +6394,7 @@
       </c>
       <c r="S28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T28" s="5">
         <f t="shared" si="3"/>
@@ -6421,9 +6481,13 @@
       <c r="R30" s="15">
         <v>5</v>
       </c>
-      <c r="S30" s="15"/>
+      <c r="S30" s="15">
+        <v>5</v>
+      </c>
       <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="15" t="s">
@@ -6477,9 +6541,13 @@
       <c r="R31" s="15">
         <v>5</v>
       </c>
-      <c r="S31" s="15"/>
+      <c r="S31" s="15">
+        <v>5</v>
+      </c>
       <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
@@ -6533,9 +6601,13 @@
       <c r="R32" s="15">
         <v>5</v>
       </c>
-      <c r="S32" s="15"/>
+      <c r="S32" s="15">
+        <v>5</v>
+      </c>
       <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
+      <c r="U32" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
@@ -6589,9 +6661,13 @@
       <c r="R33" s="15">
         <v>5</v>
       </c>
-      <c r="S33" s="15"/>
+      <c r="S33" s="15">
+        <v>5</v>
+      </c>
       <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
+      <c r="U33" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
@@ -6645,9 +6721,13 @@
       <c r="R34" s="15">
         <v>5</v>
       </c>
-      <c r="S34" s="15"/>
+      <c r="S34" s="15">
+        <v>5</v>
+      </c>
       <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
+      <c r="U34" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
@@ -6719,7 +6799,7 @@
       </c>
       <c r="S35" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T35" s="5">
         <f t="shared" si="4"/>
@@ -6806,9 +6886,13 @@
       <c r="R37" s="15">
         <v>0</v>
       </c>
-      <c r="S37" s="15"/>
+      <c r="S37" s="15">
+        <v>5</v>
+      </c>
       <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
@@ -6862,9 +6946,13 @@
       <c r="R38" s="15">
         <v>0</v>
       </c>
-      <c r="S38" s="15"/>
+      <c r="S38" s="15">
+        <v>5</v>
+      </c>
       <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
+      <c r="U38" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
@@ -6918,9 +7006,13 @@
       <c r="R39" s="15">
         <v>0</v>
       </c>
-      <c r="S39" s="15"/>
+      <c r="S39" s="15">
+        <v>5</v>
+      </c>
       <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
+      <c r="U39" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
@@ -6974,9 +7066,13 @@
       <c r="R40" s="15">
         <v>0</v>
       </c>
-      <c r="S40" s="15"/>
+      <c r="S40" s="15">
+        <v>5</v>
+      </c>
       <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
+      <c r="U40" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
@@ -7048,7 +7144,7 @@
       </c>
       <c r="S41" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="5"/>
@@ -7135,9 +7231,13 @@
       <c r="R43" s="15">
         <v>0</v>
       </c>
-      <c r="S43" s="15"/>
+      <c r="S43" s="15">
+        <v>5</v>
+      </c>
       <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
@@ -7191,9 +7291,13 @@
       <c r="R44" s="15">
         <v>0</v>
       </c>
-      <c r="S44" s="15"/>
+      <c r="S44" s="15">
+        <v>5</v>
+      </c>
       <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
+      <c r="U44" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
@@ -7247,9 +7351,13 @@
       <c r="R45" s="15">
         <v>0</v>
       </c>
-      <c r="S45" s="15"/>
+      <c r="S45" s="15">
+        <v>5</v>
+      </c>
       <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="15" t="s">
@@ -7303,9 +7411,13 @@
       <c r="R46" s="15">
         <v>0</v>
       </c>
-      <c r="S46" s="15"/>
+      <c r="S46" s="15">
+        <v>2</v>
+      </c>
       <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
+      <c r="U46" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
@@ -7376,7 +7488,7 @@
       </c>
       <c r="S47" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="T47" s="5">
         <f t="shared" si="6"/>
@@ -7461,9 +7573,13 @@
       <c r="R49" s="15">
         <v>0</v>
       </c>
-      <c r="S49" s="15"/>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
       <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
@@ -7719,11 +7835,11 @@
       </c>
       <c r="R54" s="3">
         <f t="shared" si="8"/>
-        <v>2.2222222222222223</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="S54" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.6944444444444446</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="8"/>
@@ -7731,7 +7847,7 @@
       </c>
       <c r="U54" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
   </sheetData>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD5385F-A835-EC46-9ECA-21135DAB5E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D10983-A1A9-2B45-A215-2F207BF6A4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43880" yWindow="1940" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Total Lab</t>
+  </si>
+  <si>
+    <t>Revisar extemson de archivos</t>
   </si>
 </sst>
 </file>
@@ -802,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -4979,10 +4982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
-  <dimension ref="B4:U54"/>
+  <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4992,6 +4995,11 @@
     <col min="4" max="4" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T3" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.2">
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -5125,7 +5133,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1944444444444446</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
@@ -5246,7 +5254,9 @@
       <c r="S8" s="3">
         <v>5</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3">
+        <v>5</v>
+      </c>
       <c r="U8" s="13">
         <v>5</v>
       </c>
@@ -5307,7 +5317,9 @@
       <c r="S9" s="6">
         <v>5</v>
       </c>
-      <c r="T9" s="6"/>
+      <c r="T9" s="6">
+        <v>5</v>
+      </c>
       <c r="U9" s="6"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
@@ -5389,7 +5401,9 @@
       <c r="S11" s="15">
         <v>5</v>
       </c>
-      <c r="T11" s="15"/>
+      <c r="T11" s="15">
+        <v>5</v>
+      </c>
       <c r="U11" s="15">
         <v>5</v>
       </c>
@@ -5449,7 +5463,9 @@
       <c r="S12" s="15">
         <v>5</v>
       </c>
-      <c r="T12" s="15"/>
+      <c r="T12" s="15">
+        <v>5</v>
+      </c>
       <c r="U12" s="15">
         <v>5</v>
       </c>
@@ -5509,7 +5525,9 @@
       <c r="S13" s="15">
         <v>5</v>
       </c>
-      <c r="T13" s="15"/>
+      <c r="T13" s="15">
+        <v>5</v>
+      </c>
       <c r="U13" s="16">
         <v>5</v>
       </c>
@@ -5569,7 +5587,9 @@
       <c r="S14" s="15">
         <v>5</v>
       </c>
-      <c r="T14" s="15"/>
+      <c r="T14" s="15">
+        <v>5</v>
+      </c>
       <c r="U14" s="16">
         <v>5</v>
       </c>
@@ -5629,7 +5649,9 @@
       <c r="S15" s="15">
         <v>5</v>
       </c>
-      <c r="T15" s="15"/>
+      <c r="T15" s="15">
+        <v>5</v>
+      </c>
       <c r="U15" s="16">
         <v>5</v>
       </c>
@@ -5689,7 +5711,9 @@
       <c r="S16" s="15">
         <v>5</v>
       </c>
-      <c r="T16" s="15"/>
+      <c r="T16" s="15">
+        <v>5</v>
+      </c>
       <c r="U16" s="16">
         <v>5</v>
       </c>
@@ -5749,7 +5773,9 @@
       <c r="S17" s="15">
         <v>5</v>
       </c>
-      <c r="T17" s="15"/>
+      <c r="T17" s="15">
+        <v>5</v>
+      </c>
       <c r="U17" s="16">
         <v>5</v>
       </c>
@@ -5809,7 +5835,9 @@
       <c r="S18" s="15">
         <v>5</v>
       </c>
-      <c r="T18" s="15"/>
+      <c r="T18" s="15">
+        <v>5</v>
+      </c>
       <c r="U18" s="16">
         <v>5</v>
       </c>
@@ -5888,7 +5916,7 @@
       </c>
       <c r="T19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="1"/>
@@ -5974,7 +6002,9 @@
       <c r="S21" s="15">
         <v>5</v>
       </c>
-      <c r="T21" s="15"/>
+      <c r="T21" s="15">
+        <v>5</v>
+      </c>
       <c r="U21" s="15">
         <v>5</v>
       </c>
@@ -6034,7 +6064,9 @@
       <c r="S22" s="15">
         <v>5</v>
       </c>
-      <c r="T22" s="15"/>
+      <c r="T22" s="15">
+        <v>5</v>
+      </c>
       <c r="U22" s="15">
         <v>5</v>
       </c>
@@ -6094,7 +6126,9 @@
       <c r="S23" s="15">
         <v>5</v>
       </c>
-      <c r="T23" s="15"/>
+      <c r="T23" s="15">
+        <v>5</v>
+      </c>
       <c r="U23" s="15">
         <v>5</v>
       </c>
@@ -6173,7 +6207,7 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U24" s="5">
         <f t="shared" si="2"/>
@@ -6259,7 +6293,9 @@
       <c r="S26" s="15">
         <v>3</v>
       </c>
-      <c r="T26" s="15"/>
+      <c r="T26" s="15">
+        <v>1</v>
+      </c>
       <c r="U26" s="15">
         <v>0</v>
       </c>
@@ -6319,7 +6355,9 @@
       <c r="S27" s="15">
         <v>5</v>
       </c>
-      <c r="T27" s="15"/>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
       <c r="U27" s="15">
         <v>0</v>
       </c>
@@ -6398,7 +6436,7 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U28" s="5">
         <f t="shared" si="3"/>
@@ -6484,7 +6522,9 @@
       <c r="S30" s="15">
         <v>5</v>
       </c>
-      <c r="T30" s="15"/>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
       <c r="U30" s="15">
         <v>0</v>
       </c>
@@ -6544,7 +6584,9 @@
       <c r="S31" s="15">
         <v>5</v>
       </c>
-      <c r="T31" s="15"/>
+      <c r="T31" s="15">
+        <v>0</v>
+      </c>
       <c r="U31" s="15">
         <v>0</v>
       </c>
@@ -6604,7 +6646,9 @@
       <c r="S32" s="15">
         <v>5</v>
       </c>
-      <c r="T32" s="15"/>
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
       <c r="U32" s="15">
         <v>0</v>
       </c>
@@ -6664,7 +6708,9 @@
       <c r="S33" s="15">
         <v>5</v>
       </c>
-      <c r="T33" s="15"/>
+      <c r="T33" s="15">
+        <v>0</v>
+      </c>
       <c r="U33" s="15">
         <v>0</v>
       </c>
@@ -6724,7 +6770,9 @@
       <c r="S34" s="15">
         <v>5</v>
       </c>
-      <c r="T34" s="15"/>
+      <c r="T34" s="15">
+        <v>0</v>
+      </c>
       <c r="U34" s="15">
         <v>0</v>
       </c>
@@ -6889,7 +6937,9 @@
       <c r="S37" s="15">
         <v>5</v>
       </c>
-      <c r="T37" s="15"/>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
       <c r="U37" s="15">
         <v>0</v>
       </c>
@@ -6949,7 +6999,9 @@
       <c r="S38" s="15">
         <v>5</v>
       </c>
-      <c r="T38" s="15"/>
+      <c r="T38" s="15">
+        <v>0</v>
+      </c>
       <c r="U38" s="15">
         <v>0</v>
       </c>
@@ -7009,7 +7061,9 @@
       <c r="S39" s="15">
         <v>5</v>
       </c>
-      <c r="T39" s="15"/>
+      <c r="T39" s="15">
+        <v>0</v>
+      </c>
       <c r="U39" s="15">
         <v>0</v>
       </c>
@@ -7069,7 +7123,9 @@
       <c r="S40" s="15">
         <v>5</v>
       </c>
-      <c r="T40" s="15"/>
+      <c r="T40" s="15">
+        <v>0</v>
+      </c>
       <c r="U40" s="15">
         <v>0</v>
       </c>
@@ -7234,7 +7290,9 @@
       <c r="S43" s="15">
         <v>5</v>
       </c>
-      <c r="T43" s="15"/>
+      <c r="T43" s="15">
+        <v>5</v>
+      </c>
       <c r="U43" s="15">
         <v>0</v>
       </c>
@@ -7294,7 +7352,9 @@
       <c r="S44" s="15">
         <v>5</v>
       </c>
-      <c r="T44" s="15"/>
+      <c r="T44" s="15">
+        <v>4</v>
+      </c>
       <c r="U44" s="15">
         <v>0</v>
       </c>
@@ -7354,7 +7414,9 @@
       <c r="S45" s="15">
         <v>5</v>
       </c>
-      <c r="T45" s="15"/>
+      <c r="T45" s="15">
+        <v>4</v>
+      </c>
       <c r="U45" s="15">
         <v>0</v>
       </c>
@@ -7414,7 +7476,9 @@
       <c r="S46" s="15">
         <v>2</v>
       </c>
-      <c r="T46" s="15"/>
+      <c r="T46" s="15">
+        <v>4</v>
+      </c>
       <c r="U46" s="15">
         <v>0</v>
       </c>
@@ -7492,7 +7556,7 @@
       </c>
       <c r="T47" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="U47" s="5">
         <f t="shared" si="6"/>
@@ -7576,7 +7640,9 @@
       <c r="S49" s="15">
         <v>0</v>
       </c>
-      <c r="T49" s="15"/>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
       <c r="U49" s="15">
         <v>0</v>
       </c>
@@ -7843,7 +7909,7 @@
       </c>
       <c r="T54" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.1944444444444446</v>
       </c>
       <c r="U54" s="3">
         <f t="shared" si="8"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D10983-A1A9-2B45-A215-2F207BF6A4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C2B7E6-0C28-3047-B6EB-C73115B160CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43880" yWindow="1940" windowWidth="27640" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="37700" yWindow="1640" windowWidth="35120" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
     <sheet name="Laboratorios" sheetId="2" r:id="rId2"/>
-    <sheet name="Examens" sheetId="3" r:id="rId3"/>
+    <sheet name="Examenes" sheetId="3" r:id="rId3"/>
     <sheet name="TotalCurso" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -339,13 +339,28 @@
   </si>
   <si>
     <t>Revisar extemson de archivos</t>
+  </si>
+  <si>
+    <t>Proyecto 25%</t>
+  </si>
+  <si>
+    <t>Actividades 25%</t>
+  </si>
+  <si>
+    <t>Laboratorio 25%</t>
+  </si>
+  <si>
+    <t>Parcial 1 10%</t>
+  </si>
+  <si>
+    <t>Parcial 3 15%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +393,20 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF38B9C7"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF38B9C7"/>
       <name val="Menlo"/>
       <family val="2"/>
@@ -462,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -489,6 +518,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,7 +837,7 @@
   <dimension ref="B3:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4985,7 +5016,7 @@
   <dimension ref="B3:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5000,142 +5031,143 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="C4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11" t="s">
+    <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="18">
         <f>(C19+C24+C28+C35+C41+C47+C50+C52+C9)/9</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="18">
         <f t="shared" ref="D5:U5" si="0">(D19+D24+D28+D35+D41+D47+D50+D52+D9)/9</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="18">
         <f t="shared" si="0"/>
         <v>3.0277777777777777</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>3.8194444444444446</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="18">
         <f t="shared" si="0"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="18">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="18">
         <f t="shared" si="0"/>
         <v>2.0555555555555554</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="18">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="18">
         <f t="shared" si="0"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="18">
         <f t="shared" si="0"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="18">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="18">
         <f t="shared" si="0"/>
         <v>3.6111111111111112</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="18">
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="18">
         <f t="shared" si="0"/>
         <v>3.2222222222222223</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="18">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="18">
         <f t="shared" si="0"/>
         <v>3.6944444444444446</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="18">
         <f t="shared" si="0"/>
         <v>2.1944444444444446</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="18">
         <f t="shared" si="0"/>
         <v>1.1111111111111112</v>
       </c>
@@ -7935,12 +7967,107 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
-  <dimension ref="A1"/>
+  <dimension ref="C7:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="D7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C2B7E6-0C28-3047-B6EB-C73115B160CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC21DC-90C9-AA4A-8D7F-F978C6768A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37700" yWindow="1640" windowWidth="35120" windowHeight="18020" activeTab="1" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="37700" yWindow="1640" windowWidth="35120" windowHeight="18020" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="105">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -5015,7 +5015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -7955,12 +7955,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
-  <dimension ref="A1"/>
+  <dimension ref="B5:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7969,16 +8032,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
   <dimension ref="C7:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="C7" s="3"/>
       <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
@@ -8038,33 +8103,356 @@
       </c>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="D9" s="3">
+        <f>Actividades!C5</f>
+        <v>3.8630952380952381</v>
+      </c>
+      <c r="E9" s="3">
+        <f>Actividades!D5</f>
+        <v>4.4880952380952381</v>
+      </c>
+      <c r="F9" s="3">
+        <f>Actividades!E5</f>
+        <v>2.1981292517006805</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Actividades!F5</f>
+        <v>4.2440476190476186</v>
+      </c>
+      <c r="H9" s="3">
+        <f>Actividades!G5</f>
+        <v>2.7253401360544216</v>
+      </c>
+      <c r="I9" s="3">
+        <f>Actividades!H5</f>
+        <v>4.0059523809523814</v>
+      </c>
+      <c r="J9" s="3">
+        <f>Actividades!I5</f>
+        <v>3.1420068027210881</v>
+      </c>
+      <c r="K9" s="3">
+        <f>Actividades!J5</f>
+        <v>3.7431972789115648</v>
+      </c>
+      <c r="L9" s="3">
+        <f>Actividades!K5</f>
+        <v>4.0051020408163263</v>
+      </c>
+      <c r="M9" s="3">
+        <f>Actividades!L5</f>
+        <v>1.5195578231292519</v>
+      </c>
+      <c r="N9" s="3">
+        <f>Actividades!M5</f>
+        <v>4.0943877551020407</v>
+      </c>
+      <c r="O9" s="3">
+        <f>Actividades!N5</f>
+        <v>3.7015306122448979</v>
+      </c>
+      <c r="P9" s="3">
+        <f>Actividades!O5</f>
+        <v>2.7848639455782309</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>Actividades!P5</f>
+        <v>0.625</v>
+      </c>
+      <c r="R9" s="3">
+        <f>Actividades!Q5</f>
+        <v>3.0824829931972784</v>
+      </c>
+      <c r="S9" s="3">
+        <f>Actividades!R5</f>
+        <v>2.9277210884353742</v>
+      </c>
+      <c r="T9" s="3">
+        <f>Actividades!S5</f>
+        <v>2.5848639455782312</v>
+      </c>
+      <c r="U9" s="3">
+        <f>Actividades!T5</f>
+        <v>3.3869047619047623</v>
+      </c>
+      <c r="V9" s="3">
+        <f>Actividades!U5</f>
+        <v>0.78401360544217691</v>
+      </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="D10" s="3">
+        <f>Laboratorios!C5</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="E10" s="3">
+        <f>Laboratorios!D5</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F10" s="3">
+        <f>Laboratorios!E5</f>
+        <v>3.0277777777777777</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Laboratorios!F5</f>
+        <v>3.8194444444444446</v>
+      </c>
+      <c r="H10" s="3">
+        <f>Laboratorios!G5</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="I10" s="3">
+        <f>Laboratorios!H5</f>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="J10" s="3">
+        <f>Laboratorios!I5</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K10" s="3">
+        <f>Laboratorios!J5</f>
+        <v>2.0555555555555554</v>
+      </c>
+      <c r="L10" s="3">
+        <f>Laboratorios!K5</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="M10" s="3">
+        <f>Laboratorios!L5</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="N10" s="3">
+        <f>Laboratorios!M5</f>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="O10" s="3">
+        <f>Laboratorios!N5</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="P10" s="3">
+        <f>Laboratorios!O5</f>
+        <v>3.6111111111111112</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>Laboratorios!P5</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R10" s="3">
+        <f>Laboratorios!Q5</f>
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="S10" s="3">
+        <f>Laboratorios!R5</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="T10" s="3">
+        <f>Laboratorios!S5</f>
+        <v>3.6944444444444446</v>
+      </c>
+      <c r="U10" s="3">
+        <f>Laboratorios!T5</f>
+        <v>2.1944444444444446</v>
+      </c>
+      <c r="V10" s="3">
+        <f>Laboratorios!U5</f>
+        <v>1.1111111111111112</v>
+      </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D8*0.25+D9*0.25+D10*0.25+D11*0.1+D12*0.15</f>
+        <v>2.0768849206349209</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13:V13" si="0">E8*0.25+E9*0.25+E10*0.25+E11*0.1+E12*0.15</f>
+        <v>2.1636904761904763</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3064767573696145</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0158730158730158</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3757794784580497</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9737103174603177</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6188350340136055</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4496882086167799</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8346088435374148</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9354450113378685</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9958191609977325</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6198270975056688</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5989937641723355</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5761763038548753</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4263747165532878</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.569827097505669</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3953373015873018</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47378117913832202</v>
       </c>
     </row>
   </sheetData>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D658C313-311A-C24D-9239-3A05E38B20EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F64DE-D711-6C40-895B-66AC8C588C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49980" yWindow="2160" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="42440" yWindow="2220" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="127">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>Total Punto 2</t>
+  </si>
+  <si>
+    <t>falla punto fijo</t>
+  </si>
+  <si>
+    <t>falla punto fijo, construir  grafica 10 valores</t>
+  </si>
+  <si>
+    <t>Contruir grafica 10 valore</t>
   </si>
 </sst>
 </file>
@@ -8083,7 +8092,7 @@
   <dimension ref="A5:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8203,7 +8212,9 @@
       <c r="H7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -8240,7 +8251,9 @@
       <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -8277,7 +8290,9 @@
       <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -8314,7 +8329,9 @@
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -8359,7 +8376,7 @@
       </c>
       <c r="I11" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" si="0"/>
@@ -8422,18 +8439,20 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F12" s="4">
         <v>5</v>
       </c>
       <c r="G12" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H12" s="4">
         <v>4.5</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <v>4.5</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -8462,7 +8481,7 @@
       </c>
       <c r="E13" s="7">
         <f t="shared" si="3"/>
-        <v>4.2222222222222223</v>
+        <v>4.3888888888888884</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" ref="F13" si="4">(F7+F11+F12)/3</f>
@@ -8470,7 +8489,7 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" ref="G13" si="5">(G7+G11+G12)/3</f>
-        <v>4.9444444444444438</v>
+        <v>4.7777777777777777</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="3"/>
@@ -8478,7 +8497,7 @@
       </c>
       <c r="I13" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="3"/>
@@ -8554,7 +8573,9 @@
       <c r="H14" s="4">
         <v>5</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -8591,7 +8612,9 @@
       <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -8628,7 +8651,9 @@
       <c r="H16" s="4">
         <v>5</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -8665,7 +8690,9 @@
       <c r="H17" s="4">
         <v>5</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -8702,7 +8729,9 @@
       <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4">
+        <v>4</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -8747,7 +8776,7 @@
       </c>
       <c r="I19" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="6"/>
@@ -8813,7 +8842,7 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" si="9"/>
-        <v>4.4555555555555557</v>
+        <v>4.5722222222222211</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" ref="F20" si="10">F13*0.7+F19*0.3</f>
@@ -8821,7 +8850,7 @@
       </c>
       <c r="G20" s="20">
         <f t="shared" ref="G20" si="11">G13*0.7+G19*0.3</f>
-        <v>4.8411111111111103</v>
+        <v>4.724444444444444</v>
       </c>
       <c r="H20" s="20">
         <f t="shared" si="9"/>
@@ -8829,7 +8858,7 @@
       </c>
       <c r="I20" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.8233333333333324</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="9"/>
@@ -8880,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>120</v>
       </c>
@@ -8889,19 +8918,19 @@
         <v>121</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>121</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>121</v>
@@ -9268,7 +9297,7 @@
       </c>
       <c r="F11" s="4">
         <f>Examenes!E20</f>
-        <v>4.4555555555555557</v>
+        <v>4.5722222222222211</v>
       </c>
       <c r="G11" s="4">
         <f>Examenes!F20</f>
@@ -9276,7 +9305,7 @@
       </c>
       <c r="H11" s="4">
         <f>Examenes!G20</f>
-        <v>4.8411111111111103</v>
+        <v>4.724444444444444</v>
       </c>
       <c r="I11" s="4">
         <f>Examenes!H20</f>
@@ -9284,7 +9313,7 @@
       </c>
       <c r="J11" s="4">
         <f>Examenes!I20</f>
-        <v>0</v>
+        <v>4.8233333333333324</v>
       </c>
       <c r="K11" s="4">
         <f>Examenes!J20</f>
@@ -9373,7 +9402,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>1.75203231292517</v>
+        <v>1.7636989795918367</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
@@ -9381,7 +9410,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>1.8598905895691606</v>
+        <v>1.8482239229024942</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
@@ -9389,7 +9418,7 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>1.6188350340136055</v>
+        <v>2.101168367346939</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F64DE-D711-6C40-895B-66AC8C588C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6249CD52-633B-D547-89CE-55DB3C15FBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42440" yWindow="2220" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="39420" yWindow="1800" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="129">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -356,9 +356,6 @@
     <t>Parcial 3 15%</t>
   </si>
   <si>
-    <t>Examen 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Objeto caida vertical </t>
   </si>
   <si>
@@ -420,6 +417,15 @@
   </si>
   <si>
     <t>Contruir grafica 10 valore</t>
+  </si>
+  <si>
+    <t>Examen 1: 10%</t>
+  </si>
+  <si>
+    <t>Mejorar graficos, metodos no convergen y grafico de pandas debe mejorar</t>
+  </si>
+  <si>
+    <t>Falta metodo de punto fijo</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -654,6 +660,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5150,7 +5159,7 @@
   <dimension ref="B3:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5167,10 +5176,10 @@
     </row>
     <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -5226,82 +5235,82 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="29">
         <f>(C19+C24+C28+C35+C41+C47+C50+C52+C9)/9</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="29">
         <f t="shared" ref="D5:U5" si="0">(D19+D24+D28+D35+D41+D47+D50+D52+D9)/9</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="29">
         <f t="shared" si="0"/>
         <v>3.0277777777777777</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="29">
         <f t="shared" si="0"/>
         <v>3.8194444444444446</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="29">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="29">
         <f t="shared" si="0"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="29">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="29">
         <f t="shared" si="0"/>
         <v>2.0555555555555554</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="29">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="29">
         <f t="shared" si="0"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="29">
         <f t="shared" si="0"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="29">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="29">
         <f t="shared" si="0"/>
         <v>3.6111111111111112</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="29">
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="29">
         <f t="shared" si="0"/>
         <v>3.2222222222222223</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="29">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>3.6944444444444446</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="29">
         <f t="shared" si="0"/>
         <v>2.1944444444444446</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="29">
         <f t="shared" si="0"/>
         <v>1.1111111111111112</v>
       </c>
@@ -8092,7 +8101,7 @@
   <dimension ref="A5:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8164,7 +8173,7 @@
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="4"/>
@@ -8189,11 +8198,11 @@
     </row>
     <row r="7" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -8215,8 +8224,12 @@
       <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -8231,7 +8244,7 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
@@ -8254,8 +8267,12 @@
       <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -8270,7 +8287,7 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -8293,8 +8310,12 @@
       <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -8309,7 +8330,7 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -8332,8 +8353,12 @@
       <c r="I10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -8348,7 +8373,7 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="17">
         <f>(C8+C9+C10)/3</f>
@@ -8380,7 +8405,7 @@
       </c>
       <c r="J11" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" si="0"/>
@@ -8430,7 +8455,7 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="4">
         <v>2.5</v>
@@ -8453,7 +8478,9 @@
       <c r="I12" s="4">
         <v>4.5</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -8469,7 +8496,7 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="7">
         <f>(C7+C11+C12)/3</f>
@@ -8501,11 +8528,11 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="3"/>
@@ -8550,11 +8577,11 @@
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
@@ -8576,8 +8603,12 @@
       <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -8592,7 +8623,7 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="4">
         <v>5</v>
@@ -8615,8 +8646,12 @@
       <c r="I15" s="4">
         <v>5</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -8631,7 +8666,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="4">
         <v>5</v>
@@ -8654,8 +8689,12 @@
       <c r="I16" s="4">
         <v>5</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -8670,7 +8709,7 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
       <c r="B17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4">
         <v>5</v>
@@ -8693,8 +8732,12 @@
       <c r="I17" s="4">
         <v>5</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -8709,7 +8752,7 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
@@ -8732,8 +8775,12 @@
       <c r="I18" s="4">
         <v>4</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -8748,7 +8795,7 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="7">
         <f>(C14+C15+C16+C17+C18)/5</f>
@@ -8780,11 +8827,11 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" s="7">
         <f t="shared" si="6"/>
@@ -8829,7 +8876,7 @@
     </row>
     <row r="20" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="20">
@@ -8862,11 +8909,11 @@
       </c>
       <c r="J20" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.6111111111111107</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="L20" s="20">
         <f t="shared" si="9"/>
@@ -8909,67 +8956,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -8989,8 +9036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
   <dimension ref="C7:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9063,61 +9110,61 @@
       <c r="C8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
+      <c r="D8" s="31">
+        <v>0</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0</v>
+      </c>
+      <c r="L8" s="31">
+        <v>0</v>
+      </c>
+      <c r="M8" s="31">
+        <v>0</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0</v>
+      </c>
+      <c r="O8" s="31">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>0</v>
+      </c>
+      <c r="R8" s="31">
+        <v>0</v>
+      </c>
+      <c r="S8" s="31">
+        <v>0</v>
+      </c>
+      <c r="T8" s="31">
+        <v>0</v>
+      </c>
+      <c r="U8" s="31">
+        <v>0</v>
+      </c>
+      <c r="V8" s="31">
         <v>0</v>
       </c>
     </row>
@@ -9125,79 +9172,79 @@
       <c r="C9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="31">
         <f>Actividades!C5</f>
         <v>3.8630952380952381</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="31">
         <f>Actividades!D5</f>
         <v>4.4880952380952381</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="31">
         <f>Actividades!E5</f>
         <v>2.1981292517006805</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="31">
         <f>Actividades!F5</f>
         <v>4.2440476190476186</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="31">
         <f>Actividades!G5</f>
         <v>2.7253401360544216</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="31">
         <f>Actividades!H5</f>
         <v>4.0059523809523814</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="31">
         <f>Actividades!I5</f>
         <v>3.1420068027210881</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="31">
         <f>Actividades!J5</f>
         <v>3.7431972789115648</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="31">
         <f>Actividades!K5</f>
         <v>4.0051020408163263</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="31">
         <f>Actividades!L5</f>
         <v>1.5195578231292519</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="31">
         <f>Actividades!M5</f>
         <v>4.0943877551020407</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="31">
         <f>Actividades!N5</f>
         <v>3.7015306122448979</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="31">
         <f>Actividades!O5</f>
         <v>2.7848639455782309</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="31">
         <f>Actividades!P5</f>
         <v>0.625</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="31">
         <f>Actividades!Q5</f>
         <v>3.0824829931972784</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="31">
         <f>Actividades!R5</f>
         <v>2.9277210884353742</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="31">
         <f>Actividades!S5</f>
         <v>2.5848639455782312</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="31">
         <f>Actividades!T5</f>
         <v>3.3869047619047623</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="31">
         <f>Actividades!U5</f>
         <v>0.78401360544217691</v>
       </c>
@@ -9206,79 +9253,79 @@
       <c r="C10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="31">
         <f>Laboratorios!C5</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="31">
         <f>Laboratorios!D5</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="31">
         <f>Laboratorios!E5</f>
         <v>3.0277777777777777</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="31">
         <f>Laboratorios!F5</f>
         <v>3.8194444444444446</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="31">
         <f>Laboratorios!G5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="31">
         <f>Laboratorios!H5</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="31">
         <f>Laboratorios!I5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="31">
         <f>Laboratorios!J5</f>
         <v>2.0555555555555554</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="31">
         <f>Laboratorios!K5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="31">
         <f>Laboratorios!L5</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="31">
         <f>Laboratorios!M5</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="31">
         <f>Laboratorios!N5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="31">
         <f>Laboratorios!O5</f>
         <v>3.6111111111111112</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="31">
         <f>Laboratorios!P5</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="31">
         <f>Laboratorios!Q5</f>
         <v>3.2222222222222223</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="31">
         <f>Laboratorios!R5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="31">
         <f>Laboratorios!S5</f>
         <v>3.6944444444444446</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="31">
         <f>Laboratorios!T5</f>
         <v>2.1944444444444446</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="31">
         <f>Laboratorios!U5</f>
         <v>1.1111111111111112</v>
       </c>
@@ -9287,79 +9334,79 @@
       <c r="C11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="31">
         <f>Examenes!C20</f>
         <v>4.3566666666666665</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="31">
         <f>Examenes!D20</f>
         <v>3.7555555555555551</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="31">
         <f>Examenes!E20</f>
         <v>4.5722222222222211</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="31">
         <f>Examenes!F20</f>
         <v>5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="31">
         <f>Examenes!G20</f>
         <v>4.724444444444444</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="31">
         <f>Examenes!H20</f>
         <v>4.5722222222222211</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="31">
         <f>Examenes!I20</f>
         <v>4.8233333333333324</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="31">
         <f>Examenes!J20</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
+        <v>4.6111111111111107</v>
+      </c>
+      <c r="L11" s="31">
         <f>Examenes!K20</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
+        <v>2.3666666666666667</v>
+      </c>
+      <c r="M11" s="31">
         <f>Examenes!L20</f>
         <v>0</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="31">
         <f>Examenes!M20</f>
         <v>0</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="31">
         <f>Examenes!N20</f>
         <v>0</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="31">
         <f>Examenes!O20</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="31">
         <f>Examenes!P20</f>
         <v>0</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="31">
         <f>Examenes!Q20</f>
         <v>0</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="31">
         <f>Examenes!R20</f>
         <v>0</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="31">
         <f>Examenes!S20</f>
         <v>0</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="31">
         <f>Examenes!T20</f>
         <v>0</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="31">
         <f>Examenes!U20</f>
         <v>0</v>
       </c>
@@ -9368,103 +9415,103 @@
       <c r="C12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="31">
         <f>D8*0.25+D9*0.25+D10*0.25+D11*0.1+D12*0.15</f>
         <v>2.5125515873015876</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="31">
         <f t="shared" ref="E13:V13" si="0">E8*0.25+E9*0.25+E10*0.25+E11*0.1+E12*0.15</f>
         <v>2.5392460317460319</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="31">
         <f t="shared" si="0"/>
         <v>1.7636989795918367</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="31">
         <f t="shared" si="0"/>
         <v>2.5158730158730158</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="31">
         <f t="shared" si="0"/>
         <v>1.8482239229024942</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="31">
         <f t="shared" si="0"/>
         <v>2.4309325396825399</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="31">
         <f t="shared" si="0"/>
         <v>2.101168367346939</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="31">
         <f t="shared" si="0"/>
-        <v>1.4496882086167799</v>
-      </c>
-      <c r="L13" s="4">
+        <v>1.910799319727891</v>
+      </c>
+      <c r="L13" s="31">
         <f t="shared" si="0"/>
-        <v>1.8346088435374148</v>
-      </c>
-      <c r="M13" s="4">
+        <v>2.0712755102040816</v>
+      </c>
+      <c r="M13" s="31">
         <f t="shared" si="0"/>
         <v>0.9354450113378685</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="31">
         <f t="shared" si="0"/>
         <v>1.9958191609977325</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="31">
         <f t="shared" si="0"/>
         <v>1.6198270975056688</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="31">
         <f t="shared" si="0"/>
         <v>1.5989937641723355</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="31">
         <f t="shared" si="0"/>
         <v>0.25347222222222221</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="31">
         <f t="shared" si="0"/>
         <v>1.5761763038548753</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="31">
         <f t="shared" si="0"/>
         <v>1.4263747165532878</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="31">
         <f t="shared" si="0"/>
         <v>1.569827097505669</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="31">
         <f t="shared" si="0"/>
         <v>1.3953373015873018</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="31">
         <f t="shared" si="0"/>
         <v>0.47378117913832202</v>
       </c>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6249CD52-633B-D547-89CE-55DB3C15FBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD32AF-3795-8847-8A74-9D1FCB59F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39420" yWindow="1800" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="41000" yWindow="960" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -426,13 +426,16 @@
   </si>
   <si>
     <t>Falta metodo de punto fijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay examen </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,7 +459,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF38B9C7"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -464,21 +474,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF38B9C7"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color rgb="FF38B9C7"/>
       <name val="Menlo"/>
       <family val="2"/>
@@ -511,7 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -630,20 +626,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -660,9 +649,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,7 +983,7 @@
   <dimension ref="B3:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,7 +991,7 @@
     <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="20" width="7.1640625" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" customWidth="1"/>
+    <col min="21" max="21" width="22.1640625" customWidth="1"/>
     <col min="22" max="25" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1000,148 +1003,149 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13" t="s">
+    <row r="4" spans="2:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+      <c r="C4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="24">
         <f>SUM(C12+C17+C26+C33+C38+C42+C46+C50+C54+C57+C60+C65+C70+C76)/14</f>
         <v>3.8630952380952381</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="24">
         <f>SUM(D12+D17+D26+D33+D38+D42+D46+D50+D54+D57+D60+D65+D70+D76)/14</f>
         <v>4.4880952380952381</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="24">
         <f>SUM(E12+E17+E26+E33+E38+E42+E46+E50+E54+E57+E60+E65+E70+E76)/14</f>
         <v>2.1981292517006805</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="24">
         <f>SUM(F12+F17+F26+F33+F38+F42+F46+F50+F54+F57+F60+F65+F70+F76)/14</f>
         <v>4.2440476190476186</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="24">
         <f>SUM(G12+G17+G26+G33+G38+G42+G46+G50+G54+G57+G60+G65+G70+G76)/14</f>
         <v>2.7253401360544216</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="24">
         <f>SUM(H12+H17+H26+H33+H38+H42+H46+H50+H54+H57+H60+H65+H70+H76)/14</f>
         <v>4.0059523809523814</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="24">
         <f>SUM(I12+I17+I26+I33+I38+I42+I46+I50+I54+I57+I60+I65+I70+I76)/14</f>
         <v>3.1420068027210881</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="24">
         <f>SUM(J12+J17+J26+J33+J38+J42+J46+J50+J54+J57+J60+J65+J70+J76)/14</f>
         <v>3.7431972789115648</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="24">
         <f>SUM(K12+K17+K26+K33+K38+K42+K46+K50+K54+K57+K60+K65+K70+K76)/14</f>
         <v>4.0051020408163263</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="24">
         <f>SUM(L12+L17+L26+L33+L38+L42+L46+L50+L54+L57+L60+L65+L70+L76)/14</f>
         <v>1.5195578231292519</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="24">
         <f>SUM(M12+M17+M26+M33+M38+M42+M46+M50+M54+M57+M60+M65+M70+M76)/14</f>
         <v>4.0943877551020407</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="24">
         <f>SUM(N12+N17+N26+N33+N38+N42+N46+N50+N54+N57+N60+N65+N70+N76)/14</f>
         <v>3.7015306122448979</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="24">
         <f>SUM(O12+O17+O26+O33+O38+O42+O46+O50+O54+O57+O60+O65+O70+O76)/14</f>
         <v>2.7848639455782309</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="24">
         <f>SUM(P12+P17+P26+P33+P38+P42+P46+P50+P54+P57+P60+P65+P70+P76)/14</f>
         <v>0.625</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="24">
         <f>SUM(Q12+Q17+Q26+Q33+Q38+Q42+Q46+Q50+Q54+Q57+Q60+Q65+Q70+Q76)/14</f>
         <v>3.0824829931972784</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="24">
         <f>SUM(R12+R17+R26+R33+R38+R42+R46+R50+R54+R57+R60+R65+R70+R76)/14</f>
         <v>2.9277210884353742</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="24">
         <f>SUM(S12+S17+S26+S33+S38+S42+S46+S50+S54+S57+S60+S65+S70+S76)/14</f>
         <v>2.5848639455782312</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="24">
         <f>SUM(T12+T17+T26+T33+T38+T42+T46+T50+T54+T57+T60+T65+T70+T76)/14</f>
         <v>3.3869047619047623</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="24">
         <f>SUM(U12+U17+U26+U33+U38+U42+U46+U50+U54+U57+U60+U65+U70+U76)/14</f>
         <v>0.78401360544217691</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5159,7 +5163,7 @@
   <dimension ref="B3:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="B5" sqref="B4:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5174,203 +5178,203 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30" t="s">
+    <row r="4" spans="2:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="2:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <f>(C19+C24+C28+C35+C41+C47+C50+C52+C9)/9</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="24">
         <f t="shared" ref="D5:U5" si="0">(D19+D24+D28+D35+D41+D47+D50+D52+D9)/9</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="24">
         <f t="shared" si="0"/>
         <v>3.0277777777777777</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <f t="shared" si="0"/>
         <v>3.8194444444444446</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="24">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="24">
         <f t="shared" si="0"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="24">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="24">
         <f t="shared" si="0"/>
         <v>2.0555555555555554</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="24">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="24">
         <f t="shared" si="0"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="24">
         <f t="shared" si="0"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="24">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="24">
         <f t="shared" si="0"/>
         <v>3.6111111111111112</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="24">
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="24">
         <f t="shared" si="0"/>
         <v>3.2222222222222223</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="24">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="24">
         <f t="shared" si="0"/>
         <v>3.6944444444444446</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="24">
         <f t="shared" si="0"/>
         <v>2.1944444444444446</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="24">
         <f t="shared" si="0"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="C7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5432,7 +5436,7 @@
       <c r="T8" s="4">
         <v>5</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="14">
         <v>5</v>
       </c>
     </row>
@@ -5498,522 +5502,522 @@
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="17">
-        <v>5</v>
-      </c>
-      <c r="D11" s="17">
-        <v>5</v>
-      </c>
-      <c r="E11" s="17">
-        <v>5</v>
-      </c>
-      <c r="F11" s="17">
-        <v>5</v>
-      </c>
-      <c r="G11" s="17">
-        <v>5</v>
-      </c>
-      <c r="H11" s="17">
-        <v>5</v>
-      </c>
-      <c r="I11" s="17">
-        <v>5</v>
-      </c>
-      <c r="J11" s="17">
-        <v>5</v>
-      </c>
-      <c r="K11" s="17">
-        <v>5</v>
-      </c>
-      <c r="L11" s="17">
-        <v>5</v>
-      </c>
-      <c r="M11" s="17">
-        <v>5</v>
-      </c>
-      <c r="N11" s="17">
-        <v>5</v>
-      </c>
-      <c r="O11" s="17">
-        <v>5</v>
-      </c>
-      <c r="P11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>5</v>
-      </c>
-      <c r="R11" s="17">
-        <v>5</v>
-      </c>
-      <c r="S11" s="17">
-        <v>5</v>
-      </c>
-      <c r="T11" s="17">
-        <v>5</v>
-      </c>
-      <c r="U11" s="17">
+      <c r="C11" s="16">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5</v>
+      </c>
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
+      <c r="H11" s="16">
+        <v>5</v>
+      </c>
+      <c r="I11" s="16">
+        <v>5</v>
+      </c>
+      <c r="J11" s="16">
+        <v>5</v>
+      </c>
+      <c r="K11" s="16">
+        <v>5</v>
+      </c>
+      <c r="L11" s="16">
+        <v>5</v>
+      </c>
+      <c r="M11" s="16">
+        <v>5</v>
+      </c>
+      <c r="N11" s="16">
+        <v>5</v>
+      </c>
+      <c r="O11" s="16">
+        <v>5</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>5</v>
+      </c>
+      <c r="R11" s="16">
+        <v>5</v>
+      </c>
+      <c r="S11" s="16">
+        <v>5</v>
+      </c>
+      <c r="T11" s="16">
+        <v>5</v>
+      </c>
+      <c r="U11" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="17">
-        <v>5</v>
-      </c>
-      <c r="D12" s="17">
-        <v>5</v>
-      </c>
-      <c r="E12" s="17">
-        <v>5</v>
-      </c>
-      <c r="F12" s="17">
-        <v>5</v>
-      </c>
-      <c r="G12" s="17">
-        <v>5</v>
-      </c>
-      <c r="H12" s="17">
-        <v>5</v>
-      </c>
-      <c r="I12" s="17">
-        <v>5</v>
-      </c>
-      <c r="J12" s="17">
-        <v>5</v>
-      </c>
-      <c r="K12" s="17">
-        <v>5</v>
-      </c>
-      <c r="L12" s="17">
-        <v>5</v>
-      </c>
-      <c r="M12" s="17">
-        <v>5</v>
-      </c>
-      <c r="N12" s="17">
-        <v>5</v>
-      </c>
-      <c r="O12" s="17">
-        <v>5</v>
-      </c>
-      <c r="P12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>5</v>
-      </c>
-      <c r="R12" s="17">
-        <v>5</v>
-      </c>
-      <c r="S12" s="17">
-        <v>5</v>
-      </c>
-      <c r="T12" s="17">
-        <v>5</v>
-      </c>
-      <c r="U12" s="17">
+      <c r="C12" s="16">
+        <v>5</v>
+      </c>
+      <c r="D12" s="16">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5</v>
+      </c>
+      <c r="F12" s="16">
+        <v>5</v>
+      </c>
+      <c r="G12" s="16">
+        <v>5</v>
+      </c>
+      <c r="H12" s="16">
+        <v>5</v>
+      </c>
+      <c r="I12" s="16">
+        <v>5</v>
+      </c>
+      <c r="J12" s="16">
+        <v>5</v>
+      </c>
+      <c r="K12" s="16">
+        <v>5</v>
+      </c>
+      <c r="L12" s="16">
+        <v>5</v>
+      </c>
+      <c r="M12" s="16">
+        <v>5</v>
+      </c>
+      <c r="N12" s="16">
+        <v>5</v>
+      </c>
+      <c r="O12" s="16">
+        <v>5</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>5</v>
+      </c>
+      <c r="R12" s="16">
+        <v>5</v>
+      </c>
+      <c r="S12" s="16">
+        <v>5</v>
+      </c>
+      <c r="T12" s="16">
+        <v>5</v>
+      </c>
+      <c r="U12" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="17">
-        <v>5</v>
-      </c>
-      <c r="D13" s="17">
-        <v>5</v>
-      </c>
-      <c r="E13" s="17">
-        <v>5</v>
-      </c>
-      <c r="F13" s="17">
-        <v>5</v>
-      </c>
-      <c r="G13" s="17">
-        <v>5</v>
-      </c>
-      <c r="H13" s="17">
-        <v>5</v>
-      </c>
-      <c r="I13" s="17">
-        <v>5</v>
-      </c>
-      <c r="J13" s="17">
-        <v>5</v>
-      </c>
-      <c r="K13" s="17">
-        <v>5</v>
-      </c>
-      <c r="L13" s="17">
-        <v>5</v>
-      </c>
-      <c r="M13" s="17">
-        <v>5</v>
-      </c>
-      <c r="N13" s="17">
-        <v>5</v>
-      </c>
-      <c r="O13" s="17">
-        <v>5</v>
-      </c>
-      <c r="P13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>5</v>
-      </c>
-      <c r="R13" s="17">
-        <v>5</v>
-      </c>
-      <c r="S13" s="17">
-        <v>5</v>
-      </c>
-      <c r="T13" s="17">
-        <v>5</v>
-      </c>
-      <c r="U13" s="18">
+      <c r="C13" s="16">
+        <v>5</v>
+      </c>
+      <c r="D13" s="16">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16">
+        <v>5</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>5</v>
+      </c>
+      <c r="H13" s="16">
+        <v>5</v>
+      </c>
+      <c r="I13" s="16">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16">
+        <v>5</v>
+      </c>
+      <c r="K13" s="16">
+        <v>5</v>
+      </c>
+      <c r="L13" s="16">
+        <v>5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>5</v>
+      </c>
+      <c r="N13" s="16">
+        <v>5</v>
+      </c>
+      <c r="O13" s="16">
+        <v>5</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>5</v>
+      </c>
+      <c r="R13" s="16">
+        <v>5</v>
+      </c>
+      <c r="S13" s="16">
+        <v>5</v>
+      </c>
+      <c r="T13" s="16">
+        <v>5</v>
+      </c>
+      <c r="U13" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="17">
-        <v>5</v>
-      </c>
-      <c r="D14" s="17">
-        <v>5</v>
-      </c>
-      <c r="E14" s="17">
-        <v>5</v>
-      </c>
-      <c r="F14" s="17">
-        <v>5</v>
-      </c>
-      <c r="G14" s="17">
-        <v>5</v>
-      </c>
-      <c r="H14" s="17">
-        <v>5</v>
-      </c>
-      <c r="I14" s="17">
-        <v>5</v>
-      </c>
-      <c r="J14" s="17">
-        <v>5</v>
-      </c>
-      <c r="K14" s="17">
-        <v>5</v>
-      </c>
-      <c r="L14" s="17">
-        <v>5</v>
-      </c>
-      <c r="M14" s="17">
-        <v>5</v>
-      </c>
-      <c r="N14" s="17">
-        <v>5</v>
-      </c>
-      <c r="O14" s="17">
-        <v>5</v>
-      </c>
-      <c r="P14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>5</v>
-      </c>
-      <c r="R14" s="17">
-        <v>5</v>
-      </c>
-      <c r="S14" s="17">
-        <v>5</v>
-      </c>
-      <c r="T14" s="17">
-        <v>5</v>
-      </c>
-      <c r="U14" s="18">
+      <c r="C14" s="16">
+        <v>5</v>
+      </c>
+      <c r="D14" s="16">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5</v>
+      </c>
+      <c r="F14" s="16">
+        <v>5</v>
+      </c>
+      <c r="G14" s="16">
+        <v>5</v>
+      </c>
+      <c r="H14" s="16">
+        <v>5</v>
+      </c>
+      <c r="I14" s="16">
+        <v>5</v>
+      </c>
+      <c r="J14" s="16">
+        <v>5</v>
+      </c>
+      <c r="K14" s="16">
+        <v>5</v>
+      </c>
+      <c r="L14" s="16">
+        <v>5</v>
+      </c>
+      <c r="M14" s="16">
+        <v>5</v>
+      </c>
+      <c r="N14" s="16">
+        <v>5</v>
+      </c>
+      <c r="O14" s="16">
+        <v>5</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>5</v>
+      </c>
+      <c r="R14" s="16">
+        <v>5</v>
+      </c>
+      <c r="S14" s="16">
+        <v>5</v>
+      </c>
+      <c r="T14" s="16">
+        <v>5</v>
+      </c>
+      <c r="U14" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="17">
-        <v>5</v>
-      </c>
-      <c r="D15" s="17">
-        <v>5</v>
-      </c>
-      <c r="E15" s="17">
-        <v>5</v>
-      </c>
-      <c r="F15" s="17">
-        <v>5</v>
-      </c>
-      <c r="G15" s="17">
-        <v>5</v>
-      </c>
-      <c r="H15" s="17">
-        <v>5</v>
-      </c>
-      <c r="I15" s="17">
-        <v>5</v>
-      </c>
-      <c r="J15" s="17">
-        <v>5</v>
-      </c>
-      <c r="K15" s="17">
-        <v>5</v>
-      </c>
-      <c r="L15" s="17">
-        <v>5</v>
-      </c>
-      <c r="M15" s="17">
-        <v>5</v>
-      </c>
-      <c r="N15" s="17">
-        <v>5</v>
-      </c>
-      <c r="O15" s="17">
-        <v>5</v>
-      </c>
-      <c r="P15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>5</v>
-      </c>
-      <c r="R15" s="17">
-        <v>5</v>
-      </c>
-      <c r="S15" s="17">
-        <v>5</v>
-      </c>
-      <c r="T15" s="17">
-        <v>5</v>
-      </c>
-      <c r="U15" s="18">
+      <c r="C15" s="16">
+        <v>5</v>
+      </c>
+      <c r="D15" s="16">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5</v>
+      </c>
+      <c r="F15" s="16">
+        <v>5</v>
+      </c>
+      <c r="G15" s="16">
+        <v>5</v>
+      </c>
+      <c r="H15" s="16">
+        <v>5</v>
+      </c>
+      <c r="I15" s="16">
+        <v>5</v>
+      </c>
+      <c r="J15" s="16">
+        <v>5</v>
+      </c>
+      <c r="K15" s="16">
+        <v>5</v>
+      </c>
+      <c r="L15" s="16">
+        <v>5</v>
+      </c>
+      <c r="M15" s="16">
+        <v>5</v>
+      </c>
+      <c r="N15" s="16">
+        <v>5</v>
+      </c>
+      <c r="O15" s="16">
+        <v>5</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>5</v>
+      </c>
+      <c r="R15" s="16">
+        <v>5</v>
+      </c>
+      <c r="S15" s="16">
+        <v>5</v>
+      </c>
+      <c r="T15" s="16">
+        <v>5</v>
+      </c>
+      <c r="U15" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="17">
-        <v>5</v>
-      </c>
-      <c r="D16" s="17">
-        <v>5</v>
-      </c>
-      <c r="E16" s="17">
-        <v>5</v>
-      </c>
-      <c r="F16" s="17">
-        <v>5</v>
-      </c>
-      <c r="G16" s="17">
-        <v>5</v>
-      </c>
-      <c r="H16" s="17">
-        <v>5</v>
-      </c>
-      <c r="I16" s="17">
-        <v>5</v>
-      </c>
-      <c r="J16" s="17">
-        <v>5</v>
-      </c>
-      <c r="K16" s="17">
-        <v>5</v>
-      </c>
-      <c r="L16" s="17">
-        <v>5</v>
-      </c>
-      <c r="M16" s="17">
-        <v>5</v>
-      </c>
-      <c r="N16" s="17">
-        <v>5</v>
-      </c>
-      <c r="O16" s="17">
-        <v>5</v>
-      </c>
-      <c r="P16" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>5</v>
-      </c>
-      <c r="R16" s="17">
-        <v>5</v>
-      </c>
-      <c r="S16" s="17">
-        <v>5</v>
-      </c>
-      <c r="T16" s="17">
-        <v>5</v>
-      </c>
-      <c r="U16" s="18">
+      <c r="C16" s="16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="16">
+        <v>5</v>
+      </c>
+      <c r="K16" s="16">
+        <v>5</v>
+      </c>
+      <c r="L16" s="16">
+        <v>5</v>
+      </c>
+      <c r="M16" s="16">
+        <v>5</v>
+      </c>
+      <c r="N16" s="16">
+        <v>5</v>
+      </c>
+      <c r="O16" s="16">
+        <v>5</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>5</v>
+      </c>
+      <c r="R16" s="16">
+        <v>5</v>
+      </c>
+      <c r="S16" s="16">
+        <v>5</v>
+      </c>
+      <c r="T16" s="16">
+        <v>5</v>
+      </c>
+      <c r="U16" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="17">
-        <v>5</v>
-      </c>
-      <c r="D17" s="17">
-        <v>5</v>
-      </c>
-      <c r="E17" s="17">
-        <v>5</v>
-      </c>
-      <c r="F17" s="17">
-        <v>5</v>
-      </c>
-      <c r="G17" s="17">
-        <v>5</v>
-      </c>
-      <c r="H17" s="17">
-        <v>5</v>
-      </c>
-      <c r="I17" s="17">
-        <v>5</v>
-      </c>
-      <c r="J17" s="17">
-        <v>5</v>
-      </c>
-      <c r="K17" s="17">
-        <v>5</v>
-      </c>
-      <c r="L17" s="17">
-        <v>5</v>
-      </c>
-      <c r="M17" s="17">
-        <v>5</v>
-      </c>
-      <c r="N17" s="17">
-        <v>5</v>
-      </c>
-      <c r="O17" s="17">
-        <v>5</v>
-      </c>
-      <c r="P17" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>5</v>
-      </c>
-      <c r="R17" s="17">
-        <v>5</v>
-      </c>
-      <c r="S17" s="17">
-        <v>5</v>
-      </c>
-      <c r="T17" s="17">
-        <v>5</v>
-      </c>
-      <c r="U17" s="18">
+      <c r="C17" s="16">
+        <v>5</v>
+      </c>
+      <c r="D17" s="16">
+        <v>5</v>
+      </c>
+      <c r="E17" s="16">
+        <v>5</v>
+      </c>
+      <c r="F17" s="16">
+        <v>5</v>
+      </c>
+      <c r="G17" s="16">
+        <v>5</v>
+      </c>
+      <c r="H17" s="16">
+        <v>5</v>
+      </c>
+      <c r="I17" s="16">
+        <v>5</v>
+      </c>
+      <c r="J17" s="16">
+        <v>5</v>
+      </c>
+      <c r="K17" s="16">
+        <v>5</v>
+      </c>
+      <c r="L17" s="16">
+        <v>5</v>
+      </c>
+      <c r="M17" s="16">
+        <v>5</v>
+      </c>
+      <c r="N17" s="16">
+        <v>5</v>
+      </c>
+      <c r="O17" s="16">
+        <v>5</v>
+      </c>
+      <c r="P17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>5</v>
+      </c>
+      <c r="R17" s="16">
+        <v>5</v>
+      </c>
+      <c r="S17" s="16">
+        <v>5</v>
+      </c>
+      <c r="T17" s="16">
+        <v>5</v>
+      </c>
+      <c r="U17" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="17">
-        <v>5</v>
-      </c>
-      <c r="D18" s="17">
-        <v>5</v>
-      </c>
-      <c r="E18" s="17">
-        <v>5</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>5</v>
-      </c>
-      <c r="H18" s="17">
-        <v>5</v>
-      </c>
-      <c r="I18" s="17">
-        <v>5</v>
-      </c>
-      <c r="J18" s="17">
-        <v>5</v>
-      </c>
-      <c r="K18" s="17">
-        <v>5</v>
-      </c>
-      <c r="L18" s="17">
-        <v>5</v>
-      </c>
-      <c r="M18" s="17">
-        <v>5</v>
-      </c>
-      <c r="N18" s="17">
-        <v>5</v>
-      </c>
-      <c r="O18" s="17">
-        <v>5</v>
-      </c>
-      <c r="P18" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>5</v>
-      </c>
-      <c r="R18" s="17">
-        <v>5</v>
-      </c>
-      <c r="S18" s="17">
-        <v>5</v>
-      </c>
-      <c r="T18" s="17">
-        <v>5</v>
-      </c>
-      <c r="U18" s="18">
+      <c r="C18" s="16">
+        <v>5</v>
+      </c>
+      <c r="D18" s="16">
+        <v>5</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>5</v>
+      </c>
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
+      <c r="I18" s="16">
+        <v>5</v>
+      </c>
+      <c r="J18" s="16">
+        <v>5</v>
+      </c>
+      <c r="K18" s="16">
+        <v>5</v>
+      </c>
+      <c r="L18" s="16">
+        <v>5</v>
+      </c>
+      <c r="M18" s="16">
+        <v>5</v>
+      </c>
+      <c r="N18" s="16">
+        <v>5</v>
+      </c>
+      <c r="O18" s="16">
+        <v>5</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>5</v>
+      </c>
+      <c r="R18" s="16">
+        <v>5</v>
+      </c>
+      <c r="S18" s="16">
+        <v>5</v>
+      </c>
+      <c r="T18" s="16">
+        <v>5</v>
+      </c>
+      <c r="U18" s="17">
         <v>5</v>
       </c>
     </row>
@@ -6099,212 +6103,212 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="18"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="17"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="17">
-        <v>5</v>
-      </c>
-      <c r="D21" s="17">
-        <v>5</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="C21" s="16">
+        <v>5</v>
+      </c>
+      <c r="D21" s="16">
+        <v>5</v>
+      </c>
+      <c r="E21" s="16">
         <v>4</v>
       </c>
-      <c r="F21" s="17">
-        <v>5</v>
-      </c>
-      <c r="G21" s="17">
-        <v>5</v>
-      </c>
-      <c r="H21" s="17">
-        <v>5</v>
-      </c>
-      <c r="I21" s="17">
-        <v>5</v>
-      </c>
-      <c r="J21" s="17">
-        <v>5</v>
-      </c>
-      <c r="K21" s="17">
-        <v>5</v>
-      </c>
-      <c r="L21" s="17">
-        <v>5</v>
-      </c>
-      <c r="M21" s="17">
-        <v>5</v>
-      </c>
-      <c r="N21" s="17">
-        <v>5</v>
-      </c>
-      <c r="O21" s="17">
-        <v>5</v>
-      </c>
-      <c r="P21" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>5</v>
-      </c>
-      <c r="R21" s="17">
-        <v>5</v>
-      </c>
-      <c r="S21" s="17">
-        <v>5</v>
-      </c>
-      <c r="T21" s="17">
-        <v>5</v>
-      </c>
-      <c r="U21" s="17">
+      <c r="F21" s="16">
+        <v>5</v>
+      </c>
+      <c r="G21" s="16">
+        <v>5</v>
+      </c>
+      <c r="H21" s="16">
+        <v>5</v>
+      </c>
+      <c r="I21" s="16">
+        <v>5</v>
+      </c>
+      <c r="J21" s="16">
+        <v>5</v>
+      </c>
+      <c r="K21" s="16">
+        <v>5</v>
+      </c>
+      <c r="L21" s="16">
+        <v>5</v>
+      </c>
+      <c r="M21" s="16">
+        <v>5</v>
+      </c>
+      <c r="N21" s="16">
+        <v>5</v>
+      </c>
+      <c r="O21" s="16">
+        <v>5</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>5</v>
+      </c>
+      <c r="R21" s="16">
+        <v>5</v>
+      </c>
+      <c r="S21" s="16">
+        <v>5</v>
+      </c>
+      <c r="T21" s="16">
+        <v>5</v>
+      </c>
+      <c r="U21" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="17">
-        <v>5</v>
-      </c>
-      <c r="D22" s="17">
-        <v>5</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="C22" s="16">
+        <v>5</v>
+      </c>
+      <c r="D22" s="16">
+        <v>5</v>
+      </c>
+      <c r="E22" s="16">
         <v>4</v>
       </c>
-      <c r="F22" s="17">
-        <v>5</v>
-      </c>
-      <c r="G22" s="17">
-        <v>5</v>
-      </c>
-      <c r="H22" s="17">
-        <v>5</v>
-      </c>
-      <c r="I22" s="17">
-        <v>5</v>
-      </c>
-      <c r="J22" s="17">
-        <v>5</v>
-      </c>
-      <c r="K22" s="17">
-        <v>5</v>
-      </c>
-      <c r="L22" s="17">
-        <v>5</v>
-      </c>
-      <c r="M22" s="17">
-        <v>5</v>
-      </c>
-      <c r="N22" s="17">
-        <v>5</v>
-      </c>
-      <c r="O22" s="17">
-        <v>5</v>
-      </c>
-      <c r="P22" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>5</v>
-      </c>
-      <c r="R22" s="17">
-        <v>5</v>
-      </c>
-      <c r="S22" s="17">
-        <v>5</v>
-      </c>
-      <c r="T22" s="17">
-        <v>5</v>
-      </c>
-      <c r="U22" s="17">
+      <c r="F22" s="16">
+        <v>5</v>
+      </c>
+      <c r="G22" s="16">
+        <v>5</v>
+      </c>
+      <c r="H22" s="16">
+        <v>5</v>
+      </c>
+      <c r="I22" s="16">
+        <v>5</v>
+      </c>
+      <c r="J22" s="16">
+        <v>5</v>
+      </c>
+      <c r="K22" s="16">
+        <v>5</v>
+      </c>
+      <c r="L22" s="16">
+        <v>5</v>
+      </c>
+      <c r="M22" s="16">
+        <v>5</v>
+      </c>
+      <c r="N22" s="16">
+        <v>5</v>
+      </c>
+      <c r="O22" s="16">
+        <v>5</v>
+      </c>
+      <c r="P22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>5</v>
+      </c>
+      <c r="R22" s="16">
+        <v>5</v>
+      </c>
+      <c r="S22" s="16">
+        <v>5</v>
+      </c>
+      <c r="T22" s="16">
+        <v>5</v>
+      </c>
+      <c r="U22" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="17">
-        <v>5</v>
-      </c>
-      <c r="D23" s="17">
-        <v>5</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="C23" s="16">
+        <v>5</v>
+      </c>
+      <c r="D23" s="16">
+        <v>5</v>
+      </c>
+      <c r="E23" s="16">
         <v>4</v>
       </c>
-      <c r="F23" s="17">
-        <v>5</v>
-      </c>
-      <c r="G23" s="17">
-        <v>5</v>
-      </c>
-      <c r="H23" s="17">
-        <v>5</v>
-      </c>
-      <c r="I23" s="17">
-        <v>5</v>
-      </c>
-      <c r="J23" s="17">
-        <v>5</v>
-      </c>
-      <c r="K23" s="17">
-        <v>5</v>
-      </c>
-      <c r="L23" s="17">
-        <v>5</v>
-      </c>
-      <c r="M23" s="17">
-        <v>5</v>
-      </c>
-      <c r="N23" s="17">
-        <v>5</v>
-      </c>
-      <c r="O23" s="17">
-        <v>5</v>
-      </c>
-      <c r="P23" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>5</v>
-      </c>
-      <c r="R23" s="17">
-        <v>5</v>
-      </c>
-      <c r="S23" s="17">
-        <v>5</v>
-      </c>
-      <c r="T23" s="17">
-        <v>5</v>
-      </c>
-      <c r="U23" s="17">
+      <c r="F23" s="16">
+        <v>5</v>
+      </c>
+      <c r="G23" s="16">
+        <v>5</v>
+      </c>
+      <c r="H23" s="16">
+        <v>5</v>
+      </c>
+      <c r="I23" s="16">
+        <v>5</v>
+      </c>
+      <c r="J23" s="16">
+        <v>5</v>
+      </c>
+      <c r="K23" s="16">
+        <v>5</v>
+      </c>
+      <c r="L23" s="16">
+        <v>5</v>
+      </c>
+      <c r="M23" s="16">
+        <v>5</v>
+      </c>
+      <c r="N23" s="16">
+        <v>5</v>
+      </c>
+      <c r="O23" s="16">
+        <v>5</v>
+      </c>
+      <c r="P23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>5</v>
+      </c>
+      <c r="R23" s="16">
+        <v>5</v>
+      </c>
+      <c r="S23" s="16">
+        <v>5</v>
+      </c>
+      <c r="T23" s="16">
+        <v>5</v>
+      </c>
+      <c r="U23" s="16">
         <v>5</v>
       </c>
     </row>
@@ -6390,150 +6394,150 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="17">
-        <v>5</v>
-      </c>
-      <c r="D26" s="17">
-        <v>5</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="C26" s="16">
+        <v>5</v>
+      </c>
+      <c r="D26" s="16">
+        <v>5</v>
+      </c>
+      <c r="E26" s="16">
         <v>4</v>
       </c>
-      <c r="F26" s="17">
-        <v>5</v>
-      </c>
-      <c r="G26" s="17">
-        <v>5</v>
-      </c>
-      <c r="H26" s="17">
-        <v>5</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
-        <v>5</v>
-      </c>
-      <c r="K26" s="17">
-        <v>5</v>
-      </c>
-      <c r="L26" s="17">
-        <v>5</v>
-      </c>
-      <c r="M26" s="17">
-        <v>5</v>
-      </c>
-      <c r="N26" s="17">
-        <v>5</v>
-      </c>
-      <c r="O26" s="17">
-        <v>5</v>
-      </c>
-      <c r="P26" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>5</v>
-      </c>
-      <c r="R26" s="17">
-        <v>5</v>
-      </c>
-      <c r="S26" s="17">
+      <c r="F26" s="16">
+        <v>5</v>
+      </c>
+      <c r="G26" s="16">
+        <v>5</v>
+      </c>
+      <c r="H26" s="16">
+        <v>5</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>5</v>
+      </c>
+      <c r="K26" s="16">
+        <v>5</v>
+      </c>
+      <c r="L26" s="16">
+        <v>5</v>
+      </c>
+      <c r="M26" s="16">
+        <v>5</v>
+      </c>
+      <c r="N26" s="16">
+        <v>5</v>
+      </c>
+      <c r="O26" s="16">
+        <v>5</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>5</v>
+      </c>
+      <c r="R26" s="16">
+        <v>5</v>
+      </c>
+      <c r="S26" s="16">
         <v>3</v>
       </c>
-      <c r="T26" s="17">
+      <c r="T26" s="16">
         <v>1</v>
       </c>
-      <c r="U26" s="17">
+      <c r="U26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="17">
-        <v>5</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="C27" s="16">
+        <v>5</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
         <v>4</v>
       </c>
-      <c r="F27" s="17">
-        <v>5</v>
-      </c>
-      <c r="G27" s="17">
-        <v>5</v>
-      </c>
-      <c r="H27" s="17">
-        <v>5</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
+      <c r="F27" s="16">
+        <v>5</v>
+      </c>
+      <c r="G27" s="16">
+        <v>5</v>
+      </c>
+      <c r="H27" s="16">
+        <v>5</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
         <v>2</v>
       </c>
-      <c r="K27" s="17">
-        <v>5</v>
-      </c>
-      <c r="L27" s="17">
-        <v>5</v>
-      </c>
-      <c r="M27" s="17">
-        <v>5</v>
-      </c>
-      <c r="N27" s="17">
-        <v>5</v>
-      </c>
-      <c r="O27" s="17">
+      <c r="K27" s="16">
+        <v>5</v>
+      </c>
+      <c r="L27" s="16">
+        <v>5</v>
+      </c>
+      <c r="M27" s="16">
+        <v>5</v>
+      </c>
+      <c r="N27" s="16">
+        <v>5</v>
+      </c>
+      <c r="O27" s="16">
         <v>2</v>
       </c>
-      <c r="P27" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>5</v>
-      </c>
-      <c r="R27" s="17">
-        <v>5</v>
-      </c>
-      <c r="S27" s="17">
-        <v>5</v>
-      </c>
-      <c r="T27" s="17">
-        <v>0</v>
-      </c>
-      <c r="U27" s="17">
+      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>5</v>
+      </c>
+      <c r="R27" s="16">
+        <v>5</v>
+      </c>
+      <c r="S27" s="16">
+        <v>5</v>
+      </c>
+      <c r="T27" s="16">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6619,336 +6623,336 @@
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="17">
-        <v>5</v>
-      </c>
-      <c r="D30" s="17">
-        <v>5</v>
-      </c>
-      <c r="E30" s="17">
-        <v>5</v>
-      </c>
-      <c r="F30" s="17">
-        <v>5</v>
-      </c>
-      <c r="G30" s="17">
-        <v>5</v>
-      </c>
-      <c r="H30" s="17">
-        <v>5</v>
-      </c>
-      <c r="I30" s="17">
-        <v>5</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
-        <v>5</v>
-      </c>
-      <c r="L30" s="17">
-        <v>0</v>
-      </c>
-      <c r="M30" s="17">
-        <v>5</v>
-      </c>
-      <c r="N30" s="17">
-        <v>5</v>
-      </c>
-      <c r="O30" s="17">
-        <v>5</v>
-      </c>
-      <c r="P30" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>5</v>
-      </c>
-      <c r="R30" s="17">
-        <v>5</v>
-      </c>
-      <c r="S30" s="17">
-        <v>5</v>
-      </c>
-      <c r="T30" s="17">
-        <v>0</v>
-      </c>
-      <c r="U30" s="17">
+      <c r="C30" s="16">
+        <v>5</v>
+      </c>
+      <c r="D30" s="16">
+        <v>5</v>
+      </c>
+      <c r="E30" s="16">
+        <v>5</v>
+      </c>
+      <c r="F30" s="16">
+        <v>5</v>
+      </c>
+      <c r="G30" s="16">
+        <v>5</v>
+      </c>
+      <c r="H30" s="16">
+        <v>5</v>
+      </c>
+      <c r="I30" s="16">
+        <v>5</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>5</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>5</v>
+      </c>
+      <c r="N30" s="16">
+        <v>5</v>
+      </c>
+      <c r="O30" s="16">
+        <v>5</v>
+      </c>
+      <c r="P30" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>5</v>
+      </c>
+      <c r="R30" s="16">
+        <v>5</v>
+      </c>
+      <c r="S30" s="16">
+        <v>5</v>
+      </c>
+      <c r="T30" s="16">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="17">
-        <v>5</v>
-      </c>
-      <c r="D31" s="17">
-        <v>5</v>
-      </c>
-      <c r="E31" s="17">
-        <v>5</v>
-      </c>
-      <c r="F31" s="17">
-        <v>5</v>
-      </c>
-      <c r="G31" s="17">
-        <v>5</v>
-      </c>
-      <c r="H31" s="17">
-        <v>5</v>
-      </c>
-      <c r="I31" s="17">
-        <v>5</v>
-      </c>
-      <c r="J31" s="17">
-        <v>0</v>
-      </c>
-      <c r="K31" s="17">
-        <v>5</v>
-      </c>
-      <c r="L31" s="17">
-        <v>0</v>
-      </c>
-      <c r="M31" s="17">
-        <v>5</v>
-      </c>
-      <c r="N31" s="17">
-        <v>5</v>
-      </c>
-      <c r="O31" s="17">
-        <v>5</v>
-      </c>
-      <c r="P31" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="17">
-        <v>5</v>
-      </c>
-      <c r="R31" s="17">
-        <v>5</v>
-      </c>
-      <c r="S31" s="17">
-        <v>5</v>
-      </c>
-      <c r="T31" s="17">
-        <v>0</v>
-      </c>
-      <c r="U31" s="17">
+      <c r="C31" s="16">
+        <v>5</v>
+      </c>
+      <c r="D31" s="16">
+        <v>5</v>
+      </c>
+      <c r="E31" s="16">
+        <v>5</v>
+      </c>
+      <c r="F31" s="16">
+        <v>5</v>
+      </c>
+      <c r="G31" s="16">
+        <v>5</v>
+      </c>
+      <c r="H31" s="16">
+        <v>5</v>
+      </c>
+      <c r="I31" s="16">
+        <v>5</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>5</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>5</v>
+      </c>
+      <c r="N31" s="16">
+        <v>5</v>
+      </c>
+      <c r="O31" s="16">
+        <v>5</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>5</v>
+      </c>
+      <c r="R31" s="16">
+        <v>5</v>
+      </c>
+      <c r="S31" s="16">
+        <v>5</v>
+      </c>
+      <c r="T31" s="16">
+        <v>0</v>
+      </c>
+      <c r="U31" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="17">
-        <v>5</v>
-      </c>
-      <c r="D32" s="17">
-        <v>5</v>
-      </c>
-      <c r="E32" s="17">
-        <v>5</v>
-      </c>
-      <c r="F32" s="17">
-        <v>5</v>
-      </c>
-      <c r="G32" s="17">
-        <v>5</v>
-      </c>
-      <c r="H32" s="17">
-        <v>5</v>
-      </c>
-      <c r="I32" s="17">
-        <v>5</v>
-      </c>
-      <c r="J32" s="17">
-        <v>0</v>
-      </c>
-      <c r="K32" s="17">
-        <v>5</v>
-      </c>
-      <c r="L32" s="17">
-        <v>0</v>
-      </c>
-      <c r="M32" s="17">
-        <v>5</v>
-      </c>
-      <c r="N32" s="17">
-        <v>5</v>
-      </c>
-      <c r="O32" s="17">
-        <v>5</v>
-      </c>
-      <c r="P32" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="17">
-        <v>5</v>
-      </c>
-      <c r="R32" s="17">
-        <v>5</v>
-      </c>
-      <c r="S32" s="17">
-        <v>5</v>
-      </c>
-      <c r="T32" s="17">
-        <v>0</v>
-      </c>
-      <c r="U32" s="17">
+      <c r="C32" s="16">
+        <v>5</v>
+      </c>
+      <c r="D32" s="16">
+        <v>5</v>
+      </c>
+      <c r="E32" s="16">
+        <v>5</v>
+      </c>
+      <c r="F32" s="16">
+        <v>5</v>
+      </c>
+      <c r="G32" s="16">
+        <v>5</v>
+      </c>
+      <c r="H32" s="16">
+        <v>5</v>
+      </c>
+      <c r="I32" s="16">
+        <v>5</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>5</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>5</v>
+      </c>
+      <c r="N32" s="16">
+        <v>5</v>
+      </c>
+      <c r="O32" s="16">
+        <v>5</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>5</v>
+      </c>
+      <c r="R32" s="16">
+        <v>5</v>
+      </c>
+      <c r="S32" s="16">
+        <v>5</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="17">
-        <v>5</v>
-      </c>
-      <c r="D33" s="17">
-        <v>5</v>
-      </c>
-      <c r="E33" s="17">
-        <v>5</v>
-      </c>
-      <c r="F33" s="17">
-        <v>5</v>
-      </c>
-      <c r="G33" s="17">
-        <v>5</v>
-      </c>
-      <c r="H33" s="17">
-        <v>5</v>
-      </c>
-      <c r="I33" s="17">
-        <v>5</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="17">
-        <v>5</v>
-      </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
-        <v>5</v>
-      </c>
-      <c r="N33" s="17">
-        <v>5</v>
-      </c>
-      <c r="O33" s="17">
-        <v>5</v>
-      </c>
-      <c r="P33" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="17">
-        <v>5</v>
-      </c>
-      <c r="R33" s="17">
-        <v>5</v>
-      </c>
-      <c r="S33" s="17">
-        <v>5</v>
-      </c>
-      <c r="T33" s="17">
-        <v>0</v>
-      </c>
-      <c r="U33" s="17">
+      <c r="C33" s="16">
+        <v>5</v>
+      </c>
+      <c r="D33" s="16">
+        <v>5</v>
+      </c>
+      <c r="E33" s="16">
+        <v>5</v>
+      </c>
+      <c r="F33" s="16">
+        <v>5</v>
+      </c>
+      <c r="G33" s="16">
+        <v>5</v>
+      </c>
+      <c r="H33" s="16">
+        <v>5</v>
+      </c>
+      <c r="I33" s="16">
+        <v>5</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>5</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>5</v>
+      </c>
+      <c r="N33" s="16">
+        <v>5</v>
+      </c>
+      <c r="O33" s="16">
+        <v>5</v>
+      </c>
+      <c r="P33" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>5</v>
+      </c>
+      <c r="R33" s="16">
+        <v>5</v>
+      </c>
+      <c r="S33" s="16">
+        <v>5</v>
+      </c>
+      <c r="T33" s="16">
+        <v>0</v>
+      </c>
+      <c r="U33" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="17">
-        <v>5</v>
-      </c>
-      <c r="D34" s="17">
-        <v>5</v>
-      </c>
-      <c r="E34" s="17">
-        <v>5</v>
-      </c>
-      <c r="F34" s="17">
-        <v>5</v>
-      </c>
-      <c r="G34" s="17">
-        <v>5</v>
-      </c>
-      <c r="H34" s="17">
-        <v>5</v>
-      </c>
-      <c r="I34" s="17">
-        <v>5</v>
-      </c>
-      <c r="J34" s="17">
-        <v>0</v>
-      </c>
-      <c r="K34" s="17">
-        <v>5</v>
-      </c>
-      <c r="L34" s="17">
-        <v>0</v>
-      </c>
-      <c r="M34" s="17">
-        <v>5</v>
-      </c>
-      <c r="N34" s="17">
-        <v>5</v>
-      </c>
-      <c r="O34" s="17">
-        <v>5</v>
-      </c>
-      <c r="P34" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>5</v>
-      </c>
-      <c r="R34" s="17">
-        <v>5</v>
-      </c>
-      <c r="S34" s="17">
-        <v>5</v>
-      </c>
-      <c r="T34" s="17">
-        <v>0</v>
-      </c>
-      <c r="U34" s="17">
+      <c r="C34" s="16">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16">
+        <v>5</v>
+      </c>
+      <c r="E34" s="16">
+        <v>5</v>
+      </c>
+      <c r="F34" s="16">
+        <v>5</v>
+      </c>
+      <c r="G34" s="16">
+        <v>5</v>
+      </c>
+      <c r="H34" s="16">
+        <v>5</v>
+      </c>
+      <c r="I34" s="16">
+        <v>5</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>5</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <v>5</v>
+      </c>
+      <c r="N34" s="16">
+        <v>5</v>
+      </c>
+      <c r="O34" s="16">
+        <v>5</v>
+      </c>
+      <c r="P34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>5</v>
+      </c>
+      <c r="R34" s="16">
+        <v>5</v>
+      </c>
+      <c r="S34" s="16">
+        <v>5</v>
+      </c>
+      <c r="T34" s="16">
+        <v>0</v>
+      </c>
+      <c r="U34" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7034,274 +7038,274 @@
       </c>
     </row>
     <row r="36" spans="2:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="17">
-        <v>5</v>
-      </c>
-      <c r="D37" s="17">
-        <v>5</v>
-      </c>
-      <c r="E37" s="17">
-        <v>5</v>
-      </c>
-      <c r="F37" s="17">
-        <v>5</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0</v>
-      </c>
-      <c r="H37" s="17">
-        <v>5</v>
-      </c>
-      <c r="I37" s="17">
-        <v>5</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0</v>
-      </c>
-      <c r="K37" s="17">
-        <v>5</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="17">
-        <v>5</v>
-      </c>
-      <c r="N37" s="17">
-        <v>0</v>
-      </c>
-      <c r="O37" s="17">
-        <v>5</v>
-      </c>
-      <c r="P37" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="17">
+      <c r="C37" s="16">
+        <v>5</v>
+      </c>
+      <c r="D37" s="16">
+        <v>5</v>
+      </c>
+      <c r="E37" s="16">
+        <v>5</v>
+      </c>
+      <c r="F37" s="16">
+        <v>5</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0</v>
+      </c>
+      <c r="H37" s="16">
+        <v>5</v>
+      </c>
+      <c r="I37" s="16">
+        <v>5</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>5</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
+        <v>5</v>
+      </c>
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
+      <c r="O37" s="16">
+        <v>5</v>
+      </c>
+      <c r="P37" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16">
         <v>4</v>
       </c>
-      <c r="R37" s="17">
-        <v>0</v>
-      </c>
-      <c r="S37" s="17">
-        <v>5</v>
-      </c>
-      <c r="T37" s="17">
-        <v>0</v>
-      </c>
-      <c r="U37" s="17">
+      <c r="R37" s="16">
+        <v>0</v>
+      </c>
+      <c r="S37" s="16">
+        <v>5</v>
+      </c>
+      <c r="T37" s="16">
+        <v>0</v>
+      </c>
+      <c r="U37" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="17">
-        <v>5</v>
-      </c>
-      <c r="D38" s="17">
-        <v>5</v>
-      </c>
-      <c r="E38" s="17">
+      <c r="C38" s="16">
+        <v>5</v>
+      </c>
+      <c r="D38" s="16">
+        <v>5</v>
+      </c>
+      <c r="E38" s="16">
         <v>4</v>
       </c>
-      <c r="F38" s="17">
-        <v>5</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0</v>
-      </c>
-      <c r="H38" s="17">
-        <v>5</v>
-      </c>
-      <c r="I38" s="17">
-        <v>5</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0</v>
-      </c>
-      <c r="K38" s="17">
-        <v>5</v>
-      </c>
-      <c r="L38" s="17">
-        <v>0</v>
-      </c>
-      <c r="M38" s="17">
-        <v>5</v>
-      </c>
-      <c r="N38" s="17">
-        <v>0</v>
-      </c>
-      <c r="O38" s="17">
-        <v>5</v>
-      </c>
-      <c r="P38" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="17">
+      <c r="F38" s="16">
+        <v>5</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0</v>
+      </c>
+      <c r="H38" s="16">
+        <v>5</v>
+      </c>
+      <c r="I38" s="16">
+        <v>5</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>5</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0</v>
+      </c>
+      <c r="M38" s="16">
+        <v>5</v>
+      </c>
+      <c r="N38" s="16">
+        <v>0</v>
+      </c>
+      <c r="O38" s="16">
+        <v>5</v>
+      </c>
+      <c r="P38" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16">
         <v>4</v>
       </c>
-      <c r="R38" s="17">
-        <v>0</v>
-      </c>
-      <c r="S38" s="17">
-        <v>5</v>
-      </c>
-      <c r="T38" s="17">
-        <v>0</v>
-      </c>
-      <c r="U38" s="17">
+      <c r="R38" s="16">
+        <v>0</v>
+      </c>
+      <c r="S38" s="16">
+        <v>5</v>
+      </c>
+      <c r="T38" s="16">
+        <v>0</v>
+      </c>
+      <c r="U38" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="17">
-        <v>5</v>
-      </c>
-      <c r="D39" s="17">
-        <v>5</v>
-      </c>
-      <c r="E39" s="17">
+      <c r="C39" s="16">
+        <v>5</v>
+      </c>
+      <c r="D39" s="16">
+        <v>5</v>
+      </c>
+      <c r="E39" s="16">
         <v>4</v>
       </c>
-      <c r="F39" s="17">
-        <v>5</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0</v>
-      </c>
-      <c r="H39" s="17">
-        <v>5</v>
-      </c>
-      <c r="I39" s="17">
-        <v>5</v>
-      </c>
-      <c r="J39" s="17">
-        <v>0</v>
-      </c>
-      <c r="K39" s="17">
-        <v>5</v>
-      </c>
-      <c r="L39" s="17">
-        <v>0</v>
-      </c>
-      <c r="M39" s="17">
-        <v>5</v>
-      </c>
-      <c r="N39" s="17">
-        <v>0</v>
-      </c>
-      <c r="O39" s="17">
-        <v>5</v>
-      </c>
-      <c r="P39" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="17">
+      <c r="F39" s="16">
+        <v>5</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <v>5</v>
+      </c>
+      <c r="I39" s="16">
+        <v>5</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <v>5</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16">
+        <v>5</v>
+      </c>
+      <c r="N39" s="16">
+        <v>0</v>
+      </c>
+      <c r="O39" s="16">
+        <v>5</v>
+      </c>
+      <c r="P39" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16">
         <v>4</v>
       </c>
-      <c r="R39" s="17">
-        <v>0</v>
-      </c>
-      <c r="S39" s="17">
-        <v>5</v>
-      </c>
-      <c r="T39" s="17">
-        <v>0</v>
-      </c>
-      <c r="U39" s="17">
+      <c r="R39" s="16">
+        <v>0</v>
+      </c>
+      <c r="S39" s="16">
+        <v>5</v>
+      </c>
+      <c r="T39" s="16">
+        <v>0</v>
+      </c>
+      <c r="U39" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="17">
-        <v>5</v>
-      </c>
-      <c r="D40" s="17">
-        <v>5</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="C40" s="16">
+        <v>5</v>
+      </c>
+      <c r="D40" s="16">
+        <v>5</v>
+      </c>
+      <c r="E40" s="16">
         <v>4</v>
       </c>
-      <c r="F40" s="17">
-        <v>5</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0</v>
-      </c>
-      <c r="H40" s="17">
-        <v>5</v>
-      </c>
-      <c r="I40" s="17">
-        <v>5</v>
-      </c>
-      <c r="J40" s="17">
-        <v>0</v>
-      </c>
-      <c r="K40" s="17">
-        <v>5</v>
-      </c>
-      <c r="L40" s="17">
-        <v>0</v>
-      </c>
-      <c r="M40" s="17">
-        <v>5</v>
-      </c>
-      <c r="N40" s="17">
-        <v>0</v>
-      </c>
-      <c r="O40" s="17">
-        <v>5</v>
-      </c>
-      <c r="P40" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="17">
+      <c r="F40" s="16">
+        <v>5</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <v>5</v>
+      </c>
+      <c r="I40" s="16">
+        <v>5</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <v>5</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16">
+        <v>5</v>
+      </c>
+      <c r="N40" s="16">
+        <v>0</v>
+      </c>
+      <c r="O40" s="16">
+        <v>5</v>
+      </c>
+      <c r="P40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16">
         <v>4</v>
       </c>
-      <c r="R40" s="17">
-        <v>0</v>
-      </c>
-      <c r="S40" s="17">
-        <v>5</v>
-      </c>
-      <c r="T40" s="17">
-        <v>0</v>
-      </c>
-      <c r="U40" s="17">
+      <c r="R40" s="16">
+        <v>0</v>
+      </c>
+      <c r="S40" s="16">
+        <v>5</v>
+      </c>
+      <c r="T40" s="16">
+        <v>0</v>
+      </c>
+      <c r="U40" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7387,274 +7391,274 @@
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="17">
-        <v>5</v>
-      </c>
-      <c r="D43" s="17">
-        <v>5</v>
-      </c>
-      <c r="E43" s="17">
-        <v>0</v>
-      </c>
-      <c r="F43" s="17">
-        <v>5</v>
-      </c>
-      <c r="G43" s="17">
-        <v>0</v>
-      </c>
-      <c r="H43" s="17">
-        <v>5</v>
-      </c>
-      <c r="I43" s="17">
-        <v>5</v>
-      </c>
-      <c r="J43" s="17">
-        <v>0</v>
-      </c>
-      <c r="K43" s="17">
-        <v>0</v>
-      </c>
-      <c r="L43" s="17">
-        <v>0</v>
-      </c>
-      <c r="M43" s="17">
-        <v>5</v>
-      </c>
-      <c r="N43" s="17">
-        <v>0</v>
-      </c>
-      <c r="O43" s="17">
-        <v>5</v>
-      </c>
-      <c r="P43" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="17">
-        <v>0</v>
-      </c>
-      <c r="R43" s="17">
-        <v>0</v>
-      </c>
-      <c r="S43" s="17">
-        <v>5</v>
-      </c>
-      <c r="T43" s="17">
-        <v>5</v>
-      </c>
-      <c r="U43" s="17">
+      <c r="C43" s="16">
+        <v>5</v>
+      </c>
+      <c r="D43" s="16">
+        <v>5</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
+        <v>5</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <v>5</v>
+      </c>
+      <c r="I43" s="16">
+        <v>5</v>
+      </c>
+      <c r="J43" s="16">
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
+        <v>5</v>
+      </c>
+      <c r="N43" s="16">
+        <v>0</v>
+      </c>
+      <c r="O43" s="16">
+        <v>5</v>
+      </c>
+      <c r="P43" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>0</v>
+      </c>
+      <c r="R43" s="16">
+        <v>0</v>
+      </c>
+      <c r="S43" s="16">
+        <v>5</v>
+      </c>
+      <c r="T43" s="16">
+        <v>5</v>
+      </c>
+      <c r="U43" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="17">
-        <v>5</v>
-      </c>
-      <c r="D44" s="17">
-        <v>5</v>
-      </c>
-      <c r="E44" s="17">
-        <v>0</v>
-      </c>
-      <c r="F44" s="17">
-        <v>5</v>
-      </c>
-      <c r="G44" s="17">
-        <v>0</v>
-      </c>
-      <c r="H44" s="17">
-        <v>5</v>
-      </c>
-      <c r="I44" s="17">
-        <v>5</v>
-      </c>
-      <c r="J44" s="17">
-        <v>0</v>
-      </c>
-      <c r="K44" s="17">
-        <v>0</v>
-      </c>
-      <c r="L44" s="17">
-        <v>0</v>
-      </c>
-      <c r="M44" s="17">
-        <v>5</v>
-      </c>
-      <c r="N44" s="17">
-        <v>0</v>
-      </c>
-      <c r="O44" s="17">
-        <v>5</v>
-      </c>
-      <c r="P44" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="17">
-        <v>0</v>
-      </c>
-      <c r="R44" s="17">
-        <v>0</v>
-      </c>
-      <c r="S44" s="17">
-        <v>5</v>
-      </c>
-      <c r="T44" s="17">
+      <c r="C44" s="16">
+        <v>5</v>
+      </c>
+      <c r="D44" s="16">
+        <v>5</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <v>5</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>5</v>
+      </c>
+      <c r="I44" s="16">
+        <v>5</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <v>0</v>
+      </c>
+      <c r="L44" s="16">
+        <v>0</v>
+      </c>
+      <c r="M44" s="16">
+        <v>5</v>
+      </c>
+      <c r="N44" s="16">
+        <v>0</v>
+      </c>
+      <c r="O44" s="16">
+        <v>5</v>
+      </c>
+      <c r="P44" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>0</v>
+      </c>
+      <c r="R44" s="16">
+        <v>0</v>
+      </c>
+      <c r="S44" s="16">
+        <v>5</v>
+      </c>
+      <c r="T44" s="16">
         <v>4</v>
       </c>
-      <c r="U44" s="17">
+      <c r="U44" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="17">
-        <v>5</v>
-      </c>
-      <c r="D45" s="17">
-        <v>5</v>
-      </c>
-      <c r="E45" s="17">
-        <v>0</v>
-      </c>
-      <c r="F45" s="17">
-        <v>5</v>
-      </c>
-      <c r="G45" s="17">
-        <v>0</v>
-      </c>
-      <c r="H45" s="17">
-        <v>5</v>
-      </c>
-      <c r="I45" s="17">
-        <v>5</v>
-      </c>
-      <c r="J45" s="17">
-        <v>0</v>
-      </c>
-      <c r="K45" s="17">
-        <v>0</v>
-      </c>
-      <c r="L45" s="17">
-        <v>0</v>
-      </c>
-      <c r="M45" s="17">
-        <v>5</v>
-      </c>
-      <c r="N45" s="17">
-        <v>0</v>
-      </c>
-      <c r="O45" s="17">
+      <c r="C45" s="16">
+        <v>5</v>
+      </c>
+      <c r="D45" s="16">
+        <v>5</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <v>5</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <v>5</v>
+      </c>
+      <c r="I45" s="16">
+        <v>5</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
+        <v>5</v>
+      </c>
+      <c r="N45" s="16">
+        <v>0</v>
+      </c>
+      <c r="O45" s="16">
         <v>3</v>
       </c>
-      <c r="P45" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="17">
-        <v>0</v>
-      </c>
-      <c r="R45" s="17">
-        <v>0</v>
-      </c>
-      <c r="S45" s="17">
-        <v>5</v>
-      </c>
-      <c r="T45" s="17">
+      <c r="P45" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>0</v>
+      </c>
+      <c r="R45" s="16">
+        <v>0</v>
+      </c>
+      <c r="S45" s="16">
+        <v>5</v>
+      </c>
+      <c r="T45" s="16">
         <v>4</v>
       </c>
-      <c r="U45" s="17">
+      <c r="U45" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="17">
-        <v>5</v>
-      </c>
-      <c r="D46" s="17">
-        <v>5</v>
-      </c>
-      <c r="E46" s="17">
-        <v>0</v>
-      </c>
-      <c r="F46" s="17">
-        <v>5</v>
-      </c>
-      <c r="G46" s="17">
-        <v>0</v>
-      </c>
-      <c r="H46" s="17">
-        <v>5</v>
-      </c>
-      <c r="I46" s="17">
-        <v>5</v>
-      </c>
-      <c r="J46" s="17">
-        <v>0</v>
-      </c>
-      <c r="K46" s="17">
-        <v>0</v>
-      </c>
-      <c r="L46" s="17">
-        <v>0</v>
-      </c>
-      <c r="M46" s="17">
-        <v>5</v>
-      </c>
-      <c r="N46" s="17">
-        <v>0</v>
-      </c>
-      <c r="O46" s="17">
+      <c r="C46" s="16">
+        <v>5</v>
+      </c>
+      <c r="D46" s="16">
+        <v>5</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <v>5</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+      <c r="H46" s="16">
+        <v>5</v>
+      </c>
+      <c r="I46" s="16">
+        <v>5</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0</v>
+      </c>
+      <c r="L46" s="16">
+        <v>0</v>
+      </c>
+      <c r="M46" s="16">
+        <v>5</v>
+      </c>
+      <c r="N46" s="16">
+        <v>0</v>
+      </c>
+      <c r="O46" s="16">
         <v>3</v>
       </c>
-      <c r="P46" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="17">
-        <v>0</v>
-      </c>
-      <c r="R46" s="17">
-        <v>0</v>
-      </c>
-      <c r="S46" s="17">
+      <c r="P46" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>0</v>
+      </c>
+      <c r="R46" s="16">
+        <v>0</v>
+      </c>
+      <c r="S46" s="16">
         <v>2</v>
       </c>
-      <c r="T46" s="17">
+      <c r="T46" s="16">
         <v>4</v>
       </c>
-      <c r="U46" s="17">
+      <c r="U46" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7739,86 +7743,86 @@
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="17">
-        <v>5</v>
-      </c>
-      <c r="D49" s="17">
-        <v>5</v>
-      </c>
-      <c r="E49" s="17">
-        <v>0</v>
-      </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="17">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17">
-        <v>0</v>
-      </c>
-      <c r="J49" s="17">
-        <v>0</v>
-      </c>
-      <c r="K49" s="17">
-        <v>0</v>
-      </c>
-      <c r="L49" s="17">
-        <v>0</v>
-      </c>
-      <c r="M49" s="17">
-        <v>0</v>
-      </c>
-      <c r="N49" s="17">
-        <v>0</v>
-      </c>
-      <c r="O49" s="17">
-        <v>0</v>
-      </c>
-      <c r="P49" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="17">
-        <v>0</v>
-      </c>
-      <c r="R49" s="17">
-        <v>0</v>
-      </c>
-      <c r="S49" s="17">
-        <v>0</v>
-      </c>
-      <c r="T49" s="17">
-        <v>0</v>
-      </c>
-      <c r="U49" s="17">
+      <c r="C49" s="16">
+        <v>5</v>
+      </c>
+      <c r="D49" s="16">
+        <v>5</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
+        <v>0</v>
+      </c>
+      <c r="N49" s="16">
+        <v>0</v>
+      </c>
+      <c r="O49" s="16">
+        <v>0</v>
+      </c>
+      <c r="P49" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>0</v>
+      </c>
+      <c r="R49" s="16">
+        <v>0</v>
+      </c>
+      <c r="S49" s="16">
+        <v>0</v>
+      </c>
+      <c r="T49" s="16">
+        <v>0</v>
+      </c>
+      <c r="U49" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8101,7 +8105,7 @@
   <dimension ref="A5:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8113,69 +8117,69 @@
   <sheetData>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -8197,301 +8201,331 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="C7" s="16">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16">
+        <v>5</v>
+      </c>
+      <c r="E7" s="16">
+        <v>5</v>
+      </c>
+      <c r="F7" s="16">
+        <v>5</v>
+      </c>
+      <c r="G7" s="16">
+        <v>5</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5</v>
+      </c>
+      <c r="I7" s="16">
+        <v>5</v>
+      </c>
+      <c r="J7" s="16">
+        <v>5</v>
+      </c>
+      <c r="K7" s="16">
+        <v>5</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>5</v>
+      </c>
+      <c r="N7" s="16">
+        <v>5</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4">
-        <v>5</v>
-      </c>
-      <c r="I8" s="4">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="C8" s="16">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16">
+        <v>5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>5</v>
+      </c>
+      <c r="F8" s="16">
+        <v>5</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5</v>
+      </c>
+      <c r="H8" s="16">
+        <v>5</v>
+      </c>
+      <c r="I8" s="16">
+        <v>5</v>
+      </c>
+      <c r="J8" s="16">
+        <v>5</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>5</v>
+      </c>
+      <c r="N8" s="16">
+        <v>5</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>5</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16">
+        <v>5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
+      <c r="H9" s="16">
+        <v>5</v>
+      </c>
+      <c r="I9" s="16">
+        <v>5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>5</v>
+      </c>
+      <c r="N9" s="16">
+        <v>5</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="16">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="16">
+        <v>5</v>
+      </c>
+      <c r="G10" s="16">
         <v>4.5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="16">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="I10" s="16">
+        <v>5</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>5</v>
+      </c>
+      <c r="N10" s="16">
+        <v>5</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="7">
         <f>(C8+C9+C10)/3</f>
         <v>5</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="7">
         <f t="shared" ref="D11:U11" si="0">(D8+D9+D10)/3</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="7">
         <f t="shared" ref="F11" si="1">(F8+F9+F10)/3</f>
         <v>5</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="7">
         <f t="shared" ref="G11" si="2">(G8+G9+G10)/3</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="7">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="17">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="17">
+        <v>5</v>
+      </c>
+      <c r="O11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16">
         <v>2.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="16">
         <v>4.5</v>
       </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="16">
+        <v>5</v>
+      </c>
+      <c r="G12" s="16">
         <v>4.5</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="16">
         <v>4.5</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="16">
         <v>4.5</v>
       </c>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="J12" s="16">
+        <v>5</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <v>5</v>
+      </c>
+      <c r="N12" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -8540,11 +8574,11 @@
       </c>
       <c r="M13" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="O13" s="7">
         <f t="shared" si="3"/>
@@ -8576,221 +8610,249 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="30">
+        <v>5</v>
+      </c>
+      <c r="D14" s="30">
+        <v>5</v>
+      </c>
+      <c r="E14" s="30">
+        <v>5</v>
+      </c>
+      <c r="F14" s="30">
+        <v>5</v>
+      </c>
+      <c r="G14" s="30">
+        <v>5</v>
+      </c>
+      <c r="H14" s="30">
+        <v>5</v>
+      </c>
+      <c r="I14" s="30">
+        <v>5</v>
+      </c>
+      <c r="J14" s="30">
+        <v>5</v>
+      </c>
+      <c r="K14" s="30">
+        <v>5</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
+        <v>5</v>
+      </c>
+      <c r="N14" s="30">
+        <v>5</v>
+      </c>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+    </row>
+    <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="30">
+        <v>5</v>
+      </c>
+      <c r="D15" s="30">
+        <v>5</v>
+      </c>
+      <c r="E15" s="30">
+        <v>5</v>
+      </c>
+      <c r="F15" s="30">
+        <v>5</v>
+      </c>
+      <c r="G15" s="30">
+        <v>5</v>
+      </c>
+      <c r="H15" s="30">
+        <v>5</v>
+      </c>
+      <c r="I15" s="30">
+        <v>5</v>
+      </c>
+      <c r="J15" s="30">
+        <v>5</v>
+      </c>
+      <c r="K15" s="30">
+        <v>5</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0</v>
+      </c>
+      <c r="M15" s="30">
+        <v>5</v>
+      </c>
+      <c r="N15" s="30">
+        <v>5</v>
+      </c>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+    </row>
+    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="30">
+        <v>5</v>
+      </c>
+      <c r="D16" s="30">
+        <v>5</v>
+      </c>
+      <c r="E16" s="30">
+        <v>5</v>
+      </c>
+      <c r="F16" s="30">
+        <v>5</v>
+      </c>
+      <c r="G16" s="30">
+        <v>5</v>
+      </c>
+      <c r="H16" s="30">
+        <v>5</v>
+      </c>
+      <c r="I16" s="30">
+        <v>5</v>
+      </c>
+      <c r="J16" s="30">
+        <v>5</v>
+      </c>
+      <c r="K16" s="30">
+        <v>5</v>
+      </c>
+      <c r="L16" s="30">
+        <v>0</v>
+      </c>
+      <c r="M16" s="30">
+        <v>5</v>
+      </c>
+      <c r="N16" s="30">
+        <v>5</v>
+      </c>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+    </row>
+    <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="4">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4">
-        <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4">
-        <v>5</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="C17" s="30">
+        <v>5</v>
+      </c>
+      <c r="D17" s="30">
+        <v>5</v>
+      </c>
+      <c r="E17" s="30">
+        <v>5</v>
+      </c>
+      <c r="F17" s="30">
+        <v>5</v>
+      </c>
+      <c r="G17" s="30">
+        <v>5</v>
+      </c>
+      <c r="H17" s="30">
+        <v>5</v>
+      </c>
+      <c r="I17" s="30">
+        <v>5</v>
+      </c>
+      <c r="J17" s="30">
+        <v>5</v>
+      </c>
+      <c r="K17" s="30">
+        <v>5</v>
+      </c>
+      <c r="L17" s="30">
+        <v>0</v>
+      </c>
+      <c r="M17" s="30">
+        <v>5</v>
+      </c>
+      <c r="N17" s="30">
+        <v>5</v>
+      </c>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="16">
         <v>4</v>
       </c>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="D18" s="16">
+        <v>5</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="F18" s="16">
+        <v>5</v>
+      </c>
+      <c r="G18" s="16">
         <v>3</v>
       </c>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
+      <c r="I18" s="16">
         <v>4</v>
       </c>
-      <c r="J18" s="4">
-        <v>5</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="J18" s="16">
+        <v>5</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16">
+        <v>5</v>
+      </c>
+      <c r="N18" s="16">
+        <v>5</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -8839,11 +8901,11 @@
       </c>
       <c r="M19" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="7">
         <f t="shared" si="6"/>
@@ -8874,89 +8936,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20">
+      <c r="B20" s="34"/>
+      <c r="C20" s="24">
         <f>C13*0.7+C19*0.3</f>
         <v>4.3566666666666665</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="24">
         <f t="shared" ref="D20:U20" si="9">D13*0.7+D19*0.3</f>
         <v>3.7555555555555551</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="24">
         <f t="shared" si="9"/>
         <v>4.5722222222222211</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="24">
         <f t="shared" ref="F20" si="10">F13*0.7+F19*0.3</f>
         <v>5</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="24">
         <f t="shared" ref="G20" si="11">G13*0.7+G19*0.3</f>
         <v>4.724444444444444</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="24">
         <f t="shared" si="9"/>
         <v>4.5722222222222211</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="24">
         <f t="shared" si="9"/>
         <v>4.8233333333333324</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="24">
         <f t="shared" si="9"/>
         <v>4.6111111111111107</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="24">
         <f t="shared" si="9"/>
         <v>2.3666666666666667</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="20">
+        <v>5</v>
+      </c>
+      <c r="N20" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="20">
+        <v>4.8833333333333329</v>
+      </c>
+      <c r="O20" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>119</v>
       </c>
@@ -8970,9 +9032,7 @@
       <c r="E21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
         <v>125</v>
       </c>
@@ -8989,11 +9049,9 @@
         <v>127</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>120</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
         <v>120</v>
       </c>
@@ -9037,7 +9095,7 @@
   <dimension ref="C7:V13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9048,61 +9106,61 @@
   <sheetData>
     <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="4"/>
-      <c r="D7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="V7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9110,61 +9168,61 @@
       <c r="C8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0</v>
-      </c>
-      <c r="G8" s="31">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31">
-        <v>0</v>
-      </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="31">
-        <v>0</v>
-      </c>
-      <c r="K8" s="31">
-        <v>0</v>
-      </c>
-      <c r="L8" s="31">
-        <v>0</v>
-      </c>
-      <c r="M8" s="31">
-        <v>0</v>
-      </c>
-      <c r="N8" s="31">
-        <v>0</v>
-      </c>
-      <c r="O8" s="31">
-        <v>0</v>
-      </c>
-      <c r="P8" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="31">
-        <v>0</v>
-      </c>
-      <c r="R8" s="31">
-        <v>0</v>
-      </c>
-      <c r="S8" s="31">
-        <v>0</v>
-      </c>
-      <c r="T8" s="31">
-        <v>0</v>
-      </c>
-      <c r="U8" s="31">
-        <v>0</v>
-      </c>
-      <c r="V8" s="31">
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="32">
+        <v>0</v>
+      </c>
+      <c r="P8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0</v>
+      </c>
+      <c r="R8" s="32">
+        <v>0</v>
+      </c>
+      <c r="S8" s="32">
+        <v>0</v>
+      </c>
+      <c r="T8" s="32">
+        <v>0</v>
+      </c>
+      <c r="U8" s="32">
+        <v>0</v>
+      </c>
+      <c r="V8" s="32">
         <v>0</v>
       </c>
     </row>
@@ -9172,79 +9230,79 @@
       <c r="C9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="32">
         <f>Actividades!C5</f>
         <v>3.8630952380952381</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="32">
         <f>Actividades!D5</f>
         <v>4.4880952380952381</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <f>Actividades!E5</f>
         <v>2.1981292517006805</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="32">
         <f>Actividades!F5</f>
         <v>4.2440476190476186</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="32">
         <f>Actividades!G5</f>
         <v>2.7253401360544216</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="32">
         <f>Actividades!H5</f>
         <v>4.0059523809523814</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="32">
         <f>Actividades!I5</f>
         <v>3.1420068027210881</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="32">
         <f>Actividades!J5</f>
         <v>3.7431972789115648</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="32">
         <f>Actividades!K5</f>
         <v>4.0051020408163263</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="32">
         <f>Actividades!L5</f>
         <v>1.5195578231292519</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="32">
         <f>Actividades!M5</f>
         <v>4.0943877551020407</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="32">
         <f>Actividades!N5</f>
         <v>3.7015306122448979</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="32">
         <f>Actividades!O5</f>
         <v>2.7848639455782309</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="32">
         <f>Actividades!P5</f>
         <v>0.625</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="32">
         <f>Actividades!Q5</f>
         <v>3.0824829931972784</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="32">
         <f>Actividades!R5</f>
         <v>2.9277210884353742</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="32">
         <f>Actividades!S5</f>
         <v>2.5848639455782312</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="32">
         <f>Actividades!T5</f>
         <v>3.3869047619047623</v>
       </c>
-      <c r="V9" s="31">
+      <c r="V9" s="32">
         <f>Actividades!U5</f>
         <v>0.78401360544217691</v>
       </c>
@@ -9253,79 +9311,79 @@
       <c r="C10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="32">
         <f>Laboratorios!C5</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="32">
         <f>Laboratorios!D5</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="32">
         <f>Laboratorios!E5</f>
         <v>3.0277777777777777</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="32">
         <f>Laboratorios!F5</f>
         <v>3.8194444444444446</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="32">
         <f>Laboratorios!G5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="32">
         <f>Laboratorios!H5</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="32">
         <f>Laboratorios!I5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="32">
         <f>Laboratorios!J5</f>
         <v>2.0555555555555554</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="32">
         <f>Laboratorios!K5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="32">
         <f>Laboratorios!L5</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="32">
         <f>Laboratorios!M5</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="32">
         <f>Laboratorios!N5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="32">
         <f>Laboratorios!O5</f>
         <v>3.6111111111111112</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="32">
         <f>Laboratorios!P5</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="32">
         <f>Laboratorios!Q5</f>
         <v>3.2222222222222223</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="32">
         <f>Laboratorios!R5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="32">
         <f>Laboratorios!S5</f>
         <v>3.6944444444444446</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="32">
         <f>Laboratorios!T5</f>
         <v>2.1944444444444446</v>
       </c>
-      <c r="V10" s="31">
+      <c r="V10" s="32">
         <f>Laboratorios!U5</f>
         <v>1.1111111111111112</v>
       </c>
@@ -9334,79 +9392,79 @@
       <c r="C11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="32">
         <f>Examenes!C20</f>
         <v>4.3566666666666665</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="32">
         <f>Examenes!D20</f>
         <v>3.7555555555555551</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="32">
         <f>Examenes!E20</f>
         <v>4.5722222222222211</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="32">
         <f>Examenes!F20</f>
         <v>5</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="32">
         <f>Examenes!G20</f>
         <v>4.724444444444444</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="32">
         <f>Examenes!H20</f>
         <v>4.5722222222222211</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="32">
         <f>Examenes!I20</f>
         <v>4.8233333333333324</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="32">
         <f>Examenes!J20</f>
         <v>4.6111111111111107</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="32">
         <f>Examenes!K20</f>
         <v>2.3666666666666667</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="32">
         <f>Examenes!L20</f>
         <v>0</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="32">
         <f>Examenes!M20</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="31">
+        <v>5</v>
+      </c>
+      <c r="O11" s="32">
         <f>Examenes!N20</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="31">
+        <v>4.8833333333333329</v>
+      </c>
+      <c r="P11" s="32">
         <f>Examenes!O20</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="32">
         <f>Examenes!P20</f>
         <v>0</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="32">
         <f>Examenes!Q20</f>
         <v>0</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="32">
         <f>Examenes!R20</f>
         <v>0</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="32">
         <f>Examenes!S20</f>
         <v>0</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="32">
         <f>Examenes!T20</f>
         <v>0</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="32">
         <f>Examenes!U20</f>
         <v>0</v>
       </c>
@@ -9415,28 +9473,28 @@
       <c r="C12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="31">
@@ -9481,11 +9539,11 @@
       </c>
       <c r="N13" s="31">
         <f t="shared" si="0"/>
-        <v>1.9958191609977325</v>
+        <v>2.4958191609977325</v>
       </c>
       <c r="O13" s="31">
         <f t="shared" si="0"/>
-        <v>1.6198270975056688</v>
+        <v>2.1081604308390021</v>
       </c>
       <c r="P13" s="31">
         <f t="shared" si="0"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD32AF-3795-8847-8A74-9D1FCB59F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F670AF7-70FA-FC49-B348-5E3A32EA39BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41000" yWindow="960" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="132">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -416,9 +416,6 @@
     <t>falla punto fijo, construir  grafica 10 valores</t>
   </si>
   <si>
-    <t>Contruir grafica 10 valore</t>
-  </si>
-  <si>
     <t>Examen 1: 10%</t>
   </si>
   <si>
@@ -429,6 +426,15 @@
   </si>
   <si>
     <t xml:space="preserve">No hay examen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta punto fijo y no se resuelve para 10 valores. Solo leer el pandas data frame. </t>
+  </si>
+  <si>
+    <t>Contruir grafica 10 valores</t>
+  </si>
+  <si>
+    <t>Mejorar graficos para 10 valores de masa</t>
   </si>
 </sst>
 </file>
@@ -8104,8 +8110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
   <dimension ref="A5:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8177,7 +8183,7 @@
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="4"/>
@@ -8243,13 +8249,19 @@
       <c r="N7" s="16">
         <v>5</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="O7" s="16">
+        <v>5</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -8292,13 +8304,19 @@
       <c r="N8" s="16">
         <v>5</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="O8" s="16">
+        <v>5</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -8341,13 +8359,19 @@
       <c r="N9" s="16">
         <v>5</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="O9" s="16">
+        <v>5</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
@@ -8390,13 +8414,19 @@
       <c r="N10" s="16">
         <v>5</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="O10" s="16">
+        <v>1</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
+      <c r="U10" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
@@ -8453,7 +8483,7 @@
       </c>
       <c r="O11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
@@ -8519,13 +8549,19 @@
       <c r="N12" s="16">
         <v>4.5</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="O12" s="16">
+        <v>1</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
+      <c r="U12" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -8582,7 +8618,7 @@
       </c>
       <c r="O13" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.2222222222222219</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="3"/>
@@ -8652,13 +8688,19 @@
       <c r="N14" s="30">
         <v>5</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="O14" s="30">
+        <v>5</v>
+      </c>
+      <c r="P14" s="30">
+        <v>0</v>
+      </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
+      <c r="U14" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
@@ -8701,13 +8743,19 @@
       <c r="N15" s="30">
         <v>5</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
+      <c r="O15" s="30">
+        <v>0</v>
+      </c>
+      <c r="P15" s="30">
+        <v>0</v>
+      </c>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
       <c r="S15" s="30"/>
       <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
+      <c r="U15" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
@@ -8750,13 +8798,19 @@
       <c r="N16" s="30">
         <v>5</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="O16" s="30">
+        <v>0</v>
+      </c>
+      <c r="P16" s="30">
+        <v>0</v>
+      </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
+      <c r="U16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
@@ -8799,13 +8853,19 @@
       <c r="N17" s="30">
         <v>5</v>
       </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="O17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30">
+        <v>0</v>
+      </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
       <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
+      <c r="U17" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
@@ -8846,13 +8906,19 @@
       <c r="N18" s="16">
         <v>5</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0</v>
+      </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
+      <c r="U18" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -8909,7 +8975,7 @@
       </c>
       <c r="O19" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="7">
         <f t="shared" si="6"/>
@@ -8991,7 +9057,7 @@
       </c>
       <c r="O20" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.5555555555555549</v>
       </c>
       <c r="P20" s="24">
         <f t="shared" si="9"/>
@@ -9034,7 +9100,7 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>124</v>
@@ -9043,38 +9109,30 @@
         <v>120</v>
       </c>
       <c r="J21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>120</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
       <c r="U21" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -9442,7 +9500,7 @@
       </c>
       <c r="P11" s="32">
         <f>Examenes!O20</f>
-        <v>0</v>
+        <v>2.5555555555555549</v>
       </c>
       <c r="Q11" s="32">
         <f>Examenes!P20</f>
@@ -9547,7 +9605,7 @@
       </c>
       <c r="P13" s="31">
         <f t="shared" si="0"/>
-        <v>1.5989937641723355</v>
+        <v>1.8545493197278911</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="0"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F670AF7-70FA-FC49-B348-5E3A32EA39BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAFBED4-DFA5-274A-8D48-E586D6761C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41000" yWindow="960" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="41020" yWindow="940" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Mejorar graficos para 10 valores de masa</t>
+  </si>
+  <si>
+    <t>Falta metodo de punto fijo y construir grafico para 10 valores</t>
   </si>
 </sst>
 </file>
@@ -8111,7 +8114,7 @@
   <dimension ref="A5:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8255,8 +8258,12 @@
       <c r="P7" s="16">
         <v>0</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="Q7" s="16">
+        <v>5</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16">
@@ -8310,8 +8317,12 @@
       <c r="P8" s="16">
         <v>0</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="Q8" s="16">
+        <v>5</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16">
@@ -8365,8 +8376,12 @@
       <c r="P9" s="16">
         <v>0</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="Q9" s="16">
+        <v>5</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16">
@@ -8420,8 +8435,12 @@
       <c r="P10" s="16">
         <v>0</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+      <c r="Q10" s="16">
+        <v>1</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0</v>
+      </c>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16">
@@ -8491,7 +8510,7 @@
       </c>
       <c r="Q11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="0"/>
@@ -8555,8 +8574,12 @@
       <c r="P12" s="16">
         <v>0</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="Q12" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16">
@@ -8626,7 +8649,7 @@
       </c>
       <c r="Q13" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.3888888888888884</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="3"/>
@@ -8694,8 +8717,12 @@
       <c r="P14" s="30">
         <v>0</v>
       </c>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
+      <c r="Q14" s="30">
+        <v>5</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0</v>
+      </c>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30">
@@ -8749,8 +8776,12 @@
       <c r="P15" s="30">
         <v>0</v>
       </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
+      <c r="Q15" s="30">
+        <v>5</v>
+      </c>
+      <c r="R15" s="30">
+        <v>0</v>
+      </c>
       <c r="S15" s="30"/>
       <c r="T15" s="30"/>
       <c r="U15" s="30">
@@ -8804,8 +8835,12 @@
       <c r="P16" s="30">
         <v>0</v>
       </c>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="Q16" s="30">
+        <v>5</v>
+      </c>
+      <c r="R16" s="30">
+        <v>0</v>
+      </c>
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30">
@@ -8859,8 +8894,12 @@
       <c r="P17" s="30">
         <v>0</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+      <c r="Q17" s="30">
+        <v>5</v>
+      </c>
+      <c r="R17" s="30">
+        <v>0</v>
+      </c>
       <c r="S17" s="30"/>
       <c r="T17" s="30"/>
       <c r="U17" s="30">
@@ -8912,8 +8951,12 @@
       <c r="P18" s="16">
         <v>0</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="Q18" s="16">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0</v>
+      </c>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16">
@@ -8983,7 +9026,7 @@
       </c>
       <c r="Q19" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="6"/>
@@ -9065,7 +9108,7 @@
       </c>
       <c r="Q20" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.2722222222222213</v>
       </c>
       <c r="R20" s="24">
         <f t="shared" si="9"/>
@@ -9127,8 +9170,12 @@
       <c r="P21" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="Q21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5" t="s">
@@ -9508,7 +9555,7 @@
       </c>
       <c r="R11" s="32">
         <f>Examenes!Q20</f>
-        <v>0</v>
+        <v>4.2722222222222213</v>
       </c>
       <c r="S11" s="32">
         <f>Examenes!R20</f>
@@ -9613,7 +9660,7 @@
       </c>
       <c r="R13" s="31">
         <f t="shared" si="0"/>
-        <v>1.5761763038548753</v>
+        <v>2.0033985260770972</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="0"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F243A956-0684-F54E-B810-0E7C9507E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9019D9D2-F838-5E4C-9AA6-FE3CD4EE7506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41020" yWindow="940" windowWidth="29840" windowHeight="19180" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9019D9D2-F838-5E4C-9AA6-FE3CD4EE7506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1154437B-EF7D-A749-BAA7-1E23EA2ED4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41020" yWindow="940" windowWidth="29840" windowHeight="19180" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="41020" yWindow="940" windowWidth="29840" windowHeight="19180" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -1008,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
@@ -5188,7 +5188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B5" sqref="B4:U5"/>
     </sheetView>
   </sheetViews>
@@ -8131,7 +8131,7 @@
   <dimension ref="A5:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9261,7 +9261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
   <dimension ref="C7:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1154437B-EF7D-A749-BAA7-1E23EA2ED4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00492E35-9E04-C649-AA3F-E2A7A109D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41020" yWindow="940" windowWidth="29840" windowHeight="19180" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="39880" yWindow="1560" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -659,6 +659,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -674,24 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,148 +1030,148 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="25">
-        <f>SUM(C12+C17+C26+C33+C38+C42+C46+C50+C54+C57+C60+C65+C70+C76)/14</f>
+      <c r="C5" s="20">
+        <f t="shared" ref="C5:U5" si="0">SUM(C12+C17+C26+C33+C38+C42+C46+C50+C54+C57+C60+C65+C70+C76)/14</f>
         <v>3.8630952380952381</v>
       </c>
-      <c r="D5" s="25">
-        <f>SUM(D12+D17+D26+D33+D38+D42+D46+D50+D54+D57+D60+D65+D70+D76)/14</f>
+      <c r="D5" s="20">
+        <f t="shared" si="0"/>
         <v>4.4880952380952381</v>
       </c>
-      <c r="E5" s="25">
-        <f>SUM(E12+E17+E26+E33+E38+E42+E46+E50+E54+E57+E60+E65+E70+E76)/14</f>
+      <c r="E5" s="20">
+        <f t="shared" si="0"/>
         <v>2.1981292517006805</v>
       </c>
-      <c r="F5" s="25">
-        <f>SUM(F12+F17+F26+F33+F38+F42+F46+F50+F54+F57+F60+F65+F70+F76)/14</f>
+      <c r="F5" s="20">
+        <f t="shared" si="0"/>
         <v>4.2440476190476186</v>
       </c>
-      <c r="G5" s="25">
-        <f>SUM(G12+G17+G26+G33+G38+G42+G46+G50+G54+G57+G60+G65+G70+G76)/14</f>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
         <v>2.7253401360544216</v>
       </c>
-      <c r="H5" s="25">
-        <f>SUM(H12+H17+H26+H33+H38+H42+H46+H50+H54+H57+H60+H65+H70+H76)/14</f>
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
         <v>4.0059523809523814</v>
       </c>
-      <c r="I5" s="25">
-        <f>SUM(I12+I17+I26+I33+I38+I42+I46+I50+I54+I57+I60+I65+I70+I76)/14</f>
+      <c r="I5" s="20">
+        <f t="shared" si="0"/>
         <v>3.1420068027210881</v>
       </c>
-      <c r="J5" s="25">
-        <f>SUM(J12+J17+J26+J33+J38+J42+J46+J50+J54+J57+J60+J65+J70+J76)/14</f>
+      <c r="J5" s="20">
+        <f t="shared" si="0"/>
         <v>3.7431972789115648</v>
       </c>
-      <c r="K5" s="25">
-        <f>SUM(K12+K17+K26+K33+K38+K42+K46+K50+K54+K57+K60+K65+K70+K76)/14</f>
+      <c r="K5" s="20">
+        <f t="shared" si="0"/>
         <v>4.0051020408163263</v>
       </c>
-      <c r="L5" s="25">
-        <f>SUM(L12+L17+L26+L33+L38+L42+L46+L50+L54+L57+L60+L65+L70+L76)/14</f>
+      <c r="L5" s="20">
+        <f t="shared" si="0"/>
         <v>1.5195578231292519</v>
       </c>
-      <c r="M5" s="25">
-        <f>SUM(M12+M17+M26+M33+M38+M42+M46+M50+M54+M57+M60+M65+M70+M76)/14</f>
+      <c r="M5" s="20">
+        <f t="shared" si="0"/>
         <v>4.0943877551020407</v>
       </c>
-      <c r="N5" s="25">
-        <f>SUM(N12+N17+N26+N33+N38+N42+N46+N50+N54+N57+N60+N65+N70+N76)/14</f>
+      <c r="N5" s="20">
+        <f t="shared" si="0"/>
         <v>3.7015306122448979</v>
       </c>
-      <c r="O5" s="25">
-        <f>SUM(O12+O17+O26+O33+O38+O42+O46+O50+O54+O57+O60+O65+O70+O76)/14</f>
+      <c r="O5" s="20">
+        <f t="shared" si="0"/>
         <v>2.7848639455782309</v>
       </c>
-      <c r="P5" s="25">
-        <f>SUM(P12+P17+P26+P33+P38+P42+P46+P50+P54+P57+P60+P65+P70+P76)/14</f>
+      <c r="P5" s="20">
+        <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="Q5" s="25">
-        <f>SUM(Q12+Q17+Q26+Q33+Q38+Q42+Q46+Q50+Q54+Q57+Q60+Q65+Q70+Q76)/14</f>
+      <c r="Q5" s="20">
+        <f t="shared" si="0"/>
         <v>3.0824829931972784</v>
       </c>
-      <c r="R5" s="25">
-        <f>SUM(R12+R17+R26+R33+R38+R42+R46+R50+R54+R57+R60+R65+R70+R76)/14</f>
+      <c r="R5" s="20">
+        <f t="shared" si="0"/>
         <v>2.9277210884353742</v>
       </c>
-      <c r="S5" s="25">
-        <f>SUM(S12+S17+S26+S33+S38+S42+S46+S50+S54+S57+S60+S65+S70+S76)/14</f>
+      <c r="S5" s="20">
+        <f t="shared" si="0"/>
         <v>2.5848639455782312</v>
       </c>
-      <c r="T5" s="25">
-        <f>SUM(T12+T17+T26+T33+T38+T42+T46+T50+T54+T57+T60+T65+T70+T76)/14</f>
+      <c r="T5" s="20">
+        <f t="shared" si="0"/>
         <v>3.3869047619047623</v>
       </c>
-      <c r="U5" s="25">
-        <f>SUM(U12+U17+U26+U33+U38+U42+U46+U50+U54+U57+U60+U65+U70+U76)/14</f>
+      <c r="U5" s="20">
+        <f t="shared" si="0"/>
         <v>0.78401360544217691</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1432,75 +1432,75 @@
         <v>3.75</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" ref="D12:U12" si="0">SUM(D8:D11)/4</f>
+        <f t="shared" ref="D12:U12" si="1">SUM(D8:D11)/4</f>
         <v>5</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="P12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="R12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="S12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="T12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="U12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
@@ -1723,75 +1723,75 @@
         <v>4.666666666666667</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" ref="D17:U17" si="1">SUM(D14:D16)/3</f>
+        <f t="shared" ref="D17:U17" si="2">SUM(D14:D16)/3</f>
         <v>5</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.666666666666667</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.666666666666667</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.666666666666667</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.666666666666667</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -2262,11 +2262,11 @@
         <v>5</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" ref="D26:U26" si="2">SUM(D19:D25)/7</f>
+        <f t="shared" ref="D26:U26" si="3">SUM(D19:D25)/7</f>
         <v>5</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="F26" s="8">
@@ -2278,59 +2278,59 @@
         <v>3.5714285714285716</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="S26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="T26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1428571428571428</v>
       </c>
     </row>
@@ -2677,75 +2677,75 @@
         <v>5</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" ref="D33:U33" si="3">SUM(D28:D32)/5</f>
+        <f t="shared" ref="D33:U33" si="4">SUM(D28:D32)/5</f>
         <v>5</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="S33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2968,11 +2968,11 @@
         <v>5</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" ref="D38:U38" si="4">SUM(D35:D37)/3</f>
+        <f t="shared" ref="D38:U38" si="5">SUM(D35:D37)/3</f>
         <v>4.333333333333333</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F38" s="8">
@@ -2983,57 +2983,57 @@
         <v>5</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I38" s="8">
         <v>5</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N38" s="8">
         <v>5</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -3194,72 +3194,72 @@
         <v>4</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" ref="D42:U42" si="5">(D40+D41)/2</f>
+        <f t="shared" ref="D42:U42" si="6">(D40+D41)/2</f>
         <v>5</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F42" s="8">
         <v>5</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H42" s="8">
         <v>5</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T42" s="8">
         <v>5</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3420,75 +3420,75 @@
         <v>5</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" ref="D46:U46" si="6">(D44+D45)/2</f>
+        <f t="shared" ref="D46:U46" si="7">(D44+D45)/2</f>
         <v>5</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="K46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="L46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="S46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="T46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3649,75 +3649,75 @@
         <v>5</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" ref="D50:U50" si="7">(D48+D49)/2</f>
+        <f t="shared" ref="D50:U50" si="8">(D48+D49)/2</f>
         <v>5</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="J50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="K50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="L50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="N50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="S50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="U50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3878,75 +3878,75 @@
         <v>5</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" ref="D54:U54" si="8">SUM(D52+D53)/2</f>
+        <f t="shared" ref="D54:U54" si="9">SUM(D52+D53)/2</f>
         <v>5</v>
       </c>
       <c r="E54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="L54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="P54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="R54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="S54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4465,73 +4465,73 @@
         <v>5</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" ref="D65:U65" si="9">SUM(D62:D64)/3</f>
+        <f t="shared" ref="D65:U65" si="10">SUM(D62:D64)/3</f>
         <v>5</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M65" s="8">
         <v>5</v>
       </c>
       <c r="N65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P65" s="8">
         <v>0</v>
       </c>
       <c r="Q65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="U65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4754,75 +4754,75 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" ref="D70:U70" si="10">SUM(D67:D69)/3</f>
+        <f t="shared" ref="D70" si="11">SUM(D67:D69)/3</f>
         <v>5</v>
       </c>
       <c r="E70" s="8">
-        <f t="shared" ref="E70" si="11">SUM(E67:E69)/3</f>
+        <f t="shared" ref="E70" si="12">SUM(E67:E69)/3</f>
         <v>0</v>
       </c>
       <c r="F70" s="8">
-        <f t="shared" ref="F70" si="12">SUM(F67:F69)/3</f>
+        <f t="shared" ref="F70" si="13">SUM(F67:F69)/3</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" ref="G70" si="13">SUM(G67:G69)/3</f>
+        <f t="shared" ref="G70" si="14">SUM(G67:G69)/3</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="H70" s="8">
-        <f t="shared" ref="H70" si="14">SUM(H67:H69)/3</f>
+        <f t="shared" ref="H70" si="15">SUM(H67:H69)/3</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="I70" s="8">
-        <f t="shared" ref="I70" si="15">SUM(I67:I69)/3</f>
+        <f t="shared" ref="I70" si="16">SUM(I67:I69)/3</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="J70" s="8">
-        <f t="shared" ref="J70" si="16">SUM(J67:J69)/3</f>
+        <f t="shared" ref="J70" si="17">SUM(J67:J69)/3</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="K70" s="8">
-        <f t="shared" ref="K70" si="17">SUM(K67:K69)/3</f>
+        <f t="shared" ref="K70" si="18">SUM(K67:K69)/3</f>
         <v>0</v>
       </c>
       <c r="L70" s="8">
-        <f t="shared" ref="L70" si="18">SUM(L67:L69)/3</f>
+        <f t="shared" ref="L70" si="19">SUM(L67:L69)/3</f>
         <v>0</v>
       </c>
       <c r="M70" s="8">
-        <f t="shared" ref="M70" si="19">SUM(M67:M69)/3</f>
+        <f t="shared" ref="M70" si="20">SUM(M67:M69)/3</f>
         <v>5</v>
       </c>
       <c r="N70" s="8">
-        <f t="shared" ref="N70" si="20">SUM(N67:N69)/3</f>
+        <f t="shared" ref="N70" si="21">SUM(N67:N69)/3</f>
         <v>0</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" ref="O70" si="21">SUM(O67:O69)/3</f>
+        <f t="shared" ref="O70" si="22">SUM(O67:O69)/3</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="P70" s="8">
-        <f t="shared" ref="P70" si="22">SUM(P67:P69)/3</f>
+        <f t="shared" ref="P70" si="23">SUM(P67:P69)/3</f>
         <v>0</v>
       </c>
       <c r="Q70" s="8">
-        <f t="shared" ref="Q70" si="23">SUM(Q67:Q69)/3</f>
+        <f t="shared" ref="Q70" si="24">SUM(Q67:Q69)/3</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="R70" s="8">
-        <f t="shared" ref="R70" si="24">SUM(R67:R69)/3</f>
+        <f t="shared" ref="R70" si="25">SUM(R67:R69)/3</f>
         <v>0</v>
       </c>
       <c r="S70" s="8">
-        <f t="shared" ref="S70" si="25">SUM(S67:S69)/3</f>
+        <f t="shared" ref="S70" si="26">SUM(S67:S69)/3</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="T70" s="8">
-        <f t="shared" ref="T70" si="26">SUM(T67:T69)/3</f>
+        <f t="shared" ref="T70" si="27">SUM(T67:T69)/3</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="U70" s="8">
-        <f t="shared" ref="U70" si="27">SUM(U67:U69)/3</f>
+        <f t="shared" ref="U70" si="28">SUM(U67:U69)/3</f>
         <v>0</v>
       </c>
     </row>
@@ -5107,75 +5107,75 @@
         <v>0</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" ref="D76:U76" si="28">SUM(D72:D75)/4</f>
+        <f t="shared" ref="D76" si="29">SUM(D72:D75)/4</f>
         <v>5</v>
       </c>
       <c r="E76" s="8">
-        <f t="shared" ref="E76" si="29">SUM(E72:E75)/4</f>
+        <f t="shared" ref="E76" si="30">SUM(E72:E75)/4</f>
         <v>0</v>
       </c>
       <c r="F76" s="8">
-        <f t="shared" ref="F76" si="30">SUM(F72:F75)/4</f>
+        <f t="shared" ref="F76" si="31">SUM(F72:F75)/4</f>
         <v>0</v>
       </c>
       <c r="G76" s="8">
-        <f t="shared" ref="G76" si="31">SUM(G72:G75)/4</f>
+        <f t="shared" ref="G76" si="32">SUM(G72:G75)/4</f>
         <v>0</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" ref="H76" si="32">SUM(H72:H75)/4</f>
+        <f t="shared" ref="H76" si="33">SUM(H72:H75)/4</f>
         <v>0</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" ref="I76" si="33">SUM(I72:I75)/4</f>
+        <f t="shared" ref="I76" si="34">SUM(I72:I75)/4</f>
         <v>0</v>
       </c>
       <c r="J76" s="8">
-        <f t="shared" ref="J76" si="34">SUM(J72:J75)/4</f>
+        <f t="shared" ref="J76" si="35">SUM(J72:J75)/4</f>
         <v>3.25</v>
       </c>
       <c r="K76" s="8">
-        <f t="shared" ref="K76" si="35">SUM(K72:K75)/4</f>
+        <f t="shared" ref="K76" si="36">SUM(K72:K75)/4</f>
         <v>0</v>
       </c>
       <c r="L76" s="8">
-        <f t="shared" ref="L76" si="36">SUM(L72:L75)/4</f>
+        <f t="shared" ref="L76" si="37">SUM(L72:L75)/4</f>
         <v>0</v>
       </c>
       <c r="M76" s="8">
-        <f t="shared" ref="M76" si="37">SUM(M72:M75)/4</f>
+        <f t="shared" ref="M76" si="38">SUM(M72:M75)/4</f>
         <v>0</v>
       </c>
       <c r="N76" s="8">
-        <f t="shared" ref="N76" si="38">SUM(N72:N75)/4</f>
+        <f t="shared" ref="N76" si="39">SUM(N72:N75)/4</f>
         <v>0</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" ref="O76" si="39">SUM(O72:O75)/4</f>
+        <f t="shared" ref="O76" si="40">SUM(O72:O75)/4</f>
         <v>0</v>
       </c>
       <c r="P76" s="8">
-        <f t="shared" ref="P76" si="40">SUM(P72:P75)/4</f>
+        <f t="shared" ref="P76" si="41">SUM(P72:P75)/4</f>
         <v>0</v>
       </c>
       <c r="Q76" s="8">
-        <f t="shared" ref="Q76" si="41">SUM(Q72:Q75)/4</f>
+        <f t="shared" ref="Q76" si="42">SUM(Q72:Q75)/4</f>
         <v>2.5</v>
       </c>
       <c r="R76" s="8">
-        <f t="shared" ref="R76" si="42">SUM(R72:R75)/4</f>
+        <f t="shared" ref="R76" si="43">SUM(R72:R75)/4</f>
         <v>0</v>
       </c>
       <c r="S76" s="8">
-        <f t="shared" ref="S76" si="43">SUM(S72:S75)/4</f>
+        <f t="shared" ref="S76" si="44">SUM(S72:S75)/4</f>
         <v>0</v>
       </c>
       <c r="T76" s="8">
-        <f t="shared" ref="T76" si="44">SUM(T72:T75)/4</f>
+        <f t="shared" ref="T76" si="45">SUM(T72:T75)/4</f>
         <v>0</v>
       </c>
       <c r="U76" s="8">
-        <f t="shared" ref="U76" si="45">SUM(U72:U75)/4</f>
+        <f t="shared" ref="U76" si="46">SUM(U72:U75)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5205,142 +5205,142 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="20">
         <f>(C19+C24+C28+C35+C41+C47+C50+C52+C9)/9</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="20">
         <f t="shared" ref="D5:U5" si="0">(D19+D24+D28+D35+D41+D47+D50+D52+D9)/9</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="20">
         <f t="shared" si="0"/>
         <v>3.0277777777777777</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>3.8194444444444446</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="20">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="20">
         <f t="shared" si="0"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="20">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="20">
         <f t="shared" si="0"/>
         <v>2.0555555555555554</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="20">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="20">
         <f t="shared" si="0"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="20">
         <f t="shared" si="0"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="20">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="20">
         <f t="shared" si="0"/>
         <v>3.6111111111111112</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="20">
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="20">
         <f t="shared" si="0"/>
         <v>3.2222222222222223</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="20">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="20">
         <f t="shared" si="0"/>
         <v>3.6944444444444446</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="20">
         <f t="shared" si="0"/>
         <v>2.1944444444444446</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="20">
         <f t="shared" si="0"/>
         <v>1.1111111111111112</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" ref="E47:U47" si="6">SUM(F43:F46)/4</f>
+        <f t="shared" ref="F47:U47" si="6">SUM(F43:F46)/4</f>
         <v>5</v>
       </c>
       <c r="G47" s="8">
@@ -8130,8 +8130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
   <dimension ref="A5:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8203,10 +8203,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -8228,10 +8228,10 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="17">
@@ -8262,7 +8262,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="17">
         <v>5</v>
@@ -8293,7 +8293,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="17" t="s">
         <v>107</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="17">
         <v>5</v>
@@ -8356,7 +8356,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="17" t="s">
         <v>108</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9" s="17">
         <v>5</v>
@@ -8419,7 +8419,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="17" t="s">
         <v>109</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="17">
         <v>5</v>
@@ -8482,7 +8482,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="8" t="s">
         <v>121</v>
       </c>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="0"/>
@@ -8564,7 +8564,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="17" t="s">
         <v>110</v>
       </c>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M12" s="17">
         <v>5</v>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="L13" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.3888888888888884</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="3"/>
@@ -8707,261 +8707,261 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="31">
-        <v>5</v>
-      </c>
-      <c r="D14" s="31">
-        <v>5</v>
-      </c>
-      <c r="E14" s="31">
-        <v>5</v>
-      </c>
-      <c r="F14" s="31">
-        <v>5</v>
-      </c>
-      <c r="G14" s="31">
-        <v>5</v>
-      </c>
-      <c r="H14" s="31">
-        <v>5</v>
-      </c>
-      <c r="I14" s="31">
-        <v>5</v>
-      </c>
-      <c r="J14" s="31">
-        <v>5</v>
-      </c>
-      <c r="K14" s="31">
-        <v>5</v>
-      </c>
-      <c r="L14" s="31">
-        <v>0</v>
-      </c>
-      <c r="M14" s="31">
-        <v>5</v>
-      </c>
-      <c r="N14" s="31">
-        <v>5</v>
-      </c>
-      <c r="O14" s="31">
-        <v>5</v>
-      </c>
-      <c r="P14" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>5</v>
-      </c>
-      <c r="R14" s="31">
-        <v>0</v>
-      </c>
-      <c r="S14" s="31">
-        <v>5</v>
-      </c>
-      <c r="T14" s="31">
-        <v>5</v>
-      </c>
-      <c r="U14" s="31">
+      <c r="C14" s="26">
+        <v>5</v>
+      </c>
+      <c r="D14" s="26">
+        <v>5</v>
+      </c>
+      <c r="E14" s="26">
+        <v>5</v>
+      </c>
+      <c r="F14" s="26">
+        <v>5</v>
+      </c>
+      <c r="G14" s="26">
+        <v>5</v>
+      </c>
+      <c r="H14" s="26">
+        <v>5</v>
+      </c>
+      <c r="I14" s="26">
+        <v>5</v>
+      </c>
+      <c r="J14" s="26">
+        <v>5</v>
+      </c>
+      <c r="K14" s="26">
+        <v>5</v>
+      </c>
+      <c r="L14" s="26">
+        <v>5</v>
+      </c>
+      <c r="M14" s="26">
+        <v>5</v>
+      </c>
+      <c r="N14" s="26">
+        <v>5</v>
+      </c>
+      <c r="O14" s="26">
+        <v>5</v>
+      </c>
+      <c r="P14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>5</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0</v>
+      </c>
+      <c r="S14" s="26">
+        <v>5</v>
+      </c>
+      <c r="T14" s="26">
+        <v>5</v>
+      </c>
+      <c r="U14" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="31">
-        <v>5</v>
-      </c>
-      <c r="D15" s="31">
-        <v>5</v>
-      </c>
-      <c r="E15" s="31">
-        <v>5</v>
-      </c>
-      <c r="F15" s="31">
-        <v>5</v>
-      </c>
-      <c r="G15" s="31">
-        <v>5</v>
-      </c>
-      <c r="H15" s="31">
-        <v>5</v>
-      </c>
-      <c r="I15" s="31">
-        <v>5</v>
-      </c>
-      <c r="J15" s="31">
-        <v>5</v>
-      </c>
-      <c r="K15" s="31">
-        <v>5</v>
-      </c>
-      <c r="L15" s="31">
-        <v>0</v>
-      </c>
-      <c r="M15" s="31">
-        <v>5</v>
-      </c>
-      <c r="N15" s="31">
-        <v>5</v>
-      </c>
-      <c r="O15" s="31">
-        <v>0</v>
-      </c>
-      <c r="P15" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>5</v>
-      </c>
-      <c r="R15" s="31">
-        <v>0</v>
-      </c>
-      <c r="S15" s="31">
-        <v>5</v>
-      </c>
-      <c r="T15" s="31">
-        <v>5</v>
-      </c>
-      <c r="U15" s="31">
+      <c r="C15" s="26">
+        <v>5</v>
+      </c>
+      <c r="D15" s="26">
+        <v>5</v>
+      </c>
+      <c r="E15" s="26">
+        <v>5</v>
+      </c>
+      <c r="F15" s="26">
+        <v>5</v>
+      </c>
+      <c r="G15" s="26">
+        <v>5</v>
+      </c>
+      <c r="H15" s="26">
+        <v>5</v>
+      </c>
+      <c r="I15" s="26">
+        <v>5</v>
+      </c>
+      <c r="J15" s="26">
+        <v>5</v>
+      </c>
+      <c r="K15" s="26">
+        <v>5</v>
+      </c>
+      <c r="L15" s="26">
+        <v>5</v>
+      </c>
+      <c r="M15" s="26">
+        <v>5</v>
+      </c>
+      <c r="N15" s="26">
+        <v>5</v>
+      </c>
+      <c r="O15" s="26">
+        <v>0</v>
+      </c>
+      <c r="P15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>5</v>
+      </c>
+      <c r="R15" s="26">
+        <v>0</v>
+      </c>
+      <c r="S15" s="26">
+        <v>5</v>
+      </c>
+      <c r="T15" s="26">
+        <v>5</v>
+      </c>
+      <c r="U15" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="31">
-        <v>5</v>
-      </c>
-      <c r="D16" s="31">
-        <v>5</v>
-      </c>
-      <c r="E16" s="31">
-        <v>5</v>
-      </c>
-      <c r="F16" s="31">
-        <v>5</v>
-      </c>
-      <c r="G16" s="31">
-        <v>5</v>
-      </c>
-      <c r="H16" s="31">
-        <v>5</v>
-      </c>
-      <c r="I16" s="31">
-        <v>5</v>
-      </c>
-      <c r="J16" s="31">
-        <v>5</v>
-      </c>
-      <c r="K16" s="31">
-        <v>5</v>
-      </c>
-      <c r="L16" s="31">
-        <v>0</v>
-      </c>
-      <c r="M16" s="31">
-        <v>5</v>
-      </c>
-      <c r="N16" s="31">
-        <v>5</v>
-      </c>
-      <c r="O16" s="31">
-        <v>0</v>
-      </c>
-      <c r="P16" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="31">
-        <v>5</v>
-      </c>
-      <c r="R16" s="31">
-        <v>0</v>
-      </c>
-      <c r="S16" s="31">
-        <v>0</v>
-      </c>
-      <c r="T16" s="31">
-        <v>5</v>
-      </c>
-      <c r="U16" s="31">
+      <c r="C16" s="26">
+        <v>5</v>
+      </c>
+      <c r="D16" s="26">
+        <v>5</v>
+      </c>
+      <c r="E16" s="26">
+        <v>5</v>
+      </c>
+      <c r="F16" s="26">
+        <v>5</v>
+      </c>
+      <c r="G16" s="26">
+        <v>5</v>
+      </c>
+      <c r="H16" s="26">
+        <v>5</v>
+      </c>
+      <c r="I16" s="26">
+        <v>5</v>
+      </c>
+      <c r="J16" s="26">
+        <v>5</v>
+      </c>
+      <c r="K16" s="26">
+        <v>5</v>
+      </c>
+      <c r="L16" s="26">
+        <v>5</v>
+      </c>
+      <c r="M16" s="26">
+        <v>5</v>
+      </c>
+      <c r="N16" s="26">
+        <v>5</v>
+      </c>
+      <c r="O16" s="26">
+        <v>0</v>
+      </c>
+      <c r="P16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>5</v>
+      </c>
+      <c r="R16" s="26">
+        <v>0</v>
+      </c>
+      <c r="S16" s="26">
+        <v>0</v>
+      </c>
+      <c r="T16" s="26">
+        <v>5</v>
+      </c>
+      <c r="U16" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="31">
-        <v>5</v>
-      </c>
-      <c r="D17" s="31">
-        <v>5</v>
-      </c>
-      <c r="E17" s="31">
-        <v>5</v>
-      </c>
-      <c r="F17" s="31">
-        <v>5</v>
-      </c>
-      <c r="G17" s="31">
-        <v>5</v>
-      </c>
-      <c r="H17" s="31">
-        <v>5</v>
-      </c>
-      <c r="I17" s="31">
-        <v>5</v>
-      </c>
-      <c r="J17" s="31">
-        <v>5</v>
-      </c>
-      <c r="K17" s="31">
-        <v>5</v>
-      </c>
-      <c r="L17" s="31">
-        <v>0</v>
-      </c>
-      <c r="M17" s="31">
-        <v>5</v>
-      </c>
-      <c r="N17" s="31">
-        <v>5</v>
-      </c>
-      <c r="O17" s="31">
-        <v>0</v>
-      </c>
-      <c r="P17" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="31">
-        <v>5</v>
-      </c>
-      <c r="R17" s="31">
-        <v>0</v>
-      </c>
-      <c r="S17" s="31">
-        <v>0</v>
-      </c>
-      <c r="T17" s="31">
-        <v>5</v>
-      </c>
-      <c r="U17" s="31">
+      <c r="C17" s="26">
+        <v>5</v>
+      </c>
+      <c r="D17" s="26">
+        <v>5</v>
+      </c>
+      <c r="E17" s="26">
+        <v>5</v>
+      </c>
+      <c r="F17" s="26">
+        <v>5</v>
+      </c>
+      <c r="G17" s="26">
+        <v>5</v>
+      </c>
+      <c r="H17" s="26">
+        <v>5</v>
+      </c>
+      <c r="I17" s="26">
+        <v>5</v>
+      </c>
+      <c r="J17" s="26">
+        <v>5</v>
+      </c>
+      <c r="K17" s="26">
+        <v>5</v>
+      </c>
+      <c r="L17" s="26">
+        <v>5</v>
+      </c>
+      <c r="M17" s="26">
+        <v>5</v>
+      </c>
+      <c r="N17" s="26">
+        <v>5</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0</v>
+      </c>
+      <c r="P17" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>5</v>
+      </c>
+      <c r="R17" s="26">
+        <v>0</v>
+      </c>
+      <c r="S17" s="26">
+        <v>0</v>
+      </c>
+      <c r="T17" s="26">
+        <v>5</v>
+      </c>
+      <c r="U17" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="17" t="s">
         <v>116</v>
       </c>
@@ -8992,7 +8992,9 @@
       <c r="K18" s="17">
         <v>0</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="17">
+        <v>4.5</v>
+      </c>
       <c r="M18" s="17">
         <v>5</v>
       </c>
@@ -9064,7 +9066,7 @@
       </c>
       <c r="L19" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="6"/>
@@ -9104,83 +9106,83 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="25">
+      <c r="B20" s="31"/>
+      <c r="C20" s="20">
         <f>C13*0.7+C19*0.3</f>
         <v>4.3566666666666665</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="20">
         <f t="shared" ref="D20:U20" si="9">D13*0.7+D19*0.3</f>
         <v>3.7555555555555551</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="20">
         <f t="shared" si="9"/>
         <v>4.5722222222222211</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="20">
         <f t="shared" ref="F20" si="10">F13*0.7+F19*0.3</f>
         <v>5</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="20">
         <f t="shared" ref="G20" si="11">G13*0.7+G19*0.3</f>
         <v>4.724444444444444</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="20">
         <f t="shared" si="9"/>
         <v>4.5722222222222211</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="20">
         <f t="shared" si="9"/>
         <v>4.8233333333333324</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="20">
         <f t="shared" si="9"/>
         <v>4.6111111111111107</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="20">
         <f t="shared" si="9"/>
         <v>2.3666666666666667</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="25">
+        <v>4.5422222222222217</v>
+      </c>
+      <c r="M20" s="20">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="20">
         <f t="shared" si="9"/>
         <v>4.8833333333333329</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="20">
         <f t="shared" si="9"/>
         <v>2.5555555555555549</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="20">
         <f t="shared" si="9"/>
         <v>4.2722222222222213</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S20" s="20">
         <f t="shared" si="9"/>
         <v>2.2333333333333334</v>
       </c>
-      <c r="T20" s="25">
+      <c r="T20" s="20">
         <f t="shared" si="9"/>
         <v>3.25</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9261,7 +9263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
   <dimension ref="C7:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -9335,61 +9337,61 @@
       <c r="C8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="36">
-        <v>0</v>
-      </c>
-      <c r="E8" s="36">
-        <v>0</v>
-      </c>
-      <c r="F8" s="36">
-        <v>0</v>
-      </c>
-      <c r="G8" s="36">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36">
-        <v>0</v>
-      </c>
-      <c r="K8" s="36">
-        <v>0</v>
-      </c>
-      <c r="L8" s="36">
-        <v>0</v>
-      </c>
-      <c r="M8" s="36">
-        <v>0</v>
-      </c>
-      <c r="N8" s="36">
-        <v>0</v>
-      </c>
-      <c r="O8" s="36">
-        <v>0</v>
-      </c>
-      <c r="P8" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="36">
-        <v>0</v>
-      </c>
-      <c r="R8" s="36">
-        <v>0</v>
-      </c>
-      <c r="S8" s="36">
-        <v>0</v>
-      </c>
-      <c r="T8" s="36">
-        <v>0</v>
-      </c>
-      <c r="U8" s="36">
-        <v>0</v>
-      </c>
-      <c r="V8" s="36">
+      <c r="D8" s="29">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
+      <c r="O8" s="29">
+        <v>0</v>
+      </c>
+      <c r="P8" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>0</v>
+      </c>
+      <c r="R8" s="29">
+        <v>0</v>
+      </c>
+      <c r="S8" s="29">
+        <v>0</v>
+      </c>
+      <c r="T8" s="29">
+        <v>0</v>
+      </c>
+      <c r="U8" s="29">
+        <v>0</v>
+      </c>
+      <c r="V8" s="29">
         <v>0</v>
       </c>
     </row>
@@ -9397,79 +9399,79 @@
       <c r="C9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="28">
         <f>Actividades!C5</f>
         <v>3.8630952380952381</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="28">
         <f>Actividades!D5</f>
         <v>4.4880952380952381</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="28">
         <f>Actividades!E5</f>
         <v>2.1981292517006805</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="28">
         <f>Actividades!F5</f>
         <v>4.2440476190476186</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="28">
         <f>Actividades!G5</f>
         <v>2.7253401360544216</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="28">
         <f>Actividades!H5</f>
         <v>4.0059523809523814</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="28">
         <f>Actividades!I5</f>
         <v>3.1420068027210881</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="28">
         <f>Actividades!J5</f>
         <v>3.7431972789115648</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="28">
         <f>Actividades!K5</f>
         <v>4.0051020408163263</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="28">
         <f>Actividades!L5</f>
         <v>1.5195578231292519</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="28">
         <f>Actividades!M5</f>
         <v>4.0943877551020407</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="28">
         <f>Actividades!N5</f>
         <v>3.7015306122448979</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="28">
         <f>Actividades!O5</f>
         <v>2.7848639455782309</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="28">
         <f>Actividades!P5</f>
         <v>0.625</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="28">
         <f>Actividades!Q5</f>
         <v>3.0824829931972784</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="28">
         <f>Actividades!R5</f>
         <v>2.9277210884353742</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="28">
         <f>Actividades!S5</f>
         <v>2.5848639455782312</v>
       </c>
-      <c r="U9" s="33">
+      <c r="U9" s="28">
         <f>Actividades!T5</f>
         <v>3.3869047619047623</v>
       </c>
-      <c r="V9" s="33">
+      <c r="V9" s="28">
         <f>Actividades!U5</f>
         <v>0.78401360544217691</v>
       </c>
@@ -9478,79 +9480,79 @@
       <c r="C10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="28">
         <f>Laboratorios!C5</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="28">
         <f>Laboratorios!D5</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="28">
         <f>Laboratorios!E5</f>
         <v>3.0277777777777777</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="28">
         <f>Laboratorios!F5</f>
         <v>3.8194444444444446</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="28">
         <f>Laboratorios!G5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="28">
         <f>Laboratorios!H5</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="28">
         <f>Laboratorios!I5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="28">
         <f>Laboratorios!J5</f>
         <v>2.0555555555555554</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="28">
         <f>Laboratorios!K5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="28">
         <f>Laboratorios!L5</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="28">
         <f>Laboratorios!M5</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="28">
         <f>Laboratorios!N5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="28">
         <f>Laboratorios!O5</f>
         <v>3.6111111111111112</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="28">
         <f>Laboratorios!P5</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="28">
         <f>Laboratorios!Q5</f>
         <v>3.2222222222222223</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="28">
         <f>Laboratorios!R5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="28">
         <f>Laboratorios!S5</f>
         <v>3.6944444444444446</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="28">
         <f>Laboratorios!T5</f>
         <v>2.1944444444444446</v>
       </c>
-      <c r="V10" s="33">
+      <c r="V10" s="28">
         <f>Laboratorios!U5</f>
         <v>1.1111111111111112</v>
       </c>
@@ -9559,79 +9561,79 @@
       <c r="C11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="28">
         <f>Examenes!C20</f>
         <v>4.3566666666666665</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="28">
         <f>Examenes!D20</f>
         <v>3.7555555555555551</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="28">
         <f>Examenes!E20</f>
         <v>4.5722222222222211</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="28">
         <f>Examenes!F20</f>
         <v>5</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="28">
         <f>Examenes!G20</f>
         <v>4.724444444444444</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="28">
         <f>Examenes!H20</f>
         <v>4.5722222222222211</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="28">
         <f>Examenes!I20</f>
         <v>4.8233333333333324</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="28">
         <f>Examenes!J20</f>
         <v>4.6111111111111107</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="28">
         <f>Examenes!K20</f>
         <v>2.3666666666666667</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="28">
         <f>Examenes!L20</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="33">
+        <v>4.5422222222222217</v>
+      </c>
+      <c r="N11" s="28">
         <f>Examenes!M20</f>
         <v>5</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="28">
         <f>Examenes!N20</f>
         <v>4.8833333333333329</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="28">
         <f>Examenes!O20</f>
         <v>2.5555555555555549</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="28">
         <f>Examenes!P20</f>
         <v>0</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="28">
         <f>Examenes!Q20</f>
         <v>4.2722222222222213</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="28">
         <f>Examenes!R20</f>
         <v>0</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="28">
         <f>Examenes!S20</f>
         <v>2.2333333333333334</v>
       </c>
-      <c r="U11" s="33">
+      <c r="U11" s="28">
         <f>Examenes!T20</f>
         <v>3.25</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11" s="28">
         <f>Examenes!U20</f>
         <v>0</v>
       </c>
@@ -9640,61 +9642,61 @@
       <c r="C12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="36">
-        <v>0</v>
-      </c>
-      <c r="E12" s="36">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36">
-        <v>0</v>
-      </c>
-      <c r="G12" s="36">
-        <v>0</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
-        <v>0</v>
-      </c>
-      <c r="J12" s="36">
-        <v>0</v>
-      </c>
-      <c r="K12" s="36">
-        <v>0</v>
-      </c>
-      <c r="L12" s="36">
-        <v>0</v>
-      </c>
-      <c r="M12" s="36">
-        <v>0</v>
-      </c>
-      <c r="N12" s="36">
-        <v>0</v>
-      </c>
-      <c r="O12" s="36">
-        <v>0</v>
-      </c>
-      <c r="P12" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="36">
-        <v>0</v>
-      </c>
-      <c r="R12" s="36">
-        <v>0</v>
-      </c>
-      <c r="S12" s="36">
-        <v>0</v>
-      </c>
-      <c r="T12" s="36">
-        <v>0</v>
-      </c>
-      <c r="U12" s="36">
-        <v>0</v>
-      </c>
-      <c r="V12" s="36">
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+      <c r="M12" s="29">
+        <v>0</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0</v>
+      </c>
+      <c r="O12" s="29">
+        <v>0</v>
+      </c>
+      <c r="P12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <v>0</v>
+      </c>
+      <c r="S12" s="29">
+        <v>0</v>
+      </c>
+      <c r="T12" s="29">
+        <v>0</v>
+      </c>
+      <c r="U12" s="29">
+        <v>0</v>
+      </c>
+      <c r="V12" s="29">
         <v>0</v>
       </c>
     </row>
@@ -9702,79 +9704,79 @@
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="27">
         <f>D8*0.25+D9*0.25+D10*0.25+D11*0.1+D12*0.15</f>
         <v>2.5125515873015876</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="27">
         <f t="shared" ref="E13:V13" si="0">E8*0.25+E9*0.25+E10*0.25+E11*0.1+E12*0.15</f>
         <v>2.5392460317460319</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="27">
         <f t="shared" si="0"/>
         <v>1.7636989795918367</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>2.5158730158730158</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="27">
         <f t="shared" si="0"/>
         <v>1.8482239229024942</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="27">
         <f t="shared" si="0"/>
         <v>2.4309325396825399</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="27">
         <f t="shared" si="0"/>
         <v>2.101168367346939</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="27">
         <f t="shared" si="0"/>
         <v>1.910799319727891</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="27">
         <f t="shared" si="0"/>
         <v>2.0712755102040816</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="27">
         <f t="shared" si="0"/>
-        <v>0.9354450113378685</v>
-      </c>
-      <c r="N13" s="32">
+        <v>1.3896672335600906</v>
+      </c>
+      <c r="N13" s="27">
         <f t="shared" si="0"/>
         <v>2.4958191609977325</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="27">
         <f t="shared" si="0"/>
         <v>2.1081604308390021</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="27">
         <f t="shared" si="0"/>
         <v>1.8545493197278911</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="27">
         <f t="shared" si="0"/>
         <v>0.25347222222222221</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="27">
         <f t="shared" si="0"/>
         <v>2.0033985260770972</v>
       </c>
-      <c r="S13" s="32">
+      <c r="S13" s="27">
         <f t="shared" si="0"/>
         <v>1.4263747165532878</v>
       </c>
-      <c r="T13" s="32">
+      <c r="T13" s="27">
         <f t="shared" si="0"/>
         <v>1.7931604308390023</v>
       </c>
-      <c r="U13" s="32">
+      <c r="U13" s="27">
         <f t="shared" si="0"/>
         <v>1.7203373015873018</v>
       </c>
-      <c r="V13" s="32">
+      <c r="V13" s="27">
         <f t="shared" si="0"/>
         <v>0.47378117913832202</v>
       </c>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00492E35-9E04-C649-AA3F-E2A7A109D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08006EF1-AAA8-5E4A-AB52-51FFBEBE2A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39880" yWindow="1560" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
@@ -8131,7 +8131,7 @@
   <dimension ref="A5:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9218,7 +9218,7 @@
         <v>126</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08006EF1-AAA8-5E4A-AB52-51FFBEBE2A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B222D03F-258D-4341-932B-A3F4CBF7AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39880" yWindow="1560" windowWidth="29840" windowHeight="19180" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="46220" yWindow="1660" windowWidth="29840" windowHeight="19180" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
-        <v>2.1981292517006805</v>
+        <v>2.4838435374149661</v>
       </c>
       <c r="F5" s="20">
         <f t="shared" si="0"/>
@@ -2369,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="10">
         <v>5</v>
@@ -2431,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" s="10">
         <v>5</v>
@@ -2493,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="10">
         <v>5</v>
@@ -2555,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="10">
         <v>5</v>
@@ -2617,7 +2617,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="10">
         <v>5</v>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="E33" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="4"/>
@@ -8130,7 +8130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
   <dimension ref="A5:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="F9" s="28">
         <f>Actividades!E5</f>
-        <v>2.1981292517006805</v>
+        <v>2.4838435374149661</v>
       </c>
       <c r="G9" s="28">
         <f>Actividades!F5</f>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>1.7636989795918367</v>
+        <v>1.8351275510204081</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" si="0"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B222D03F-258D-4341-932B-A3F4CBF7AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F265EBD-C1E8-3245-B267-0BE9ADD01B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46220" yWindow="1660" windowWidth="29840" windowHeight="19180" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="44020" yWindow="1260" windowWidth="29840" windowHeight="19180" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -1008,15 +1008,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="20" width="7.1640625" customWidth="1"/>
+    <col min="4" max="18" width="7.1640625" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" customWidth="1"/>
     <col min="21" max="21" width="22.1640625" customWidth="1"/>
     <col min="22" max="25" width="7.1640625" customWidth="1"/>
   </cols>
@@ -1159,7 +1161,7 @@
       </c>
       <c r="S5" s="20">
         <f t="shared" si="0"/>
-        <v>2.5848639455782312</v>
+        <v>2.8059523809523812</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="0"/>
@@ -2120,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T23" s="10">
         <v>0</v>
@@ -2182,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T24" s="10">
         <v>0</v>
@@ -2323,7 +2325,7 @@
       </c>
       <c r="S26" s="8">
         <f t="shared" si="3"/>
-        <v>3.5714285714285716</v>
+        <v>5</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="3"/>
@@ -4674,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T68" s="10">
         <v>0</v>
@@ -4815,7 +4817,7 @@
       </c>
       <c r="S70" s="8">
         <f t="shared" ref="S70" si="26">SUM(S67:S69)/3</f>
-        <v>1.6666666666666667</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="T70" s="8">
         <f t="shared" ref="T70" si="27">SUM(T67:T69)/3</f>
@@ -5188,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:U5"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8130,7 +8132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
   <dimension ref="A5:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -9264,7 +9266,7 @@
   <dimension ref="C7:V17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9465,7 +9467,7 @@
       </c>
       <c r="T9" s="28">
         <f>Actividades!S5</f>
-        <v>2.5848639455782312</v>
+        <v>2.8059523809523812</v>
       </c>
       <c r="U9" s="28">
         <f>Actividades!T5</f>
@@ -9770,7 +9772,7 @@
       </c>
       <c r="T13" s="27">
         <f t="shared" si="0"/>
-        <v>1.7931604308390023</v>
+        <v>1.8484325396825398</v>
       </c>
       <c r="U13" s="27">
         <f t="shared" si="0"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F265EBD-C1E8-3245-B267-0BE9ADD01B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947699C-8B97-AA40-B5DE-55976975D231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44020" yWindow="1260" windowWidth="29840" windowHeight="19180" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="1480" yWindow="1800" windowWidth="36000" windowHeight="21320" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="151">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -447,6 +447,51 @@
   </si>
   <si>
     <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Examen 2: 10%</t>
+  </si>
+  <si>
+    <t>Solucion Numerica ED(30)</t>
+  </si>
+  <si>
+    <t>Grafico de Temperatura VS longitud de la aleta(20)</t>
+  </si>
+  <si>
+    <t>ComparacoinSolucionNumerica(25)</t>
+  </si>
+  <si>
+    <t>Metodo de Newron(25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No aplica adecuadamente el metodo de newton </t>
+  </si>
+  <si>
+    <t>No aplica adecuadamente el metodo de newton , las graficas no tiene unidades</t>
+  </si>
+  <si>
+    <t>¡Muy bien!</t>
+  </si>
+  <si>
+    <t>Las soluciones estan bien, sin emargo los graficos no presentan unidades, a estas alturas esto no deberia pasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se presenta una soliucion analitica de la ecuacion diferencial, no aparece la solucion numerica y hace falta la comparación. Adicionalmente el metodo de newton no esta aplicado de la mejor forma. </t>
+  </si>
+  <si>
+    <t>los valores de las funciones estan sin argumentos y no retornan valores validos, las funciones dan errores</t>
+  </si>
+  <si>
+    <t>No lo encontre en el git!, Subirlo al git!</t>
+  </si>
+  <si>
+    <t>Mejorar el grafico, no tiene unidades y tampoco  el método de Newton.</t>
+  </si>
+  <si>
+    <t>Las unidaes estan muy desbordadas respecto a los valores esperados. Se recomienda revisar el grafico e incluir unidades en los gráficos</t>
+  </si>
+  <si>
+    <t>El metodo de newton no converge al valor esperado</t>
   </si>
 </sst>
 </file>
@@ -626,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -692,6 +737,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
@@ -5190,8 +5248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8130,17 +8188,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
-  <dimension ref="A5:W21"/>
+  <dimension ref="A5:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9250,12 +9309,499 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
+    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+      <c r="C26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="17">
+        <v>5</v>
+      </c>
+      <c r="D28" s="17">
+        <v>5</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>5</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>5</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>5</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
+        <v>5</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+      <c r="O28" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="P28" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>5</v>
+      </c>
+      <c r="R28" s="17">
+        <v>0</v>
+      </c>
+      <c r="S28" s="17">
+        <v>2</v>
+      </c>
+      <c r="T28" s="17">
+        <v>0</v>
+      </c>
+      <c r="U28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="17">
+        <v>5</v>
+      </c>
+      <c r="D29" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <v>5</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="P29" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>5</v>
+      </c>
+      <c r="R29" s="17">
+        <v>0</v>
+      </c>
+      <c r="S29" s="17">
+        <v>2</v>
+      </c>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="17">
+        <v>5</v>
+      </c>
+      <c r="D30" s="17">
+        <v>5</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
+        <v>5</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17">
+        <v>5</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <v>5</v>
+      </c>
+      <c r="K30" s="17">
+        <v>0</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17">
+        <v>5</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="17">
+        <v>3</v>
+      </c>
+      <c r="P30" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>5</v>
+      </c>
+      <c r="R30" s="17">
+        <v>0</v>
+      </c>
+      <c r="S30" s="17">
+        <v>2</v>
+      </c>
+      <c r="T30" s="17">
+        <v>0</v>
+      </c>
+      <c r="U30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <v>5</v>
+      </c>
+      <c r="I31" s="17">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="K31" s="17">
+        <v>0</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="17">
+        <v>0</v>
+      </c>
+      <c r="P31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>2</v>
+      </c>
+      <c r="R31" s="17">
+        <v>0</v>
+      </c>
+      <c r="S31" s="17">
+        <v>0</v>
+      </c>
+      <c r="T31" s="17">
+        <v>0</v>
+      </c>
+      <c r="U31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="41">
+        <f>C28*0.3+C29*0.2+C30*0.25+C31*0.25</f>
+        <v>3.75</v>
+      </c>
+      <c r="D32" s="41">
+        <f t="shared" ref="D32:S32" si="12">D28*0.3+D29*0.2+D30*0.25+D31*0.25</f>
+        <v>3.45</v>
+      </c>
+      <c r="E32" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="41">
+        <f t="shared" si="12"/>
+        <v>3.45</v>
+      </c>
+      <c r="G32" s="41">
+        <f t="shared" ref="G32" si="13">G28*0.3+G29*0.2+G30*0.25+G31*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="41">
+        <f t="shared" ref="H32" si="14">H28*0.3+H29*0.2+H30*0.25+H31*0.25</f>
+        <v>5</v>
+      </c>
+      <c r="I32" s="41">
+        <f t="shared" ref="I32" si="15">I28*0.3+I29*0.2+I30*0.25+I31*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="41">
+        <f t="shared" ref="J32" si="16">J28*0.3+J29*0.2+J30*0.25+J31*0.25</f>
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="K32" s="41">
+        <f t="shared" ref="K32" si="17">K28*0.3+K29*0.2+K30*0.25+K31*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="41">
+        <f t="shared" ref="L32" si="18">L28*0.3+L29*0.2+L30*0.25+L31*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="41">
+        <f t="shared" ref="M32" si="19">M28*0.3+M29*0.2+M30*0.25+M31*0.25</f>
+        <v>3.45</v>
+      </c>
+      <c r="N32" s="41">
+        <f t="shared" ref="N32" si="20">N28*0.3+N29*0.2+N30*0.25+N31*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="41">
+        <f t="shared" ref="O32" si="21">O28*0.3+O29*0.2+O30*0.25+O31*0.25</f>
+        <v>3</v>
+      </c>
+      <c r="P32" s="41">
+        <f t="shared" ref="P32" si="22">P28*0.3+P29*0.2+P30*0.25+P31*0.25</f>
+        <v>2.25</v>
+      </c>
+      <c r="Q32" s="41">
+        <f t="shared" ref="Q32" si="23">Q28*0.3+Q29*0.2+Q30*0.25+Q31*0.25</f>
+        <v>4.25</v>
+      </c>
+      <c r="R32" s="41">
+        <f t="shared" ref="R32" si="24">R28*0.3+R29*0.2+R30*0.25+R31*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="41">
+        <f t="shared" ref="S32" si="25">S28*0.3+S29*0.2+S30*0.25+S31*0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="T32" s="41">
+        <f t="shared" ref="T32" si="26">T28*0.3+T29*0.2+T30*0.25+T31*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="41">
+        <f t="shared" ref="U32" si="27">U28*0.3+U29*0.2+U30*0.25+U31*0.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="356" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
+      <c r="C33" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q33" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="U33" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:21" ht="121" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9265,8 +9811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
   <dimension ref="C7:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9645,60 +10191,79 @@
         <v>104</v>
       </c>
       <c r="D12" s="29">
-        <v>0</v>
+        <f>Examenes!C32</f>
+        <v>3.75</v>
       </c>
       <c r="E12" s="29">
-        <v>0</v>
+        <f>Examenes!D32</f>
+        <v>3.45</v>
       </c>
       <c r="F12" s="29">
+        <f>Examenes!E32</f>
         <v>0</v>
       </c>
       <c r="G12" s="29">
-        <v>0</v>
+        <f>Examenes!F32</f>
+        <v>3.45</v>
       </c>
       <c r="H12" s="29">
+        <f>Examenes!G32</f>
         <v>0</v>
       </c>
       <c r="I12" s="29">
-        <v>0</v>
+        <f>Examenes!H32</f>
+        <v>5</v>
       </c>
       <c r="J12" s="29">
+        <f>Examenes!I32</f>
         <v>0</v>
       </c>
       <c r="K12" s="29">
-        <v>0</v>
+        <f>Examenes!J32</f>
+        <v>4.3250000000000002</v>
       </c>
       <c r="L12" s="29">
+        <f>Examenes!K32</f>
         <v>0</v>
       </c>
       <c r="M12" s="29">
+        <f>Examenes!L32</f>
         <v>0</v>
       </c>
       <c r="N12" s="29">
-        <v>0</v>
+        <f>Examenes!M32</f>
+        <v>3.45</v>
       </c>
       <c r="O12" s="29">
+        <f>Examenes!N32</f>
         <v>0</v>
       </c>
       <c r="P12" s="29">
-        <v>0</v>
+        <f>Examenes!O32</f>
+        <v>3</v>
       </c>
       <c r="Q12" s="29">
-        <v>0</v>
+        <f>Examenes!P32</f>
+        <v>2.25</v>
       </c>
       <c r="R12" s="29">
-        <v>0</v>
+        <f>Examenes!Q32</f>
+        <v>4.25</v>
       </c>
       <c r="S12" s="29">
+        <f>Examenes!R32</f>
         <v>0</v>
       </c>
       <c r="T12" s="29">
-        <v>0</v>
+        <f>Examenes!S32</f>
+        <v>1.5</v>
       </c>
       <c r="U12" s="29">
+        <f>Examenes!T32</f>
         <v>0</v>
       </c>
       <c r="V12" s="29">
+        <f>Examenes!U32</f>
         <v>0</v>
       </c>
     </row>
@@ -9708,11 +10273,11 @@
       </c>
       <c r="D13" s="27">
         <f>D8*0.25+D9*0.25+D10*0.25+D11*0.1+D12*0.15</f>
-        <v>2.5125515873015876</v>
+        <v>3.0750515873015876</v>
       </c>
       <c r="E13" s="27">
         <f t="shared" ref="E13:V13" si="0">E8*0.25+E9*0.25+E10*0.25+E11*0.1+E12*0.15</f>
-        <v>2.5392460317460319</v>
+        <v>3.056746031746032</v>
       </c>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
@@ -9720,7 +10285,7 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="0"/>
-        <v>2.5158730158730158</v>
+        <v>3.0333730158730159</v>
       </c>
       <c r="H13" s="27">
         <f t="shared" si="0"/>
@@ -9728,7 +10293,7 @@
       </c>
       <c r="I13" s="27">
         <f t="shared" si="0"/>
-        <v>2.4309325396825399</v>
+        <v>3.1809325396825399</v>
       </c>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
@@ -9736,7 +10301,7 @@
       </c>
       <c r="K13" s="27">
         <f t="shared" si="0"/>
-        <v>1.910799319727891</v>
+        <v>2.5595493197278909</v>
       </c>
       <c r="L13" s="27">
         <f t="shared" si="0"/>
@@ -9748,7 +10313,7 @@
       </c>
       <c r="N13" s="27">
         <f t="shared" si="0"/>
-        <v>2.4958191609977325</v>
+        <v>3.0133191609977326</v>
       </c>
       <c r="O13" s="27">
         <f t="shared" si="0"/>
@@ -9756,15 +10321,15 @@
       </c>
       <c r="P13" s="27">
         <f t="shared" si="0"/>
-        <v>1.8545493197278911</v>
+        <v>2.304549319727891</v>
       </c>
       <c r="Q13" s="27">
         <f t="shared" si="0"/>
-        <v>0.25347222222222221</v>
+        <v>0.59097222222222223</v>
       </c>
       <c r="R13" s="27">
         <f t="shared" si="0"/>
-        <v>2.0033985260770972</v>
+        <v>2.6408985260770974</v>
       </c>
       <c r="S13" s="27">
         <f t="shared" si="0"/>
@@ -9772,7 +10337,7 @@
       </c>
       <c r="T13" s="27">
         <f t="shared" si="0"/>
-        <v>1.8484325396825398</v>
+        <v>2.0734325396825399</v>
       </c>
       <c r="U13" s="27">
         <f t="shared" si="0"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947699C-8B97-AA40-B5DE-55976975D231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D79B3-63BC-0F41-89C4-67B87109507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1800" windowWidth="36000" windowHeight="21320" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="1560" yWindow="1160" windowWidth="30240" windowHeight="17700" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
     <sheet name="Laboratorios" sheetId="2" r:id="rId2"/>
     <sheet name="Examenes" sheetId="3" r:id="rId3"/>
     <sheet name="TotalCurso" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="162">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -492,13 +493,46 @@
   </si>
   <si>
     <t>El metodo de newton no converge al valor esperado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osorno </t>
+  </si>
+  <si>
+    <t>Campo en el eje de simetria de un solenoide</t>
+  </si>
+  <si>
+    <t>Deducciones fisicas</t>
+  </si>
+  <si>
+    <t>Revisar todo el git, cuando lo vueva a subvir nuevamente</t>
+  </si>
+  <si>
+    <t>Dominio del tema y programacion clara</t>
+  </si>
+  <si>
+    <t>Teener pressente el manejo de graficas y unidades</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Transformadoas de fourier</t>
+  </si>
+  <si>
+    <t>Pelota rotando</t>
+  </si>
+  <si>
+    <t>Funciones de onda</t>
+  </si>
+  <si>
+    <t>Bocanegra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,6 +575,13 @@
       <color rgb="FF38B9C7"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -671,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -750,6 +791,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B3:U76"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="S68" sqref="S68"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1195,7 @@
       <c r="T4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="45" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1199,7 +1249,7 @@
       </c>
       <c r="N5" s="20">
         <f t="shared" si="0"/>
-        <v>3.7015306122448979</v>
+        <v>3.8035714285714284</v>
       </c>
       <c r="O5" s="20">
         <f t="shared" si="0"/>
@@ -1396,7 +1446,7 @@
       <c r="M10" s="10">
         <v>5</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="42">
         <v>3</v>
       </c>
       <c r="O10" s="10">
@@ -1425,7 +1475,7 @@
       <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="42">
         <v>0</v>
       </c>
       <c r="D11" s="10">
@@ -1434,7 +1484,7 @@
       <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="42">
         <v>0</v>
       </c>
       <c r="G11" s="10">
@@ -1458,7 +1508,7 @@
       <c r="M11" s="10">
         <v>0</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="42">
         <v>0</v>
       </c>
       <c r="O11" s="10">
@@ -1934,7 +1984,7 @@
       <c r="S19" s="10">
         <v>5</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="42">
         <v>0</v>
       </c>
       <c r="U19" s="10">
@@ -1996,7 +2046,7 @@
       <c r="S20" s="10">
         <v>5</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="42">
         <v>0</v>
       </c>
       <c r="U20" s="10">
@@ -2058,7 +2108,7 @@
       <c r="S21" s="10">
         <v>5</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="42">
         <v>0</v>
       </c>
       <c r="U21" s="10">
@@ -2120,7 +2170,7 @@
       <c r="S22" s="10">
         <v>5</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="42">
         <v>0</v>
       </c>
       <c r="U22" s="10">
@@ -2152,7 +2202,7 @@
       <c r="I23" s="10">
         <v>0</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="42">
         <v>0</v>
       </c>
       <c r="K23" s="10">
@@ -2165,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O23" s="10">
         <v>0</v>
@@ -2182,7 +2232,7 @@
       <c r="S23" s="10">
         <v>5</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="42">
         <v>0</v>
       </c>
       <c r="U23" s="10">
@@ -2214,7 +2264,7 @@
       <c r="I24" s="10">
         <v>0</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="42">
         <v>0</v>
       </c>
       <c r="K24" s="10">
@@ -2227,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O24" s="10">
         <v>0</v>
@@ -2244,7 +2294,7 @@
       <c r="S24" s="10">
         <v>5</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="42">
         <v>0</v>
       </c>
       <c r="U24" s="10">
@@ -2306,7 +2356,7 @@
       <c r="S25" s="10">
         <v>5</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="42">
         <v>0</v>
       </c>
       <c r="U25" s="10">
@@ -2363,7 +2413,7 @@
       </c>
       <c r="N26" s="8">
         <f t="shared" si="3"/>
-        <v>3.5714285714285716</v>
+        <v>5</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="3"/>
@@ -2437,7 +2487,7 @@
       <c r="G28" s="10">
         <v>0</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="42">
         <v>0</v>
       </c>
       <c r="I28" s="10">
@@ -2452,13 +2502,13 @@
       <c r="L28" s="10">
         <v>5</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="42">
         <v>0</v>
       </c>
       <c r="N28" s="10">
         <v>5</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="42">
         <v>0</v>
       </c>
       <c r="P28" s="10">
@@ -2499,7 +2549,7 @@
       <c r="G29" s="10">
         <v>0</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="42">
         <v>0</v>
       </c>
       <c r="I29" s="10">
@@ -2514,13 +2564,13 @@
       <c r="L29" s="10">
         <v>5</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="42">
         <v>0</v>
       </c>
       <c r="N29" s="10">
         <v>5</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="42">
         <v>0</v>
       </c>
       <c r="P29" s="10">
@@ -2561,7 +2611,7 @@
       <c r="G30" s="10">
         <v>0</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="42">
         <v>0</v>
       </c>
       <c r="I30" s="10">
@@ -2576,13 +2626,13 @@
       <c r="L30" s="10">
         <v>5</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="42">
         <v>0</v>
       </c>
       <c r="N30" s="10">
         <v>5</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="42">
         <v>0</v>
       </c>
       <c r="P30" s="10">
@@ -2623,7 +2673,7 @@
       <c r="G31" s="10">
         <v>0</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="42">
         <v>0</v>
       </c>
       <c r="I31" s="10">
@@ -2638,13 +2688,13 @@
       <c r="L31" s="10">
         <v>5</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="42">
         <v>0</v>
       </c>
       <c r="N31" s="10">
         <v>5</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="42">
         <v>0</v>
       </c>
       <c r="P31" s="10">
@@ -2685,7 +2735,7 @@
       <c r="G32" s="10">
         <v>0</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="42">
         <v>0</v>
       </c>
       <c r="I32" s="10">
@@ -2700,13 +2750,13 @@
       <c r="L32" s="10">
         <v>5</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="42">
         <v>0</v>
       </c>
       <c r="N32" s="10">
         <v>5</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="42">
         <v>0</v>
       </c>
       <c r="P32" s="10">
@@ -2772,7 +2822,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3173,7 +3223,7 @@
       <c r="R40" s="10">
         <v>5</v>
       </c>
-      <c r="S40" s="10">
+      <c r="S40" s="42">
         <v>0</v>
       </c>
       <c r="T40" s="10">
@@ -3235,7 +3285,7 @@
       <c r="R41" s="10">
         <v>5</v>
       </c>
-      <c r="S41" s="10">
+      <c r="S41" s="42">
         <v>0</v>
       </c>
       <c r="T41" s="10">
@@ -3311,7 +3361,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S42" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3586,7 +3636,7 @@
       <c r="D48" s="10">
         <v>5</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="42">
         <v>0</v>
       </c>
       <c r="F48" s="10">
@@ -3622,13 +3672,13 @@
       <c r="P48" s="10">
         <v>0</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="Q48" s="42">
         <v>0</v>
       </c>
       <c r="R48" s="10">
         <v>5</v>
       </c>
-      <c r="S48" s="10">
+      <c r="S48" s="42">
         <v>0</v>
       </c>
       <c r="T48" s="10">
@@ -3648,7 +3698,7 @@
       <c r="D49" s="10">
         <v>5</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="42">
         <v>0</v>
       </c>
       <c r="F49" s="10">
@@ -3684,13 +3734,13 @@
       <c r="P49" s="10">
         <v>0</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="Q49" s="42">
         <v>0</v>
       </c>
       <c r="R49" s="10">
         <v>5</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S49" s="42">
         <v>0</v>
       </c>
       <c r="T49" s="10">
@@ -3712,7 +3762,7 @@
         <f t="shared" ref="D50:U50" si="8">(D48+D49)/2</f>
         <v>5</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3768,7 +3818,7 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="S50" s="8">
+      <c r="S50" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3830,7 +3880,7 @@
       <c r="I52" s="10">
         <v>0</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="42">
         <v>0</v>
       </c>
       <c r="K52" s="10">
@@ -3860,7 +3910,7 @@
       <c r="S52" s="10">
         <v>5</v>
       </c>
-      <c r="T52" s="10">
+      <c r="T52" s="42">
         <v>1</v>
       </c>
       <c r="U52" s="10">
@@ -3892,7 +3942,7 @@
       <c r="I53" s="10">
         <v>0</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="42">
         <v>0</v>
       </c>
       <c r="K53" s="10">
@@ -3922,7 +3972,7 @@
       <c r="S53" s="10">
         <v>5</v>
       </c>
-      <c r="T53" s="10">
+      <c r="T53" s="42">
         <v>1</v>
       </c>
       <c r="U53" s="10">
@@ -4001,7 +4051,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="T54" s="8">
+      <c r="T54" s="42">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4044,7 +4094,7 @@
       <c r="D56" s="10">
         <v>3.5</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="42">
         <v>0</v>
       </c>
       <c r="F56" s="10">
@@ -4059,7 +4109,7 @@
       <c r="I56" s="10">
         <v>5</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="42">
         <v>0</v>
       </c>
       <c r="K56" s="10">
@@ -4074,19 +4124,19 @@
       <c r="N56" s="10">
         <v>0</v>
       </c>
-      <c r="O56" s="10">
+      <c r="O56" s="42">
         <v>0</v>
       </c>
       <c r="P56" s="10">
         <v>0</v>
       </c>
-      <c r="Q56" s="10">
+      <c r="Q56" s="42">
         <v>0</v>
       </c>
       <c r="R56" s="10">
         <v>0</v>
       </c>
-      <c r="S56" s="10">
+      <c r="S56" s="42">
         <v>0</v>
       </c>
       <c r="T56" s="10">
@@ -4106,7 +4156,7 @@
       <c r="D57" s="8">
         <v>3.5</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="42">
         <v>0</v>
       </c>
       <c r="F57" s="8">
@@ -4142,13 +4192,13 @@
       <c r="P57" s="8">
         <v>0</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q57" s="42">
         <v>0</v>
       </c>
       <c r="R57" s="8">
         <v>0</v>
       </c>
-      <c r="S57" s="8">
+      <c r="S57" s="42">
         <v>0</v>
       </c>
       <c r="T57" s="8">
@@ -4186,13 +4236,13 @@
       <c r="B59" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="10">
-        <v>0</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0</v>
-      </c>
-      <c r="E59" s="10">
+      <c r="C59" s="42">
+        <v>0</v>
+      </c>
+      <c r="D59" s="42">
+        <v>0</v>
+      </c>
+      <c r="E59" s="42">
         <v>0</v>
       </c>
       <c r="F59" s="10">
@@ -4213,7 +4263,7 @@
       <c r="K59" s="10">
         <v>5</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L59" s="42">
         <v>0</v>
       </c>
       <c r="M59" s="10">
@@ -4222,22 +4272,22 @@
       <c r="N59" s="10">
         <v>5</v>
       </c>
-      <c r="O59" s="10">
+      <c r="O59" s="42">
         <v>0</v>
       </c>
       <c r="P59" s="10">
         <v>0</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="42">
         <v>0</v>
       </c>
       <c r="R59" s="10">
         <v>0</v>
       </c>
-      <c r="S59" s="10">
-        <v>0</v>
-      </c>
-      <c r="T59" s="10">
+      <c r="S59" s="42">
+        <v>0</v>
+      </c>
+      <c r="T59" s="42">
         <v>1</v>
       </c>
       <c r="U59" s="10">
@@ -4248,13 +4298,13 @@
       <c r="B60" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="8">
-        <v>0</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0</v>
-      </c>
-      <c r="E60" s="8">
+      <c r="C60" s="42">
+        <v>0</v>
+      </c>
+      <c r="D60" s="42">
+        <v>0</v>
+      </c>
+      <c r="E60" s="42">
         <v>0</v>
       </c>
       <c r="F60" s="8">
@@ -4275,7 +4325,7 @@
       <c r="K60" s="8">
         <v>5</v>
       </c>
-      <c r="L60" s="8">
+      <c r="L60" s="42">
         <v>0</v>
       </c>
       <c r="M60" s="8">
@@ -4296,10 +4346,10 @@
       <c r="R60" s="8">
         <v>0</v>
       </c>
-      <c r="S60" s="8">
-        <v>0</v>
-      </c>
-      <c r="T60" s="8">
+      <c r="S60" s="42">
+        <v>0</v>
+      </c>
+      <c r="T60" s="42">
         <v>1</v>
       </c>
       <c r="U60" s="8">
@@ -4340,7 +4390,7 @@
       <c r="D62" s="10">
         <v>5</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="42">
         <v>0</v>
       </c>
       <c r="F62" s="10">
@@ -4370,7 +4420,7 @@
       <c r="N62" s="10">
         <v>5</v>
       </c>
-      <c r="O62" s="10">
+      <c r="O62" s="42">
         <v>0</v>
       </c>
       <c r="P62" s="10">
@@ -4402,7 +4452,7 @@
       <c r="D63" s="10">
         <v>5</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="42">
         <v>0</v>
       </c>
       <c r="F63" s="10">
@@ -4432,13 +4482,13 @@
       <c r="N63" s="10">
         <v>5</v>
       </c>
-      <c r="O63" s="10">
+      <c r="O63" s="42">
         <v>0</v>
       </c>
       <c r="P63" s="10">
         <v>0</v>
       </c>
-      <c r="Q63" s="10">
+      <c r="Q63" s="42">
         <v>0</v>
       </c>
       <c r="R63" s="10">
@@ -4464,7 +4514,7 @@
       <c r="D64" s="10">
         <v>5</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="42">
         <v>0</v>
       </c>
       <c r="F64" s="10">
@@ -4494,13 +4544,13 @@
       <c r="N64" s="10">
         <v>5</v>
       </c>
-      <c r="O64" s="10">
+      <c r="O64" s="42">
         <v>0</v>
       </c>
       <c r="P64" s="10">
         <v>0</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="42">
         <v>0</v>
       </c>
       <c r="R64" s="10">
@@ -4528,7 +4578,7 @@
         <f t="shared" ref="D65:U65" si="10">SUM(D62:D64)/3</f>
         <v>5</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4623,13 +4673,13 @@
       <c r="B67" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="42">
         <v>0</v>
       </c>
       <c r="D67" s="10">
         <v>5</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="42">
         <v>0</v>
       </c>
       <c r="F67" s="10">
@@ -4647,10 +4697,10 @@
       <c r="J67" s="10">
         <v>5</v>
       </c>
-      <c r="K67" s="10">
-        <v>0</v>
-      </c>
-      <c r="L67" s="10">
+      <c r="K67" s="42">
+        <v>0</v>
+      </c>
+      <c r="L67" s="42">
         <v>0</v>
       </c>
       <c r="M67" s="10">
@@ -4659,13 +4709,13 @@
       <c r="N67" s="10">
         <v>0</v>
       </c>
-      <c r="O67" s="10">
+      <c r="O67" s="42">
         <v>0</v>
       </c>
       <c r="P67" s="10">
         <v>0</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q67" s="42">
         <v>0</v>
       </c>
       <c r="R67" s="10">
@@ -4685,13 +4735,13 @@
       <c r="B68" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="42">
         <v>5</v>
       </c>
       <c r="D68" s="10">
         <v>5</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="42">
         <v>0</v>
       </c>
       <c r="F68" s="10">
@@ -4700,7 +4750,7 @@
       <c r="G68" s="10">
         <v>5</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="42">
         <v>0</v>
       </c>
       <c r="I68" s="10">
@@ -4709,10 +4759,10 @@
       <c r="J68" s="10">
         <v>0</v>
       </c>
-      <c r="K68" s="10">
-        <v>0</v>
-      </c>
-      <c r="L68" s="10">
+      <c r="K68" s="42">
+        <v>0</v>
+      </c>
+      <c r="L68" s="42">
         <v>0</v>
       </c>
       <c r="M68" s="10">
@@ -4747,13 +4797,13 @@
       <c r="B69" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="42">
         <v>0</v>
       </c>
       <c r="D69" s="10">
         <v>5</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="42">
         <v>0</v>
       </c>
       <c r="F69" s="10">
@@ -4771,10 +4821,10 @@
       <c r="J69" s="10">
         <v>5</v>
       </c>
-      <c r="K69" s="10">
-        <v>0</v>
-      </c>
-      <c r="L69" s="10">
+      <c r="K69" s="42">
+        <v>0</v>
+      </c>
+      <c r="L69" s="42">
         <v>0</v>
       </c>
       <c r="M69" s="10">
@@ -4783,19 +4833,19 @@
       <c r="N69" s="10">
         <v>0</v>
       </c>
-      <c r="O69" s="10">
+      <c r="O69" s="42">
         <v>0</v>
       </c>
       <c r="P69" s="10">
         <v>0</v>
       </c>
-      <c r="Q69" s="10">
+      <c r="Q69" s="42">
         <v>0</v>
       </c>
       <c r="R69" s="10">
         <v>0</v>
       </c>
-      <c r="S69" s="10">
+      <c r="S69" s="42">
         <v>0</v>
       </c>
       <c r="T69" s="10">
@@ -4817,7 +4867,7 @@
         <f t="shared" ref="D70" si="11">SUM(D67:D69)/3</f>
         <v>5</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="42">
         <f t="shared" ref="E70" si="12">SUM(E67:E69)/3</f>
         <v>0</v>
       </c>
@@ -4841,7 +4891,7 @@
         <f t="shared" ref="J70" si="17">SUM(J67:J69)/3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="42">
         <f t="shared" ref="K70" si="18">SUM(K67:K69)/3</f>
         <v>0</v>
       </c>
@@ -4914,13 +4964,13 @@
       <c r="B72" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="42">
         <v>0</v>
       </c>
       <c r="D72" s="10">
         <v>5</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="42">
         <v>0</v>
       </c>
       <c r="F72" s="10">
@@ -4929,7 +4979,7 @@
       <c r="G72" s="10">
         <v>0</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="42">
         <v>0</v>
       </c>
       <c r="I72" s="10">
@@ -4938,19 +4988,19 @@
       <c r="J72" s="10">
         <v>4</v>
       </c>
-      <c r="K72" s="10">
-        <v>0</v>
-      </c>
-      <c r="L72" s="10">
-        <v>0</v>
-      </c>
-      <c r="M72" s="10">
+      <c r="K72" s="42">
+        <v>0</v>
+      </c>
+      <c r="L72" s="42">
+        <v>0</v>
+      </c>
+      <c r="M72" s="42">
         <v>0</v>
       </c>
       <c r="N72" s="10">
         <v>0</v>
       </c>
-      <c r="O72" s="10">
+      <c r="O72" s="42">
         <v>0</v>
       </c>
       <c r="P72" s="10">
@@ -4962,10 +5012,10 @@
       <c r="R72" s="10">
         <v>0</v>
       </c>
-      <c r="S72" s="10">
-        <v>0</v>
-      </c>
-      <c r="T72" s="10">
+      <c r="S72" s="42">
+        <v>0</v>
+      </c>
+      <c r="T72" s="42">
         <v>0</v>
       </c>
       <c r="U72" s="10">
@@ -4976,13 +5026,13 @@
       <c r="B73" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="42">
         <v>0</v>
       </c>
       <c r="D73" s="10">
         <v>5</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="42">
         <v>0</v>
       </c>
       <c r="F73" s="10">
@@ -4991,7 +5041,7 @@
       <c r="G73" s="10">
         <v>0</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="42">
         <v>0</v>
       </c>
       <c r="I73" s="10">
@@ -5000,19 +5050,19 @@
       <c r="J73" s="10">
         <v>4</v>
       </c>
-      <c r="K73" s="10">
-        <v>0</v>
-      </c>
-      <c r="L73" s="10">
-        <v>0</v>
-      </c>
-      <c r="M73" s="10">
+      <c r="K73" s="42">
+        <v>0</v>
+      </c>
+      <c r="L73" s="42">
+        <v>0</v>
+      </c>
+      <c r="M73" s="42">
         <v>0</v>
       </c>
       <c r="N73" s="10">
         <v>0</v>
       </c>
-      <c r="O73" s="10">
+      <c r="O73" s="42">
         <v>0</v>
       </c>
       <c r="P73" s="10">
@@ -5024,10 +5074,10 @@
       <c r="R73" s="10">
         <v>0</v>
       </c>
-      <c r="S73" s="10">
-        <v>0</v>
-      </c>
-      <c r="T73" s="10">
+      <c r="S73" s="42">
+        <v>0</v>
+      </c>
+      <c r="T73" s="42">
         <v>0</v>
       </c>
       <c r="U73" s="10">
@@ -5038,13 +5088,13 @@
       <c r="B74" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="42">
         <v>0</v>
       </c>
       <c r="D74" s="10">
         <v>5</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="42">
         <v>0</v>
       </c>
       <c r="F74" s="10">
@@ -5053,7 +5103,7 @@
       <c r="G74" s="10">
         <v>0</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="42">
         <v>0</v>
       </c>
       <c r="I74" s="10">
@@ -5062,34 +5112,34 @@
       <c r="J74" s="10">
         <v>5</v>
       </c>
-      <c r="K74" s="10">
-        <v>0</v>
-      </c>
-      <c r="L74" s="10">
-        <v>0</v>
-      </c>
-      <c r="M74" s="10">
+      <c r="K74" s="42">
+        <v>0</v>
+      </c>
+      <c r="L74" s="42">
+        <v>0</v>
+      </c>
+      <c r="M74" s="42">
         <v>0</v>
       </c>
       <c r="N74" s="10">
         <v>0</v>
       </c>
-      <c r="O74" s="10">
+      <c r="O74" s="42">
         <v>0</v>
       </c>
       <c r="P74" s="10">
         <v>0</v>
       </c>
-      <c r="Q74" s="10">
+      <c r="Q74" s="42">
         <v>0</v>
       </c>
       <c r="R74" s="10">
         <v>0</v>
       </c>
-      <c r="S74" s="10">
-        <v>0</v>
-      </c>
-      <c r="T74" s="10">
+      <c r="S74" s="42">
+        <v>0</v>
+      </c>
+      <c r="T74" s="42">
         <v>0</v>
       </c>
       <c r="U74" s="10">
@@ -5100,13 +5150,13 @@
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="42">
         <v>0</v>
       </c>
       <c r="D75" s="10">
         <v>5</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="42">
         <v>0</v>
       </c>
       <c r="F75" s="10">
@@ -5115,7 +5165,7 @@
       <c r="G75" s="10">
         <v>0</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="42">
         <v>0</v>
       </c>
       <c r="I75" s="10">
@@ -5124,34 +5174,34 @@
       <c r="J75" s="10">
         <v>0</v>
       </c>
-      <c r="K75" s="10">
-        <v>0</v>
-      </c>
-      <c r="L75" s="10">
-        <v>0</v>
-      </c>
-      <c r="M75" s="10">
+      <c r="K75" s="42">
+        <v>0</v>
+      </c>
+      <c r="L75" s="42">
+        <v>0</v>
+      </c>
+      <c r="M75" s="42">
         <v>0</v>
       </c>
       <c r="N75" s="10">
         <v>0</v>
       </c>
-      <c r="O75" s="10">
+      <c r="O75" s="42">
         <v>0</v>
       </c>
       <c r="P75" s="10">
         <v>0</v>
       </c>
-      <c r="Q75" s="10">
+      <c r="Q75" s="42">
         <v>0</v>
       </c>
       <c r="R75" s="10">
         <v>0</v>
       </c>
-      <c r="S75" s="10">
-        <v>0</v>
-      </c>
-      <c r="T75" s="10">
+      <c r="S75" s="42">
+        <v>0</v>
+      </c>
+      <c r="T75" s="42">
         <v>0</v>
       </c>
       <c r="U75" s="10">
@@ -5170,7 +5220,7 @@
         <f t="shared" ref="D76" si="29">SUM(D72:D75)/4</f>
         <v>5</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="42">
         <f t="shared" ref="E76" si="30">SUM(E72:E75)/4</f>
         <v>0</v>
       </c>
@@ -5194,7 +5244,7 @@
         <f t="shared" ref="J76" si="35">SUM(J72:J75)/4</f>
         <v>3.25</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K76" s="42">
         <f t="shared" ref="K76" si="36">SUM(K72:K75)/4</f>
         <v>0</v>
       </c>
@@ -5202,7 +5252,7 @@
         <f t="shared" ref="L76" si="37">SUM(L72:L75)/4</f>
         <v>0</v>
       </c>
-      <c r="M76" s="8">
+      <c r="M76" s="42">
         <f t="shared" ref="M76" si="38">SUM(M72:M75)/4</f>
         <v>0</v>
       </c>
@@ -5226,7 +5276,7 @@
         <f t="shared" ref="R76" si="43">SUM(R72:R75)/4</f>
         <v>0</v>
       </c>
-      <c r="S76" s="8">
+      <c r="S76" s="42">
         <f t="shared" ref="S76" si="44">SUM(S72:S75)/4</f>
         <v>0</v>
       </c>
@@ -5248,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5320,7 +5370,7 @@
       <c r="T4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="45" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6757,13 +6807,13 @@
       <c r="I30" s="17">
         <v>5</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="42">
         <v>0</v>
       </c>
       <c r="K30" s="17">
         <v>5</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="42">
         <v>0</v>
       </c>
       <c r="M30" s="17">
@@ -6787,7 +6837,7 @@
       <c r="S30" s="17">
         <v>5</v>
       </c>
-      <c r="T30" s="17">
+      <c r="T30" s="42">
         <v>0</v>
       </c>
       <c r="U30" s="17">
@@ -6819,13 +6869,13 @@
       <c r="I31" s="17">
         <v>5</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="42">
         <v>0</v>
       </c>
       <c r="K31" s="17">
         <v>5</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="42">
         <v>0</v>
       </c>
       <c r="M31" s="17">
@@ -6849,7 +6899,7 @@
       <c r="S31" s="17">
         <v>5</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="42">
         <v>0</v>
       </c>
       <c r="U31" s="17">
@@ -6881,13 +6931,13 @@
       <c r="I32" s="17">
         <v>5</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="42">
         <v>0</v>
       </c>
       <c r="K32" s="17">
         <v>5</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="42">
         <v>0</v>
       </c>
       <c r="M32" s="17">
@@ -6911,7 +6961,7 @@
       <c r="S32" s="17">
         <v>5</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="42">
         <v>0</v>
       </c>
       <c r="U32" s="17">
@@ -6943,13 +6993,13 @@
       <c r="I33" s="17">
         <v>5</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="42">
         <v>0</v>
       </c>
       <c r="K33" s="17">
         <v>5</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="42">
         <v>0</v>
       </c>
       <c r="M33" s="17">
@@ -6973,7 +7023,7 @@
       <c r="S33" s="17">
         <v>5</v>
       </c>
-      <c r="T33" s="17">
+      <c r="T33" s="42">
         <v>0</v>
       </c>
       <c r="U33" s="17">
@@ -7005,13 +7055,13 @@
       <c r="I34" s="17">
         <v>5</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="42">
         <v>0</v>
       </c>
       <c r="K34" s="17">
         <v>5</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="42">
         <v>0</v>
       </c>
       <c r="M34" s="17">
@@ -7035,7 +7085,7 @@
       <c r="S34" s="17">
         <v>5</v>
       </c>
-      <c r="T34" s="17">
+      <c r="T34" s="42">
         <v>0</v>
       </c>
       <c r="U34" s="17">
@@ -7172,13 +7222,13 @@
       <c r="I37" s="17">
         <v>5</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="42">
         <v>0</v>
       </c>
       <c r="K37" s="17">
         <v>5</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="42">
         <v>0</v>
       </c>
       <c r="M37" s="17">
@@ -7202,7 +7252,7 @@
       <c r="S37" s="17">
         <v>5</v>
       </c>
-      <c r="T37" s="17">
+      <c r="T37" s="42">
         <v>0</v>
       </c>
       <c r="U37" s="17">
@@ -7234,13 +7284,13 @@
       <c r="I38" s="17">
         <v>5</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="42">
         <v>0</v>
       </c>
       <c r="K38" s="17">
         <v>5</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="42">
         <v>0</v>
       </c>
       <c r="M38" s="17">
@@ -7264,7 +7314,7 @@
       <c r="S38" s="17">
         <v>5</v>
       </c>
-      <c r="T38" s="17">
+      <c r="T38" s="42">
         <v>0</v>
       </c>
       <c r="U38" s="17">
@@ -7296,13 +7346,13 @@
       <c r="I39" s="17">
         <v>5</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="42">
         <v>0</v>
       </c>
       <c r="K39" s="17">
         <v>5</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="42">
         <v>0</v>
       </c>
       <c r="M39" s="17">
@@ -7326,7 +7376,7 @@
       <c r="S39" s="17">
         <v>5</v>
       </c>
-      <c r="T39" s="17">
+      <c r="T39" s="42">
         <v>0</v>
       </c>
       <c r="U39" s="17">
@@ -7358,13 +7408,13 @@
       <c r="I40" s="17">
         <v>5</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="42">
         <v>0</v>
       </c>
       <c r="K40" s="17">
         <v>5</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="42">
         <v>0</v>
       </c>
       <c r="M40" s="17">
@@ -7388,7 +7438,7 @@
       <c r="S40" s="17">
         <v>5</v>
       </c>
-      <c r="T40" s="17">
+      <c r="T40" s="42">
         <v>0</v>
       </c>
       <c r="U40" s="17">
@@ -7525,13 +7575,13 @@
       <c r="I43" s="17">
         <v>5</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="42">
         <v>0</v>
       </c>
       <c r="K43" s="17">
         <v>0</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="42">
         <v>0</v>
       </c>
       <c r="M43" s="17">
@@ -7546,7 +7596,7 @@
       <c r="P43" s="17">
         <v>0</v>
       </c>
-      <c r="Q43" s="17">
+      <c r="Q43" s="42">
         <v>0</v>
       </c>
       <c r="R43" s="17">
@@ -7587,13 +7637,13 @@
       <c r="I44" s="17">
         <v>5</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="42">
         <v>0</v>
       </c>
       <c r="K44" s="17">
         <v>0</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="42">
         <v>0</v>
       </c>
       <c r="M44" s="17">
@@ -7608,7 +7658,7 @@
       <c r="P44" s="17">
         <v>0</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="42">
         <v>0</v>
       </c>
       <c r="R44" s="17">
@@ -7649,13 +7699,13 @@
       <c r="I45" s="17">
         <v>5</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="42">
         <v>0</v>
       </c>
       <c r="K45" s="17">
         <v>0</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="42">
         <v>0</v>
       </c>
       <c r="M45" s="17">
@@ -7670,7 +7720,7 @@
       <c r="P45" s="17">
         <v>0</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="42">
         <v>0</v>
       </c>
       <c r="R45" s="17">
@@ -7711,13 +7761,13 @@
       <c r="I46" s="17">
         <v>5</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="42">
         <v>0</v>
       </c>
       <c r="K46" s="17">
         <v>0</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="42">
         <v>0</v>
       </c>
       <c r="M46" s="17">
@@ -7732,7 +7782,7 @@
       <c r="P46" s="17">
         <v>0</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="Q46" s="42">
         <v>0</v>
       </c>
       <c r="R46" s="17">
@@ -7875,7 +7925,7 @@
       <c r="I49" s="17">
         <v>0</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="42">
         <v>0</v>
       </c>
       <c r="K49" s="17">
@@ -7884,28 +7934,28 @@
       <c r="L49" s="17">
         <v>0</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="42">
         <v>0</v>
       </c>
       <c r="N49" s="17">
         <v>0</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="42">
         <v>0</v>
       </c>
       <c r="P49" s="17">
         <v>0</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="Q49" s="42">
         <v>0</v>
       </c>
       <c r="R49" s="17">
         <v>0</v>
       </c>
-      <c r="S49" s="17">
-        <v>0</v>
-      </c>
-      <c r="T49" s="17">
+      <c r="S49" s="42">
+        <v>0</v>
+      </c>
+      <c r="T49" s="42">
         <v>0</v>
       </c>
       <c r="U49" s="17">
@@ -7935,7 +7985,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7955,7 +8005,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7979,7 +8029,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S50" s="8">
+      <c r="S50" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -8020,7 +8070,7 @@
       <c r="B52" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="42">
         <v>0</v>
       </c>
       <c r="D52" s="8">
@@ -8035,13 +8085,13 @@
       <c r="G52" s="8">
         <v>0</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="42">
         <v>0</v>
       </c>
       <c r="I52" s="8">
         <v>0</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="42">
         <v>0</v>
       </c>
       <c r="K52" s="8">
@@ -8050,25 +8100,25 @@
       <c r="L52" s="8">
         <v>0</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="42">
         <v>0</v>
       </c>
       <c r="N52" s="8">
         <v>0</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="42">
         <v>0</v>
       </c>
       <c r="P52" s="8">
         <v>0</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q52" s="42">
         <v>0</v>
       </c>
       <c r="R52" s="8">
         <v>0</v>
       </c>
-      <c r="S52" s="8">
+      <c r="S52" s="42">
         <v>0</v>
       </c>
       <c r="T52" s="8">
@@ -8190,8 +8240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
   <dimension ref="A5:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9303,7 +9353,7 @@
       <c r="T21" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="46" t="s">
         <v>128</v>
       </c>
       <c r="V21" s="1"/>
@@ -9748,22 +9798,22 @@
       <c r="H33" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="44" t="s">
         <v>147</v>
       </c>
       <c r="J33" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="44" t="s">
         <v>147</v>
       </c>
       <c r="M33" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="N33" s="44" t="s">
         <v>147</v>
       </c>
       <c r="O33" s="39" t="s">
@@ -9775,16 +9825,16 @@
       <c r="Q33" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="R33" s="39" t="s">
+      <c r="R33" s="44" t="s">
         <v>147</v>
       </c>
       <c r="S33" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="T33" s="39" t="s">
+      <c r="T33" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="U33" s="39" t="s">
+      <c r="U33" s="44" t="s">
         <v>147</v>
       </c>
     </row>
@@ -9809,10 +9859,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
-  <dimension ref="C7:V17"/>
+  <dimension ref="C6:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9821,6 +9871,9 @@
     <col min="22" max="22" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="G6" s="43"/>
+    </row>
     <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
       <c r="D7" s="13" t="s">
@@ -9886,40 +9939,40 @@
         <v>100</v>
       </c>
       <c r="D8" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E8" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F8" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="29">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H8" s="29">
         <v>0</v>
       </c>
       <c r="I8" s="29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J8" s="29">
         <v>0</v>
       </c>
       <c r="K8" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O8" s="29">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P8" s="29">
         <v>0</v>
@@ -9928,16 +9981,16 @@
         <v>0</v>
       </c>
       <c r="R8" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S8" s="29">
         <v>0</v>
       </c>
       <c r="T8" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U8" s="29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V8" s="29">
         <v>0</v>
@@ -9993,7 +10046,7 @@
       </c>
       <c r="O9" s="28">
         <f>Actividades!N5</f>
-        <v>3.7015306122448979</v>
+        <v>3.8035714285714284</v>
       </c>
       <c r="P9" s="28">
         <f>Actividades!O5</f>
@@ -10273,19 +10326,19 @@
       </c>
       <c r="D13" s="27">
         <f>D8*0.25+D9*0.25+D10*0.25+D11*0.1+D12*0.15</f>
-        <v>3.0750515873015876</v>
+        <v>4.2000515873015871</v>
       </c>
       <c r="E13" s="27">
         <f t="shared" ref="E13:V13" si="0">E8*0.25+E9*0.25+E10*0.25+E11*0.1+E12*0.15</f>
-        <v>3.056746031746032</v>
+        <v>4.181746031746032</v>
       </c>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>1.8351275510204081</v>
+        <v>2.8351275510204084</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" si="0"/>
-        <v>3.0333730158730159</v>
+        <v>4.2583730158730155</v>
       </c>
       <c r="H13" s="27">
         <f t="shared" si="0"/>
@@ -10293,7 +10346,7 @@
       </c>
       <c r="I13" s="27">
         <f t="shared" si="0"/>
-        <v>3.1809325396825399</v>
+        <v>4.0559325396825399</v>
       </c>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
@@ -10301,23 +10354,23 @@
       </c>
       <c r="K13" s="27">
         <f t="shared" si="0"/>
-        <v>2.5595493197278909</v>
+        <v>3.3095493197278913</v>
       </c>
       <c r="L13" s="27">
         <f t="shared" si="0"/>
-        <v>2.0712755102040816</v>
+        <v>3.0712755102040816</v>
       </c>
       <c r="M13" s="27">
         <f t="shared" si="0"/>
-        <v>1.3896672335600906</v>
+        <v>2.1396672335600906</v>
       </c>
       <c r="N13" s="27">
         <f t="shared" si="0"/>
-        <v>3.0133191609977326</v>
+        <v>4.1383191609977326</v>
       </c>
       <c r="O13" s="27">
         <f t="shared" si="0"/>
-        <v>2.1081604308390021</v>
+        <v>3.3586706349206352</v>
       </c>
       <c r="P13" s="27">
         <f t="shared" si="0"/>
@@ -10329,7 +10382,7 @@
       </c>
       <c r="R13" s="27">
         <f t="shared" si="0"/>
-        <v>2.6408985260770974</v>
+        <v>3.8908985260770974</v>
       </c>
       <c r="S13" s="27">
         <f t="shared" si="0"/>
@@ -10337,21 +10390,87 @@
       </c>
       <c r="T13" s="27">
         <f t="shared" si="0"/>
-        <v>2.0734325396825399</v>
+        <v>3.0734325396825399</v>
       </c>
       <c r="U13" s="27">
         <f t="shared" si="0"/>
-        <v>1.7203373015873018</v>
+        <v>2.595337301587302</v>
       </c>
       <c r="V13" s="27">
         <f t="shared" si="0"/>
         <v>0.47378117913832202</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="E17" t="s">
         <v>135</v>
+      </c>
+      <c r="O17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECA6935-B503-7144-B022-4AC064D2DABC}">
+  <dimension ref="B5:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D79B3-63BC-0F41-89C4-67B87109507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724FB9B6-BC9F-BF45-9DB0-49A4903447E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1160" windowWidth="30240" windowHeight="17700" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="1040" yWindow="1000" windowWidth="31860" windowHeight="21000" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>Actividad 14 Rungekutta</t>
-  </si>
-  <si>
-    <t>Revisar formatos y volver a subir puntos</t>
   </si>
   <si>
     <t>Promedio tomado sobre 14 actividades</t>
@@ -712,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -741,7 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -756,7 +752,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -791,15 +786,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,176 +1103,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
-  <dimension ref="B3:U76"/>
+  <dimension ref="B1:U319"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="18" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="15" width="7.1640625" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.1640625" customWidth="1"/>
     <col min="19" max="19" width="18.83203125" customWidth="1"/>
     <col min="20" max="20" width="21.1640625" customWidth="1"/>
     <col min="21" max="21" width="22.1640625" customWidth="1"/>
     <col min="22" max="25" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P1"/>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P2"/>
+    </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" t="s">
         <v>78</v>
       </c>
+      <c r="P3"/>
     </row>
     <row r="4" spans="2:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <f t="shared" ref="C5:U5" si="0">SUM(C12+C17+C26+C33+C38+C42+C46+C50+C54+C57+C60+C65+C70+C76)/14</f>
-        <v>3.8630952380952381</v>
-      </c>
-      <c r="D5" s="20">
+        <v>4.9047619047619051</v>
+      </c>
+      <c r="D5" s="19">
         <f t="shared" si="0"/>
-        <v>4.4880952380952381</v>
-      </c>
-      <c r="E5" s="20">
+        <v>4.8452380952380949</v>
+      </c>
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>2.4838435374149661</v>
-      </c>
-      <c r="F5" s="20">
+        <v>4.6267006802721085</v>
+      </c>
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
-        <v>4.2440476190476186</v>
-      </c>
-      <c r="G5" s="20">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G5" s="19">
         <f t="shared" si="0"/>
         <v>2.7253401360544216</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>4.0059523809523814</v>
-      </c>
-      <c r="I5" s="20">
-        <f t="shared" si="0"/>
-        <v>3.1420068027210881</v>
-      </c>
-      <c r="J5" s="20">
-        <f t="shared" si="0"/>
-        <v>3.7431972789115648</v>
-      </c>
-      <c r="K5" s="20">
-        <f t="shared" si="0"/>
-        <v>4.0051020408163263</v>
-      </c>
-      <c r="L5" s="20">
-        <f t="shared" si="0"/>
-        <v>1.5195578231292519</v>
-      </c>
-      <c r="M5" s="20">
+        <v>4.8392857142857144</v>
+      </c>
+      <c r="I5" s="19">
         <f t="shared" si="0"/>
         <v>4.0943877551020407</v>
       </c>
-      <c r="N5" s="20">
+      <c r="J5" s="19">
         <f t="shared" si="0"/>
-        <v>3.8035714285714284</v>
-      </c>
-      <c r="O5" s="20">
+        <v>4.2023809523809526</v>
+      </c>
+      <c r="K5" s="19">
         <f t="shared" si="0"/>
-        <v>2.7848639455782309</v>
-      </c>
-      <c r="P5" s="20">
+        <v>4.7193877551020407</v>
+      </c>
+      <c r="L5" s="19">
         <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="Q5" s="20">
+        <v>2.5909863945578233</v>
+      </c>
+      <c r="M5" s="19">
         <f t="shared" si="0"/>
-        <v>3.0824829931972784</v>
-      </c>
-      <c r="R5" s="20">
+        <v>4.8086734693877551</v>
+      </c>
+      <c r="N5" s="19">
         <f t="shared" si="0"/>
-        <v>2.9277210884353742</v>
-      </c>
-      <c r="S5" s="20">
+        <v>4.6071428571428568</v>
+      </c>
+      <c r="O5" s="19">
         <f t="shared" si="0"/>
-        <v>2.8059523809523812</v>
-      </c>
-      <c r="T5" s="20">
+        <v>4.4515306122448974</v>
+      </c>
+      <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>3.3869047619047623</v>
-      </c>
-      <c r="U5" s="20">
+        <v>1.7756802721088436</v>
+      </c>
+      <c r="Q5" s="19">
         <f t="shared" si="0"/>
-        <v>0.78401360544217691</v>
-      </c>
+        <v>4.4515306122448974</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" si="0"/>
+        <v>3.8801020408163267</v>
+      </c>
+      <c r="S5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.7107142857142863</v>
+      </c>
+      <c r="T5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.6726190476190483</v>
+      </c>
+      <c r="U5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.2661564625850339</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P6"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="P7"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
@@ -1446,7 +1446,7 @@
       <c r="M10" s="10">
         <v>5</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="10">
         <v>3</v>
       </c>
       <c r="O10" s="10">
@@ -1475,8 +1475,8 @@
       <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="42">
-        <v>0</v>
+      <c r="C11" s="10">
+        <v>5</v>
       </c>
       <c r="D11" s="10">
         <v>5</v>
@@ -1484,8 +1484,8 @@
       <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="42">
-        <v>0</v>
+      <c r="F11" s="10">
+        <v>5</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
@@ -1508,8 +1508,8 @@
       <c r="M11" s="10">
         <v>0</v>
       </c>
-      <c r="N11" s="42">
-        <v>0</v>
+      <c r="N11" s="10">
+        <v>5</v>
       </c>
       <c r="O11" s="10">
         <v>0</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C12" s="8">
         <f>SUM(C8:C11)/4</f>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ref="D12:U12" si="1">SUM(D8:D11)/4</f>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="1"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="N12" s="8">
         <f t="shared" si="1"/>
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="1"/>
@@ -1973,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="P19" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="10">
         <v>5</v>
@@ -1984,8 +1984,8 @@
       <c r="S19" s="10">
         <v>5</v>
       </c>
-      <c r="T19" s="42">
-        <v>0</v>
+      <c r="T19" s="10">
+        <v>5</v>
       </c>
       <c r="U19" s="10">
         <v>5</v>
@@ -2035,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="P20" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="10">
         <v>5</v>
@@ -2046,8 +2046,8 @@
       <c r="S20" s="10">
         <v>5</v>
       </c>
-      <c r="T20" s="42">
-        <v>0</v>
+      <c r="T20" s="10">
+        <v>5</v>
       </c>
       <c r="U20" s="10">
         <v>5</v>
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="10">
         <v>5</v>
@@ -2108,8 +2108,8 @@
       <c r="S21" s="10">
         <v>5</v>
       </c>
-      <c r="T21" s="42">
-        <v>0</v>
+      <c r="T21" s="10">
+        <v>5</v>
       </c>
       <c r="U21" s="10">
         <v>5</v>
@@ -2170,8 +2170,8 @@
       <c r="S22" s="10">
         <v>5</v>
       </c>
-      <c r="T22" s="42">
-        <v>0</v>
+      <c r="T22" s="10">
+        <v>5</v>
       </c>
       <c r="U22" s="10">
         <v>0</v>
@@ -2202,8 +2202,8 @@
       <c r="I23" s="10">
         <v>0</v>
       </c>
-      <c r="J23" s="42">
-        <v>0</v>
+      <c r="J23" s="10">
+        <v>5</v>
       </c>
       <c r="K23" s="10">
         <v>0</v>
@@ -2232,8 +2232,8 @@
       <c r="S23" s="10">
         <v>5</v>
       </c>
-      <c r="T23" s="42">
-        <v>0</v>
+      <c r="T23" s="10">
+        <v>5</v>
       </c>
       <c r="U23" s="10">
         <v>0</v>
@@ -2264,8 +2264,8 @@
       <c r="I24" s="10">
         <v>0</v>
       </c>
-      <c r="J24" s="42">
-        <v>0</v>
+      <c r="J24" s="10">
+        <v>5</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
@@ -2294,8 +2294,8 @@
       <c r="S24" s="10">
         <v>5</v>
       </c>
-      <c r="T24" s="42">
-        <v>0</v>
+      <c r="T24" s="10">
+        <v>5</v>
       </c>
       <c r="U24" s="10">
         <v>0</v>
@@ -2356,8 +2356,8 @@
       <c r="S25" s="10">
         <v>5</v>
       </c>
-      <c r="T25" s="42">
-        <v>0</v>
+      <c r="T25" s="10">
+        <v>5</v>
       </c>
       <c r="U25" s="10">
         <v>0</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="J26" s="8">
         <f t="shared" si="3"/>
-        <v>3.5714285714285716</v>
+        <v>5</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" si="3"/>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="P26" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="3"/>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="T26" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="3"/>
@@ -2487,8 +2487,8 @@
       <c r="G28" s="10">
         <v>0</v>
       </c>
-      <c r="H28" s="42">
-        <v>0</v>
+      <c r="H28" s="10">
+        <v>5</v>
       </c>
       <c r="I28" s="10">
         <v>5</v>
@@ -2502,17 +2502,17 @@
       <c r="L28" s="10">
         <v>5</v>
       </c>
-      <c r="M28" s="42">
-        <v>0</v>
+      <c r="M28" s="10">
+        <v>5</v>
       </c>
       <c r="N28" s="10">
         <v>5</v>
       </c>
-      <c r="O28" s="42">
-        <v>0</v>
+      <c r="O28" s="10">
+        <v>5</v>
       </c>
       <c r="P28" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="10">
         <v>5</v>
@@ -2527,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="U28" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="51" x14ac:dyDescent="0.2">
@@ -2549,8 +2549,8 @@
       <c r="G29" s="10">
         <v>0</v>
       </c>
-      <c r="H29" s="42">
-        <v>0</v>
+      <c r="H29" s="10">
+        <v>5</v>
       </c>
       <c r="I29" s="10">
         <v>5</v>
@@ -2564,17 +2564,17 @@
       <c r="L29" s="10">
         <v>5</v>
       </c>
-      <c r="M29" s="42">
-        <v>0</v>
+      <c r="M29" s="10">
+        <v>5</v>
       </c>
       <c r="N29" s="10">
         <v>5</v>
       </c>
-      <c r="O29" s="42">
-        <v>0</v>
+      <c r="O29" s="10">
+        <v>5</v>
       </c>
       <c r="P29" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="10">
         <v>5</v>
@@ -2589,7 +2589,7 @@
         <v>5</v>
       </c>
       <c r="U29" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="51" x14ac:dyDescent="0.2">
@@ -2611,8 +2611,8 @@
       <c r="G30" s="10">
         <v>0</v>
       </c>
-      <c r="H30" s="42">
-        <v>0</v>
+      <c r="H30" s="10">
+        <v>5</v>
       </c>
       <c r="I30" s="10">
         <v>5</v>
@@ -2626,17 +2626,17 @@
       <c r="L30" s="10">
         <v>5</v>
       </c>
-      <c r="M30" s="42">
-        <v>0</v>
+      <c r="M30" s="10">
+        <v>5</v>
       </c>
       <c r="N30" s="10">
         <v>5</v>
       </c>
-      <c r="O30" s="42">
-        <v>0</v>
+      <c r="O30" s="10">
+        <v>5</v>
       </c>
       <c r="P30" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="10">
         <v>5</v>
@@ -2651,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="U30" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="51" x14ac:dyDescent="0.2">
@@ -2673,8 +2673,8 @@
       <c r="G31" s="10">
         <v>0</v>
       </c>
-      <c r="H31" s="42">
-        <v>0</v>
+      <c r="H31" s="10">
+        <v>5</v>
       </c>
       <c r="I31" s="10">
         <v>5</v>
@@ -2688,14 +2688,14 @@
       <c r="L31" s="10">
         <v>5</v>
       </c>
-      <c r="M31" s="42">
-        <v>0</v>
+      <c r="M31" s="10">
+        <v>5</v>
       </c>
       <c r="N31" s="10">
         <v>5</v>
       </c>
-      <c r="O31" s="42">
-        <v>0</v>
+      <c r="O31" s="10">
+        <v>5</v>
       </c>
       <c r="P31" s="10">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="U31" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="34" x14ac:dyDescent="0.2">
@@ -2735,8 +2735,8 @@
       <c r="G32" s="10">
         <v>0</v>
       </c>
-      <c r="H32" s="42">
-        <v>0</v>
+      <c r="H32" s="10">
+        <v>5</v>
       </c>
       <c r="I32" s="10">
         <v>5</v>
@@ -2750,14 +2750,14 @@
       <c r="L32" s="10">
         <v>5</v>
       </c>
-      <c r="M32" s="42">
-        <v>0</v>
+      <c r="M32" s="10">
+        <v>5</v>
       </c>
       <c r="N32" s="10">
         <v>5</v>
       </c>
-      <c r="O32" s="42">
-        <v>0</v>
+      <c r="O32" s="10">
+        <v>5</v>
       </c>
       <c r="P32" s="10">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="U32" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="17" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H33" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="4"/>
@@ -2822,9 +2822,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="4"/>
@@ -2832,11 +2832,11 @@
       </c>
       <c r="O33" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="4"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="U33" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:21" ht="17" x14ac:dyDescent="0.2">
@@ -3215,7 +3215,7 @@
         <v>5</v>
       </c>
       <c r="P40" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q40" s="10">
         <v>5</v>
@@ -3223,14 +3223,14 @@
       <c r="R40" s="10">
         <v>5</v>
       </c>
-      <c r="S40" s="42">
-        <v>0</v>
+      <c r="S40" s="10">
+        <v>5</v>
       </c>
       <c r="T40" s="10">
         <v>5</v>
       </c>
       <c r="U40" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
@@ -3285,14 +3285,14 @@
       <c r="R41" s="10">
         <v>5</v>
       </c>
-      <c r="S41" s="42">
-        <v>0</v>
+      <c r="S41" s="10">
+        <v>5</v>
       </c>
       <c r="T41" s="10">
         <v>5</v>
       </c>
       <c r="U41" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="P42" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" si="6"/>
@@ -3361,16 +3361,14 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="S42" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S42" s="8">
+        <v>5</v>
       </c>
       <c r="T42" s="8">
         <v>5</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="17" x14ac:dyDescent="0.2">
@@ -3441,7 +3439,7 @@
         <v>5</v>
       </c>
       <c r="P44" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q44" s="10">
         <v>5</v>
@@ -3456,7 +3454,7 @@
         <v>5</v>
       </c>
       <c r="U44" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
@@ -3518,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="U45" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
@@ -3579,7 +3577,7 @@
       </c>
       <c r="P46" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q46" s="8">
         <f t="shared" si="7"/>
@@ -3598,8 +3596,7 @@
         <v>5</v>
       </c>
       <c r="U46" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
@@ -3636,8 +3633,8 @@
       <c r="D48" s="10">
         <v>5</v>
       </c>
-      <c r="E48" s="42">
-        <v>0</v>
+      <c r="E48" s="10">
+        <v>5</v>
       </c>
       <c r="F48" s="10">
         <v>5</v>
@@ -3670,22 +3667,22 @@
         <v>5</v>
       </c>
       <c r="P48" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>5</v>
       </c>
       <c r="R48" s="10">
         <v>5</v>
       </c>
-      <c r="S48" s="42">
-        <v>0</v>
+      <c r="S48" s="10">
+        <v>5</v>
       </c>
       <c r="T48" s="10">
         <v>5</v>
       </c>
       <c r="U48" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
@@ -3698,8 +3695,8 @@
       <c r="D49" s="10">
         <v>5</v>
       </c>
-      <c r="E49" s="42">
-        <v>0</v>
+      <c r="E49" s="10">
+        <v>5</v>
       </c>
       <c r="F49" s="10">
         <v>5</v>
@@ -3732,22 +3729,22 @@
         <v>5</v>
       </c>
       <c r="P49" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>5</v>
       </c>
       <c r="R49" s="10">
         <v>5</v>
       </c>
-      <c r="S49" s="42">
-        <v>0</v>
+      <c r="S49" s="10">
+        <v>5</v>
       </c>
       <c r="T49" s="10">
         <v>5</v>
       </c>
       <c r="U49" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
@@ -3762,9 +3759,8 @@
         <f t="shared" ref="D50:U50" si="8">(D48+D49)/2</f>
         <v>5</v>
       </c>
-      <c r="E50" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="E50" s="8">
+        <v>5</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" si="8"/>
@@ -3808,27 +3804,25 @@
       </c>
       <c r="P50" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R50" s="8">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="S50" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="S50" s="8">
+        <v>5</v>
       </c>
       <c r="T50" s="8">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="U50" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.2">
@@ -3880,8 +3874,8 @@
       <c r="I52" s="10">
         <v>0</v>
       </c>
-      <c r="J52" s="42">
-        <v>0</v>
+      <c r="J52" s="10">
+        <v>5</v>
       </c>
       <c r="K52" s="10">
         <v>5</v>
@@ -3910,11 +3904,11 @@
       <c r="S52" s="10">
         <v>5</v>
       </c>
-      <c r="T52" s="42">
-        <v>1</v>
+      <c r="T52" s="10">
+        <v>5</v>
       </c>
       <c r="U52" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
@@ -3942,8 +3936,8 @@
       <c r="I53" s="10">
         <v>0</v>
       </c>
-      <c r="J53" s="42">
-        <v>0</v>
+      <c r="J53" s="10">
+        <v>5</v>
       </c>
       <c r="K53" s="10">
         <v>5</v>
@@ -3972,11 +3966,11 @@
       <c r="S53" s="10">
         <v>5</v>
       </c>
-      <c r="T53" s="42">
-        <v>1</v>
+      <c r="T53" s="10">
+        <v>5</v>
       </c>
       <c r="U53" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.2">
@@ -4013,7 +4007,7 @@
       </c>
       <c r="J54" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K54" s="8">
         <f t="shared" si="9"/>
@@ -4051,13 +4045,11 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="T54" s="42">
-        <f t="shared" si="9"/>
-        <v>1</v>
+      <c r="T54" s="8">
+        <v>5</v>
       </c>
       <c r="U54" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
@@ -4094,8 +4086,8 @@
       <c r="D56" s="10">
         <v>3.5</v>
       </c>
-      <c r="E56" s="42">
-        <v>0</v>
+      <c r="E56" s="10">
+        <v>5</v>
       </c>
       <c r="F56" s="10">
         <v>5</v>
@@ -4109,8 +4101,8 @@
       <c r="I56" s="10">
         <v>5</v>
       </c>
-      <c r="J56" s="42">
-        <v>0</v>
+      <c r="J56" s="10">
+        <v>5</v>
       </c>
       <c r="K56" s="10">
         <v>5</v>
@@ -4124,26 +4116,26 @@
       <c r="N56" s="10">
         <v>0</v>
       </c>
-      <c r="O56" s="42">
-        <v>0</v>
+      <c r="O56" s="10">
+        <v>5</v>
       </c>
       <c r="P56" s="10">
         <v>0</v>
       </c>
-      <c r="Q56" s="42">
-        <v>0</v>
+      <c r="Q56" s="10">
+        <v>5</v>
       </c>
       <c r="R56" s="10">
-        <v>0</v>
-      </c>
-      <c r="S56" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S56" s="10">
+        <v>5</v>
       </c>
       <c r="T56" s="10">
         <v>5</v>
       </c>
       <c r="U56" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.2">
@@ -4156,8 +4148,8 @@
       <c r="D57" s="8">
         <v>3.5</v>
       </c>
-      <c r="E57" s="42">
-        <v>0</v>
+      <c r="E57" s="8">
+        <v>5</v>
       </c>
       <c r="F57" s="8">
         <v>5</v>
@@ -4187,25 +4179,25 @@
         <v>0</v>
       </c>
       <c r="O57" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P57" s="8">
         <v>0</v>
       </c>
-      <c r="Q57" s="42">
-        <v>0</v>
+      <c r="Q57" s="8">
+        <v>5</v>
       </c>
       <c r="R57" s="8">
         <v>0</v>
       </c>
-      <c r="S57" s="42">
-        <v>0</v>
+      <c r="S57" s="8">
+        <v>5</v>
       </c>
       <c r="T57" s="8">
         <v>5</v>
       </c>
       <c r="U57" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.2">
@@ -4236,14 +4228,14 @@
       <c r="B59" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="42">
-        <v>0</v>
-      </c>
-      <c r="D59" s="42">
-        <v>0</v>
-      </c>
-      <c r="E59" s="42">
-        <v>0</v>
+      <c r="C59" s="10">
+        <v>5</v>
+      </c>
+      <c r="D59" s="10">
+        <v>5</v>
+      </c>
+      <c r="E59" s="10">
+        <v>5</v>
       </c>
       <c r="F59" s="10">
         <v>5</v>
@@ -4263,8 +4255,8 @@
       <c r="K59" s="10">
         <v>5</v>
       </c>
-      <c r="L59" s="42">
-        <v>0</v>
+      <c r="L59" s="10">
+        <v>5</v>
       </c>
       <c r="M59" s="10">
         <v>5</v>
@@ -4272,40 +4264,40 @@
       <c r="N59" s="10">
         <v>5</v>
       </c>
-      <c r="O59" s="42">
-        <v>0</v>
+      <c r="O59" s="10">
+        <v>5</v>
       </c>
       <c r="P59" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="42">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="10">
         <v>0</v>
       </c>
       <c r="R59" s="10">
         <v>0</v>
       </c>
-      <c r="S59" s="42">
-        <v>0</v>
-      </c>
-      <c r="T59" s="42">
-        <v>1</v>
+      <c r="S59" s="10">
+        <v>5</v>
+      </c>
+      <c r="T59" s="10">
+        <v>5</v>
       </c>
       <c r="U59" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="42">
-        <v>0</v>
-      </c>
-      <c r="D60" s="42">
-        <v>0</v>
-      </c>
-      <c r="E60" s="42">
-        <v>0</v>
+      <c r="C60" s="8">
+        <v>5</v>
+      </c>
+      <c r="D60" s="8">
+        <v>5</v>
+      </c>
+      <c r="E60" s="8">
+        <v>5</v>
       </c>
       <c r="F60" s="8">
         <v>5</v>
@@ -4325,8 +4317,8 @@
       <c r="K60" s="8">
         <v>5</v>
       </c>
-      <c r="L60" s="42">
-        <v>0</v>
+      <c r="L60" s="8">
+        <v>5</v>
       </c>
       <c r="M60" s="8">
         <v>5</v>
@@ -4346,14 +4338,14 @@
       <c r="R60" s="8">
         <v>0</v>
       </c>
-      <c r="S60" s="42">
-        <v>0</v>
-      </c>
-      <c r="T60" s="42">
-        <v>1</v>
+      <c r="S60" s="8">
+        <v>5</v>
+      </c>
+      <c r="T60" s="8">
+        <v>5</v>
       </c>
       <c r="U60" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.2">
@@ -4390,8 +4382,8 @@
       <c r="D62" s="10">
         <v>5</v>
       </c>
-      <c r="E62" s="42">
-        <v>0</v>
+      <c r="E62" s="10">
+        <v>5</v>
       </c>
       <c r="F62" s="10">
         <v>5</v>
@@ -4403,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="I62" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J62" s="10">
         <v>5</v>
@@ -4420,8 +4412,8 @@
       <c r="N62" s="10">
         <v>5</v>
       </c>
-      <c r="O62" s="42">
-        <v>0</v>
+      <c r="O62" s="10">
+        <v>5</v>
       </c>
       <c r="P62" s="10">
         <v>0</v>
@@ -4430,7 +4422,7 @@
         <v>5</v>
       </c>
       <c r="R62" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S62" s="10">
         <v>5</v>
@@ -4439,7 +4431,7 @@
         <v>5</v>
       </c>
       <c r="U62" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.2">
@@ -4452,8 +4444,8 @@
       <c r="D63" s="10">
         <v>5</v>
       </c>
-      <c r="E63" s="42">
-        <v>0</v>
+      <c r="E63" s="10">
+        <v>5</v>
       </c>
       <c r="F63" s="10">
         <v>5</v>
@@ -4465,7 +4457,7 @@
         <v>5</v>
       </c>
       <c r="I63" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J63" s="10">
         <v>5</v>
@@ -4482,17 +4474,17 @@
       <c r="N63" s="10">
         <v>5</v>
       </c>
-      <c r="O63" s="42">
-        <v>0</v>
+      <c r="O63" s="10">
+        <v>5</v>
       </c>
       <c r="P63" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>5</v>
       </c>
       <c r="R63" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S63" s="10">
         <v>5</v>
@@ -4501,7 +4493,7 @@
         <v>4</v>
       </c>
       <c r="U63" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.2">
@@ -4514,8 +4506,8 @@
       <c r="D64" s="10">
         <v>5</v>
       </c>
-      <c r="E64" s="42">
-        <v>0</v>
+      <c r="E64" s="10">
+        <v>5</v>
       </c>
       <c r="F64" s="10">
         <v>5</v>
@@ -4527,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="I64" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" s="10">
         <v>5</v>
@@ -4544,17 +4536,17 @@
       <c r="N64" s="10">
         <v>5</v>
       </c>
-      <c r="O64" s="42">
-        <v>0</v>
+      <c r="O64" s="10">
+        <v>5</v>
       </c>
       <c r="P64" s="10">
         <v>0</v>
       </c>
-      <c r="Q64" s="42">
-        <v>0</v>
+      <c r="Q64" s="10">
+        <v>5</v>
       </c>
       <c r="R64" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S64" s="10">
         <v>5</v>
@@ -4563,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="U64" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.2">
@@ -4578,9 +4570,9 @@
         <f t="shared" ref="D65:U65" si="10">SUM(D62:D64)/3</f>
         <v>5</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F65" s="8">
         <f t="shared" si="10"/>
@@ -4596,7 +4588,7 @@
       </c>
       <c r="I65" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J65" s="8">
         <f t="shared" si="10"/>
@@ -4619,18 +4611,18 @@
       </c>
       <c r="O65" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P65" s="8">
         <v>0</v>
       </c>
       <c r="Q65" s="8">
         <f t="shared" si="10"/>
-        <v>1.6666666666666667</v>
+        <v>5</v>
       </c>
       <c r="R65" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S65" s="8">
         <f t="shared" si="10"/>
@@ -4642,7 +4634,7 @@
       </c>
       <c r="U65" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.2">
@@ -4673,14 +4665,14 @@
       <c r="B67" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="42">
-        <v>0</v>
+      <c r="C67" s="10">
+        <v>5</v>
       </c>
       <c r="D67" s="10">
         <v>5</v>
       </c>
-      <c r="E67" s="42">
-        <v>0</v>
+      <c r="E67" s="10">
+        <v>5</v>
       </c>
       <c r="F67" s="10">
         <v>0</v>
@@ -4697,29 +4689,29 @@
       <c r="J67" s="10">
         <v>5</v>
       </c>
-      <c r="K67" s="42">
-        <v>0</v>
-      </c>
-      <c r="L67" s="42">
-        <v>0</v>
+      <c r="K67" s="10">
+        <v>5</v>
+      </c>
+      <c r="L67" s="10">
+        <v>5</v>
       </c>
       <c r="M67" s="10">
         <v>5</v>
       </c>
       <c r="N67" s="10">
-        <v>0</v>
-      </c>
-      <c r="O67" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O67" s="10">
+        <v>5</v>
       </c>
       <c r="P67" s="10">
         <v>0</v>
       </c>
-      <c r="Q67" s="42">
-        <v>0</v>
+      <c r="Q67" s="10">
+        <v>5</v>
       </c>
       <c r="R67" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S67" s="10">
         <v>5</v>
@@ -4728,21 +4720,21 @@
         <v>5</v>
       </c>
       <c r="U67" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="10">
         <v>5</v>
       </c>
       <c r="D68" s="10">
         <v>5</v>
       </c>
-      <c r="E68" s="42">
-        <v>0</v>
+      <c r="E68" s="10">
+        <v>5</v>
       </c>
       <c r="F68" s="10">
         <v>0</v>
@@ -4750,32 +4742,32 @@
       <c r="G68" s="10">
         <v>5</v>
       </c>
-      <c r="H68" s="42">
-        <v>0</v>
+      <c r="H68" s="10">
+        <v>5</v>
       </c>
       <c r="I68" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J68" s="10">
         <v>0</v>
       </c>
-      <c r="K68" s="42">
-        <v>0</v>
-      </c>
-      <c r="L68" s="42">
-        <v>0</v>
+      <c r="K68" s="10">
+        <v>5</v>
+      </c>
+      <c r="L68" s="10">
+        <v>5</v>
       </c>
       <c r="M68" s="10">
         <v>5</v>
       </c>
       <c r="N68" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O68" s="10">
         <v>5</v>
       </c>
       <c r="P68" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q68" s="10">
         <v>5</v>
@@ -4790,21 +4782,21 @@
         <v>0</v>
       </c>
       <c r="U68" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="42">
-        <v>0</v>
+      <c r="C69" s="10">
+        <v>5</v>
       </c>
       <c r="D69" s="10">
         <v>5</v>
       </c>
-      <c r="E69" s="42">
-        <v>0</v>
+      <c r="E69" s="10">
+        <v>5</v>
       </c>
       <c r="F69" s="10">
         <v>5</v>
@@ -4816,43 +4808,43 @@
         <v>5</v>
       </c>
       <c r="I69" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J69" s="10">
         <v>5</v>
       </c>
-      <c r="K69" s="42">
-        <v>0</v>
-      </c>
-      <c r="L69" s="42">
-        <v>0</v>
+      <c r="K69" s="10">
+        <v>5</v>
+      </c>
+      <c r="L69" s="10">
+        <v>5</v>
       </c>
       <c r="M69" s="10">
         <v>5</v>
       </c>
       <c r="N69" s="10">
-        <v>0</v>
-      </c>
-      <c r="O69" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O69" s="10">
+        <v>5</v>
       </c>
       <c r="P69" s="10">
         <v>0</v>
       </c>
-      <c r="Q69" s="42">
-        <v>0</v>
+      <c r="Q69" s="10">
+        <v>5</v>
       </c>
       <c r="R69" s="10">
-        <v>0</v>
-      </c>
-      <c r="S69" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S69" s="10">
+        <v>5</v>
       </c>
       <c r="T69" s="10">
         <v>5</v>
       </c>
       <c r="U69" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.2">
@@ -4861,15 +4853,15 @@
       </c>
       <c r="C70" s="8">
         <f>SUM(C67:C69)/3</f>
-        <v>1.6666666666666667</v>
+        <v>5</v>
       </c>
       <c r="D70" s="8">
         <f t="shared" ref="D70" si="11">SUM(D67:D69)/3</f>
         <v>5</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="8">
         <f t="shared" ref="E70" si="12">SUM(E67:E69)/3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F70" s="8">
         <f t="shared" ref="F70" si="13">SUM(F67:F69)/3</f>
@@ -4881,23 +4873,23 @@
       </c>
       <c r="H70" s="8">
         <f t="shared" ref="H70" si="15">SUM(H67:H69)/3</f>
-        <v>3.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" ref="I70" si="16">SUM(I67:I69)/3</f>
-        <v>1.6666666666666667</v>
+        <v>5</v>
       </c>
       <c r="J70" s="8">
         <f t="shared" ref="J70" si="17">SUM(J67:J69)/3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K70" s="42">
+      <c r="K70" s="8">
         <f t="shared" ref="K70" si="18">SUM(K67:K69)/3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L70" s="8">
         <f t="shared" ref="L70" si="19">SUM(L67:L69)/3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M70" s="8">
         <f t="shared" ref="M70" si="20">SUM(M67:M69)/3</f>
@@ -4905,27 +4897,27 @@
       </c>
       <c r="N70" s="8">
         <f t="shared" ref="N70" si="21">SUM(N67:N69)/3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O70" s="8">
         <f t="shared" ref="O70" si="22">SUM(O67:O69)/3</f>
-        <v>1.6666666666666667</v>
+        <v>5</v>
       </c>
       <c r="P70" s="8">
         <f t="shared" ref="P70" si="23">SUM(P67:P69)/3</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="Q70" s="8">
         <f t="shared" ref="Q70" si="24">SUM(Q67:Q69)/3</f>
-        <v>1.6666666666666667</v>
+        <v>5</v>
       </c>
       <c r="R70" s="8">
         <f t="shared" ref="R70" si="25">SUM(R67:R69)/3</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="S70" s="8">
         <f t="shared" ref="S70" si="26">SUM(S67:S69)/3</f>
-        <v>3.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="T70" s="8">
         <f t="shared" ref="T70" si="27">SUM(T67:T69)/3</f>
@@ -4933,7 +4925,7 @@
       </c>
       <c r="U70" s="8">
         <f t="shared" ref="U70" si="28">SUM(U67:U69)/3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.2">
@@ -4964,14 +4956,14 @@
       <c r="B72" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="42">
-        <v>0</v>
+      <c r="C72" s="10">
+        <v>5</v>
       </c>
       <c r="D72" s="10">
         <v>5</v>
       </c>
-      <c r="E72" s="42">
-        <v>0</v>
+      <c r="E72" s="10">
+        <v>5</v>
       </c>
       <c r="F72" s="10">
         <v>0</v>
@@ -4979,61 +4971,61 @@
       <c r="G72" s="10">
         <v>0</v>
       </c>
-      <c r="H72" s="42">
-        <v>0</v>
+      <c r="H72" s="10">
+        <v>5</v>
       </c>
       <c r="I72" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J72" s="10">
         <v>4</v>
       </c>
-      <c r="K72" s="42">
-        <v>0</v>
-      </c>
-      <c r="L72" s="42">
-        <v>0</v>
-      </c>
-      <c r="M72" s="42">
-        <v>0</v>
+      <c r="K72" s="10">
+        <v>5</v>
+      </c>
+      <c r="L72" s="10">
+        <v>5</v>
+      </c>
+      <c r="M72" s="10">
+        <v>5</v>
       </c>
       <c r="N72" s="10">
-        <v>0</v>
-      </c>
-      <c r="O72" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O72" s="10">
+        <v>5</v>
       </c>
       <c r="P72" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q72" s="10">
         <v>5</v>
       </c>
       <c r="R72" s="10">
-        <v>0</v>
-      </c>
-      <c r="S72" s="42">
-        <v>0</v>
-      </c>
-      <c r="T72" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S72" s="10">
+        <v>5</v>
+      </c>
+      <c r="T72" s="10">
+        <v>5</v>
       </c>
       <c r="U72" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="42">
-        <v>0</v>
+      <c r="C73" s="10">
+        <v>5</v>
       </c>
       <c r="D73" s="10">
         <v>5</v>
       </c>
-      <c r="E73" s="42">
-        <v>0</v>
+      <c r="E73" s="10">
+        <v>5</v>
       </c>
       <c r="F73" s="10">
         <v>0</v>
@@ -5041,29 +5033,29 @@
       <c r="G73" s="10">
         <v>0</v>
       </c>
-      <c r="H73" s="42">
-        <v>0</v>
+      <c r="H73" s="10">
+        <v>5</v>
       </c>
       <c r="I73" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J73" s="10">
         <v>4</v>
       </c>
-      <c r="K73" s="42">
-        <v>0</v>
-      </c>
-      <c r="L73" s="42">
-        <v>0</v>
-      </c>
-      <c r="M73" s="42">
-        <v>0</v>
+      <c r="K73" s="10">
+        <v>5</v>
+      </c>
+      <c r="L73" s="10">
+        <v>5</v>
+      </c>
+      <c r="M73" s="10">
+        <v>5</v>
       </c>
       <c r="N73" s="10">
-        <v>0</v>
-      </c>
-      <c r="O73" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O73" s="10">
+        <v>5</v>
       </c>
       <c r="P73" s="10">
         <v>0</v>
@@ -5072,30 +5064,30 @@
         <v>5</v>
       </c>
       <c r="R73" s="10">
-        <v>0</v>
-      </c>
-      <c r="S73" s="42">
-        <v>0</v>
-      </c>
-      <c r="T73" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S73" s="10">
+        <v>5</v>
+      </c>
+      <c r="T73" s="10">
+        <v>5</v>
       </c>
       <c r="U73" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B74" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="42">
-        <v>0</v>
+      <c r="C74" s="10">
+        <v>5</v>
       </c>
       <c r="D74" s="10">
         <v>5</v>
       </c>
-      <c r="E74" s="42">
-        <v>0</v>
+      <c r="E74" s="10">
+        <v>5</v>
       </c>
       <c r="F74" s="10">
         <v>0</v>
@@ -5103,61 +5095,61 @@
       <c r="G74" s="10">
         <v>0</v>
       </c>
-      <c r="H74" s="42">
-        <v>0</v>
+      <c r="H74" s="10">
+        <v>5</v>
       </c>
       <c r="I74" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J74" s="10">
         <v>5</v>
       </c>
-      <c r="K74" s="42">
-        <v>0</v>
-      </c>
-      <c r="L74" s="42">
-        <v>0</v>
-      </c>
-      <c r="M74" s="42">
-        <v>0</v>
+      <c r="K74" s="10">
+        <v>5</v>
+      </c>
+      <c r="L74" s="10">
+        <v>5</v>
+      </c>
+      <c r="M74" s="10">
+        <v>5</v>
       </c>
       <c r="N74" s="10">
-        <v>0</v>
-      </c>
-      <c r="O74" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O74" s="10">
+        <v>5</v>
       </c>
       <c r="P74" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="42">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Q74" s="10">
+        <v>5</v>
       </c>
       <c r="R74" s="10">
-        <v>0</v>
-      </c>
-      <c r="S74" s="42">
-        <v>0</v>
-      </c>
-      <c r="T74" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S74" s="10">
+        <v>5</v>
+      </c>
+      <c r="T74" s="10">
+        <v>5</v>
       </c>
       <c r="U74" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="42">
-        <v>0</v>
+      <c r="C75" s="10">
+        <v>5</v>
       </c>
       <c r="D75" s="10">
         <v>5</v>
       </c>
-      <c r="E75" s="42">
-        <v>0</v>
+      <c r="E75" s="10">
+        <v>5</v>
       </c>
       <c r="F75" s="10">
         <v>0</v>
@@ -5165,44 +5157,44 @@
       <c r="G75" s="10">
         <v>0</v>
       </c>
-      <c r="H75" s="42">
-        <v>0</v>
+      <c r="H75" s="10">
+        <v>5</v>
       </c>
       <c r="I75" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J75" s="10">
         <v>0</v>
       </c>
-      <c r="K75" s="42">
-        <v>0</v>
-      </c>
-      <c r="L75" s="42">
-        <v>0</v>
-      </c>
-      <c r="M75" s="42">
-        <v>0</v>
+      <c r="K75" s="10">
+        <v>5</v>
+      </c>
+      <c r="L75" s="10">
+        <v>5</v>
+      </c>
+      <c r="M75" s="10">
+        <v>5</v>
       </c>
       <c r="N75" s="10">
-        <v>0</v>
-      </c>
-      <c r="O75" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O75" s="10">
+        <v>5</v>
       </c>
       <c r="P75" s="10">
         <v>0</v>
       </c>
-      <c r="Q75" s="42">
-        <v>0</v>
+      <c r="Q75" s="10">
+        <v>5</v>
       </c>
       <c r="R75" s="10">
-        <v>0</v>
-      </c>
-      <c r="S75" s="42">
-        <v>0</v>
-      </c>
-      <c r="T75" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S75" s="10">
+        <v>5</v>
+      </c>
+      <c r="T75" s="10">
+        <v>5</v>
       </c>
       <c r="U75" s="10">
         <v>0</v>
@@ -5214,15 +5206,15 @@
       </c>
       <c r="C76" s="8">
         <f>SUM(C72:C75)/4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D76" s="8">
         <f t="shared" ref="D76" si="29">SUM(D72:D75)/4</f>
         <v>5</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="8">
         <f t="shared" ref="E76" si="30">SUM(E72:E75)/4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F76" s="8">
         <f t="shared" ref="F76" si="31">SUM(F72:F75)/4</f>
@@ -5234,60 +5226,789 @@
       </c>
       <c r="H76" s="8">
         <f t="shared" ref="H76" si="33">SUM(H72:H75)/4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" ref="I76" si="34">SUM(I72:I75)/4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J76" s="8">
         <f t="shared" ref="J76" si="35">SUM(J72:J75)/4</f>
         <v>3.25</v>
       </c>
-      <c r="K76" s="42">
+      <c r="K76" s="8">
         <f t="shared" ref="K76" si="36">SUM(K72:K75)/4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L76" s="8">
         <f t="shared" ref="L76" si="37">SUM(L72:L75)/4</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="42">
+        <v>5</v>
+      </c>
+      <c r="M76" s="8">
         <f t="shared" ref="M76" si="38">SUM(M72:M75)/4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N76" s="8">
         <f t="shared" ref="N76" si="39">SUM(N72:N75)/4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" ref="O76" si="40">SUM(O72:O75)/4</f>
-        <v>0</v>
+        <f t="shared" ref="O76:P76" si="40">SUM(O72:O75)/4</f>
+        <v>5</v>
       </c>
       <c r="P76" s="8">
-        <f t="shared" ref="P76" si="41">SUM(P72:P75)/4</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1.5</v>
       </c>
       <c r="Q76" s="8">
-        <f t="shared" ref="Q76" si="42">SUM(Q72:Q75)/4</f>
-        <v>2.5</v>
+        <f t="shared" ref="Q76" si="41">SUM(Q72:Q75)/4</f>
+        <v>5</v>
       </c>
       <c r="R76" s="8">
-        <f t="shared" ref="R76" si="43">SUM(R72:R75)/4</f>
-        <v>0</v>
-      </c>
-      <c r="S76" s="42">
-        <f t="shared" ref="S76" si="44">SUM(S72:S75)/4</f>
-        <v>0</v>
+        <f t="shared" ref="R76" si="42">SUM(R72:R75)/4</f>
+        <v>5</v>
+      </c>
+      <c r="S76" s="8">
+        <f t="shared" ref="S76" si="43">SUM(S72:S75)/4</f>
+        <v>5</v>
       </c>
       <c r="T76" s="8">
-        <f t="shared" ref="T76" si="45">SUM(T72:T75)/4</f>
-        <v>0</v>
+        <f t="shared" ref="T76" si="44">SUM(T72:T75)/4</f>
+        <v>5</v>
       </c>
       <c r="U76" s="8">
-        <f t="shared" ref="U76" si="46">SUM(U72:U75)/4</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="U76" si="45">SUM(U72:U75)/4</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P77"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P78"/>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P79"/>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P80"/>
+    </row>
+    <row r="81" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P81"/>
+    </row>
+    <row r="82" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P82"/>
+    </row>
+    <row r="83" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P83"/>
+    </row>
+    <row r="84" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P84"/>
+    </row>
+    <row r="85" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P85"/>
+    </row>
+    <row r="86" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P86"/>
+    </row>
+    <row r="87" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P87"/>
+    </row>
+    <row r="88" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P88"/>
+    </row>
+    <row r="89" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P89"/>
+    </row>
+    <row r="90" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P90"/>
+    </row>
+    <row r="91" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P91"/>
+    </row>
+    <row r="92" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P92"/>
+    </row>
+    <row r="93" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P93"/>
+    </row>
+    <row r="94" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P94"/>
+    </row>
+    <row r="95" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P95"/>
+    </row>
+    <row r="96" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P96"/>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P97"/>
+    </row>
+    <row r="98" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P98"/>
+    </row>
+    <row r="99" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P99"/>
+    </row>
+    <row r="100" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P100"/>
+    </row>
+    <row r="101" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P101"/>
+    </row>
+    <row r="102" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P102"/>
+    </row>
+    <row r="103" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P103"/>
+    </row>
+    <row r="104" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P104"/>
+    </row>
+    <row r="105" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P105"/>
+    </row>
+    <row r="106" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P106"/>
+    </row>
+    <row r="107" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P107"/>
+    </row>
+    <row r="108" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P108"/>
+    </row>
+    <row r="109" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P109"/>
+    </row>
+    <row r="110" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P110"/>
+    </row>
+    <row r="111" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P111"/>
+    </row>
+    <row r="112" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P112"/>
+    </row>
+    <row r="113" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P113"/>
+    </row>
+    <row r="114" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P114"/>
+    </row>
+    <row r="115" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P115"/>
+    </row>
+    <row r="116" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P116"/>
+    </row>
+    <row r="117" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P117"/>
+    </row>
+    <row r="118" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P118"/>
+    </row>
+    <row r="119" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P119"/>
+    </row>
+    <row r="120" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P120"/>
+    </row>
+    <row r="121" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P121"/>
+    </row>
+    <row r="122" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P122"/>
+    </row>
+    <row r="123" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P123"/>
+    </row>
+    <row r="124" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P124"/>
+    </row>
+    <row r="125" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P125"/>
+    </row>
+    <row r="126" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P126"/>
+    </row>
+    <row r="127" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P127"/>
+    </row>
+    <row r="128" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P128"/>
+    </row>
+    <row r="129" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P129"/>
+    </row>
+    <row r="130" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P130"/>
+    </row>
+    <row r="131" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P131"/>
+    </row>
+    <row r="132" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P132"/>
+    </row>
+    <row r="133" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P133"/>
+    </row>
+    <row r="134" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P134"/>
+    </row>
+    <row r="135" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P135"/>
+    </row>
+    <row r="136" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P136"/>
+    </row>
+    <row r="137" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P137"/>
+    </row>
+    <row r="138" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P138"/>
+    </row>
+    <row r="139" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P139"/>
+    </row>
+    <row r="140" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P140"/>
+    </row>
+    <row r="141" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P141"/>
+    </row>
+    <row r="142" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P142"/>
+    </row>
+    <row r="143" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P143"/>
+    </row>
+    <row r="144" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P144"/>
+    </row>
+    <row r="145" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P145"/>
+    </row>
+    <row r="146" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P146"/>
+    </row>
+    <row r="147" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P147"/>
+    </row>
+    <row r="148" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P148"/>
+    </row>
+    <row r="149" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P149"/>
+    </row>
+    <row r="150" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P150"/>
+    </row>
+    <row r="151" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P151"/>
+    </row>
+    <row r="152" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P152"/>
+    </row>
+    <row r="153" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P153"/>
+    </row>
+    <row r="154" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P154"/>
+    </row>
+    <row r="155" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P155"/>
+    </row>
+    <row r="156" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P156"/>
+    </row>
+    <row r="157" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P157"/>
+    </row>
+    <row r="158" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P158"/>
+    </row>
+    <row r="159" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P159"/>
+    </row>
+    <row r="160" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P160"/>
+    </row>
+    <row r="161" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P161"/>
+    </row>
+    <row r="162" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P162"/>
+    </row>
+    <row r="163" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P163"/>
+    </row>
+    <row r="164" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P164"/>
+    </row>
+    <row r="165" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P165"/>
+    </row>
+    <row r="166" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P166"/>
+    </row>
+    <row r="167" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P167"/>
+    </row>
+    <row r="168" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P168"/>
+    </row>
+    <row r="169" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P169"/>
+    </row>
+    <row r="170" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P170"/>
+    </row>
+    <row r="171" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P171"/>
+    </row>
+    <row r="172" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P172"/>
+    </row>
+    <row r="173" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P173"/>
+    </row>
+    <row r="174" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P174"/>
+    </row>
+    <row r="175" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P175"/>
+    </row>
+    <row r="176" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P176"/>
+    </row>
+    <row r="177" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P177"/>
+    </row>
+    <row r="178" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P178"/>
+    </row>
+    <row r="179" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P179"/>
+    </row>
+    <row r="180" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P180"/>
+    </row>
+    <row r="181" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P181"/>
+    </row>
+    <row r="182" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P182"/>
+    </row>
+    <row r="183" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P183"/>
+    </row>
+    <row r="184" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P184"/>
+    </row>
+    <row r="185" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P185"/>
+    </row>
+    <row r="186" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P186"/>
+    </row>
+    <row r="187" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P187"/>
+    </row>
+    <row r="188" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P188"/>
+    </row>
+    <row r="189" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P189"/>
+    </row>
+    <row r="190" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P190"/>
+    </row>
+    <row r="191" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P191"/>
+    </row>
+    <row r="192" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P192"/>
+    </row>
+    <row r="193" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P193"/>
+    </row>
+    <row r="194" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P194"/>
+    </row>
+    <row r="195" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P195"/>
+    </row>
+    <row r="196" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P196"/>
+    </row>
+    <row r="197" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P197"/>
+    </row>
+    <row r="198" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P198"/>
+    </row>
+    <row r="199" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P199"/>
+    </row>
+    <row r="200" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P200"/>
+    </row>
+    <row r="201" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P201"/>
+    </row>
+    <row r="202" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P202"/>
+    </row>
+    <row r="203" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P203"/>
+    </row>
+    <row r="204" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P204"/>
+    </row>
+    <row r="205" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P205"/>
+    </row>
+    <row r="206" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P206"/>
+    </row>
+    <row r="207" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P207"/>
+    </row>
+    <row r="208" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P208"/>
+    </row>
+    <row r="209" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P209"/>
+    </row>
+    <row r="210" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P210"/>
+    </row>
+    <row r="211" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P211"/>
+    </row>
+    <row r="212" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P212"/>
+    </row>
+    <row r="213" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P213"/>
+    </row>
+    <row r="214" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P214"/>
+    </row>
+    <row r="215" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P215"/>
+    </row>
+    <row r="216" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P216"/>
+    </row>
+    <row r="217" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P217"/>
+    </row>
+    <row r="218" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P218"/>
+    </row>
+    <row r="219" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P219"/>
+    </row>
+    <row r="220" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P220"/>
+    </row>
+    <row r="221" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P221"/>
+    </row>
+    <row r="222" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P222"/>
+    </row>
+    <row r="223" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P223"/>
+    </row>
+    <row r="224" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P224"/>
+    </row>
+    <row r="225" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P225"/>
+    </row>
+    <row r="226" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P226"/>
+    </row>
+    <row r="227" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P227"/>
+    </row>
+    <row r="228" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P228"/>
+    </row>
+    <row r="229" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P229"/>
+    </row>
+    <row r="230" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P230"/>
+    </row>
+    <row r="231" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P231"/>
+    </row>
+    <row r="232" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P232"/>
+    </row>
+    <row r="233" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P233"/>
+    </row>
+    <row r="234" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P234"/>
+    </row>
+    <row r="235" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P235"/>
+    </row>
+    <row r="236" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P236"/>
+    </row>
+    <row r="237" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P237"/>
+    </row>
+    <row r="238" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P238"/>
+    </row>
+    <row r="239" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P239"/>
+    </row>
+    <row r="240" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P240"/>
+    </row>
+    <row r="241" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P241"/>
+    </row>
+    <row r="242" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P242"/>
+    </row>
+    <row r="243" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P243"/>
+    </row>
+    <row r="244" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P244"/>
+    </row>
+    <row r="245" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P245"/>
+    </row>
+    <row r="246" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P246"/>
+    </row>
+    <row r="247" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P247"/>
+    </row>
+    <row r="248" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P248"/>
+    </row>
+    <row r="249" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P249"/>
+    </row>
+    <row r="250" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P250"/>
+    </row>
+    <row r="251" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P251"/>
+    </row>
+    <row r="252" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P252"/>
+    </row>
+    <row r="253" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P253"/>
+    </row>
+    <row r="254" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P254"/>
+    </row>
+    <row r="255" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P255"/>
+    </row>
+    <row r="256" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P256"/>
+    </row>
+    <row r="257" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P257"/>
+    </row>
+    <row r="258" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P258"/>
+    </row>
+    <row r="259" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P259"/>
+    </row>
+    <row r="260" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P260"/>
+    </row>
+    <row r="261" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P261"/>
+    </row>
+    <row r="262" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P262"/>
+    </row>
+    <row r="263" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P263"/>
+    </row>
+    <row r="264" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P264"/>
+    </row>
+    <row r="265" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P265"/>
+    </row>
+    <row r="266" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P266"/>
+    </row>
+    <row r="267" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P267"/>
+    </row>
+    <row r="268" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P268"/>
+    </row>
+    <row r="269" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P269"/>
+    </row>
+    <row r="270" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P270"/>
+    </row>
+    <row r="271" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P271"/>
+    </row>
+    <row r="272" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P272"/>
+    </row>
+    <row r="273" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P273"/>
+    </row>
+    <row r="274" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P274"/>
+    </row>
+    <row r="275" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P275"/>
+    </row>
+    <row r="276" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P276"/>
+    </row>
+    <row r="277" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P277"/>
+    </row>
+    <row r="278" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P278"/>
+    </row>
+    <row r="279" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P279"/>
+    </row>
+    <row r="280" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P280"/>
+    </row>
+    <row r="281" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P281"/>
+    </row>
+    <row r="282" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P282"/>
+    </row>
+    <row r="283" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P283"/>
+    </row>
+    <row r="284" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P284"/>
+    </row>
+    <row r="285" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P285"/>
+    </row>
+    <row r="286" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P286"/>
+    </row>
+    <row r="287" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P287"/>
+    </row>
+    <row r="288" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P288"/>
+    </row>
+    <row r="289" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P289"/>
+    </row>
+    <row r="290" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P290"/>
+    </row>
+    <row r="291" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P291"/>
+    </row>
+    <row r="292" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P292"/>
+    </row>
+    <row r="293" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P293"/>
+    </row>
+    <row r="294" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P294"/>
+    </row>
+    <row r="295" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P295"/>
+    </row>
+    <row r="296" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P296"/>
+    </row>
+    <row r="297" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P297"/>
+    </row>
+    <row r="298" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P298"/>
+    </row>
+    <row r="299" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P299"/>
+    </row>
+    <row r="300" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P300"/>
+    </row>
+    <row r="301" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P301"/>
+    </row>
+    <row r="302" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P302"/>
+    </row>
+    <row r="303" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P303"/>
+    </row>
+    <row r="304" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P304"/>
+    </row>
+    <row r="305" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P305"/>
+    </row>
+    <row r="306" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P306"/>
+    </row>
+    <row r="307" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P307"/>
+    </row>
+    <row r="308" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P308"/>
+    </row>
+    <row r="309" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P309"/>
+    </row>
+    <row r="310" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P310"/>
+    </row>
+    <row r="311" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P311"/>
+    </row>
+    <row r="312" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P312"/>
+    </row>
+    <row r="313" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P313"/>
+    </row>
+    <row r="314" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P314"/>
+    </row>
+    <row r="315" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P315"/>
+    </row>
+    <row r="316" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P316"/>
+    </row>
+    <row r="317" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P317"/>
+    </row>
+    <row r="318" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P318"/>
+    </row>
+    <row r="319" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P319"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5298,8 +6019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5311,148 +6032,148 @@
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="T3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="B5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="19">
         <f>(C19+C24+C28+C35+C41+C47+C50+C52+C9)/9</f>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="D5" s="20">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19">
         <f t="shared" ref="D5:U5" si="0">(D19+D24+D28+D35+D41+D47+D50+D52+D9)/9</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>3.0277777777777777</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>3.8194444444444446</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L5" s="19">
         <f t="shared" si="0"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="I5" s="20">
+      <c r="M5" s="19">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="J5" s="20">
+        <v>5</v>
+      </c>
+      <c r="N5" s="19">
         <f t="shared" si="0"/>
-        <v>2.0555555555555554</v>
-      </c>
-      <c r="K5" s="20">
+        <v>5</v>
+      </c>
+      <c r="O5" s="19">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L5" s="20">
+        <v>4.7222222222222223</v>
+      </c>
+      <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="M5" s="20">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q5" s="19">
         <f t="shared" si="0"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="N5" s="20">
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="R5" s="19">
         <f t="shared" si="0"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="O5" s="20">
+        <v>5</v>
+      </c>
+      <c r="S5" s="19">
         <f t="shared" si="0"/>
-        <v>3.6111111111111112</v>
-      </c>
-      <c r="P5" s="20">
+        <v>4.8055555555555554</v>
+      </c>
+      <c r="T5" s="19">
         <f t="shared" si="0"/>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="Q5" s="20">
+        <v>3.8611111111111112</v>
+      </c>
+      <c r="U5" s="19">
         <f t="shared" si="0"/>
-        <v>3.2222222222222223</v>
-      </c>
-      <c r="R5" s="20">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="S5" s="20">
-        <f t="shared" si="0"/>
-        <v>3.6944444444444446</v>
-      </c>
-      <c r="T5" s="20">
-        <f t="shared" si="0"/>
-        <v>2.1944444444444446</v>
-      </c>
-      <c r="U5" s="20">
-        <f t="shared" si="0"/>
-        <v>1.1111111111111112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.2">
@@ -5516,7 +6237,7 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
@@ -5635,11 +6356,13 @@
       <c r="T9" s="9">
         <v>5</v>
       </c>
-      <c r="U9" s="9"/>
+      <c r="U9" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -5663,7 +6386,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="17">
         <v>5</v>
@@ -5705,7 +6428,7 @@
         <v>5</v>
       </c>
       <c r="P11" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="17">
         <v>5</v>
@@ -5725,7 +6448,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="17">
         <v>5</v>
@@ -5767,7 +6490,7 @@
         <v>5</v>
       </c>
       <c r="P12" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="17">
         <v>5</v>
@@ -5787,7 +6510,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="17">
         <v>5</v>
@@ -5829,7 +6552,7 @@
         <v>5</v>
       </c>
       <c r="P13" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="17">
         <v>5</v>
@@ -5843,13 +6566,13 @@
       <c r="T13" s="17">
         <v>5</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="17">
         <v>5</v>
@@ -5891,7 +6614,7 @@
         <v>5</v>
       </c>
       <c r="P14" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="17">
         <v>5</v>
@@ -5905,13 +6628,13 @@
       <c r="T14" s="17">
         <v>5</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="17">
         <v>5</v>
@@ -5953,7 +6676,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="17">
         <v>5</v>
@@ -5967,13 +6690,13 @@
       <c r="T15" s="17">
         <v>5</v>
       </c>
-      <c r="U15" s="18">
+      <c r="U15" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="17">
         <v>5</v>
@@ -6015,7 +6738,7 @@
         <v>5</v>
       </c>
       <c r="P16" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="17">
         <v>5</v>
@@ -6029,13 +6752,13 @@
       <c r="T16" s="17">
         <v>5</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="17">
         <v>5</v>
@@ -6077,7 +6800,7 @@
         <v>5</v>
       </c>
       <c r="P17" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="17">
         <v>5</v>
@@ -6091,13 +6814,13 @@
       <c r="T17" s="17">
         <v>5</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="17">
         <v>5</v>
@@ -6139,7 +6862,7 @@
         <v>5</v>
       </c>
       <c r="P18" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="17">
         <v>5</v>
@@ -6153,7 +6876,7 @@
       <c r="T18" s="17">
         <v>5</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="17">
         <v>5</v>
       </c>
     </row>
@@ -6215,7 +6938,7 @@
       </c>
       <c r="P19" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="1"/>
@@ -6240,7 +6963,7 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -6260,11 +6983,11 @@
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="18"/>
+      <c r="U20" s="17"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="17">
         <v>5</v>
@@ -6326,7 +7049,7 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="17">
         <v>5</v>
@@ -6388,7 +7111,7 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="17">
         <v>5</v>
@@ -6531,7 +7254,7 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -6555,7 +7278,7 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="17">
         <v>5</v>
@@ -6612,12 +7335,12 @@
         <v>1</v>
       </c>
       <c r="U26" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="17">
         <v>5</v>
@@ -6674,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
@@ -6754,13 +7477,12 @@
         <v>0.5</v>
       </c>
       <c r="U28" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -6784,7 +7506,7 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="17">
         <v>5</v>
@@ -6807,14 +7529,14 @@
       <c r="I30" s="17">
         <v>5</v>
       </c>
-      <c r="J30" s="42">
-        <v>0</v>
+      <c r="J30" s="17">
+        <v>5</v>
       </c>
       <c r="K30" s="17">
         <v>5</v>
       </c>
-      <c r="L30" s="42">
-        <v>0</v>
+      <c r="L30" s="17">
+        <v>5</v>
       </c>
       <c r="M30" s="17">
         <v>5</v>
@@ -6837,16 +7559,16 @@
       <c r="S30" s="17">
         <v>5</v>
       </c>
-      <c r="T30" s="42">
-        <v>0</v>
+      <c r="T30" s="17">
+        <v>5</v>
       </c>
       <c r="U30" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="17">
         <v>5</v>
@@ -6869,14 +7591,14 @@
       <c r="I31" s="17">
         <v>5</v>
       </c>
-      <c r="J31" s="42">
-        <v>0</v>
+      <c r="J31" s="17">
+        <v>5</v>
       </c>
       <c r="K31" s="17">
         <v>5</v>
       </c>
-      <c r="L31" s="42">
-        <v>0</v>
+      <c r="L31" s="17">
+        <v>5</v>
       </c>
       <c r="M31" s="17">
         <v>5</v>
@@ -6899,16 +7621,16 @@
       <c r="S31" s="17">
         <v>5</v>
       </c>
-      <c r="T31" s="42">
-        <v>0</v>
+      <c r="T31" s="17">
+        <v>5</v>
       </c>
       <c r="U31" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="17">
         <v>5</v>
@@ -6931,14 +7653,14 @@
       <c r="I32" s="17">
         <v>5</v>
       </c>
-      <c r="J32" s="42">
-        <v>0</v>
+      <c r="J32" s="17">
+        <v>5</v>
       </c>
       <c r="K32" s="17">
         <v>5</v>
       </c>
-      <c r="L32" s="42">
-        <v>0</v>
+      <c r="L32" s="17">
+        <v>5</v>
       </c>
       <c r="M32" s="17">
         <v>5</v>
@@ -6961,16 +7683,16 @@
       <c r="S32" s="17">
         <v>5</v>
       </c>
-      <c r="T32" s="42">
-        <v>0</v>
+      <c r="T32" s="17">
+        <v>5</v>
       </c>
       <c r="U32" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="17">
         <v>5</v>
@@ -6993,14 +7715,14 @@
       <c r="I33" s="17">
         <v>5</v>
       </c>
-      <c r="J33" s="42">
-        <v>0</v>
+      <c r="J33" s="17">
+        <v>5</v>
       </c>
       <c r="K33" s="17">
         <v>5</v>
       </c>
-      <c r="L33" s="42">
-        <v>0</v>
+      <c r="L33" s="17">
+        <v>5</v>
       </c>
       <c r="M33" s="17">
         <v>5</v>
@@ -7023,16 +7745,16 @@
       <c r="S33" s="17">
         <v>5</v>
       </c>
-      <c r="T33" s="42">
-        <v>0</v>
+      <c r="T33" s="17">
+        <v>5</v>
       </c>
       <c r="U33" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="17">
         <v>5</v>
@@ -7055,14 +7777,14 @@
       <c r="I34" s="17">
         <v>5</v>
       </c>
-      <c r="J34" s="42">
-        <v>0</v>
+      <c r="J34" s="17">
+        <v>5</v>
       </c>
       <c r="K34" s="17">
         <v>5</v>
       </c>
-      <c r="L34" s="42">
-        <v>0</v>
+      <c r="L34" s="17">
+        <v>5</v>
       </c>
       <c r="M34" s="17">
         <v>5</v>
@@ -7085,11 +7807,11 @@
       <c r="S34" s="17">
         <v>5</v>
       </c>
-      <c r="T34" s="42">
-        <v>0</v>
+      <c r="T34" s="17">
+        <v>5</v>
       </c>
       <c r="U34" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
@@ -7126,7 +7848,7 @@
       </c>
       <c r="J35" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K35" s="8">
         <f t="shared" si="4"/>
@@ -7134,7 +7856,7 @@
       </c>
       <c r="L35" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="4"/>
@@ -7166,16 +7888,16 @@
       </c>
       <c r="T35" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
-        <v>85</v>
+      <c r="B36" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -7199,7 +7921,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="17">
         <v>5</v>
@@ -7222,46 +7944,46 @@
       <c r="I37" s="17">
         <v>5</v>
       </c>
-      <c r="J37" s="42">
-        <v>0</v>
+      <c r="J37" s="17">
+        <v>5</v>
       </c>
       <c r="K37" s="17">
         <v>5</v>
       </c>
-      <c r="L37" s="42">
-        <v>0</v>
+      <c r="L37" s="17">
+        <v>5</v>
       </c>
       <c r="M37" s="17">
         <v>5</v>
       </c>
       <c r="N37" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O37" s="17">
         <v>5</v>
       </c>
       <c r="P37" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="17">
         <v>4</v>
       </c>
       <c r="R37" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S37" s="17">
         <v>5</v>
       </c>
-      <c r="T37" s="42">
-        <v>0</v>
+      <c r="T37" s="17">
+        <v>5</v>
       </c>
       <c r="U37" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="17">
         <v>5</v>
@@ -7284,20 +8006,20 @@
       <c r="I38" s="17">
         <v>5</v>
       </c>
-      <c r="J38" s="42">
-        <v>0</v>
+      <c r="J38" s="17">
+        <v>5</v>
       </c>
       <c r="K38" s="17">
         <v>5</v>
       </c>
-      <c r="L38" s="42">
-        <v>0</v>
+      <c r="L38" s="17">
+        <v>5</v>
       </c>
       <c r="M38" s="17">
         <v>5</v>
       </c>
       <c r="N38" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O38" s="17">
         <v>5</v>
@@ -7309,21 +8031,21 @@
         <v>4</v>
       </c>
       <c r="R38" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S38" s="17">
         <v>5</v>
       </c>
-      <c r="T38" s="42">
-        <v>0</v>
+      <c r="T38" s="17">
+        <v>5</v>
       </c>
       <c r="U38" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="17">
         <v>5</v>
@@ -7346,20 +8068,20 @@
       <c r="I39" s="17">
         <v>5</v>
       </c>
-      <c r="J39" s="42">
-        <v>0</v>
+      <c r="J39" s="17">
+        <v>5</v>
       </c>
       <c r="K39" s="17">
         <v>5</v>
       </c>
-      <c r="L39" s="42">
-        <v>0</v>
+      <c r="L39" s="17">
+        <v>5</v>
       </c>
       <c r="M39" s="17">
         <v>5</v>
       </c>
       <c r="N39" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O39" s="17">
         <v>5</v>
@@ -7371,21 +8093,21 @@
         <v>4</v>
       </c>
       <c r="R39" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S39" s="17">
         <v>5</v>
       </c>
-      <c r="T39" s="42">
-        <v>0</v>
+      <c r="T39" s="17">
+        <v>5</v>
       </c>
       <c r="U39" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="17">
         <v>5</v>
@@ -7408,20 +8130,20 @@
       <c r="I40" s="17">
         <v>5</v>
       </c>
-      <c r="J40" s="42">
-        <v>0</v>
+      <c r="J40" s="17">
+        <v>5</v>
       </c>
       <c r="K40" s="17">
         <v>5</v>
       </c>
-      <c r="L40" s="42">
-        <v>0</v>
+      <c r="L40" s="17">
+        <v>5</v>
       </c>
       <c r="M40" s="17">
         <v>5</v>
       </c>
       <c r="N40" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O40" s="17">
         <v>5</v>
@@ -7433,16 +8155,16 @@
         <v>4</v>
       </c>
       <c r="R40" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S40" s="17">
         <v>5</v>
       </c>
-      <c r="T40" s="42">
-        <v>0</v>
+      <c r="T40" s="17">
+        <v>5</v>
       </c>
       <c r="U40" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
@@ -7478,8 +8200,7 @@
         <v>5</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K41" s="8">
         <f t="shared" si="5"/>
@@ -7487,7 +8208,7 @@
       </c>
       <c r="L41" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M41" s="8">
         <f t="shared" si="5"/>
@@ -7495,7 +8216,7 @@
       </c>
       <c r="N41" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="5"/>
@@ -7503,7 +8224,7 @@
       </c>
       <c r="P41" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="8">
         <f t="shared" si="5"/>
@@ -7511,7 +8232,7 @@
       </c>
       <c r="R41" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S41" s="8">
         <f t="shared" si="5"/>
@@ -7519,16 +8240,16 @@
       </c>
       <c r="T41" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U41" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -7552,7 +8273,7 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="17">
         <v>5</v>
@@ -7575,32 +8296,32 @@
       <c r="I43" s="17">
         <v>5</v>
       </c>
-      <c r="J43" s="42">
-        <v>0</v>
+      <c r="J43" s="17">
+        <v>5</v>
       </c>
       <c r="K43" s="17">
         <v>0</v>
       </c>
-      <c r="L43" s="42">
-        <v>0</v>
+      <c r="L43" s="17">
+        <v>5</v>
       </c>
       <c r="M43" s="17">
         <v>5</v>
       </c>
       <c r="N43" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O43" s="17">
         <v>5</v>
       </c>
       <c r="P43" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>5</v>
       </c>
       <c r="R43" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S43" s="17">
         <v>5</v>
@@ -7609,12 +8330,12 @@
         <v>5</v>
       </c>
       <c r="U43" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="17">
         <v>5</v>
@@ -7637,32 +8358,32 @@
       <c r="I44" s="17">
         <v>5</v>
       </c>
-      <c r="J44" s="42">
-        <v>0</v>
+      <c r="J44" s="17">
+        <v>5</v>
       </c>
       <c r="K44" s="17">
         <v>0</v>
       </c>
-      <c r="L44" s="42">
-        <v>0</v>
+      <c r="L44" s="17">
+        <v>5</v>
       </c>
       <c r="M44" s="17">
         <v>5</v>
       </c>
       <c r="N44" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O44" s="17">
         <v>5</v>
       </c>
       <c r="P44" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Q44" s="17">
+        <v>5</v>
       </c>
       <c r="R44" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S44" s="17">
         <v>5</v>
@@ -7671,12 +8392,12 @@
         <v>4</v>
       </c>
       <c r="U44" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="17">
         <v>5</v>
@@ -7699,20 +8420,20 @@
       <c r="I45" s="17">
         <v>5</v>
       </c>
-      <c r="J45" s="42">
-        <v>0</v>
+      <c r="J45" s="17">
+        <v>5</v>
       </c>
       <c r="K45" s="17">
         <v>0</v>
       </c>
-      <c r="L45" s="42">
-        <v>0</v>
+      <c r="L45" s="17">
+        <v>5</v>
       </c>
       <c r="M45" s="17">
         <v>5</v>
       </c>
       <c r="N45" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O45" s="17">
         <v>3</v>
@@ -7720,11 +8441,11 @@
       <c r="P45" s="17">
         <v>0</v>
       </c>
-      <c r="Q45" s="42">
-        <v>0</v>
+      <c r="Q45" s="17">
+        <v>5</v>
       </c>
       <c r="R45" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S45" s="17">
         <v>5</v>
@@ -7733,12 +8454,12 @@
         <v>4</v>
       </c>
       <c r="U45" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="17">
         <v>5</v>
@@ -7761,20 +8482,20 @@
       <c r="I46" s="17">
         <v>5</v>
       </c>
-      <c r="J46" s="42">
-        <v>0</v>
+      <c r="J46" s="17">
+        <v>5</v>
       </c>
       <c r="K46" s="17">
         <v>0</v>
       </c>
-      <c r="L46" s="42">
-        <v>0</v>
+      <c r="L46" s="17">
+        <v>5</v>
       </c>
       <c r="M46" s="17">
         <v>5</v>
       </c>
       <c r="N46" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O46" s="17">
         <v>3</v>
@@ -7782,11 +8503,11 @@
       <c r="P46" s="17">
         <v>0</v>
       </c>
-      <c r="Q46" s="42">
-        <v>0</v>
+      <c r="Q46" s="17">
+        <v>5</v>
       </c>
       <c r="R46" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S46" s="17">
         <v>2</v>
@@ -7795,7 +8516,7 @@
         <v>4</v>
       </c>
       <c r="U46" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
@@ -7830,8 +8551,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K47" s="8">
         <f t="shared" si="6"/>
@@ -7839,7 +8559,7 @@
       </c>
       <c r="L47" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M47" s="8">
         <f t="shared" si="6"/>
@@ -7847,7 +8567,7 @@
       </c>
       <c r="N47" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="6"/>
@@ -7855,15 +8575,15 @@
       </c>
       <c r="P47" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q47" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R47" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S47" s="8">
         <f t="shared" si="6"/>
@@ -7875,12 +8595,12 @@
       </c>
       <c r="U47" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -7904,7 +8624,7 @@
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="17">
         <v>5</v>
@@ -7923,10 +8643,10 @@
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17">
-        <v>0</v>
-      </c>
-      <c r="J49" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J49" s="17">
+        <v>5</v>
       </c>
       <c r="K49" s="17">
         <v>0</v>
@@ -7934,32 +8654,32 @@
       <c r="L49" s="17">
         <v>0</v>
       </c>
-      <c r="M49" s="42">
-        <v>0</v>
+      <c r="M49" s="17">
+        <v>5</v>
       </c>
       <c r="N49" s="17">
-        <v>0</v>
-      </c>
-      <c r="O49" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O49" s="17">
+        <v>5</v>
       </c>
       <c r="P49" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="42">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>5</v>
       </c>
       <c r="R49" s="17">
-        <v>0</v>
-      </c>
-      <c r="S49" s="42">
-        <v>0</v>
-      </c>
-      <c r="T49" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S49" s="17">
+        <v>5</v>
+      </c>
+      <c r="T49" s="17">
+        <v>5</v>
       </c>
       <c r="U49" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
@@ -7985,17 +8705,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H50" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="H50" s="8">
+        <v>5</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K50" s="8">
         <f t="shared" si="7"/>
@@ -8005,46 +8723,41 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M50" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="M50" s="8">
+        <v>5</v>
       </c>
       <c r="N50" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q50" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R50" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S50" s="8">
+        <v>5</v>
       </c>
       <c r="T50" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U50" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -8070,8 +8783,8 @@
       <c r="B52" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="42">
-        <v>0</v>
+      <c r="C52" s="8">
+        <v>5</v>
       </c>
       <c r="D52" s="8">
         <v>0</v>
@@ -8085,14 +8798,14 @@
       <c r="G52" s="8">
         <v>0</v>
       </c>
-      <c r="H52" s="42">
-        <v>0</v>
+      <c r="H52" s="8">
+        <v>5</v>
       </c>
       <c r="I52" s="8">
-        <v>0</v>
-      </c>
-      <c r="J52" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J52" s="8">
+        <v>5</v>
       </c>
       <c r="K52" s="8">
         <v>0</v>
@@ -8100,32 +8813,32 @@
       <c r="L52" s="8">
         <v>0</v>
       </c>
-      <c r="M52" s="42">
-        <v>0</v>
+      <c r="M52" s="8">
+        <v>5</v>
       </c>
       <c r="N52" s="8">
-        <v>0</v>
-      </c>
-      <c r="O52" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="O52" s="8">
+        <v>5</v>
       </c>
       <c r="P52" s="8">
         <v>0</v>
       </c>
-      <c r="Q52" s="42">
-        <v>0</v>
+      <c r="Q52" s="8">
+        <v>5</v>
       </c>
       <c r="R52" s="8">
-        <v>0</v>
-      </c>
-      <c r="S52" s="42">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S52" s="8">
+        <v>5</v>
       </c>
       <c r="T52" s="8">
         <v>0</v>
       </c>
       <c r="U52" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
@@ -8156,7 +8869,7 @@
       </c>
       <c r="C54" s="5">
         <f>SUM(C52+C50+C47+C41+C35+C28+C24+C19+C9)/9</f>
-        <v>4.4444444444444446</v>
+        <v>5</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" ref="D54:U54" si="8">SUM(D52+D50+D47+D41+D35+D28+D24+D19+D9)/9</f>
@@ -8176,15 +8889,15 @@
       </c>
       <c r="H54" s="5">
         <f t="shared" si="8"/>
-        <v>3.8888888888888888</v>
+        <v>5</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="J54" s="5">
         <f t="shared" si="8"/>
-        <v>2.0555555555555554</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="K54" s="5">
         <f t="shared" si="8"/>
@@ -8192,43 +8905,43 @@
       </c>
       <c r="L54" s="5">
         <f t="shared" si="8"/>
-        <v>2.2222222222222223</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="M54" s="5">
         <f t="shared" si="8"/>
-        <v>3.8888888888888888</v>
+        <v>5</v>
       </c>
       <c r="N54" s="5">
         <f t="shared" si="8"/>
-        <v>2.7777777777777777</v>
+        <v>5</v>
       </c>
       <c r="O54" s="5">
         <f t="shared" si="8"/>
-        <v>3.6111111111111112</v>
+        <v>4.7222222222222223</v>
       </c>
       <c r="P54" s="5">
         <f t="shared" si="8"/>
-        <v>0.3888888888888889</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="Q54" s="5">
         <f t="shared" si="8"/>
-        <v>3.2222222222222223</v>
+        <v>4.8888888888888893</v>
       </c>
       <c r="R54" s="5">
         <f t="shared" si="8"/>
-        <v>2.7777777777777777</v>
+        <v>5</v>
       </c>
       <c r="S54" s="5">
         <f t="shared" si="8"/>
-        <v>3.6944444444444446</v>
+        <v>4.8055555555555554</v>
       </c>
       <c r="T54" s="5">
         <f t="shared" si="8"/>
-        <v>2.1944444444444446</v>
+        <v>3.8611111111111112</v>
       </c>
       <c r="U54" s="5">
         <f t="shared" si="8"/>
-        <v>1.1111111111111112</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8240,8 +8953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
   <dimension ref="A5:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="94" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8300,7 +9013,7 @@
       <c r="Q5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="42" t="s">
         <v>18</v>
       </c>
       <c r="S5" s="13" t="s">
@@ -8309,15 +9022,15 @@
       <c r="T5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="36"/>
+      <c r="A6" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="34"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -8339,12 +9052,12 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>106</v>
-      </c>
       <c r="C7" s="17">
         <v>5</v>
       </c>
@@ -8385,13 +9098,13 @@
         <v>5</v>
       </c>
       <c r="P7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="17">
         <v>5</v>
       </c>
       <c r="R7" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="17">
         <v>5</v>
@@ -8400,13 +9113,13 @@
         <v>2.5</v>
       </c>
       <c r="U7" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="17">
         <v>5</v>
@@ -8448,7 +9161,7 @@
         <v>5</v>
       </c>
       <c r="P8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="17">
         <v>5</v>
@@ -8463,13 +9176,13 @@
         <v>4</v>
       </c>
       <c r="U8" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="17">
         <v>5</v>
@@ -8511,7 +9224,7 @@
         <v>5</v>
       </c>
       <c r="P9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="17">
         <v>5</v>
@@ -8526,13 +9239,13 @@
         <v>4</v>
       </c>
       <c r="U9" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="17">
         <v>5</v>
@@ -8574,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="17">
         <v>1</v>
@@ -8593,9 +9306,9 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="8">
         <f>(C8+C9+C10)/3</f>
@@ -8651,7 +9364,7 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="0"/>
@@ -8671,13 +9384,13 @@
       </c>
       <c r="U11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="17">
         <v>2.5</v>
@@ -8717,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="17">
         <v>4.5</v>
@@ -8732,13 +9445,13 @@
         <v>1</v>
       </c>
       <c r="U12" s="17">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="8">
         <f>(C7+C11+C12)/3</f>
@@ -8794,7 +9507,7 @@
       </c>
       <c r="P13" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="3"/>
@@ -8802,7 +9515,7 @@
       </c>
       <c r="R13" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="3"/>
@@ -8814,267 +9527,267 @@
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.2777777777777777</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="C14" s="25">
+        <v>5</v>
+      </c>
+      <c r="D14" s="25">
+        <v>5</v>
+      </c>
+      <c r="E14" s="25">
+        <v>5</v>
+      </c>
+      <c r="F14" s="25">
+        <v>5</v>
+      </c>
+      <c r="G14" s="25">
+        <v>5</v>
+      </c>
+      <c r="H14" s="25">
+        <v>5</v>
+      </c>
+      <c r="I14" s="25">
+        <v>5</v>
+      </c>
+      <c r="J14" s="25">
+        <v>5</v>
+      </c>
+      <c r="K14" s="25">
+        <v>5</v>
+      </c>
+      <c r="L14" s="25">
+        <v>5</v>
+      </c>
+      <c r="M14" s="25">
+        <v>5</v>
+      </c>
+      <c r="N14" s="25">
+        <v>5</v>
+      </c>
+      <c r="O14" s="25">
+        <v>5</v>
+      </c>
+      <c r="P14" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>5</v>
+      </c>
+      <c r="R14" s="25">
+        <v>5</v>
+      </c>
+      <c r="S14" s="25">
+        <v>5</v>
+      </c>
+      <c r="T14" s="25">
+        <v>5</v>
+      </c>
+      <c r="U14" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="26">
-        <v>5</v>
-      </c>
-      <c r="D14" s="26">
-        <v>5</v>
-      </c>
-      <c r="E14" s="26">
-        <v>5</v>
-      </c>
-      <c r="F14" s="26">
-        <v>5</v>
-      </c>
-      <c r="G14" s="26">
-        <v>5</v>
-      </c>
-      <c r="H14" s="26">
-        <v>5</v>
-      </c>
-      <c r="I14" s="26">
-        <v>5</v>
-      </c>
-      <c r="J14" s="26">
-        <v>5</v>
-      </c>
-      <c r="K14" s="26">
-        <v>5</v>
-      </c>
-      <c r="L14" s="26">
-        <v>5</v>
-      </c>
-      <c r="M14" s="26">
-        <v>5</v>
-      </c>
-      <c r="N14" s="26">
-        <v>5</v>
-      </c>
-      <c r="O14" s="26">
-        <v>5</v>
-      </c>
-      <c r="P14" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>5</v>
-      </c>
-      <c r="R14" s="26">
-        <v>0</v>
-      </c>
-      <c r="S14" s="26">
-        <v>5</v>
-      </c>
-      <c r="T14" s="26">
-        <v>5</v>
-      </c>
-      <c r="U14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="26" t="s">
+      <c r="C15" s="25">
+        <v>5</v>
+      </c>
+      <c r="D15" s="25">
+        <v>5</v>
+      </c>
+      <c r="E15" s="25">
+        <v>5</v>
+      </c>
+      <c r="F15" s="25">
+        <v>5</v>
+      </c>
+      <c r="G15" s="25">
+        <v>5</v>
+      </c>
+      <c r="H15" s="25">
+        <v>5</v>
+      </c>
+      <c r="I15" s="25">
+        <v>5</v>
+      </c>
+      <c r="J15" s="25">
+        <v>5</v>
+      </c>
+      <c r="K15" s="25">
+        <v>5</v>
+      </c>
+      <c r="L15" s="25">
+        <v>5</v>
+      </c>
+      <c r="M15" s="25">
+        <v>5</v>
+      </c>
+      <c r="N15" s="25">
+        <v>5</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>5</v>
+      </c>
+      <c r="R15" s="25">
+        <v>5</v>
+      </c>
+      <c r="S15" s="25">
+        <v>5</v>
+      </c>
+      <c r="T15" s="25">
+        <v>5</v>
+      </c>
+      <c r="U15" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="26">
-        <v>5</v>
-      </c>
-      <c r="D15" s="26">
-        <v>5</v>
-      </c>
-      <c r="E15" s="26">
-        <v>5</v>
-      </c>
-      <c r="F15" s="26">
-        <v>5</v>
-      </c>
-      <c r="G15" s="26">
-        <v>5</v>
-      </c>
-      <c r="H15" s="26">
-        <v>5</v>
-      </c>
-      <c r="I15" s="26">
-        <v>5</v>
-      </c>
-      <c r="J15" s="26">
-        <v>5</v>
-      </c>
-      <c r="K15" s="26">
-        <v>5</v>
-      </c>
-      <c r="L15" s="26">
-        <v>5</v>
-      </c>
-      <c r="M15" s="26">
-        <v>5</v>
-      </c>
-      <c r="N15" s="26">
-        <v>5</v>
-      </c>
-      <c r="O15" s="26">
-        <v>0</v>
-      </c>
-      <c r="P15" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>5</v>
-      </c>
-      <c r="R15" s="26">
-        <v>0</v>
-      </c>
-      <c r="S15" s="26">
-        <v>5</v>
-      </c>
-      <c r="T15" s="26">
-        <v>5</v>
-      </c>
-      <c r="U15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="26" t="s">
+      <c r="C16" s="25">
+        <v>5</v>
+      </c>
+      <c r="D16" s="25">
+        <v>5</v>
+      </c>
+      <c r="E16" s="25">
+        <v>5</v>
+      </c>
+      <c r="F16" s="25">
+        <v>5</v>
+      </c>
+      <c r="G16" s="25">
+        <v>5</v>
+      </c>
+      <c r="H16" s="25">
+        <v>5</v>
+      </c>
+      <c r="I16" s="25">
+        <v>5</v>
+      </c>
+      <c r="J16" s="25">
+        <v>5</v>
+      </c>
+      <c r="K16" s="25">
+        <v>5</v>
+      </c>
+      <c r="L16" s="25">
+        <v>5</v>
+      </c>
+      <c r="M16" s="25">
+        <v>5</v>
+      </c>
+      <c r="N16" s="25">
+        <v>5</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>5</v>
+      </c>
+      <c r="R16" s="25">
+        <v>5</v>
+      </c>
+      <c r="S16" s="25">
+        <v>0</v>
+      </c>
+      <c r="T16" s="25">
+        <v>5</v>
+      </c>
+      <c r="U16" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="26">
-        <v>5</v>
-      </c>
-      <c r="D16" s="26">
-        <v>5</v>
-      </c>
-      <c r="E16" s="26">
-        <v>5</v>
-      </c>
-      <c r="F16" s="26">
-        <v>5</v>
-      </c>
-      <c r="G16" s="26">
-        <v>5</v>
-      </c>
-      <c r="H16" s="26">
-        <v>5</v>
-      </c>
-      <c r="I16" s="26">
-        <v>5</v>
-      </c>
-      <c r="J16" s="26">
-        <v>5</v>
-      </c>
-      <c r="K16" s="26">
-        <v>5</v>
-      </c>
-      <c r="L16" s="26">
-        <v>5</v>
-      </c>
-      <c r="M16" s="26">
-        <v>5</v>
-      </c>
-      <c r="N16" s="26">
-        <v>5</v>
-      </c>
-      <c r="O16" s="26">
-        <v>0</v>
-      </c>
-      <c r="P16" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="26">
-        <v>5</v>
-      </c>
-      <c r="R16" s="26">
-        <v>0</v>
-      </c>
-      <c r="S16" s="26">
-        <v>0</v>
-      </c>
-      <c r="T16" s="26">
-        <v>5</v>
-      </c>
-      <c r="U16" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="26" t="s">
+      <c r="C17" s="25">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25">
+        <v>5</v>
+      </c>
+      <c r="E17" s="25">
+        <v>5</v>
+      </c>
+      <c r="F17" s="25">
+        <v>5</v>
+      </c>
+      <c r="G17" s="25">
+        <v>5</v>
+      </c>
+      <c r="H17" s="25">
+        <v>5</v>
+      </c>
+      <c r="I17" s="25">
+        <v>5</v>
+      </c>
+      <c r="J17" s="25">
+        <v>5</v>
+      </c>
+      <c r="K17" s="25">
+        <v>5</v>
+      </c>
+      <c r="L17" s="25">
+        <v>5</v>
+      </c>
+      <c r="M17" s="25">
+        <v>5</v>
+      </c>
+      <c r="N17" s="25">
+        <v>5</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>5</v>
+      </c>
+      <c r="R17" s="25">
+        <v>5</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="25">
+        <v>5</v>
+      </c>
+      <c r="U17" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="C17" s="26">
-        <v>5</v>
-      </c>
-      <c r="D17" s="26">
-        <v>5</v>
-      </c>
-      <c r="E17" s="26">
-        <v>5</v>
-      </c>
-      <c r="F17" s="26">
-        <v>5</v>
-      </c>
-      <c r="G17" s="26">
-        <v>5</v>
-      </c>
-      <c r="H17" s="26">
-        <v>5</v>
-      </c>
-      <c r="I17" s="26">
-        <v>5</v>
-      </c>
-      <c r="J17" s="26">
-        <v>5</v>
-      </c>
-      <c r="K17" s="26">
-        <v>5</v>
-      </c>
-      <c r="L17" s="26">
-        <v>5</v>
-      </c>
-      <c r="M17" s="26">
-        <v>5</v>
-      </c>
-      <c r="N17" s="26">
-        <v>5</v>
-      </c>
-      <c r="O17" s="26">
-        <v>0</v>
-      </c>
-      <c r="P17" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>5</v>
-      </c>
-      <c r="R17" s="26">
-        <v>0</v>
-      </c>
-      <c r="S17" s="26">
-        <v>0</v>
-      </c>
-      <c r="T17" s="26">
-        <v>5</v>
-      </c>
-      <c r="U17" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="C18" s="17">
         <v>4</v>
@@ -9116,13 +9829,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="17">
         <v>0</v>
       </c>
       <c r="R18" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S18" s="17">
         <v>0</v>
@@ -9131,13 +9844,13 @@
         <v>5</v>
       </c>
       <c r="U18" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="8">
         <f>(C14+C15+C16+C17+C18)/5</f>
@@ -9193,7 +9906,7 @@
       </c>
       <c r="P19" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="6"/>
@@ -9201,7 +9914,7 @@
       </c>
       <c r="R19" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="6"/>
@@ -9213,148 +9926,148 @@
       </c>
       <c r="U19" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="20">
+      <c r="A20" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="19">
         <f>C13*0.7+C19*0.3</f>
         <v>4.3566666666666665</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <f t="shared" ref="D20:U20" si="9">D13*0.7+D19*0.3</f>
         <v>3.7555555555555551</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <f t="shared" si="9"/>
         <v>4.5722222222222211</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="19">
         <f t="shared" ref="F20" si="10">F13*0.7+F19*0.3</f>
         <v>5</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <f t="shared" ref="G20" si="11">G13*0.7+G19*0.3</f>
         <v>4.724444444444444</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <f t="shared" si="9"/>
         <v>4.5722222222222211</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <f t="shared" si="9"/>
         <v>4.8233333333333324</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="19">
         <f t="shared" si="9"/>
         <v>4.6111111111111107</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <f t="shared" si="9"/>
         <v>2.3666666666666667</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <f t="shared" si="9"/>
         <v>4.5422222222222217</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <f t="shared" si="9"/>
         <v>4.8833333333333329</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <f t="shared" si="9"/>
         <v>2.5555555555555549</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="19">
         <f t="shared" si="9"/>
         <v>4.2722222222222213</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="20">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="S20" s="19">
         <f t="shared" si="9"/>
         <v>2.2333333333333334</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="19">
         <f t="shared" si="9"/>
         <v>3.25</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.4944444444444436</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="6" t="s">
+      <c r="R21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S21" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="S21" s="6" t="s">
+      <c r="T21" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="T21" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="U21" s="46" t="s">
-        <v>128</v>
+      <c r="U21" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -9420,10 +10133,10 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="36"/>
+      <c r="A27" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="34"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -9445,11 +10158,11 @@
       <c r="U27" s="5"/>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>137</v>
+      <c r="A28" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="17">
         <v>5</v>
@@ -9458,7 +10171,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28" s="17">
         <v>5</v>
@@ -9470,22 +10183,22 @@
         <v>5</v>
       </c>
       <c r="I28" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" s="17">
         <v>5</v>
       </c>
       <c r="K28" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="17">
         <v>5</v>
       </c>
       <c r="N28" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O28" s="17">
         <v>4.5</v>
@@ -9497,22 +10210,22 @@
         <v>5</v>
       </c>
       <c r="R28" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S28" s="17">
         <v>2</v>
       </c>
       <c r="T28" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U28" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="37" t="s">
-        <v>138</v>
+      <c r="A29" s="31"/>
+      <c r="B29" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="C29" s="17">
         <v>5</v>
@@ -9521,7 +10234,7 @@
         <v>3.5</v>
       </c>
       <c r="E29" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="17">
         <v>3.5</v>
@@ -9533,22 +10246,22 @@
         <v>5</v>
       </c>
       <c r="I29" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" s="17">
         <v>3.5</v>
       </c>
       <c r="K29" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M29" s="17">
         <v>3.5</v>
       </c>
       <c r="N29" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O29" s="17">
         <v>4.5</v>
@@ -9560,22 +10273,22 @@
         <v>5</v>
       </c>
       <c r="R29" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S29" s="17">
         <v>2</v>
       </c>
       <c r="T29" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U29" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="17">
         <v>5</v>
@@ -9584,7 +10297,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30" s="17">
         <v>5</v>
@@ -9596,22 +10309,22 @@
         <v>5</v>
       </c>
       <c r="I30" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" s="17">
         <v>5</v>
       </c>
       <c r="K30" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30" s="17">
         <v>5</v>
       </c>
       <c r="N30" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O30" s="17">
         <v>3</v>
@@ -9623,22 +10336,22 @@
         <v>5</v>
       </c>
       <c r="R30" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30" s="17">
         <v>2</v>
       </c>
       <c r="T30" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U30" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="17">
         <v>0</v>
@@ -9647,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="17">
         <v>0</v>
@@ -9686,7 +10399,7 @@
         <v>2</v>
       </c>
       <c r="R31" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S31" s="17">
         <v>0</v>
@@ -9695,154 +10408,154 @@
         <v>0</v>
       </c>
       <c r="U31" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="41">
+      <c r="A32" s="31"/>
+      <c r="B32" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="39">
         <f>C28*0.3+C29*0.2+C30*0.25+C31*0.25</f>
         <v>3.75</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="39">
         <f t="shared" ref="D32:S32" si="12">D28*0.3+D29*0.2+D30*0.25+D31*0.25</f>
         <v>3.45</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="41">
+        <v>4.75</v>
+      </c>
+      <c r="F32" s="39">
         <f t="shared" si="12"/>
         <v>3.45</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="39">
         <f t="shared" ref="G32" si="13">G28*0.3+G29*0.2+G30*0.25+G31*0.25</f>
         <v>0</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="39">
         <f t="shared" ref="H32" si="14">H28*0.3+H29*0.2+H30*0.25+H31*0.25</f>
         <v>5</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="39">
         <f t="shared" ref="I32" si="15">I28*0.3+I29*0.2+I30*0.25+I31*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="41">
+        <v>3.75</v>
+      </c>
+      <c r="J32" s="39">
         <f t="shared" ref="J32" si="16">J28*0.3+J29*0.2+J30*0.25+J31*0.25</f>
         <v>4.3250000000000002</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="39">
         <f t="shared" ref="K32" si="17">K28*0.3+K29*0.2+K30*0.25+K31*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="41">
+        <v>3.75</v>
+      </c>
+      <c r="L32" s="39">
         <f t="shared" ref="L32" si="18">L28*0.3+L29*0.2+L30*0.25+L31*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="41">
+        <v>3.75</v>
+      </c>
+      <c r="M32" s="39">
         <f t="shared" ref="M32" si="19">M28*0.3+M29*0.2+M30*0.25+M31*0.25</f>
         <v>3.45</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="39">
         <f t="shared" ref="N32" si="20">N28*0.3+N29*0.2+N30*0.25+N31*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="41">
+        <v>3.75</v>
+      </c>
+      <c r="O32" s="39">
         <f t="shared" ref="O32" si="21">O28*0.3+O29*0.2+O30*0.25+O31*0.25</f>
         <v>3</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="39">
         <f t="shared" ref="P32" si="22">P28*0.3+P29*0.2+P30*0.25+P31*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="39">
         <f t="shared" ref="Q32" si="23">Q28*0.3+Q29*0.2+Q30*0.25+Q31*0.25</f>
         <v>4.25</v>
       </c>
-      <c r="R32" s="41">
+      <c r="R32" s="39">
         <f t="shared" ref="R32" si="24">R28*0.3+R29*0.2+R30*0.25+R31*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="41">
+        <v>3.4</v>
+      </c>
+      <c r="S32" s="39">
         <f t="shared" ref="S32" si="25">S28*0.3+S29*0.2+S30*0.25+S31*0.25</f>
         <v>1.5</v>
       </c>
-      <c r="T32" s="41">
+      <c r="T32" s="39">
         <f t="shared" ref="T32" si="26">T28*0.3+T29*0.2+T30*0.25+T31*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="41">
+        <v>3.75</v>
+      </c>
+      <c r="U32" s="39">
         <f t="shared" ref="U32" si="27">U28*0.3+U29*0.2+U30*0.25+U31*0.25</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="356" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="C33" s="40" t="s">
+      <c r="A33" s="32"/>
+      <c r="C33" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="39" t="s">
+      <c r="I33" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="M33" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="H33" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="39" t="s">
+      <c r="N33" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="P33" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="L33" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="N33" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="O33" s="39" t="s">
+      <c r="Q33" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="R33" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="S33" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="Q33" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="R33" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="S33" s="39" t="s">
+      <c r="T33" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="T33" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="U33" s="44" t="s">
-        <v>147</v>
+      <c r="U33" s="38" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
     </row>
     <row r="35" spans="1:21" ht="121" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
@@ -9859,10 +10572,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
-  <dimension ref="C6:V17"/>
+  <dimension ref="C6:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="G1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9872,7 +10585,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="G6" s="43"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
@@ -9936,478 +10649,599 @@
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="29">
+        <v>99</v>
+      </c>
+      <c r="D8" s="27">
         <v>4.5</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <v>4.5</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <v>4</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H8" s="29">
-        <v>0</v>
-      </c>
-      <c r="I8" s="29">
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
         <v>3.5</v>
       </c>
-      <c r="J8" s="29">
-        <v>0</v>
-      </c>
-      <c r="K8" s="29">
+      <c r="J8" s="27">
         <v>3</v>
       </c>
-      <c r="L8" s="29">
+      <c r="K8" s="27">
+        <v>3</v>
+      </c>
+      <c r="L8" s="27">
         <v>4</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="27">
         <v>3</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="27">
         <v>4.5</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P8" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="29">
-        <v>0</v>
-      </c>
-      <c r="R8" s="29">
-        <v>5</v>
-      </c>
-      <c r="S8" s="29">
-        <v>0</v>
-      </c>
-      <c r="T8" s="29">
+      <c r="P8" s="27">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>3</v>
+      </c>
+      <c r="R8" s="27">
+        <v>5</v>
+      </c>
+      <c r="S8" s="27">
+        <v>3</v>
+      </c>
+      <c r="T8" s="27">
         <v>4</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="27">
         <v>3.5</v>
       </c>
-      <c r="V8" s="29">
-        <v>0</v>
+      <c r="V8" s="27">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="28">
+        <v>100</v>
+      </c>
+      <c r="D9" s="27">
         <f>Actividades!C5</f>
-        <v>3.8630952380952381</v>
-      </c>
-      <c r="E9" s="28">
+        <v>4.9047619047619051</v>
+      </c>
+      <c r="E9" s="27">
         <f>Actividades!D5</f>
-        <v>4.4880952380952381</v>
-      </c>
-      <c r="F9" s="28">
+        <v>4.8452380952380949</v>
+      </c>
+      <c r="F9" s="27">
         <f>Actividades!E5</f>
-        <v>2.4838435374149661</v>
-      </c>
-      <c r="G9" s="28">
+        <v>4.6267006802721085</v>
+      </c>
+      <c r="G9" s="27">
         <f>Actividades!F5</f>
-        <v>4.2440476190476186</v>
-      </c>
-      <c r="H9" s="28">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H9" s="27">
         <f>Actividades!G5</f>
         <v>2.7253401360544216</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <f>Actividades!H5</f>
-        <v>4.0059523809523814</v>
-      </c>
-      <c r="J9" s="28">
+        <v>4.8392857142857144</v>
+      </c>
+      <c r="J9" s="27">
         <f>Actividades!I5</f>
-        <v>3.1420068027210881</v>
-      </c>
-      <c r="K9" s="28">
+        <v>4.0943877551020407</v>
+      </c>
+      <c r="K9" s="27">
         <f>Actividades!J5</f>
-        <v>3.7431972789115648</v>
-      </c>
-      <c r="L9" s="28">
+        <v>4.2023809523809526</v>
+      </c>
+      <c r="L9" s="27">
         <f>Actividades!K5</f>
-        <v>4.0051020408163263</v>
-      </c>
-      <c r="M9" s="28">
+        <v>4.7193877551020407</v>
+      </c>
+      <c r="M9" s="27">
         <f>Actividades!L5</f>
-        <v>1.5195578231292519</v>
-      </c>
-      <c r="N9" s="28">
+        <v>2.5909863945578233</v>
+      </c>
+      <c r="N9" s="27">
         <f>Actividades!M5</f>
-        <v>4.0943877551020407</v>
-      </c>
-      <c r="O9" s="28">
+        <v>4.8086734693877551</v>
+      </c>
+      <c r="O9" s="27">
         <f>Actividades!N5</f>
-        <v>3.8035714285714284</v>
-      </c>
-      <c r="P9" s="28">
+        <v>4.6071428571428568</v>
+      </c>
+      <c r="P9" s="27">
         <f>Actividades!O5</f>
-        <v>2.7848639455782309</v>
-      </c>
-      <c r="Q9" s="28">
+        <v>4.4515306122448974</v>
+      </c>
+      <c r="Q9" s="27">
         <f>Actividades!P5</f>
-        <v>0.625</v>
-      </c>
-      <c r="R9" s="28">
+        <v>1.7756802721088436</v>
+      </c>
+      <c r="R9" s="27">
         <f>Actividades!Q5</f>
-        <v>3.0824829931972784</v>
-      </c>
-      <c r="S9" s="28">
+        <v>4.4515306122448974</v>
+      </c>
+      <c r="S9" s="27">
         <f>Actividades!R5</f>
-        <v>2.9277210884353742</v>
-      </c>
-      <c r="T9" s="28">
+        <v>3.8801020408163267</v>
+      </c>
+      <c r="T9" s="27">
         <f>Actividades!S5</f>
-        <v>2.8059523809523812</v>
-      </c>
-      <c r="U9" s="28">
+        <v>4.7107142857142863</v>
+      </c>
+      <c r="U9" s="27">
         <f>Actividades!T5</f>
-        <v>3.3869047619047623</v>
-      </c>
-      <c r="V9" s="28">
+        <v>4.6726190476190483</v>
+      </c>
+      <c r="V9" s="27">
         <f>Actividades!U5</f>
-        <v>0.78401360544217691</v>
+        <v>4.2661564625850339</v>
       </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="28">
+        <v>101</v>
+      </c>
+      <c r="D10" s="27">
         <f>Laboratorios!C5</f>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="E10" s="28">
+        <v>5</v>
+      </c>
+      <c r="E10" s="27">
         <f>Laboratorios!D5</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <f>Laboratorios!E5</f>
         <v>3.0277777777777777</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <f>Laboratorios!F5</f>
         <v>3.8194444444444446</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <f>Laboratorios!G5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <f>Laboratorios!H5</f>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="J10" s="28">
+        <v>5</v>
+      </c>
+      <c r="J10" s="27">
         <f>Laboratorios!I5</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K10" s="28">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="K10" s="27">
         <f>Laboratorios!J5</f>
-        <v>2.0555555555555554</v>
-      </c>
-      <c r="L10" s="28">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="L10" s="27">
         <f>Laboratorios!K5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="27">
         <f>Laboratorios!L5</f>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="N10" s="28">
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="N10" s="27">
         <f>Laboratorios!M5</f>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="O10" s="28">
+        <v>5</v>
+      </c>
+      <c r="O10" s="27">
         <f>Laboratorios!N5</f>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="P10" s="28">
+        <v>5</v>
+      </c>
+      <c r="P10" s="27">
         <f>Laboratorios!O5</f>
-        <v>3.6111111111111112</v>
-      </c>
-      <c r="Q10" s="28">
+        <v>4.7222222222222223</v>
+      </c>
+      <c r="Q10" s="27">
         <f>Laboratorios!P5</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="R10" s="28">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="R10" s="27">
         <f>Laboratorios!Q5</f>
-        <v>3.2222222222222223</v>
-      </c>
-      <c r="S10" s="28">
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="S10" s="27">
         <f>Laboratorios!R5</f>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="T10" s="28">
+        <v>5</v>
+      </c>
+      <c r="T10" s="27">
         <f>Laboratorios!S5</f>
-        <v>3.6944444444444446</v>
-      </c>
-      <c r="U10" s="28">
+        <v>4.8055555555555554</v>
+      </c>
+      <c r="U10" s="27">
         <f>Laboratorios!T5</f>
-        <v>2.1944444444444446</v>
-      </c>
-      <c r="V10" s="28">
+        <v>3.8611111111111112</v>
+      </c>
+      <c r="V10" s="27">
         <f>Laboratorios!U5</f>
-        <v>1.1111111111111112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="28">
+        <v>102</v>
+      </c>
+      <c r="D11" s="27">
         <f>Examenes!C20</f>
         <v>4.3566666666666665</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <f>Examenes!D20</f>
         <v>3.7555555555555551</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <f>Examenes!E20</f>
         <v>4.5722222222222211</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <f>Examenes!F20</f>
         <v>5</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <f>Examenes!G20</f>
         <v>4.724444444444444</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <f>Examenes!H20</f>
         <v>4.5722222222222211</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="27">
         <f>Examenes!I20</f>
         <v>4.8233333333333324</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <f>Examenes!J20</f>
         <v>4.6111111111111107</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="27">
         <f>Examenes!K20</f>
         <v>2.3666666666666667</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="27">
         <f>Examenes!L20</f>
         <v>4.5422222222222217</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <f>Examenes!M20</f>
         <v>5</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="27">
         <f>Examenes!N20</f>
         <v>4.8833333333333329</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="27">
         <f>Examenes!O20</f>
         <v>2.5555555555555549</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="27">
         <f>Examenes!P20</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="28">
+        <v>1</v>
+      </c>
+      <c r="R11" s="27">
         <f>Examenes!Q20</f>
         <v>4.2722222222222213</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="27">
         <f>Examenes!R20</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="28">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="T11" s="27">
         <f>Examenes!S20</f>
         <v>2.2333333333333334</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="27">
         <f>Examenes!T20</f>
         <v>3.25</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="27">
         <f>Examenes!U20</f>
-        <v>0</v>
+        <v>4.4944444444444436</v>
       </c>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="29">
+        <v>103</v>
+      </c>
+      <c r="D12" s="27">
         <f>Examenes!C32</f>
         <v>3.75</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="27">
         <f>Examenes!D32</f>
         <v>3.45</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <f>Examenes!E32</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="29">
+        <v>4.75</v>
+      </c>
+      <c r="G12" s="27">
         <f>Examenes!F32</f>
         <v>3.45</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <f>Examenes!G32</f>
         <v>0</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="27">
         <f>Examenes!H32</f>
         <v>5</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="27">
         <f>Examenes!I32</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="K12" s="27">
         <f>Examenes!J32</f>
         <v>4.3250000000000002</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="27">
         <f>Examenes!K32</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="M12" s="27">
         <f>Examenes!L32</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="N12" s="27">
         <f>Examenes!M32</f>
         <v>3.45</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="27">
         <f>Examenes!N32</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="P12" s="27">
         <f>Examenes!O32</f>
         <v>3</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="27">
         <f>Examenes!P32</f>
         <v>2.25</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="27">
         <f>Examenes!Q32</f>
         <v>4.25</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="27">
         <f>Examenes!R32</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="29">
+        <v>3.4</v>
+      </c>
+      <c r="T12" s="27">
         <f>Examenes!S32</f>
         <v>1.5</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="27">
         <f>Examenes!T32</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="V12" s="27">
         <f>Examenes!U32</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <f>D8*0.25+D9*0.25+D10*0.25+D11*0.1+D12*0.15</f>
-        <v>4.2000515873015871</v>
-      </c>
-      <c r="E13" s="27">
+        <v>4.5993571428571425</v>
+      </c>
+      <c r="E13" s="26">
         <f t="shared" ref="E13:V13" si="0">E8*0.25+E9*0.25+E10*0.25+E11*0.1+E12*0.15</f>
-        <v>4.181746031746032</v>
-      </c>
-      <c r="F13" s="27">
+        <v>4.2710317460317464</v>
+      </c>
+      <c r="F13" s="26">
         <f t="shared" si="0"/>
-        <v>2.8351275510204084</v>
-      </c>
-      <c r="G13" s="27">
+        <v>4.0833418367346939</v>
+      </c>
+      <c r="G13" s="26">
         <f t="shared" si="0"/>
-        <v>4.2583730158730155</v>
-      </c>
-      <c r="H13" s="27">
+        <v>4.2806944444444444</v>
+      </c>
+      <c r="H13" s="26">
         <f t="shared" si="0"/>
         <v>1.8482239229024942</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>4.0559325396825399</v>
-      </c>
-      <c r="J13" s="27">
+        <v>4.5420436507936515</v>
+      </c>
+      <c r="J13" s="26">
         <f t="shared" si="0"/>
-        <v>2.101168367346939</v>
-      </c>
-      <c r="K13" s="27">
+        <v>3.9295413832199548</v>
+      </c>
+      <c r="K13" s="26">
         <f t="shared" si="0"/>
-        <v>3.3095493197278913</v>
-      </c>
-      <c r="L13" s="27">
+        <v>4.1187896825396821</v>
+      </c>
+      <c r="L13" s="26">
         <f t="shared" si="0"/>
-        <v>3.0712755102040816</v>
-      </c>
-      <c r="M13" s="27">
+        <v>3.8123469387755105</v>
+      </c>
+      <c r="M13" s="26">
         <f t="shared" si="0"/>
-        <v>2.1396672335600906</v>
-      </c>
-      <c r="N13" s="27">
+        <v>3.3866910430839003</v>
+      </c>
+      <c r="N13" s="26">
         <f t="shared" si="0"/>
-        <v>4.1383191609977326</v>
-      </c>
-      <c r="O13" s="27">
+        <v>4.5946683673469391</v>
+      </c>
+      <c r="O13" s="26">
         <f t="shared" si="0"/>
-        <v>3.3586706349206352</v>
-      </c>
-      <c r="P13" s="27">
+        <v>4.6776190476190473</v>
+      </c>
+      <c r="P13" s="26">
         <f t="shared" si="0"/>
-        <v>2.304549319727891</v>
-      </c>
-      <c r="Q13" s="27">
+        <v>4.2489937641723357</v>
+      </c>
+      <c r="Q13" s="26">
         <f t="shared" si="0"/>
-        <v>0.59097222222222223</v>
-      </c>
-      <c r="R13" s="27">
+        <v>2.0480867346938778</v>
+      </c>
+      <c r="R13" s="26">
         <f t="shared" si="0"/>
-        <v>3.8908985260770974</v>
-      </c>
-      <c r="S13" s="27">
+        <v>4.6498270975056695</v>
+      </c>
+      <c r="S13" s="26">
         <f t="shared" si="0"/>
-        <v>1.4263747165532878</v>
-      </c>
-      <c r="T13" s="27">
+        <v>3.7466921768707486</v>
+      </c>
+      <c r="T13" s="26">
         <f t="shared" si="0"/>
-        <v>3.0734325396825399</v>
-      </c>
-      <c r="U13" s="27">
+        <v>3.8274007936507934</v>
+      </c>
+      <c r="U13" s="26">
         <f t="shared" si="0"/>
-        <v>2.595337301587302</v>
-      </c>
-      <c r="V13" s="27">
+        <v>3.8959325396825397</v>
+      </c>
+      <c r="V13" s="26">
         <f t="shared" si="0"/>
-        <v>0.47378117913832202</v>
-      </c>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
+        <v>4.6909835600907028</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" t="s">
+        <v>14</v>
+      </c>
+      <c r="V22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25">
+        <v>3.75</v>
+      </c>
+      <c r="E25">
+        <v>3.45</v>
+      </c>
+      <c r="F25">
+        <v>4.75</v>
+      </c>
+      <c r="G25">
+        <v>3.45</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>3.75</v>
+      </c>
+      <c r="K25">
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="L25">
+        <v>3.75</v>
+      </c>
+      <c r="M25">
+        <v>3.75</v>
+      </c>
+      <c r="N25">
+        <v>3.45</v>
+      </c>
+      <c r="O25">
+        <v>3.75</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>2.25</v>
+      </c>
+      <c r="R25">
+        <v>4.25</v>
+      </c>
+      <c r="S25">
+        <v>3.4</v>
+      </c>
+      <c r="T25">
+        <v>1.5</v>
+      </c>
+      <c r="U25">
+        <v>3.75</v>
+      </c>
+      <c r="V25">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -10427,50 +11261,50 @@
   <sheetData>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724FB9B6-BC9F-BF45-9DB0-49A4903447E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1FC768-2068-5544-B041-CFCB172788B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1000" windowWidth="31860" windowHeight="21000" activeTab="2" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="6240" yWindow="1300" windowWidth="30240" windowHeight="17700" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="159">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -444,9 +444,6 @@
     <t>Hace falta mejorar la grafia inicial no se corresponde con lo esperado, las raices no son las esperadas, sin emarbgo el metodo es aplicado</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>Examen 2: 10%</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
   </si>
   <si>
     <t>Deducciones fisicas</t>
-  </si>
-  <si>
-    <t>Revisar todo el git, cuando lo vueva a subvir nuevamente</t>
   </si>
   <si>
     <t>Dominio del tema y programacion clara</t>
@@ -752,27 +746,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -789,6 +762,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B1:U319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,11 +1203,11 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>4.6267006802721085</v>
+        <v>4.7797619047619051</v>
       </c>
       <c r="F5" s="19">
         <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="0"/>
@@ -1245,7 +1239,7 @@
       </c>
       <c r="N5" s="19">
         <f t="shared" si="0"/>
-        <v>4.6071428571428568</v>
+        <v>4.9642857142857144</v>
       </c>
       <c r="O5" s="19">
         <f t="shared" si="0"/>
@@ -2064,7 +2058,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="10">
         <v>5</v>
@@ -2126,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="10">
         <v>5</v>
@@ -2188,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" s="10">
         <v>5</v>
@@ -2377,7 +2371,7 @@
       </c>
       <c r="E26" s="8">
         <f t="shared" si="3"/>
-        <v>2.8571428571428572</v>
+        <v>5</v>
       </c>
       <c r="F26" s="8">
         <f>SUM(F19:F25)/7</f>
@@ -3304,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" ref="D42:U42" si="6">(D40+D41)/2</f>
+        <f t="shared" ref="D42:R42" si="6">(D40+D41)/2</f>
         <v>5</v>
       </c>
       <c r="E42" s="8">
@@ -3528,7 +3522,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" ref="D46:U46" si="7">(D44+D45)/2</f>
+        <f t="shared" ref="D46:T46" si="7">(D44+D45)/2</f>
         <v>5</v>
       </c>
       <c r="E46" s="8">
@@ -3756,7 +3750,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" ref="D50:U50" si="8">(D48+D49)/2</f>
+        <f t="shared" ref="D50:T50" si="8">(D48+D49)/2</f>
         <v>5</v>
       </c>
       <c r="E50" s="8">
@@ -3982,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" ref="D54:U54" si="9">SUM(D52+D53)/2</f>
+        <f t="shared" ref="D54:S54" si="9">SUM(D52+D53)/2</f>
         <v>5</v>
       </c>
       <c r="E54" s="8">
@@ -4114,7 +4108,7 @@
         <v>5</v>
       </c>
       <c r="N56" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O56" s="10">
         <v>5</v>
@@ -4176,7 +4170,7 @@
         <v>5</v>
       </c>
       <c r="N57" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O57" s="8">
         <v>5</v>
@@ -4675,7 +4669,7 @@
         <v>5</v>
       </c>
       <c r="F67" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" s="10">
         <v>0</v>
@@ -4737,7 +4731,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G68" s="10">
         <v>5</v>
@@ -4865,7 +4859,7 @@
       </c>
       <c r="F70" s="8">
         <f t="shared" ref="F70" si="13">SUM(F67:F69)/3</f>
-        <v>1.6666666666666667</v>
+        <v>5</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" ref="G70" si="14">SUM(G67:G69)/3</f>
@@ -4966,7 +4960,7 @@
         <v>5</v>
       </c>
       <c r="F72" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>
@@ -5028,7 +5022,7 @@
         <v>5</v>
       </c>
       <c r="F73" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G73" s="10">
         <v>0</v>
@@ -5090,7 +5084,7 @@
         <v>5</v>
       </c>
       <c r="F74" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G74" s="10">
         <v>0</v>
@@ -5152,7 +5146,7 @@
         <v>5</v>
       </c>
       <c r="F75" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G75" s="10">
         <v>0</v>
@@ -5217,67 +5211,66 @@
         <v>5</v>
       </c>
       <c r="F76" s="8">
-        <f t="shared" ref="F76" si="31">SUM(F72:F75)/4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G76" s="8">
-        <f t="shared" ref="G76" si="32">SUM(G72:G75)/4</f>
+        <f t="shared" ref="G76" si="31">SUM(G72:G75)/4</f>
         <v>0</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" ref="H76" si="33">SUM(H72:H75)/4</f>
+        <f t="shared" ref="H76" si="32">SUM(H72:H75)/4</f>
         <v>5</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" ref="I76" si="34">SUM(I72:I75)/4</f>
+        <f t="shared" ref="I76" si="33">SUM(I72:I75)/4</f>
         <v>5</v>
       </c>
       <c r="J76" s="8">
-        <f t="shared" ref="J76" si="35">SUM(J72:J75)/4</f>
+        <f t="shared" ref="J76" si="34">SUM(J72:J75)/4</f>
         <v>3.25</v>
       </c>
       <c r="K76" s="8">
-        <f t="shared" ref="K76" si="36">SUM(K72:K75)/4</f>
+        <f t="shared" ref="K76" si="35">SUM(K72:K75)/4</f>
         <v>5</v>
       </c>
       <c r="L76" s="8">
-        <f t="shared" ref="L76" si="37">SUM(L72:L75)/4</f>
+        <f t="shared" ref="L76" si="36">SUM(L72:L75)/4</f>
         <v>5</v>
       </c>
       <c r="M76" s="8">
-        <f t="shared" ref="M76" si="38">SUM(M72:M75)/4</f>
+        <f t="shared" ref="M76" si="37">SUM(M72:M75)/4</f>
         <v>5</v>
       </c>
       <c r="N76" s="8">
-        <f t="shared" ref="N76" si="39">SUM(N72:N75)/4</f>
+        <f t="shared" ref="N76" si="38">SUM(N72:N75)/4</f>
         <v>5</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" ref="O76:P76" si="40">SUM(O72:O75)/4</f>
+        <f t="shared" ref="O76:P76" si="39">SUM(O72:O75)/4</f>
         <v>5</v>
       </c>
       <c r="P76" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1.5</v>
       </c>
       <c r="Q76" s="8">
-        <f t="shared" ref="Q76" si="41">SUM(Q72:Q75)/4</f>
+        <f t="shared" ref="Q76" si="40">SUM(Q72:Q75)/4</f>
         <v>5</v>
       </c>
       <c r="R76" s="8">
-        <f t="shared" ref="R76" si="42">SUM(R72:R75)/4</f>
+        <f t="shared" ref="R76" si="41">SUM(R72:R75)/4</f>
         <v>5</v>
       </c>
       <c r="S76" s="8">
-        <f t="shared" ref="S76" si="43">SUM(S72:S75)/4</f>
+        <f t="shared" ref="S76" si="42">SUM(S72:S75)/4</f>
         <v>5</v>
       </c>
       <c r="T76" s="8">
-        <f t="shared" ref="T76" si="44">SUM(T72:T75)/4</f>
+        <f t="shared" ref="T76" si="43">SUM(T72:T75)/4</f>
         <v>5</v>
       </c>
       <c r="U76" s="8">
-        <f t="shared" ref="U76" si="45">SUM(U72:U75)/4</f>
+        <f t="shared" ref="U76" si="44">SUM(U72:U75)/4</f>
         <v>3.75</v>
       </c>
     </row>
@@ -6019,8 +6012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6091,7 +6084,7 @@
       <c r="T4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="U4" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6109,11 +6102,11 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>3.0277777777777777</v>
+        <v>4.1388888888888893</v>
       </c>
       <c r="F5" s="19">
         <f t="shared" si="0"/>
-        <v>3.8194444444444446</v>
+        <v>5</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="0"/>
@@ -6832,7 +6825,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="17">
         <v>5</v>
@@ -6898,7 +6891,7 @@
       </c>
       <c r="F19" s="9">
         <f t="shared" si="1"/>
-        <v>4.375</v>
+        <v>5</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="1"/>
@@ -7413,7 +7406,7 @@
         <v>2.5</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:U28" si="3">SUM(E26:E27)/2</f>
+        <f t="shared" ref="E28:T28" si="3">SUM(E26:E27)/2</f>
         <v>4</v>
       </c>
       <c r="F28" s="8">
@@ -8633,10 +8626,10 @@
         <v>5</v>
       </c>
       <c r="E49" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F49" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G49" s="17">
         <v>0</v>
@@ -8695,11 +8688,10 @@
         <v>5</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="7"/>
@@ -8790,10 +8782,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G52" s="8">
         <v>0</v>
@@ -8877,11 +8869,11 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" si="8"/>
-        <v>3.0277777777777777</v>
+        <v>4.1388888888888893</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="8"/>
-        <v>3.8194444444444446</v>
+        <v>5</v>
       </c>
       <c r="G54" s="5">
         <f t="shared" si="8"/>
@@ -8953,7 +8945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
   <dimension ref="A5:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="94" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -9013,7 +9005,7 @@
       <c r="Q5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="S5" s="13" t="s">
@@ -9022,15 +9014,15 @@
       <c r="T5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -9051,8 +9043,8 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -9117,7 +9109,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="17" t="s">
         <v>106</v>
       </c>
@@ -9180,7 +9172,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="17" t="s">
         <v>107</v>
       </c>
@@ -9243,7 +9235,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="17" t="s">
         <v>108</v>
       </c>
@@ -9306,7 +9298,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>120</v>
       </c>
@@ -9388,7 +9380,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="17" t="s">
         <v>109</v>
       </c>
@@ -9531,7 +9523,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="36" t="s">
         <v>110</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -9596,7 +9588,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="25" t="s">
         <v>112</v>
       </c>
@@ -9659,7 +9651,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="25" t="s">
         <v>113</v>
       </c>
@@ -9722,7 +9714,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="25" t="s">
         <v>114</v>
       </c>
@@ -9785,7 +9777,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="17" t="s">
         <v>115</v>
       </c>
@@ -9930,10 +9922,10 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="19">
         <f>C13*0.7+C19*0.3</f>
         <v>4.3566666666666665</v>
@@ -10133,10 +10125,10 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="34"/>
+      <c r="A27" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="42"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -10158,11 +10150,11 @@
       <c r="U27" s="5"/>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="36" t="s">
         <v>104</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="17">
         <v>5</v>
@@ -10223,9 +10215,9 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="35" t="s">
-        <v>137</v>
+      <c r="A29" s="37"/>
+      <c r="B29" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="C29" s="17">
         <v>5</v>
@@ -10286,9 +10278,9 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="17">
         <v>5</v>
@@ -10349,9 +10341,9 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="17">
         <v>0</v>
@@ -10412,150 +10404,150 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="32">
         <f>C28*0.3+C29*0.2+C30*0.25+C31*0.25</f>
         <v>3.75</v>
       </c>
-      <c r="D32" s="39">
-        <f t="shared" ref="D32:S32" si="12">D28*0.3+D29*0.2+D30*0.25+D31*0.25</f>
+      <c r="D32" s="32">
+        <f t="shared" ref="D32:F32" si="12">D28*0.3+D29*0.2+D30*0.25+D31*0.25</f>
         <v>3.45</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="32">
         <f t="shared" si="12"/>
         <v>4.75</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="32">
         <f t="shared" si="12"/>
         <v>3.45</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="32">
         <f t="shared" ref="G32" si="13">G28*0.3+G29*0.2+G30*0.25+G31*0.25</f>
         <v>0</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="32">
         <f t="shared" ref="H32" si="14">H28*0.3+H29*0.2+H30*0.25+H31*0.25</f>
         <v>5</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="32">
         <f t="shared" ref="I32" si="15">I28*0.3+I29*0.2+I30*0.25+I31*0.25</f>
         <v>3.75</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="32">
         <f t="shared" ref="J32" si="16">J28*0.3+J29*0.2+J30*0.25+J31*0.25</f>
         <v>4.3250000000000002</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="32">
         <f t="shared" ref="K32" si="17">K28*0.3+K29*0.2+K30*0.25+K31*0.25</f>
         <v>3.75</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="32">
         <f t="shared" ref="L32" si="18">L28*0.3+L29*0.2+L30*0.25+L31*0.25</f>
         <v>3.75</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="32">
         <f t="shared" ref="M32" si="19">M28*0.3+M29*0.2+M30*0.25+M31*0.25</f>
         <v>3.45</v>
       </c>
-      <c r="N32" s="39">
+      <c r="N32" s="32">
         <f t="shared" ref="N32" si="20">N28*0.3+N29*0.2+N30*0.25+N31*0.25</f>
         <v>3.75</v>
       </c>
-      <c r="O32" s="39">
+      <c r="O32" s="32">
         <f t="shared" ref="O32" si="21">O28*0.3+O29*0.2+O30*0.25+O31*0.25</f>
         <v>3</v>
       </c>
-      <c r="P32" s="39">
+      <c r="P32" s="32">
         <f t="shared" ref="P32" si="22">P28*0.3+P29*0.2+P30*0.25+P31*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Q32" s="39">
+      <c r="Q32" s="32">
         <f t="shared" ref="Q32" si="23">Q28*0.3+Q29*0.2+Q30*0.25+Q31*0.25</f>
         <v>4.25</v>
       </c>
-      <c r="R32" s="39">
+      <c r="R32" s="32">
         <f t="shared" ref="R32" si="24">R28*0.3+R29*0.2+R30*0.25+R31*0.25</f>
         <v>3.4</v>
       </c>
-      <c r="S32" s="39">
+      <c r="S32" s="32">
         <f t="shared" ref="S32" si="25">S28*0.3+S29*0.2+S30*0.25+S31*0.25</f>
         <v>1.5</v>
       </c>
-      <c r="T32" s="39">
+      <c r="T32" s="32">
         <f t="shared" ref="T32" si="26">T28*0.3+T29*0.2+T30*0.25+T31*0.25</f>
         <v>3.75</v>
       </c>
-      <c r="U32" s="39">
+      <c r="U32" s="32">
         <f t="shared" ref="U32" si="27">U28*0.3+U29*0.2+U30*0.25+U31*0.25</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="356" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="C33" s="38" t="s">
+      <c r="A33" s="38"/>
+      <c r="C33" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="E33" s="29"/>
+      <c r="F33" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="37" t="s">
+      <c r="I33" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H33" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="37" t="s">
+      <c r="N33" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="P33" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="K33" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="L33" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="M33" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="N33" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="O33" s="38" t="s">
+      <c r="Q33" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="P33" s="38" t="s">
+      <c r="R33" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="S33" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Q33" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="R33" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="S33" s="38" t="s">
+      <c r="T33" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="T33" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="U33" s="38" t="s">
-        <v>146</v>
+      <c r="U33" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
     </row>
     <row r="35" spans="1:21" ht="121" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
@@ -10572,10 +10564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
-  <dimension ref="C6:V25"/>
+  <dimension ref="C6:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:V26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10585,7 +10577,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="G6" s="40"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
@@ -10723,11 +10715,11 @@
       </c>
       <c r="F9" s="27">
         <f>Actividades!E5</f>
-        <v>4.6267006802721085</v>
+        <v>4.7797619047619051</v>
       </c>
       <c r="G9" s="27">
         <f>Actividades!F5</f>
-        <v>4.333333333333333</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="H9" s="27">
         <f>Actividades!G5</f>
@@ -10759,7 +10751,7 @@
       </c>
       <c r="O9" s="27">
         <f>Actividades!N5</f>
-        <v>4.6071428571428568</v>
+        <v>4.9642857142857144</v>
       </c>
       <c r="P9" s="27">
         <f>Actividades!O5</f>
@@ -10804,11 +10796,11 @@
       </c>
       <c r="F10" s="27">
         <f>Laboratorios!E5</f>
-        <v>3.0277777777777777</v>
+        <v>4.1388888888888893</v>
       </c>
       <c r="G10" s="27">
         <f>Laboratorios!F5</f>
-        <v>3.8194444444444446</v>
+        <v>5</v>
       </c>
       <c r="H10" s="27">
         <f>Laboratorios!G5</f>
@@ -11047,11 +11039,11 @@
       </c>
       <c r="F13" s="26">
         <f t="shared" si="0"/>
-        <v>4.0833418367346939</v>
+        <v>4.3993849206349207</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="0"/>
-        <v>4.2806944444444444</v>
+        <v>4.7246428571428574</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="0"/>
@@ -11083,7 +11075,7 @@
       </c>
       <c r="O13" s="26">
         <f t="shared" si="0"/>
-        <v>4.6776190476190473</v>
+        <v>4.7669047619047618</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="0"/>
@@ -11114,135 +11106,8 @@
         <v>4.6909835600907028</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
-      <c r="E17" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" t="s">
-        <v>18</v>
-      </c>
-      <c r="T22" t="s">
-        <v>13</v>
-      </c>
-      <c r="U22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25">
-        <v>3.75</v>
-      </c>
-      <c r="E25">
-        <v>3.45</v>
-      </c>
-      <c r="F25">
-        <v>4.75</v>
-      </c>
-      <c r="G25">
-        <v>3.45</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>3.75</v>
-      </c>
-      <c r="K25">
-        <v>4.3250000000000002</v>
-      </c>
-      <c r="L25">
-        <v>3.75</v>
-      </c>
-      <c r="M25">
-        <v>3.75</v>
-      </c>
-      <c r="N25">
-        <v>3.45</v>
-      </c>
-      <c r="O25">
-        <v>3.75</v>
-      </c>
-      <c r="P25">
-        <v>3</v>
-      </c>
-      <c r="Q25">
-        <v>2.25</v>
-      </c>
-      <c r="R25">
-        <v>4.25</v>
-      </c>
-      <c r="S25">
-        <v>3.4</v>
-      </c>
-      <c r="T25">
-        <v>1.5</v>
-      </c>
-      <c r="U25">
-        <v>3.75</v>
-      </c>
-      <c r="V25">
-        <v>4.5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11261,50 +11126,50 @@
   <sheetData>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1FC768-2068-5544-B041-CFCB172788B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0003BA6F-CFEA-814D-9D1D-D173B5E97F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1300" windowWidth="30240" windowHeight="17700" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="2580" yWindow="2840" windowWidth="25280" windowHeight="16080" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B1:U319"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="S5" s="19">
         <f t="shared" si="0"/>
-        <v>4.7107142857142863</v>
+        <v>4.7821428571428575</v>
       </c>
       <c r="T5" s="19">
         <f t="shared" si="0"/>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T16" s="10">
         <v>4</v>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="S17" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="2"/>
@@ -6012,7 +6012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -10566,7 +10566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
   <dimension ref="C6:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="159" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="159" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="T9" s="27">
         <f>Actividades!S5</f>
-        <v>4.7107142857142863</v>
+        <v>4.7821428571428575</v>
       </c>
       <c r="U9" s="27">
         <f>Actividades!T5</f>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="T13" s="26">
         <f t="shared" si="0"/>
-        <v>3.8274007936507934</v>
+        <v>3.8452579365079367</v>
       </c>
       <c r="U13" s="26">
         <f t="shared" si="0"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0003BA6F-CFEA-814D-9D1D-D173B5E97F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B734C6-8940-E04C-A81A-A52B4C89A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2840" windowWidth="25280" windowHeight="16080" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="2120" yWindow="840" windowWidth="25340" windowHeight="17320" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -762,6 +768,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1099,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B1:U319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,7 +1254,7 @@
       </c>
       <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>1.7756802721088436</v>
+        <v>2.4899659863945578</v>
       </c>
       <c r="Q5" s="19">
         <f t="shared" si="0"/>
@@ -3495,7 +3502,7 @@
         <v>5</v>
       </c>
       <c r="P45" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q45" s="10">
         <v>5</v>
@@ -3571,7 +3578,7 @@
       </c>
       <c r="P46" s="8">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q46" s="8">
         <f t="shared" si="7"/>
@@ -3949,7 +3956,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q53" s="10">
         <v>5</v>
@@ -4025,7 +4032,7 @@
       </c>
       <c r="P54" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q54" s="8">
         <f t="shared" si="9"/>
@@ -4324,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q60" s="8">
         <v>0</v>
@@ -6012,8 +6019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52C2B02-CBBB-1E45-B691-0F2D4E14FFA9}">
   <dimension ref="B3:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6146,7 +6153,7 @@
       </c>
       <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="Q5" s="19">
         <f t="shared" si="0"/>
@@ -8018,7 +8025,7 @@
         <v>5</v>
       </c>
       <c r="P38" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q38" s="17">
         <v>4</v>
@@ -8217,7 +8224,7 @@
       </c>
       <c r="P41" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="8">
         <f t="shared" si="5"/>
@@ -8913,7 +8920,7 @@
       </c>
       <c r="P54" s="5">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="Q54" s="5">
         <f t="shared" si="8"/>
@@ -9019,10 +9026,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -9044,7 +9051,7 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -9109,7 +9116,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
         <v>106</v>
       </c>
@@ -9172,7 +9179,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="17" t="s">
         <v>107</v>
       </c>
@@ -9235,7 +9242,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="17" t="s">
         <v>108</v>
       </c>
@@ -9298,7 +9305,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>120</v>
       </c>
@@ -9380,7 +9387,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="17" t="s">
         <v>109</v>
       </c>
@@ -9523,7 +9530,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -9588,7 +9595,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="25" t="s">
         <v>112</v>
       </c>
@@ -9651,7 +9658,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="25" t="s">
         <v>113</v>
       </c>
@@ -9714,7 +9721,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="25" t="s">
         <v>114</v>
       </c>
@@ -9777,7 +9784,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="17" t="s">
         <v>115</v>
       </c>
@@ -9922,10 +9929,10 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="19">
         <f>C13*0.7+C19*0.3</f>
         <v>4.3566666666666665</v>
@@ -10125,10 +10132,10 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -10150,7 +10157,7 @@
       <c r="U27" s="5"/>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="37" t="s">
         <v>104</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -10215,7 +10222,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="28" t="s">
         <v>136</v>
       </c>
@@ -10278,7 +10285,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
         <v>137</v>
       </c>
@@ -10341,7 +10348,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="17" t="s">
         <v>138</v>
       </c>
@@ -10404,7 +10411,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="20" t="s">
         <v>116</v>
       </c>
@@ -10486,7 +10493,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="356" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
+      <c r="A33" s="39"/>
       <c r="C33" s="31" t="s">
         <v>139</v>
       </c>
@@ -10564,10 +10571,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
-  <dimension ref="C6:V17"/>
+  <dimension ref="C6:V13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10759,7 +10766,7 @@
       </c>
       <c r="Q9" s="27">
         <f>Actividades!P5</f>
-        <v>1.7756802721088436</v>
+        <v>2.4899659863945578</v>
       </c>
       <c r="R9" s="27">
         <f>Actividades!Q5</f>
@@ -10786,79 +10793,79 @@
       <c r="C10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="36">
         <f>Laboratorios!C5</f>
         <v>5</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="36">
         <f>Laboratorios!D5</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="36">
         <f>Laboratorios!E5</f>
         <v>4.1388888888888893</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="36">
         <f>Laboratorios!F5</f>
         <v>5</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="36">
         <f>Laboratorios!G5</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="36">
         <f>Laboratorios!H5</f>
         <v>5</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="36">
         <f>Laboratorios!I5</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="36">
         <f>Laboratorios!J5</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="36">
         <f>Laboratorios!K5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="36">
         <f>Laboratorios!L5</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="36">
         <f>Laboratorios!M5</f>
         <v>5</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="36">
         <f>Laboratorios!N5</f>
         <v>5</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="36">
         <f>Laboratorios!O5</f>
         <v>4.7222222222222223</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="36">
         <f>Laboratorios!P5</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="R10" s="27">
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="R10" s="36">
         <f>Laboratorios!Q5</f>
         <v>4.8888888888888893</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="36">
         <f>Laboratorios!R5</f>
         <v>5</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="36">
         <f>Laboratorios!S5</f>
         <v>4.8055555555555554</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="36">
         <f>Laboratorios!T5</f>
         <v>3.8611111111111112</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="36">
         <f>Laboratorios!U5</f>
         <v>5</v>
       </c>
@@ -11083,7 +11090,7 @@
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="0"/>
-        <v>2.0480867346938778</v>
+        <v>2.2544359410430839</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="0"/>
@@ -11105,9 +11112,6 @@
         <f t="shared" si="0"/>
         <v>4.6909835600907028</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11119,7 +11123,7 @@
   <dimension ref="B5:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B734C6-8940-E04C-A81A-A52B4C89A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FBEBD1-5D88-A340-9FD7-0F0D52B11C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="840" windowWidth="25340" windowHeight="17320" activeTab="3" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="500" yWindow="1080" windowWidth="36000" windowHeight="21100" activeTab="4" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
     <sheet name="Laboratorios" sheetId="2" r:id="rId2"/>
     <sheet name="Examenes" sheetId="3" r:id="rId3"/>
     <sheet name="TotalCurso" sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
+    <sheet name="Habilitacion" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="161">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -489,34 +489,40 @@
     <t>El metodo de newton no converge al valor esperado</t>
   </si>
   <si>
-    <t xml:space="preserve">Osorno </t>
-  </si>
-  <si>
-    <t>Campo en el eje de simetria de un solenoide</t>
-  </si>
-  <si>
-    <t>Deducciones fisicas</t>
-  </si>
-  <si>
-    <t>Dominio del tema y programacion clara</t>
-  </si>
-  <si>
-    <t>Teener pressente el manejo de graficas y unidades</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>Transformadoas de fourier</t>
-  </si>
-  <si>
-    <t>Pelota rotando</t>
-  </si>
-  <si>
-    <t>Funciones de onda</t>
-  </si>
-  <si>
-    <t>Bocanegra</t>
+    <t>MagnetizacionRedicioda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valida su respuesta Punto Fijo </t>
+  </si>
+  <si>
+    <t>Magnetizacion como funciond ela temperatura</t>
+  </si>
+  <si>
+    <t>Interpolacion de lagrange  y cubic spline</t>
+  </si>
+  <si>
+    <t>Punto 1</t>
+  </si>
+  <si>
+    <t>Punto 2</t>
+  </si>
+  <si>
+    <t>Punto 3</t>
+  </si>
+  <si>
+    <t>Integral eliptica(1.666)</t>
+  </si>
+  <si>
+    <t>SegundoPunto (1.666)</t>
+  </si>
+  <si>
+    <t>Ecuacion Diferencial (1.666)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Hablitacion </t>
+  </si>
+  <si>
+    <t>Punto 4</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -769,6 +781,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -790,6 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA9FAED-01C3-4647-9FDE-F7ACAFF19281}">
   <dimension ref="B1:U319"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1271,7 @@
       </c>
       <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>2.4899659863945578</v>
+        <v>2.8767006802721089</v>
       </c>
       <c r="Q5" s="19">
         <f t="shared" si="0"/>
@@ -2159,8 +2176,8 @@
       <c r="O22" s="10">
         <v>5</v>
       </c>
-      <c r="P22" s="10">
-        <v>0</v>
+      <c r="P22" s="37">
+        <v>5</v>
       </c>
       <c r="Q22" s="10">
         <v>5</v>
@@ -2422,7 +2439,7 @@
       </c>
       <c r="P26" s="8">
         <f t="shared" si="3"/>
-        <v>2.1428571428571428</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="3"/>
@@ -2512,8 +2529,8 @@
       <c r="O28" s="10">
         <v>5</v>
       </c>
-      <c r="P28" s="10">
-        <v>3</v>
+      <c r="P28" s="37">
+        <v>5</v>
       </c>
       <c r="Q28" s="10">
         <v>5</v>
@@ -2574,8 +2591,8 @@
       <c r="O29" s="10">
         <v>5</v>
       </c>
-      <c r="P29" s="10">
-        <v>3</v>
+      <c r="P29" s="37">
+        <v>5</v>
       </c>
       <c r="Q29" s="10">
         <v>5</v>
@@ -2636,8 +2653,8 @@
       <c r="O30" s="10">
         <v>5</v>
       </c>
-      <c r="P30" s="10">
-        <v>3</v>
+      <c r="P30" s="37">
+        <v>5</v>
       </c>
       <c r="Q30" s="10">
         <v>5</v>
@@ -2698,8 +2715,8 @@
       <c r="O31" s="10">
         <v>5</v>
       </c>
-      <c r="P31" s="10">
-        <v>0</v>
+      <c r="P31" s="37">
+        <v>5</v>
       </c>
       <c r="Q31" s="10">
         <v>5</v>
@@ -2837,7 +2854,7 @@
       </c>
       <c r="P33" s="8">
         <f t="shared" si="4"/>
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="4"/>
@@ -4705,8 +4722,8 @@
       <c r="O67" s="10">
         <v>5</v>
       </c>
-      <c r="P67" s="10">
-        <v>0</v>
+      <c r="P67" s="37">
+        <v>5</v>
       </c>
       <c r="Q67" s="10">
         <v>5</v>
@@ -4829,8 +4846,8 @@
       <c r="O69" s="10">
         <v>5</v>
       </c>
-      <c r="P69" s="10">
-        <v>0</v>
+      <c r="P69" s="37">
+        <v>2.5</v>
       </c>
       <c r="Q69" s="10">
         <v>5</v>
@@ -4906,7 +4923,7 @@
       </c>
       <c r="P70" s="8">
         <f t="shared" ref="P70" si="23">SUM(P67:P69)/3</f>
-        <v>1.6666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="Q70" s="8">
         <f t="shared" ref="Q70" si="24">SUM(Q67:Q69)/3</f>
@@ -6020,7 +6037,7 @@
   <dimension ref="B3:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6153,7 +6170,7 @@
       </c>
       <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>1.7777777777777777</v>
+        <v>2.4722222222222223</v>
       </c>
       <c r="Q5" s="19">
         <f t="shared" si="0"/>
@@ -6279,7 +6296,7 @@
         <v>5</v>
       </c>
       <c r="P8" s="5">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" s="5">
         <v>5</v>
@@ -6341,8 +6358,8 @@
       <c r="O9" s="9">
         <v>5</v>
       </c>
-      <c r="P9" s="9">
-        <v>3.5</v>
+      <c r="P9" s="38">
+        <v>4.5</v>
       </c>
       <c r="Q9" s="9">
         <v>5</v>
@@ -7319,8 +7336,8 @@
       <c r="O26" s="17">
         <v>5</v>
       </c>
-      <c r="P26" s="17">
-        <v>0</v>
+      <c r="P26" s="37">
+        <v>4</v>
       </c>
       <c r="Q26" s="17">
         <v>5</v>
@@ -7381,8 +7398,8 @@
       <c r="O27" s="17">
         <v>2</v>
       </c>
-      <c r="P27" s="17">
-        <v>0</v>
+      <c r="P27" s="37">
+        <v>4</v>
       </c>
       <c r="Q27" s="17">
         <v>5</v>
@@ -7458,7 +7475,7 @@
       </c>
       <c r="P28" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="3"/>
@@ -8438,8 +8455,8 @@
       <c r="O45" s="17">
         <v>3</v>
       </c>
-      <c r="P45" s="17">
-        <v>0</v>
+      <c r="P45" s="37">
+        <v>5</v>
       </c>
       <c r="Q45" s="17">
         <v>5</v>
@@ -8575,7 +8592,7 @@
       </c>
       <c r="P47" s="8">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" s="8">
         <f t="shared" si="6"/>
@@ -8920,7 +8937,7 @@
       </c>
       <c r="P54" s="5">
         <f t="shared" si="8"/>
-        <v>1.7777777777777777</v>
+        <v>2.4722222222222223</v>
       </c>
       <c r="Q54" s="5">
         <f t="shared" si="8"/>
@@ -8952,8 +8969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971CAC-F820-A440-AC93-0499F3F50750}">
   <dimension ref="A5:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="94" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9026,10 +9043,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -9051,7 +9068,7 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -9116,7 +9133,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="17" t="s">
         <v>106</v>
       </c>
@@ -9179,7 +9196,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="17" t="s">
         <v>107</v>
       </c>
@@ -9242,7 +9259,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="17" t="s">
         <v>108</v>
       </c>
@@ -9305,7 +9322,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="8" t="s">
         <v>120</v>
       </c>
@@ -9387,7 +9404,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="17" t="s">
         <v>109</v>
       </c>
@@ -9530,7 +9547,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="39" t="s">
         <v>110</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -9595,7 +9612,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="25" t="s">
         <v>112</v>
       </c>
@@ -9658,7 +9675,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="25" t="s">
         <v>113</v>
       </c>
@@ -9721,7 +9738,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="25" t="s">
         <v>114</v>
       </c>
@@ -9784,7 +9801,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="17" t="s">
         <v>115</v>
       </c>
@@ -9929,10 +9946,10 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="19">
         <f>C13*0.7+C19*0.3</f>
         <v>4.3566666666666665</v>
@@ -10132,10 +10149,10 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -10157,7 +10174,7 @@
       <c r="U27" s="5"/>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="39" t="s">
         <v>104</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -10222,7 +10239,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="28" t="s">
         <v>136</v>
       </c>
@@ -10285,7 +10302,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="17" t="s">
         <v>137</v>
       </c>
@@ -10348,7 +10365,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="17" t="s">
         <v>138</v>
       </c>
@@ -10411,7 +10428,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>116</v>
       </c>
@@ -10493,7 +10510,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="356" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
+      <c r="A33" s="41"/>
       <c r="C33" s="31" t="s">
         <v>139</v>
       </c>
@@ -10573,8 +10590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC6946-DEC0-1647-8596-4A9D70562225}">
   <dimension ref="C6:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10766,7 +10783,7 @@
       </c>
       <c r="Q9" s="27">
         <f>Actividades!P5</f>
-        <v>2.4899659863945578</v>
+        <v>2.8767006802721089</v>
       </c>
       <c r="R9" s="27">
         <f>Actividades!Q5</f>
@@ -10847,7 +10864,7 @@
       </c>
       <c r="Q10" s="36">
         <f>Laboratorios!P5</f>
-        <v>1.7777777777777777</v>
+        <v>2.4722222222222223</v>
       </c>
       <c r="R10" s="36">
         <f>Laboratorios!Q5</f>
@@ -11090,7 +11107,7 @@
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="0"/>
-        <v>2.2544359410430839</v>
+        <v>2.5247307256235825</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="0"/>
@@ -11120,60 +11137,156 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECA6935-B503-7144-B022-4AC064D2DABC}">
-  <dimension ref="B5:C16"/>
+  <dimension ref="B3:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="46">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <f>4*1.666/5</f>
+        <v>1.3328</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="46"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f>(C11+C12)*0.5*1.666/5</f>
+        <v>1.3328</v>
+      </c>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="46"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>154</v>
       </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f>((C17+C18+C19+C20)/4)*1.66/5</f>
+        <v>0.41499999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24">
+        <f>C8+C13+C21</f>
+        <v>3.0806</v>
       </c>
     </row>
   </sheetData>

--- a/NotasMetodosComputacionales.xlsx
+++ b/NotasMetodosComputacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuman/Documents/Docencia/Cursos/MetodosComputacionales/CursoMetodosComputacionales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FBEBD1-5D88-A340-9FD7-0F0D52B11C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59365BF8-5E87-9B46-AF50-E9859F31B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1080" windowWidth="36000" windowHeight="21100" activeTab="4" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" activeTab="4" xr2:uid="{4C24C582-DF27-D644-A3CC-42596945356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="164">
   <si>
     <t>Bocnegra_942</t>
   </si>
@@ -523,6 +523,15 @@
   </si>
   <si>
     <t>Punto 4</t>
+  </si>
+  <si>
+    <t>Hace falta realizar una buena inttegracion se recomienda emplear mertodos como odeint, recuerda que la integracion es numerica y no con sympy</t>
+  </si>
+  <si>
+    <t>Valido que implmente librerias para realizar la integral eliptica, son herramientas computacinoales, sin embargo los resutltados no son los esperados con la integral eliiptica, por eso la nota esta sobre 4.5</t>
+  </si>
+  <si>
+    <t>El metodo de punto fijo no esta bien, se recomeinda revisar lo relacionado con el metodo de punto fijo, recuerda que es la funcion menos la recta identidad, la interpolacion de lagrange no es la adecuada, spline si!</t>
   </si>
 </sst>
 </file>
@@ -11140,7 +11149,7 @@
   <dimension ref="B3:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11155,6 +11164,9 @@
       <c r="C3" s="46">
         <v>1666</v>
       </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -11163,6 +11175,9 @@
       <c r="C4">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -11204,13 +11219,16 @@
         <v>156</v>
       </c>
       <c r="C10" s="46"/>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -11218,13 +11236,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>(C11+C12)*0.5*1.666/5</f>
-        <v>1.3328</v>
+        <v>1.4994000000000001</v>
       </c>
       <c r="G13" s="46"/>
     </row>
@@ -11238,6 +11256,9 @@
         <v>158</v>
       </c>
       <c r="C16" s="46"/>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -11286,7 +11307,7 @@
       </c>
       <c r="C24">
         <f>C8+C13+C21</f>
-        <v>3.0806</v>
+        <v>3.2472000000000003</v>
       </c>
     </row>
   </sheetData>
